--- a/data/keyword_extraction_eval_result.xlsx
+++ b/data/keyword_extraction_eval_result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,137 +441,207 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>expected_result</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tokenized</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pos_tagged_spacy</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>lemmatized</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>pattern_webb</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pattern_raharjana</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>pattern_siahaan</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>pattern_johann</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>expected_result</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>new_pattern</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>true_pattern_webb</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>true_pattern_raharjana</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>true_pattern_siahaan</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>true_pattern_johann</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>true_new_pattern</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>false_pattern_webb</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>false_pattern_raharjana</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>false_pattern_siahaan</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>false_pattern_johann</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>false_new_pattern</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>unpredicted_pattern_webb</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>unpredicted_pattern_raharjana</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>unpredicted_pattern_siahaan</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>unpredicted_pattern_johann</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>unpredicted_new_pattern</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>The present invention relates to a method for automatically generating vocabulary problems by using a deep learning-based word meaning clarification model, a computer program thereof, and a server device thereof. According to the present invention, a deep learning-based word meaning clarification model is used to generate potential answers of high difficulty in vocabulary problems so as to provide an examinee or student who has been given the problems with the opportunity to deeply investigate and understand the meanings of the corresponding words. In addition, vocabulary problems are automatically generated using the deep learning-based word meaning clarification model merely by inputting target words, and thus the student can repeatedly receive problems about desired words, and a company that generates problems can also reduce the cost and time required to generate the problems.</t>
+          <t>the present invention relates to a method for automatically generating vocabulary problems by using a deep learning-based word meaning clarification model, a computer program thereof, and a server device thereof. according to the present invention, a deep learning-based word meaning clarification model is used to generate potential answers of high difficulty in vocabulary problems so as to provide an examinee or student who has been given the problems with the opportunity to deeply investigate and understand the meanings of the corresponding words. in addition, vocabulary problems are automatically generated using the deep learning-based word meaning clarification model merely by inputting target words, and thus the student can repeatedly receive problems about desired words, and a company that generates problems can also reduce the cost and time required to generate the problems.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[('give', 'problem'), ('correspond', 'word'), ('inputting', 'target'), ('desire', 'word'), ('generate', 'problem'), ('reduce', 'cost'), ('require', 'generate')]</t>
+          <t>[('generate', 'potential', 'answer', 'of', 'high', 'difficulty', 'in', 'vocabulary', 'problem'), ('generate', 'potential', 'answer'), ('generate', 'vocabulary', 'problem'), ('inputting', 'target', 'word'), ('automatically', 'generate', 'vocabulary', 'problem')]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[('give', 'problem', 'opportunity', 'deeply'), ('correspond', 'word'), ('inputting', 'target', 'word'), ('desire', 'word'), ('generate', 'problem', 'also'), ('reduce', 'cost', 'time'), ('require', 'generate', 'problem')]</t>
+          <t>[['present', 'invention', 'relates', 'method', 'automatically', 'generating', 'vocabulary', 'problems', 'using', 'deep', 'learning-based', 'word', 'meaning', 'clarification', 'model', 'computer', 'program', 'thereof', 'server', 'device', 'thereof'], ['according', 'present', 'invention', 'deep', 'learning-based', 'word', 'meaning', 'clarification', 'model', 'used', 'generate', 'potential', 'answers', 'high', 'difficulty', 'vocabulary', 'problems', 'provide', 'examinee', 'student', 'given', 'problems', 'opportunity', 'deeply', 'investigate', 'understand', 'meanings', 'corresponding', 'words'], ['addition', 'vocabulary', 'problems', 'automatically', 'generated', 'using', 'deep', 'learning-based', 'word', 'meaning', 'clarification', 'model', 'merely', 'inputting', 'target', 'words', 'thus', 'student', 'repeatedly', 'receive', 'problems', 'desired', 'words', 'company', 'generates', 'problems', 'also', 'reduce', 'cost', 'time', 'required', 'generate', 'problems']]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[('generate', 'vocabulary', 'problem'), ('accord', 'present', 'invention'), ('provide', 'examinee', 'student'), ('give', 'problem'), ('correspond', 'word'), ('inputting', 'target'), ('desire', 'word'), ('generate', 'problem'), ('reduce', 'cost'), ('require', 'generate')]</t>
+          <t>[[('present', 'JJ'), ('invention', 'NN'), ('relates', 'VBZ'), ('method', 'NN'), ('automatically', 'RB'), ('generating', 'VBG'), ('vocabulary', 'JJ'), ('problems', 'NNS'), ('using', 'VBG'), ('deep', 'JJ'), ('learning', 'NN'), ('-', 'HYPH'), ('based', 'VBN'), ('word', 'NN'), ('meaning', 'VBG'), ('clarification', 'NN'), ('model', 'NN'), ('computer', 'NN'), ('program', 'NN'), ('thereof', 'RB'), ('server', 'NN'), ('device', 'NN'), ('thereof', 'RB')], [('according', 'VBG'), ('present', 'JJ'), ('invention', 'NN'), ('deep', 'JJ'), ('learning', 'NN'), ('-', 'HYPH'), ('based', 'VBN'), ('word', 'NN'), ('meaning', 'VBG'), ('clarification', 'NN'), ('model', 'NN'), ('used', 'VBN'), ('generate', 'VBP'), ('potential', 'JJ'), ('answers', 'NNS'), ('high', 'JJ'), ('difficulty', 'NN'), ('vocabulary', 'JJ'), ('problems', 'NNS'), ('provide', 'VBP'), ('examinee', 'NN'), ('student', 'NN'), ('given', 'VBN'), ('problems', 'NNS'), ('opportunity', 'NN'), ('deeply', 'RB'), ('investigate', 'VBP'), ('understand', 'NN'), ('meanings', 'NNS'), ('corresponding', 'JJ'), ('words', 'NNS')], [('addition', 'NN'), ('vocabulary', 'JJ'), ('problems', 'NNS'), ('automatically', 'RB'), ('generated', 'VBD'), ('using', 'VBG'), ('deep', 'JJ'), ('learning', 'NN'), ('-', 'HYPH'), ('based', 'VBN'), ('word', 'NN'), ('meaning', 'VBG'), ('clarification', 'NN'), ('model', 'NN'), ('merely', 'RB'), ('inputting', 'VBG'), ('target', 'NN'), ('words', 'NNS'), ('thus', 'RB'), ('student', 'NN'), ('repeatedly', 'RB'), ('receive', 'VBP'), ('problems', 'NNS'), ('desired', 'VBN'), ('words', 'NNS'), ('company', 'NN'), ('generates', 'VBZ'), ('problems', 'NNS'), ('also', 'RB'), ('reduce', 'VBP'), ('cost', 'NN'), ('time', 'NN'), ('required', 'VBN'), ('generate', 'NN'), ('problems', 'NNS')]]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('automatically', 'generate', 'vocabulary', 'problem'), ('generate', 'potential', 'answer'), ('automatically', 'generate', 'vocabulary', 'problem'), ('generate', 'potential', 'answer', 'of', 'high', 'difficulty', 'in', 'vocabulary', 'problem'), ('inputting', 'target', 'word'), ('generate', 'vocabulary', 'problem'), ('generate', 'potential', 'answer', 'of', 'high', 'difficulty', 'in', 'vocabulary', 'problem'), ('inputting', 'target', 'word'), ('automatically', 'generate', 'vocabulary', 'problem'), ('generate', 'potential', 'answer'), ('automatically', 'generate', 'vocabulary', 'problem'), ('generate', 'potential', 'answer'), ('inputting', 'target', 'word')]</t>
+          <t>[[('present', 'JJ'), ('invention', 'NN'), ('relate', 'VBZ'), ('method', 'NN'), ('automatically', 'RB'), ('generate', 'VBG'), ('vocabulary', 'JJ'), ('problem', 'NNS'), ('use', 'VBG'), ('deep', 'JJ'), ('learning', 'NN'), ('-', 'HYPH'), ('base', 'VBN'), ('word', 'NN'), ('mean', 'VBG'), ('clarification', 'NN'), ('model', 'NN'), ('computer', 'NN'), ('program', 'NN'), ('thereof', 'RB'), ('server', 'NN'), ('device', 'NN'), ('thereof', 'RB')], [('accord', 'VBG'), ('present', 'JJ'), ('invention', 'NN'), ('deep', 'JJ'), ('learning', 'NN'), ('-', 'HYPH'), ('base', 'VBN'), ('word', 'NN'), ('mean', 'VBG'), ('clarification', 'NN'), ('model', 'NN'), ('use', 'VBN'), ('generate', 'VBP'), ('potential', 'JJ'), ('answer', 'NNS'), ('high', 'JJ'), ('difficulty', 'NN'), ('vocabulary', 'JJ'), ('problem', 'NNS'), ('provide', 'VBP'), ('examinee', 'NN'), ('student', 'NN'), ('give', 'VBN'), ('problem', 'NNS'), ('opportunity', 'NN'), ('deeply', 'RB'), ('investigate', 'VBP'), ('understand', 'NN'), ('meaning', 'NNS'), ('corresponding', 'JJ'), ('word', 'NNS')], [('addition', 'NN'), ('vocabulary', 'JJ'), ('problem', 'NNS'), ('automatically', 'RB'), ('generate', 'VBD'), ('use', 'VBG'), ('deep', 'JJ'), ('learning', 'NN'), ('-', 'HYPH'), ('base', 'VBN'), ('word', 'NN'), ('mean', 'VBG'), ('clarification', 'NN'), ('model', 'NN'), ('merely', 'RB'), ('inputting', 'VBG'), ('target', 'NN'), ('word', 'NNS'), ('thus', 'RB'), ('student', 'NN'), ('repeatedly', 'RB'), ('receive', 'VBP'), ('problem', 'NNS'), ('desire', 'VBN'), ('word', 'NNS'), ('company', 'NN'), ('generate', 'VBZ'), ('problem', 'NNS'), ('also', 'RB'), ('reduce', 'VBP'), ('cost', 'NN'), ('time', 'NN'), ('require', 'VBN'), ('generate', 'NN'), ('problem', 'NNS')]]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('give', 'problem'), ('correspond', 'word'), ('inputting', 'target'), ('desire', 'word'), ('generate', 'problem'), ('require', 'generate')]</t>
+          <t>[('base', 'word'), ('mean', 'clarification'), ('base', 'word'), ('mean', 'clarification'), ('provide', 'examinee'), ('give', 'problem'), ('investigate', 'understand'), ('base', 'word'), ('mean', 'clarification'), ('inputting', 'target'), ('receive', 'problem'), ('desire', 'word'), ('generate', 'problem'), ('reduce', 'cost'), ('require', 'generate')]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[('give', 'problem', 'opportunity', 'deeply'), ('correspond', 'word'), ('inputting', 'target', 'word'), ('desire', 'word'), ('generate', 'problem', 'also'), ('require', 'generate', 'problem')]</t>
+          <t>[('base', 'word'), ('base', 'word'), ('provide', 'examinee', 'student'), ('give', 'problem', 'opportunity', 'deeply'), ('investigate', 'understand', 'meaning'), ('base', 'word'), ('inputting', 'target', 'word', 'thus', 'student', 'repeatedly'), ('receive', 'problem'), ('desire', 'word', 'company'), ('generate', 'problem', 'also'), ('reduce', 'cost', 'time'), ('require', 'generate', 'problem')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[('generate', 'vocabulary', 'problem'), ('give', 'problem'), ('correspond', 'word'), ('inputting', 'target'), ('desire', 'word'), ('generate', 'problem'), ('require', 'generate')]</t>
+          <t>[('generate', 'vocabulary', 'problem'), ('use', 'deep', 'learning'), ('base', 'word'), ('mean', 'clarification'), ('base', 'word'), ('mean', 'clarification'), ('generate', 'potential', 'answer'), ('provide', 'examinee'), ('give', 'problem'), ('investigate', 'understand'), ('use', 'deep', 'learning'), ('base', 'word'), ('mean', 'clarification'), ('inputting', 'target'), ('receive', 'problem'), ('desire', 'word'), ('generate', 'problem'), ('reduce', 'cost'), ('require', 'generate')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[('reduce', 'cost')]</t>
+          <t>[('generate', 'vocabulary', 'problem'), ('use', 'deep', 'learning'), ('base', 'word'), ('base', 'word'), ('use', 'generate', 'potential', 'answer'), ('provide', 'examinee', 'student'), ('give', 'problem', 'opportunity'), ('investigate', 'understand', 'meaning'), ('generate', 'use', 'deep', 'learning'), ('base', 'word'), ('inputting', 'target', 'word'), ('receive', 'problem'), ('desire', 'word', 'company'), ('generate', 'problem'), ('reduce', 'cost', 'time'), ('require', 'generate', 'problem')]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[('reduce', 'cost', 'time')]</t>
+          <t>[('base', 'word'), ('base', 'word'), ('give', 'problem'), ('base', 'word'), ('inputting', 'target'), ('receive', 'problem'), ('desire', 'word'), ('generate', 'problem'), ('require', 'generate')]</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[('accord', 'present', 'invention'), ('provide', 'examinee', 'student'), ('reduce', 'cost')]</t>
+          <t>[('base', 'word'), ('base', 'word'), ('give', 'problem', 'opportunity', 'deeply'), ('base', 'word'), ('inputting', 'target', 'word', 'thus', 'student', 'repeatedly'), ('receive', 'problem'), ('desire', 'word', 'company'), ('generate', 'problem', 'also'), ('require', 'generate', 'problem')]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('generate', 'vocabulary', 'problem'), ('base', 'word'), ('base', 'word'), ('generate', 'potential', 'answer'), ('give', 'problem'), ('base', 'word'), ('inputting', 'target'), ('receive', 'problem'), ('desire', 'word'), ('generate', 'problem'), ('require', 'generate')]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('generate', 'vocabulary', 'problem'), ('base', 'word'), ('base', 'word'), ('use', 'generate', 'potential', 'answer'), ('give', 'problem', 'opportunity'), ('generate', 'use', 'deep', 'learning'), ('base', 'word'), ('inputting', 'target', 'word'), ('receive', 'problem'), ('desire', 'word', 'company'), ('generate', 'problem'), ('require', 'generate', 'problem')]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
+        <is>
+          <t>[('mean', 'clarification'), ('mean', 'clarification'), ('provide', 'examinee'), ('investigate', 'understand'), ('mean', 'clarification'), ('reduce', 'cost')]</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>[('provide', 'examinee', 'student'), ('investigate', 'understand', 'meaning'), ('reduce', 'cost', 'time')]</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>[('use', 'deep', 'learning'), ('mean', 'clarification'), ('mean', 'clarification'), ('provide', 'examinee'), ('investigate', 'understand'), ('use', 'deep', 'learning'), ('mean', 'clarification'), ('reduce', 'cost')]</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>[('use', 'deep', 'learning'), ('provide', 'examinee', 'student'), ('investigate', 'understand', 'meaning'), ('reduce', 'cost', 'time')]</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -580,70 +650,105 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>The present disclosure is directed to methods, computer program products, and computer systems of a multi-functional robotic platform including a robotic kitchen for calibration with either a joint state trajectory or in a coordinate system like a cartesian coordinate for mass installation of robotic kitchens, multi-mode operations of the robotic kitchen to provide different ways to prepare food dishes, and subsystems tailored to operate and interact with the various elements of a robotic kitchen, such as the robotic effectors, other subsystems, and containers, ingredients. Calibration verifications and minimanipulation library adaptation and adjustment of any serial model or different models provide scalability in the mass manufacturing of a robotic kitchen system, as well as methods as to how each manufactured robotic kitchen system meets the operational requirements. A robotic kitchen with multi-mode provides a robot mode, a collaboration mode and a user mode which a particular food dish can be prepared by the robot, a collaboration on sharing tasks between the robot and a user, or the robot serves as an aid for the user to prepare a food dish.</t>
+          <t>the present disclosure is directed to methods, computer program products, and computer systems of a multi-functional robotic platform including a robotic kitchen for calibration with either a joint state trajectory or in a coordinate system like a cartesian coordinate for mass installation of robotic kitchens, multi-mode operations of the robotic kitchen to provide different ways to prepare food dishes, and subsystems tailored to operate and interact with the various elements of a robotic kitchen, such as the robotic effectors, other subsystems, and containers, ingredients. calibration verifications and minimanipulation library adaptation and adjustment of any serial model or different models provide scalability in the mass manufacturing of a robotic kitchen system, as well as methods as to how each manufactured robotic kitchen system meets the operational requirements. a robotic kitchen with multi-mode provides a robot mode, a collaboration mode and a user mode which a particular food dish can be prepared by the robot, a collaboration on sharing tasks between the robot and a user, or the robot serves as an aid for the user to prepare a food dish.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[('direct', 'method'), ('prepare', 'food'), ('prepare', 'robot'), ('share', 'task'), ('robot', 'user'), ('aid', 'user')]</t>
+          <t>[('operate', 'and', 'interact', 'with', 'the', 'various', 'element', 'of', 'a', 'robotic', 'kitchen'), ('operate', 'and', 'interact', 'with', 'the', 'various', 'element'), ('share', 'task'), ('prepare', 'a', 'food', 'dish'), ('a', 'collaboration', 'on', 'share', 'task'), ('share', 'task', 'between', 'the', 'robot', 'and', 'a', 'user'), ('operate', 'and', 'interact', 'with', 'the', 'various', 'element', 'of', 'a', 'robotic'), ('provide', 'different', 'way', 'to', 'prepare', 'food', 'dish')]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[('direct', 'method'), ('prepare', 'food', 'dish'), ('prepare', 'robot'), ('share', 'task'), ('robot', 'user'), ('aid', 'user', 'prepare', 'food', 'dish')]</t>
+          <t>[['present', 'disclosure', 'directed', 'methods', 'computer', 'program', 'products', 'computer', 'systems', 'multi-functional', 'robotic', 'platform', 'including', 'robotic', 'kitchen', 'calibration', 'either', 'joint', 'state', 'trajectory', 'coordinate', 'system', 'like', 'cartesian', 'coordinate', 'mass', 'installation', 'robotic', 'kitchens', 'multi-mode', 'operations', 'robotic', 'kitchen', 'provide', 'different', 'ways', 'prepare', 'food', 'dishes', 'subsystems', 'tailored', 'operate', 'interact', 'various', 'elements', 'robotic', 'kitchen', 'robotic', 'effectors', 'subsystems', 'containers', 'ingredients'], ['calibration', 'verifications', 'minimanipulation', 'library', 'adaptation', 'adjustment', 'serial', 'model', 'different', 'models', 'provide', 'scalability', 'mass', 'manufacturing', 'robotic', 'kitchen', 'system', 'well', 'methods', 'manufactured', 'robotic', 'kitchen', 'system', 'meets', 'operational', 'requirements'], ['robotic', 'kitchen', 'multi-mode', 'provides', 'robot', 'mode', 'collaboration', 'mode', 'user', 'mode', 'particular', 'food', 'dish', 'prepared', 'robot', 'collaboration', 'sharing', 'tasks', 'robot', 'user', 'robot', 'serves', 'aid', 'user', 'prepare', 'food', 'dish']]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[('direct', 'method'), ('include', 'robotic', 'kitchen'), ('provide', 'different', 'way'), ('prepare', 'food'), ('tailor', 'operate', 'interact'), ('minimanipulation', 'library', 'adaptation'), ('provide', 'scalability', 'mass'), ('manufacture', 'robotic', 'kitchen'), ('meet', 'operational', 'requirement'), ('provide', 'robot', 'mode'), ('prepare', 'robot'), ('share', 'task'), ('robot', 'user'), ('aid', 'user')]</t>
+          <t>[[('present', 'JJ'), ('disclosure', 'NN'), ('directed', 'VBN'), ('methods', 'NNS'), ('computer', 'NN'), ('program', 'NN'), ('products', 'NNS'), ('computer', 'NN'), ('systems', 'NNS'), ('multi', 'JJ'), ('-', 'JJ'), ('functional', 'JJ'), ('robotic', 'JJ'), ('platform', 'NN'), ('including', 'VBG'), ('robotic', 'JJ'), ('kitchen', 'NN'), ('calibration', 'NN'), ('either', 'CC'), ('joint', 'JJ'), ('state', 'NN'), ('trajectory', 'NN'), ('coordinate', 'NN'), ('system', 'NN'), ('like', 'IN'), ('cartesian', 'NNP'), ('coordinate', 'NN'), ('mass', 'NNP'), ('installation', 'NN'), ('robotic', 'JJ'), ('kitchens', 'NNS'), ('multi', 'JJ'), ('-', 'JJ'), ('mode', 'JJ'), ('operations', 'NNS'), ('robotic', 'JJ'), ('kitchen', 'NN'), ('provide', 'VBP'), ('different', 'JJ'), ('ways', 'NNS'), ('prepare', 'VBP'), ('food', 'NN'), ('dishes', 'NNS'), ('subsystems', 'NNS'), ('tailored', 'VBN'), ('operate', 'VB'), ('interact', 'VB'), ('various', 'JJ'), ('elements', 'NNS'), ('robotic', 'JJ'), ('kitchen', 'NN'), ('robotic', 'JJ'), ('effectors', 'NNS'), ('subsystems', 'NNS'), ('containers', 'NNS'), ('ingredients', 'NNS')], [('calibration', 'NN'), ('verifications', 'NNS'), ('minimanipulation', 'NN'), ('library', 'NNP'), ('adaptation', 'NN'), ('adjustment', 'NN'), ('serial', 'JJ'), ('model', 'NN'), ('different', 'JJ'), ('models', 'NNS'), ('provide', 'VBP'), ('scalability', 'NN'), ('mass', 'NN'), ('manufacturing', 'NN'), ('robotic', 'JJ'), ('kitchen', 'NN'), ('system', 'NN'), ('well', 'NN'), ('methods', 'NNS'), ('manufactured', 'VBD'), ('robotic', 'JJ'), ('kitchen', 'NN'), ('system', 'NN'), ('meets', 'VBZ'), ('operational', 'JJ'), ('requirements', 'NNS')], [('robotic', 'JJ'), ('kitchen', 'NN'), ('multi', 'NN'), ('-', 'NN'), ('mode', 'NN'), ('provides', 'VBZ'), ('robot', 'NN'), ('mode', 'NN'), ('collaboration', 'NN'), ('mode', 'NN'), ('user', 'NN'), ('mode', 'NN'), ('particular', 'JJ'), ('food', 'NN'), ('dish', 'NN'), ('prepared', 'VBN'), ('robot', 'NN'), ('collaboration', 'NN'), ('sharing', 'NN'), ('tasks', 'NNS'), ('robot', 'NN'), ('user', 'NNP'), ('robot', 'NN'), ('serves', 'VBZ'), ('aid', 'NN'), ('user', 'NN'), ('prepare', 'VBP'), ('food', 'NN'), ('dish', 'NN')]]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('provide', 'different', 'way', 'to', 'prepare', 'food', 'dish'), ('operate', 'and', 'interact', 'with', 'the', 'various', 'element', 'of', 'a', 'robotic'), ('share', 'task'), ('provide', 'different', 'way', 'to', 'prepare', 'food', 'dish'), ('operate', 'and', 'interact', 'with', 'the', 'various', 'element'), ('prepare', 'a', 'food', 'dish'), ('provide', 'different', 'way', 'to', 'prepare', 'food', 'dish'), ('share', 'task'), ('prepare', 'a', 'food', 'dish'), ('provide', 'different', 'way', 'to', 'prepare', 'food', 'dish'), ('operate', 'and', 'interact', 'with', 'the', 'various', 'element'), ('a', 'collaboration', 'on', 'share', 'task'), ('provide', 'different', 'way', 'to', 'prepare', 'food', 'dish'), ('operate', 'and', 'interact', 'with', 'the', 'various', 'element', 'of', 'a', 'robotic', 'kitchen'), ('share', 'task', 'between', 'the', 'robot', 'and', 'a', 'user'), ('prepare', 'a', 'food', 'dish')]</t>
+          <t>[[('present', 'JJ'), ('disclosure', 'NN'), ('direct', 'VBN'), ('method', 'NNS'), ('computer', 'NN'), ('program', 'NN'), ('product', 'NNS'), ('computer', 'NN'), ('system', 'NNS'), ('multi', 'JJ'), ('-', 'JJ'), ('functional', 'JJ'), ('robotic', 'JJ'), ('platform', 'NN'), ('include', 'VBG'), ('robotic', 'JJ'), ('kitchen', 'NN'), ('calibration', 'NN'), ('either', 'CC'), ('joint', 'JJ'), ('state', 'NN'), ('trajectory', 'NN'), ('coordinate', 'NN'), ('system', 'NN'), ('like', 'IN'), ('cartesian', 'NNP'), ('coordinate', 'NN'), ('mass', 'NNP'), ('installation', 'NN'), ('robotic', 'JJ'), ('kitchen', 'NNS'), ('multi', 'JJ'), ('-', 'JJ'), ('mode', 'JJ'), ('operation', 'NNS'), ('robotic', 'JJ'), ('kitchen', 'NN'), ('provide', 'VBP'), ('different', 'JJ'), ('way', 'NNS'), ('prepare', 'VBP'), ('food', 'NN'), ('dish', 'NNS'), ('subsystem', 'NNS'), ('tailor', 'VBN'), ('operate', 'VB'), ('interact', 'VB'), ('various', 'JJ'), ('element', 'NNS'), ('robotic', 'JJ'), ('kitchen', 'NN'), ('robotic', 'JJ'), ('effector', 'NNS'), ('subsystem', 'NNS'), ('container', 'NNS'), ('ingredient', 'NNS')], [('calibration', 'NN'), ('verification', 'NNS'), ('minimanipulation', 'NN'), ('library', 'NNP'), ('adaptation', 'NN'), ('adjustment', 'NN'), ('serial', 'JJ'), ('model', 'NN'), ('different', 'JJ'), ('model', 'NNS'), ('provide', 'VBP'), ('scalability', 'NN'), ('mass', 'NN'), ('manufacturing', 'NN'), ('robotic', 'JJ'), ('kitchen', 'NN'), ('system', 'NN'), ('well', 'NN'), ('method', 'NNS'), ('manufacture', 'VBD'), ('robotic', 'JJ'), ('kitchen', 'NN'), ('system', 'NN'), ('meet', 'VBZ'), ('operational', 'JJ'), ('requirement', 'NNS')], [('robotic', 'JJ'), ('kitchen', 'NN'), ('multi', 'NN'), ('-', 'NN'), ('mode', 'NN'), ('provide', 'VBZ'), ('robot', 'NN'), ('mode', 'NN'), ('collaboration', 'NN'), ('mode', 'NN'), ('user', 'NN'), ('mode', 'NN'), ('particular', 'JJ'), ('food', 'NN'), ('dish', 'NN'), ('prepare', 'VBN'), ('robot', 'NN'), ('collaboration', 'NN'), ('sharing', 'NN'), ('task', 'NNS'), ('robot', 'NN'), ('user', 'NNP'), ('robot', 'NN'), ('serve', 'VBZ'), ('aid', 'NN'), ('user', 'NN'), ('prepare', 'VBP'), ('food', 'NN'), ('dish', 'NN')]]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('prepare', 'food'), ('prepare', 'robot'), ('share', 'task'), ('robot', 'user'), ('aid', 'user')]</t>
+          <t>[('prepare', 'food'), ('provide', 'scalability'), ('provide', 'robot'), ('prepare', 'robot'), ('serve', 'aid'), ('prepare', 'food')]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[('prepare', 'food', 'dish'), ('prepare', 'robot'), ('share', 'task'), ('robot', 'user'), ('aid', 'user', 'prepare', 'food', 'dish')]</t>
+          <t>[('prepare', 'food', 'dish', 'subsystem'), ('provide', 'scalability', 'mass', 'manufacturing'), ('provide', 'robot', 'mode', 'collaboration', 'mode', 'user', 'mode'), ('prepare', 'robot', 'collaboration', 'sharing', 'task', 'robot', 'user', 'robot'), ('serve', 'aid', 'user'), ('prepare', 'food', 'dish')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[('include', 'robotic', 'kitchen'), ('provide', 'different', 'way'), ('prepare', 'food'), ('tailor', 'operate', 'interact'), ('provide', 'scalability', 'mass'), ('manufacture', 'robotic', 'kitchen'), ('provide', 'robot', 'mode'), ('prepare', 'robot'), ('share', 'task'), ('robot', 'user'), ('aid', 'user')]</t>
+          <t>[('include', 'robotic', 'kitchen'), ('provide', 'different', 'way'), ('prepare', 'food'), ('interact', 'various', 'element'), ('provide', 'scalability'), ('manufacture', 'robotic', 'kitchen'), ('meet', 'operational', 'requirement'), ('provide', 'robot'), ('prepare', 'robot'), ('serve', 'aid'), ('prepare', 'food')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[('direct', 'method')]</t>
+          <t>[('include', 'robotic', 'kitchen', 'calibration'), ('provide', 'different', 'way'), ('prepare', 'food', 'dish', 'subsystem'), ('tailor', 'operate', 'interact', 'various', 'element'), ('provide', 'scalability', 'mass', 'manufacturing'), ('meet', 'operational', 'requirement'), ('provide', 'robot', 'mode', 'collaboration', 'mode', 'user', 'mode'), ('prepare', 'robot', 'collaboration', 'sharing', 'task', 'robot', 'user', 'robot'), ('serve', 'aid', 'user'), ('prepare', 'food', 'dish')]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[('direct', 'method')]</t>
+          <t>[('prepare', 'food'), ('provide', 'scalability'), ('provide', 'robot'), ('prepare', 'robot'), ('prepare', 'food')]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[('direct', 'method'), ('minimanipulation', 'library', 'adaptation'), ('meet', 'operational', 'requirement')]</t>
+          <t>[('prepare', 'food', 'dish', 'subsystem'), ('provide', 'scalability', 'mass', 'manufacturing'), ('provide', 'robot', 'mode', 'collaboration', 'mode', 'user', 'mode'), ('prepare', 'robot', 'collaboration', 'sharing', 'task', 'robot', 'user', 'robot'), ('serve', 'aid', 'user'), ('prepare', 'food', 'dish')]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[('operate', 'and', 'interact', 'with', 'the', 'various', 'element', 'of', 'a', 'robotic', 'kitchen'), ('operate', 'and', 'interact', 'with', 'the', 'various', 'element', 'of', 'a', 'robotic'), ('operate', 'and', 'interact', 'with', 'the', 'various', 'element')]</t>
+          <t>[('include', 'robotic', 'kitchen'), ('provide', 'different', 'way'), ('prepare', 'food'), ('interact', 'various', 'element'), ('provide', 'scalability'), ('manufacture', 'robotic', 'kitchen'), ('provide', 'robot'), ('prepare', 'robot'), ('prepare', 'food')]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[('operate', 'and', 'interact', 'with', 'the', 'various', 'element', 'of', 'a', 'robotic', 'kitchen'), ('operate', 'and', 'interact', 'with', 'the', 'various', 'element', 'of', 'a', 'robotic'), ('operate', 'and', 'interact', 'with', 'the', 'various', 'element')]</t>
+          <t>[('include', 'robotic', 'kitchen', 'calibration'), ('provide', 'different', 'way'), ('prepare', 'food', 'dish', 'subsystem'), ('tailor', 'operate', 'interact', 'various', 'element'), ('provide', 'scalability', 'mass', 'manufacturing'), ('provide', 'robot', 'mode', 'collaboration', 'mode', 'user', 'mode'), ('prepare', 'robot', 'collaboration', 'sharing', 'task', 'robot', 'user', 'robot'), ('serve', 'aid', 'user'), ('prepare', 'food', 'dish')]</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
+        <is>
+          <t>[('serve', 'aid')]</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>[('meet', 'operational', 'requirement'), ('serve', 'aid')]</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>[('meet', 'operational', 'requirement')]</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>[('operate', 'and', 'interact', 'with', 'the', 'various', 'element', 'of', 'a', 'robotic', 'kitchen'), ('operate', 'and', 'interact', 'with', 'the', 'various', 'element'), ('share', 'task'), ('a', 'collaboration', 'on', 'share', 'task'), ('operate', 'and', 'interact', 'with', 'the', 'various', 'element', 'of', 'a', 'robotic')]</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>[('operate', 'and', 'interact', 'with', 'the', 'various', 'element'), ('operate', 'and', 'interact', 'with', 'the', 'various', 'element', 'of', 'a', 'robotic'), ('operate', 'and', 'interact', 'with', 'the', 'various', 'element', 'of', 'a', 'robotic', 'kitchen')]</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>[('share', 'task'), ('a', 'collaboration', 'on', 'share', 'task')]</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -652,99 +757,134 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>An anti-theft method for an oil tank truck based on machine learning comprises the following steps: s1, acquiring scene pictures at an oil filling port and/or an oil outlet of an oil tank truck in real time through a camera; s2, predicting whether an oil theft event occurs in a scene picture by using a machine learning model; s3, if the oil theft event is predicted, an alarm signal is sent out; s4, outputting an alarm signal to a local alarm device; s5, providing an alarm confirmation device for a driver in a cab of the tank truck so as to confirm whether the current alarm signal is accurate or not; and S6, training a machine learning model by taking the scene image subjected to alarm confirmation and the confirmation result as training data based on the confirmation result of the alarm confirmation device. The oil tank truck anti-theft method based on machine learning not only can predict oil theft event in time and send prompt in time to avoid oil theft, but also can restrict the behavior of a driver of the oil tank truck, can comprehensively control the oil tank truck anti-theft, has strong practicability and is suitable for being widely popularized.</t>
+          <t>an anti-theft method for an oil tank truck based on machine learning comprises the following steps: s1, acquiring scene pictures at an oil filling port and/or an oil outlet of an oil tank truck in real time through a camera; s2, predicting whether an oil theft event occurs in a scene picture by using a machine learning model; s3, if the oil theft event is predicted, an alarm signal is sent out; s4, outputting an alarm signal to a local alarm device; s5, providing an alarm confirmation device for a driver in a cab of the tank truck so as to confirm whether the current alarm signal is accurate or not; and s6, training a machine learning model by taking the scene image subjected to alarm confirmation and the confirmation result as training data based on the confirmation result of the alarm confirmation device. the oil tank truck anti-theft method based on machine learning not only can predict oil theft event in time and send prompt in time to avoid oil theft, but also can restrict the behavior of a driver of the oil tank truck, can comprehensively control the oil tank truck anti-theft, has strong practicability and is suitable for being widely popularized.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[('base', 'machine'), ('learn', 'comprises'), ('follow', 'step'), ('acquire', 'scene'), ('fill', 'port'), ('use', 'machine'), ('provide', 'alarm'), ('train', 'machine'), ('learn', 'model'), ('train', 'data'), ('base', 'confirmation'), ('base', 'machine')]</t>
+          <t>[('predict', 'whether', 'an', 'oil', 'theft', 'event', 'occurs'), ('output', 'an', 'alarm', 'signal', 'to', 'a', 'local', 'alarm', 'device'), ('acquire', 'scene', 'picture'), ('predict', 'whether', 'an', 'oil', 'theft', 'event', 'occurs', 'in', 'a', 'scene', 'picture'), ('restrict', 'the', 'behavior', 'of', 'a', 'driver', 'of', 'the', 'oil', 'tank', 'truck'), ('provide', 'an', 'alarm', 'confirmation', 'device'), ('restrict', 'the', 'behavior', 'of', 'a', 'driver'), ('output', 'an', 'alarm', 'signal'), ('predict', 'oil'), ('predict', 'whether'), ('predict', 'oil', 'theft', 'event'), ('predict', 'oil', 'theft', 'event', 'in', 'time'), ('restrict', 'the', 'behavior')]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[('base', 'machine'), ('learn', 'comprises'), ('follow', 'step', 's1'), ('acquire', 'scene', 'picture', 'oil'), ('fill', 'port', 'and/or', 'oil', 'outlet', 'oil', 'tank', 'truck'), ('predict', 'whether', 'oil', 'theft', 'event'), ('use', 'machine', 'learning', 'model'), ('provide', 'alarm', 'confirmation', 'device', 'driver', 'cab', 'tank', 'truck'), ('train', 'machine'), ('learn', 'model'), ('train', 'data'), ('base', 'confirmation', 'result', 'alarm', 'confirmation', 'device'), ('base', 'machine')]</t>
+          <t>[['anti-theft', 'method', 'oil', 'tank', 'truck', 'based', 'machine', 'learning', 'comprises', 'following', 'steps', 's1', 'acquiring', 'scene', 'pictures', 'oil', 'filling', 'port', 'and/or', 'oil', 'outlet', 'oil', 'tank', 'truck', 'real', 'time', 'camera'], ['s2', 'predicting', 'whether', 'oil', 'theft', 'event', 'occurs', 'scene', 'picture', 'using', 'machine', 'learning', 'model'], ['s3', 'oil', 'theft', 'event', 'predicted', 'alarm', 'signal', 'sent'], ['s4', 'outputting', 'alarm', 'signal', 'local', 'alarm', 'device'], ['s5', 'providing', 'alarm', 'confirmation', 'device', 'driver', 'cab', 'tank', 'truck', 'confirm', 'whether', 'current', 'alarm', 'signal', 'accurate'], ['s6', 'training', 'machine', 'learning', 'model', 'taking', 'scene', 'image', 'subjected', 'alarm', 'confirmation', 'confirmation', 'result', 'training', 'data', 'based', 'confirmation', 'result', 'alarm', 'confirmation', 'device'], ['oil', 'tank', 'truck', 'anti-theft', 'method', 'based', 'machine', 'learning', 'predict', 'oil', 'theft', 'event', 'time', 'send', 'prompt', 'time', 'avoid', 'oil', 'theft', 'also', 'restrict', 'behavior', 'driver', 'oil', 'tank', 'truck', 'comprehensively', 'control', 'oil', 'tank', 'truck', 'anti-theft', 'strong', 'practicability', 'suitable', 'widely', 'popularized']]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[('base', 'machine'), ('learn', 'comprises'), ('follow', 'step'), ('acquire', 'scene'), ('fill', 'port'), ('occur', 'scene', 'picture'), ('use', 'machine'), ('provide', 'alarm'), ('train', 'machine'), ('learn', 'model'), ('take', 'scene', 'image'), ('subject', 'alarm', 'confirmation'), ('train', 'data'), ('base', 'confirmation'), ('base', 'machine'), ('learn', 'predict', 'oil'), ('send', 'prompt', 'time')]</t>
+          <t>[[('anti', 'JJ'), ('-', 'JJ'), ('theft', 'JJ'), ('method', 'NN'), ('oil', 'NN'), ('tank', 'NN'), ('truck', 'NN'), ('based', 'VBN'), ('machine', 'NN'), ('learning', 'NN'), ('comprises', 'NNS'), ('following', 'VBG'), ('steps', 'NNS'), ('s1', 'NN'), ('acquiring', 'VBG'), ('scene', 'NN'), ('pictures', 'NNS'), ('oil', 'NN'), ('filling', 'NN'), ('port', 'NN'), ('and/or', 'CC'), ('oil', 'NN'), ('outlet', 'NN'), ('oil', 'NN'), ('tank', 'NN'), ('truck', 'NN'), ('real', 'JJ'), ('time', 'NN'), ('camera', 'NN')], [('s2', 'NNP'), ('predicting', 'VBG'), ('whether', 'IN'), ('oil', 'NN'), ('theft', 'NN'), ('event', 'NN'), ('occurs', 'VBZ'), ('scene', 'NN'), ('picture', 'NN'), ('using', 'VBG'), ('machine', 'NN'), ('learning', 'NN'), ('model', 'NN')], [('s3', 'NNP'), ('oil', 'NN'), ('theft', 'NN'), ('event', 'NN'), ('predicted', 'VBD'), ('alarm', 'NN'), ('signal', 'NN'), ('sent', 'VBD')], [('s4', 'NNP'), ('outputting', 'VBG'), ('alarm', 'NN'), ('signal', 'VBP'), ('local', 'JJ'), ('alarm', 'NN'), ('device', 'NN')], [('s5', 'NNS'), ('providing', 'VBG'), ('alarm', 'NN'), ('confirmation', 'NN'), ('device', 'NN'), ('driver', 'NN'), ('cab', 'NN'), ('tank', 'NN'), ('truck', 'NN'), ('confirm', 'VB'), ('whether', 'IN'), ('current', 'JJ'), ('alarm', 'NN'), ('signal', 'NN'), ('accurate', 'JJ')], [('s6', 'NNP'), ('training', 'NN'), ('machine', 'NN'), ('learning', 'VBG'), ('model', 'NN'), ('taking', 'VBG'), ('scene', 'NN'), ('image', 'NN'), ('subjected', 'VBD'), ('alarm', 'NN'), ('confirmation', 'NN'), ('confirmation', 'NN'), ('result', 'NN'), ('training', 'NN'), ('data', 'NNS'), ('based', 'VBN'), ('confirmation', 'NN'), ('result', 'NN'), ('alarm', 'NN'), ('confirmation', 'NN'), ('device', 'NN')], [('oil', 'NN'), ('tank', 'NN'), ('truck', 'NN'), ('anti', 'JJ'), ('-', 'JJ'), ('theft', 'JJ'), ('method', 'NN'), ('based', 'VBN'), ('machine', 'NN'), ('learning', 'NN'), ('predict', 'VBP'), ('oil', 'NN'), ('theft', 'NN'), ('event', 'NN'), ('time', 'NN'), ('send', 'VBP'), ('prompt', 'JJ'), ('time', 'NN'), ('avoid', 'VB'), ('oil', 'NN'), ('theft', 'NN'), ('also', 'RB'), ('restrict', 'VBP'), ('behavior', 'NN'), ('driver', 'NN'), ('oil', 'NN'), ('tank', 'NN'), ('truck', 'NN'), ('comprehensively', 'RB'), ('control', 'VBP'), ('oil', 'NN'), ('tank', 'NN'), ('truck', 'NN'), ('anti', 'JJ'), ('-', 'JJ'), ('theft', 'JJ'), ('strong', 'JJ'), ('practicability', 'NN'), ('suitable', 'JJ'), ('widely', 'RB'), ('popularized', 'VBN')]]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('acquire', 'scene', 'picture'), ('predict', 'whether'), ('output', 'an', 'alarm', 'signal'), ('predict', 'oil', 'theft', 'event'), ('acquire', 'scene', 'picture'), ('predict', 'whether', 'an', 'oil', 'theft', 'event', 'occurs'), ('output', 'an', 'alarm', 'signal'), ('provide', 'an', 'alarm', 'confirmation', 'device'), ('restrict', 'the', 'behavior', 'of', 'a', 'driver'), ('acquire', 'scene', 'picture'), ('predict', 'whether', 'an', 'oil', 'theft', 'event', 'occurs', 'in', 'a', 'scene', 'picture'), ('output', 'an', 'alarm', 'signal', 'to', 'a', 'local', 'alarm', 'device'), ('provide', 'an', 'alarm', 'confirmation', 'device'), ('predict', 'oil'), ('restrict', 'the', 'behavior', 'of', 'a', 'driver', 'of', 'the', 'oil', 'tank', 'truck'), ('acquire', 'scene', 'picture'), ('predict', 'whether', 'an', 'oil', 'theft', 'event', 'occurs'), ('output', 'an', 'alarm', 'signal'), ('predict', 'oil', 'theft', 'event', 'in', 'time'), ('restrict', 'the', 'behavior', 'of', 'a', 'driver'), ('acquire', 'scene', 'picture'), ('predict', 'whether', 'an', 'oil', 'theft', 'event', 'occurs'), ('output', 'an', 'alarm', 'signal'), ('provide', 'an', 'alarm', 'confirmation', 'device'), ('restrict', 'the', 'behavior')]</t>
+          <t>[[('anti', 'JJ'), ('-', 'JJ'), ('theft', 'JJ'), ('method', 'NN'), ('oil', 'NN'), ('tank', 'NN'), ('truck', 'NN'), ('base', 'VBN'), ('machine', 'NN'), ('learning', 'NN'), ('comprises', 'NNS'), ('follow', 'VBG'), ('step', 'NNS'), ('s1', 'NN'), ('acquire', 'VBG'), ('scene', 'NN'), ('picture', 'NNS'), ('oil', 'NN'), ('filling', 'NN'), ('port', 'NN'), ('and/or', 'CC'), ('oil', 'NN'), ('outlet', 'NN'), ('oil', 'NN'), ('tank', 'NN'), ('truck', 'NN'), ('real', 'JJ'), ('time', 'NN'), ('camera', 'NN')], [('s2', 'NNP'), ('predict', 'VBG'), ('whether', 'IN'), ('oil', 'NN'), ('theft', 'NN'), ('event', 'NN'), ('occur', 'VBZ'), ('scene', 'NN'), ('picture', 'NN'), ('use', 'VBG'), ('machine', 'NN'), ('learning', 'NN'), ('model', 'NN')], [('s3', 'NNP'), ('oil', 'NN'), ('theft', 'NN'), ('event', 'NN'), ('predict', 'VBD'), ('alarm', 'NN'), ('signal', 'NN'), ('send', 'VBD')], [('s4', 'NNP'), ('output', 'VBG'), ('alarm', 'NN'), ('signal', 'VBP'), ('local', 'JJ'), ('alarm', 'NN'), ('device', 'NN')], [('s5', 'NNS'), ('provide', 'VBG'), ('alarm', 'NN'), ('confirmation', 'NN'), ('device', 'NN'), ('driver', 'NN'), ('cab', 'NN'), ('tank', 'NN'), ('truck', 'NN'), ('confirm', 'VB'), ('whether', 'IN'), ('current', 'JJ'), ('alarm', 'NN'), ('signal', 'NN'), ('accurate', 'JJ')], [('s6', 'NNP'), ('training', 'NN'), ('machine', 'NN'), ('learn', 'VBG'), ('model', 'NN'), ('take', 'VBG'), ('scene', 'NN'), ('image', 'NN'), ('subject', 'VBD'), ('alarm', 'NN'), ('confirmation', 'NN'), ('confirmation', 'NN'), ('result', 'NN'), ('training', 'NN'), ('data', 'NNS'), ('base', 'VBN'), ('confirmation', 'NN'), ('result', 'NN'), ('alarm', 'NN'), ('confirmation', 'NN'), ('device', 'NN')], [('oil', 'NN'), ('tank', 'NN'), ('truck', 'NN'), ('anti', 'JJ'), ('-', 'JJ'), ('theft', 'JJ'), ('method', 'NN'), ('base', 'VBN'), ('machine', 'NN'), ('learning', 'NN'), ('predict', 'VBP'), ('oil', 'NN'), ('theft', 'NN'), ('event', 'NN'), ('time', 'NN'), ('send', 'VBP'), ('prompt', 'JJ'), ('time', 'NN'), ('avoid', 'VB'), ('oil', 'NN'), ('theft', 'NN'), ('also', 'RB'), ('restrict', 'VBP'), ('behavior', 'NN'), ('driver', 'NN'), ('oil', 'NN'), ('tank', 'NN'), ('truck', 'NN'), ('comprehensively', 'RB'), ('control', 'VBP'), ('oil', 'NN'), ('tank', 'NN'), ('truck', 'NN'), ('anti', 'JJ'), ('-', 'JJ'), ('theft', 'JJ'), ('strong', 'JJ'), ('practicability', 'NN'), ('suitable', 'JJ'), ('widely', 'RB'), ('popularize', 'VBN')]]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('acquire', 'scene'), ('provide', 'alarm'), ('base', 'confirmation')]</t>
+          <t>[('base', 'machine'), ('follow', 'step'), ('acquire', 'scene'), ('occur', 'scene'), ('use', 'machine'), ('predict', 'alarm'), ('output', 'alarm'), ('provide', 'alarm'), ('take', 'scene'), ('subject', 'alarm'), ('base', 'confirmation'), ('base', 'machine'), ('predict', 'oil'), ('avoid', 'oil'), ('restrict', 'behavior'), ('control', 'oil')]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[('acquire', 'scene', 'picture', 'oil'), ('fill', 'port', 'and/or', 'oil', 'outlet', 'oil', 'tank', 'truck'), ('predict', 'whether', 'oil', 'theft', 'event'), ('provide', 'alarm', 'confirmation', 'device', 'driver', 'cab', 'tank', 'truck'), ('base', 'confirmation', 'result', 'alarm', 'confirmation', 'device')]</t>
+          <t>[('base', 'machine', 'learning', 'comprises'), ('follow', 'step', 's1'), ('acquire', 'scene', 'picture', 'oil', 'filling', 'port'), ('predict', 'whether', 'oil', 'theft', 'event'), ('occur', 'scene', 'picture'), ('predict', 'alarm', 'signal'), ('output', 'alarm'), ('provide', 'alarm', 'confirmation', 'device', 'driver', 'cab', 'tank', 'truck'), ('take', 'scene', 'image'), ('subject', 'alarm', 'confirmation', 'confirmation', 'result', 'training', 'data'), ('base', 'confirmation', 'result', 'alarm', 'confirmation', 'device'), ('base', 'machine', 'learning'), ('predict', 'oil', 'theft', 'event', 'time'), ('avoid', 'oil', 'theft', 'also'), ('restrict', 'behavior', 'driver', 'oil', 'tank', 'truck', 'comprehensively'), ('control', 'oil', 'tank', 'truck')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[('acquire', 'scene'), ('occur', 'scene', 'picture'), ('provide', 'alarm'), ('take', 'scene', 'image'), ('subject', 'alarm', 'confirmation'), ('base', 'confirmation'), ('learn', 'predict', 'oil'), ('send', 'prompt', 'time')]</t>
+          <t>[('base', 'machine'), ('follow', 'step'), ('acquire', 'scene'), ('occur', 'scene'), ('use', 'machine'), ('predict', 'alarm'), ('output', 'alarm'), ('signal', 'local', 'alarm'), ('provide', 'alarm'), ('confirm', 'whether', 'current', 'alarm'), ('take', 'scene'), ('subject', 'alarm'), ('base', 'confirmation'), ('base', 'machine'), ('predict', 'oil'), ('send', 'prompt', 'time'), ('avoid', 'oil'), ('restrict', 'behavior'), ('control', 'oil')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[('base', 'machine'), ('learn', 'comprises'), ('follow', 'step'), ('fill', 'port'), ('use', 'machine'), ('train', 'machine'), ('learn', 'model'), ('train', 'data'), ('base', 'machine')]</t>
+          <t>[('base', 'machine', 'learning', 'comprises'), ('follow', 'step', 's1'), ('acquire', 'scene', 'picture', 'oil', 'filling', 'port'), ('predict', 'whether', 'oil', 'theft', 'event'), ('occur', 'scene', 'picture'), ('predict', 'alarm', 'signal'), ('output', 'alarm'), ('signal', 'local', 'alarm', 'device'), ('provide', 'alarm', 'confirmation', 'device', 'driver', 'cab', 'tank', 'truck'), ('confirm', 'whether', 'current', 'alarm', 'signal'), ('take', 'scene', 'image'), ('subject', 'alarm', 'confirmation', 'confirmation', 'result', 'training', 'data'), ('base', 'confirmation', 'result', 'alarm', 'confirmation', 'device'), ('base', 'machine', 'learning'), ('predict', 'oil', 'theft', 'event', 'time'), ('send', 'prompt', 'time'), ('avoid', 'oil', 'theft'), ('restrict', 'behavior', 'driver', 'oil', 'tank', 'truck'), ('control', 'oil', 'tank', 'truck')]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[('base', 'machine'), ('learn', 'comprises'), ('follow', 'step', 's1'), ('use', 'machine', 'learning', 'model'), ('train', 'machine'), ('learn', 'model'), ('train', 'data'), ('base', 'machine')]</t>
+          <t>[('acquire', 'scene'), ('occur', 'scene'), ('predict', 'alarm'), ('output', 'alarm'), ('provide', 'alarm'), ('take', 'scene'), ('subject', 'alarm'), ('base', 'confirmation'), ('predict', 'oil'), ('avoid', 'oil'), ('restrict', 'behavior'), ('control', 'oil')]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[('base', 'machine'), ('learn', 'comprises'), ('follow', 'step'), ('fill', 'port'), ('use', 'machine'), ('train', 'machine'), ('learn', 'model'), ('train', 'data'), ('base', 'machine')]</t>
+          <t>[('acquire', 'scene', 'picture', 'oil', 'filling', 'port'), ('predict', 'whether', 'oil', 'theft', 'event'), ('occur', 'scene', 'picture'), ('predict', 'alarm', 'signal'), ('output', 'alarm'), ('provide', 'alarm', 'confirmation', 'device', 'driver', 'cab', 'tank', 'truck'), ('take', 'scene', 'image'), ('subject', 'alarm', 'confirmation', 'confirmation', 'result', 'training', 'data'), ('base', 'confirmation', 'result', 'alarm', 'confirmation', 'device'), ('predict', 'oil', 'theft', 'event', 'time'), ('avoid', 'oil', 'theft', 'also'), ('restrict', 'behavior', 'driver', 'oil', 'tank', 'truck', 'comprehensively'), ('control', 'oil', 'tank', 'truck')]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[('predict', 'oil', 'theft', 'event', 'in', 'time'), ('predict', 'oil', 'theft', 'event'), ('predict', 'oil'), ('predict', 'whether'), ('restrict', 'the', 'behavior', 'of', 'a', 'driver'), ('predict', 'whether', 'an', 'oil', 'theft', 'event', 'occurs'), ('restrict', 'the', 'behavior', 'of', 'a', 'driver', 'of', 'the', 'oil', 'tank', 'truck'), ('restrict', 'the', 'behavior')]</t>
+          <t>[('acquire', 'scene'), ('occur', 'scene'), ('predict', 'alarm'), ('output', 'alarm'), ('signal', 'local', 'alarm'), ('provide', 'alarm'), ('confirm', 'whether', 'current', 'alarm'), ('take', 'scene'), ('subject', 'alarm'), ('base', 'confirmation'), ('predict', 'oil'), ('send', 'prompt', 'time'), ('avoid', 'oil'), ('restrict', 'behavior'), ('control', 'oil')]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[('restrict', 'the', 'behavior')]</t>
+          <t>[('acquire', 'scene', 'picture', 'oil', 'filling', 'port'), ('predict', 'whether', 'oil', 'theft', 'event'), ('occur', 'scene', 'picture'), ('predict', 'alarm', 'signal'), ('output', 'alarm'), ('signal', 'local', 'alarm', 'device'), ('provide', 'alarm', 'confirmation', 'device', 'driver', 'cab', 'tank', 'truck'), ('confirm', 'whether', 'current', 'alarm', 'signal'), ('take', 'scene', 'image'), ('subject', 'alarm', 'confirmation', 'confirmation', 'result', 'training', 'data'), ('base', 'confirmation', 'result', 'alarm', 'confirmation', 'device'), ('predict', 'oil', 'theft', 'event', 'time'), ('send', 'prompt', 'time'), ('avoid', 'oil', 'theft'), ('restrict', 'behavior', 'driver', 'oil', 'tank', 'truck'), ('control', 'oil', 'tank', 'truck')]</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[('restrict', 'the', 'behavior'), ('restrict', 'the', 'behavior', 'of', 'a', 'driver')]</t>
+          <t>[('base', 'machine'), ('follow', 'step'), ('use', 'machine'), ('base', 'machine')]</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>[('base', 'machine', 'learning', 'comprises'), ('follow', 'step', 's1'), ('base', 'machine', 'learning')]</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>[('base', 'machine'), ('follow', 'step'), ('use', 'machine'), ('base', 'machine')]</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>[('base', 'machine', 'learning', 'comprises'), ('follow', 'step', 's1'), ('base', 'machine', 'learning')]</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>The invention provides an artificial intelligence (AI) system for categorizing events, said AI system comprising a first state and a second state, wherein: - said AI system is in a first state for categorizing events in a first category type; - upon categorizing of a first event in a predefined category of said first category type, said AI system is set to said second state, in said second state said AI system is set for categorizing subsequent events in a second category type.</t>
+          <t>the invention provides an artificial intelligence (ai) system for categorizing events, said ai system comprising a first state and a second state, wherein: - said ai system is in a first state for categorizing events in a first category type; - upon categorizing of a first event in a predefined category of said first category type, said ai system is set to said second state, in said second state said ai system is set for categorizing subsequent events in a second category type.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[('categorize', 'event'), ('say', 'ai'), ('say', 'ai'), ('categorize', 'event'), ('predefined', 'category'), ('say', 'ai')]</t>
+          <t>[('categorize', 'subsequent', 'event', 'in', 'a', 'second', 'category', 'type'), ('categorize', 'subsequent', 'event'), ('categorize', 'event'), ('categorize', 'subsequent')]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[('categorize', 'event'), ('say', 'ai', 'system'), ('say', 'ai', 'system'), ('categorize', 'event'), ('predefined', 'category'), ('say', 'ai', 'system')]</t>
+          <t>[['invention', 'provides', 'artificial', 'intelligence', 'ai', 'system', 'categorizing', 'events', 'said', 'ai', 'system', 'comprising', 'first', 'state', 'second', 'state', 'wherein', 'said', 'ai', 'system', 'first', 'state', 'categorizing', 'events', 'first', 'category', 'type'], ['upon', 'categorizing', 'first', 'event', 'predefined', 'category', 'said', 'first', 'category', 'type', 'said', 'ai', 'system', 'set', 'said', 'second', 'state', 'said', 'second', 'state', 'said', 'ai', 'system', 'set', 'categorizing', 'subsequent', 'events', 'second', 'category', 'type']]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[('provide', 'artificial', 'intelligence'), ('categorize', 'event'), ('say', 'ai'), ('comprise', 'first', 'state'), ('say', 'ai'), ('categorize', 'event'), ('categorize', 'first', 'event'), ('predefined', 'category'), ('say', 'first', 'category'), ('say', 'ai'), ('say', 'second', 'state'), ('say', 'second', 'state'), ('say', 'ai', 'system'), ('categorize', 'subsequent', 'event')]</t>
+          <t>[[('invention', 'NN'), ('provides', 'VBZ'), ('artificial', 'JJ'), ('intelligence', 'NN'), ('ai', 'VBP'), ('system', 'NN'), ('categorizing', 'VBG'), ('events', 'NNS'), ('said', 'VBD'), ('ai', 'NNP'), ('system', 'NN'), ('comprising', 'VBG'), ('first', 'JJ'), ('state', 'NN'), ('second', 'JJ'), ('state', 'NN'), ('wherein', 'NN'), ('said', 'VBD'), ('ai', 'NNP'), ('system', 'NN'), ('first', 'JJ'), ('state', 'NN'), ('categorizing', 'VBG'), ('events', 'NNS'), ('first', 'JJ'), ('category', 'NN'), ('type', 'NN')], [('upon', 'IN'), ('categorizing', 'VBG'), ('first', 'JJ'), ('event', 'NN'), ('predefined', 'VBN'), ('category', 'NN'), ('said', 'VBD'), ('first', 'JJ'), ('category', 'NN'), ('type', 'NN'), ('said', 'VBD'), ('ai', 'NNP'), ('system', 'NN'), ('set', 'NN'), ('said', 'VBD'), ('second', 'JJ'), ('state', 'NN'), ('said', 'VBD'), ('second', 'JJ'), ('state', 'NN'), ('said', 'VBD'), ('ai', 'VBP'), ('system', 'NN'), ('set', 'VBD'), ('categorizing', 'VBG'), ('subsequent', 'JJ'), ('events', 'NNS'), ('second', 'JJ'), ('category', 'NN'), ('type', 'NN')]]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('categorize', 'event'), ('categorize', 'event'), ('categorize', 'subsequent', 'event'), ('categorize', 'event'), ('categorize', 'subsequent', 'event'), ('categorize', 'event'), ('categorize', 'event'), ('categorize', 'subsequent'), ('categorize', 'event'), ('categorize', 'event'), ('categorize', 'subsequent', 'event', 'in', 'a', 'second', 'category', 'type')]</t>
+          <t>[[('invention', 'NN'), ('provide', 'VBZ'), ('artificial', 'JJ'), ('intelligence', 'NN'), ('ai', 'VBP'), ('system', 'NN'), ('categorize', 'VBG'), ('event', 'NNS'), ('say', 'VBD'), ('ai', 'NNP'), ('system', 'NN'), ('comprise', 'VBG'), ('first', 'JJ'), ('state', 'NN'), ('second', 'JJ'), ('state', 'NN'), ('wherein', 'NN'), ('say', 'VBD'), ('ai', 'NNP'), ('system', 'NN'), ('first', 'JJ'), ('state', 'NN'), ('categorize', 'VBG'), ('event', 'NNS'), ('first', 'JJ'), ('category', 'NN'), ('type', 'NN')], [('upon', 'IN'), ('categorize', 'VBG'), ('first', 'JJ'), ('event', 'NN'), ('predefined', 'VBN'), ('category', 'NN'), ('say', 'VBD'), ('first', 'JJ'), ('category', 'NN'), ('type', 'NN'), ('say', 'VBD'), ('ai', 'NNP'), ('system', 'NN'), ('set', 'NN'), ('say', 'VBD'), ('second', 'JJ'), ('state', 'NN'), ('say', 'VBD'), ('second', 'JJ'), ('state', 'NN'), ('say', 'VBD'), ('ai', 'VBP'), ('system', 'NN'), ('set', 'VBD'), ('categorize', 'VBG'), ('subsequent', 'JJ'), ('event', 'NNS'), ('second', 'JJ'), ('category', 'NN'), ('type', 'NN')]]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -759,35 +899,70 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>[('categorize', 'event'), ('comprise', 'first', 'state'), ('categorize', 'event'), ('categorize', 'first', 'event'), ('predefined', 'category'), ('say', 'first', 'category'), ('say', 'second', 'state'), ('say', 'second', 'state'), ('categorize', 'subsequent', 'event')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[('categorize', 'event'), ('comprise', 'first', 'state'), ('categorize', 'event'), ('categorize', 'first', 'event'), ('predefined', 'category'), ('say', 'first', 'category', 'type'), ('say', 'second', 'state'), ('say', 'second', 'state'), ('set', 'categorize', 'subsequent', 'event')]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[('categorize', 'event'), ('categorize', 'event'), ('predefined', 'category')]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>[('categorize', 'event'), ('categorize', 'event'), ('predefined', 'category')]</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>[('categorize', 'event'), ('categorize', 'event'), ('categorize', 'first', 'event'), ('predefined', 'category'), ('say', 'first', 'category'), ('say', 'second', 'state'), ('say', 'second', 'state'), ('categorize', 'subsequent', 'event')]</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>[('say', 'ai'), ('say', 'ai'), ('say', 'ai')]</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>[('say', 'ai', 'system'), ('say', 'ai', 'system'), ('say', 'ai', 'system')]</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>[('provide', 'artificial', 'intelligence'), ('say', 'ai'), ('comprise', 'first', 'state'), ('say', 'ai'), ('say', 'ai'), ('say', 'ai', 'system')]</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('categorize', 'event'), ('categorize', 'event'), ('categorize', 'first', 'event'), ('predefined', 'category'), ('say', 'first', 'category', 'type'), ('say', 'second', 'state'), ('say', 'second', 'state'), ('set', 'categorize', 'subsequent', 'event')]</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>[('comprise', 'first', 'state')]</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>[('comprise', 'first', 'state')]</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -796,70 +971,105 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Systems and methods for using machine learning models to predict risks posed to patients having various respiratory conditions. According to certain aspects, an electronic device may generate a machine learning model using training data indicating various patient and medication data. The electronic device may access a set of real-world patient data and input the real-world patient data into the machine learning model. An output of the machine learning model may indicate a likelihood of the patients needing intervention care, and the electronic device may facilitate outreach efforts to certain patients in an attempt to decrease this likelihood.</t>
+          <t>systems and methods for using machine learning models to predict risks posed to patients having various respiratory conditions. according to certain aspects, an electronic device may generate a machine learning model using training data indicating various patient and medication data. the electronic device may access a set of real-world patient data and input the real-world patient data into the machine learning model. an output of the machine learning model may indicate a likelihood of the patients needing intervention care, and the electronic device may facilitate outreach efforts to certain patients in an attempt to decrease this likelihood.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[('use', 'machine'), ('predict', 'risk'), ('pose', 'patient'), ('generate', 'machine'), ('learn', 'model'), ('train', 'data'), ('learn', 'model'), ('indicate', 'likelihood'), ('need', 'intervention'), ('facilitate', 'outreach'), ('attempt', 'decrease')]</t>
+          <t>[('predict', 'risk', 'pose'), ('indicate', 'a', 'likelihood', 'of', 'the', 'patient', 'need', 'intervention', 'care'), ('need', 'intervention', 'care'), ('predict', 'risk', 'pose', 'to', 'patient'), ('indicate', 'a', 'likelihood', 'of', 'the', 'patient', 'need'), ('facilitate', 'outreach', 'effort'), ('input', 'the', 'realworld', 'patient', 'data'), ('access', 'a', 'set', 'of', 'realworld', 'patient', 'data'), ('predict', 'risk')]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[('use', 'machine', 'learning', 'model'), ('predict', 'risk'), ('pose', 'patient'), ('generate', 'machine'), ('learn', 'model'), ('use', 'train', 'data'), ('learn', 'model'), ('indicate', 'likelihood', 'patient'), ('need', 'intervention', 'care'), ('facilitate', 'outreach', 'effort'), ('attempt', 'decrease', 'likelihood')]</t>
+          <t>[['systems', 'methods', 'using', 'machine', 'learning', 'models', 'predict', 'risks', 'posed', 'patients', 'various', 'respiratory', 'conditions'], ['according', 'certain', 'aspects', 'electronic', 'device', 'may', 'generate', 'machine', 'learning', 'model', 'using', 'training', 'data', 'indicating', 'various', 'patient', 'medication', 'data'], ['electronic', 'device', 'may', 'access', 'set', 'real-world', 'patient', 'data', 'input', 'real-world', 'patient', 'data', 'machine', 'learning', 'model'], ['output', 'machine', 'learning', 'model', 'may', 'indicate', 'likelihood', 'patients', 'needing', 'intervention', 'care', 'electronic', 'device', 'may', 'facilitate', 'outreach', 'efforts', 'certain', 'patients', 'attempt', 'decrease', 'likelihood']]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[('use', 'machine'), ('predict', 'risk'), ('pose', 'patient'), ('accord', 'certain', 'aspect'), ('generate', 'machine'), ('learn', 'model'), ('train', 'data'), ('set', 'real-world', 'patient'), ('input', 'real-world', 'patient'), ('learn', 'model'), ('indicate', 'likelihood'), ('need', 'intervention'), ('facilitate', 'outreach'), ('attempt', 'decrease')]</t>
+          <t>[[('systems', 'NNS'), ('methods', 'NNS'), ('using', 'VBG'), ('machine', 'NN'), ('learning', 'NN'), ('models', 'NNS'), ('predict', 'VBP'), ('risks', 'NNS'), ('posed', 'VBD'), ('patients', 'NNS'), ('various', 'JJ'), ('respiratory', 'JJ'), ('conditions', 'NNS')], [('according', 'VBG'), ('certain', 'JJ'), ('aspects', 'NNS'), ('electronic', 'JJ'), ('device', 'NN'), ('may', 'MD'), ('generate', 'VB'), ('machine', 'NN'), ('learning', 'NN'), ('model', 'NN'), ('using', 'VBG'), ('training', 'NN'), ('data', 'NNS'), ('indicating', 'VBG'), ('various', 'JJ'), ('patient', 'JJ'), ('medication', 'NN'), ('data', 'NNS')], [('electronic', 'JJ'), ('device', 'NN'), ('may', 'MD'), ('access', 'VB'), ('set', 'VBN'), ('real', 'JJ'), ('-', 'HYPH'), ('world', 'NN'), ('patient', 'JJ'), ('data', 'NNS'), ('input', 'NN'), ('real', 'JJ'), ('-', 'HYPH'), ('world', 'NN'), ('patient', 'JJ'), ('data', 'NNS'), ('machine', 'NN'), ('learning', 'VBG'), ('model', 'NN')], [('output', 'NN'), ('machine', 'NN'), ('learning', 'NN'), ('model', 'NN'), ('may', 'MD'), ('indicate', 'VB'), ('likelihood', 'NN'), ('patients', 'NNS'), ('needing', 'VBG'), ('intervention', 'NN'), ('care', 'NN'), ('electronic', 'JJ'), ('device', 'NN'), ('may', 'MD'), ('facilitate', 'VB'), ('outreach', 'NNP'), ('efforts', 'NNS'), ('certain', 'JJ'), ('patients', 'NNS'), ('attempt', 'VBP'), ('decrease', 'NN'), ('likelihood', 'NN')]]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('predict', 'risk'), ('access', 'a', 'set', 'of', 'realworld', 'patient', 'data'), ('indicate', 'a', 'likelihood', 'of', 'the', 'patient', 'need'), ('predict', 'risk', 'pose'), ('access', 'a', 'set', 'of', 'realworld', 'patient', 'data'), ('input', 'the', 'realworld', 'patient', 'data'), ('indicate', 'a', 'likelihood', 'of', 'the', 'patient', 'need', 'intervention', 'care'), ('facilitate', 'outreach', 'effort'), ('predict', 'risk'), ('access', 'a', 'set', 'of', 'realworld', 'patient', 'data'), ('input', 'the', 'realworld', 'patient', 'data'), ('need', 'intervention', 'care'), ('facilitate', 'outreach', 'effort'), ('predict', 'risk'), ('access', 'a', 'set', 'of', 'realworld', 'patient', 'data'), ('indicate', 'a', 'likelihood', 'of', 'the', 'patient', 'need', 'intervention', 'care'), ('predict', 'risk', 'pose', 'to', 'patient'), ('access', 'a', 'set', 'of', 'realworld', 'patient', 'data'), ('input', 'the', 'realworld', 'patient', 'data'), ('indicate', 'a', 'likelihood', 'of', 'the', 'patient', 'need', 'intervention', 'care'), ('facilitate', 'outreach', 'effort')]</t>
+          <t>[[('system', 'NNS'), ('method', 'NNS'), ('use', 'VBG'), ('machine', 'NN'), ('learning', 'NN'), ('model', 'NNS'), ('predict', 'VBP'), ('risk', 'NNS'), ('pose', 'VBD'), ('patient', 'NNS'), ('various', 'JJ'), ('respiratory', 'JJ'), ('condition', 'NNS')], [('accord', 'VBG'), ('certain', 'JJ'), ('aspect', 'NNS'), ('electronic', 'JJ'), ('device', 'NN'), ('may', 'MD'), ('generate', 'VB'), ('machine', 'NN'), ('learning', 'NN'), ('model', 'NN'), ('use', 'VBG'), ('training', 'NN'), ('data', 'NNS'), ('indicate', 'VBG'), ('various', 'JJ'), ('patient', 'JJ'), ('medication', 'NN'), ('data', 'NNS')], [('electronic', 'JJ'), ('device', 'NN'), ('may', 'MD'), ('access', 'VB'), ('set', 'VBN'), ('real', 'JJ'), ('-', 'HYPH'), ('world', 'NN'), ('patient', 'JJ'), ('data', 'NNS'), ('input', 'NN'), ('real', 'JJ'), ('-', 'HYPH'), ('world', 'NN'), ('patient', 'JJ'), ('data', 'NNS'), ('machine', 'NN'), ('learn', 'VBG'), ('model', 'NN')], [('output', 'NN'), ('machine', 'NN'), ('learning', 'NN'), ('model', 'NN'), ('may', 'MD'), ('indicate', 'VB'), ('likelihood', 'NN'), ('patient', 'NNS'), ('need', 'VBG'), ('intervention', 'NN'), ('care', 'NN'), ('electronic', 'JJ'), ('device', 'NN'), ('may', 'MD'), ('facilitate', 'VB'), ('outreach', 'NNP'), ('effort', 'NNS'), ('certain', 'JJ'), ('patient', 'NNS'), ('attempt', 'VBP'), ('decrease', 'NN'), ('likelihood', 'NN')]]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('predict', 'risk'), ('pose', 'patient'), ('train', 'data'), ('indicate', 'likelihood'), ('need', 'intervention'), ('facilitate', 'outreach')]</t>
+          <t>[('use', 'machine'), ('predict', 'risk'), ('pose', 'patient'), ('generate', 'machine'), ('use', 'training'), ('indicate', 'likelihood'), ('need', 'intervention'), ('facilitate', 'outreach'), ('attempt', 'decrease')]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[('predict', 'risk'), ('pose', 'patient'), ('use', 'train', 'data'), ('indicate', 'likelihood', 'patient'), ('need', 'intervention', 'care'), ('facilitate', 'outreach', 'effort'), ('attempt', 'decrease', 'likelihood')]</t>
+          <t>[('predict', 'risk'), ('pose', 'patient'), ('use', 'training', 'data'), ('indicate', 'likelihood', 'patient'), ('need', 'intervention', 'care'), ('facilitate', 'outreach', 'effort'), ('attempt', 'decrease', 'likelihood')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[('predict', 'risk'), ('pose', 'patient'), ('train', 'data'), ('set', 'real-world', 'patient'), ('input', 'real-world', 'patient'), ('indicate', 'likelihood'), ('need', 'intervention'), ('facilitate', 'outreach')]</t>
+          <t>[('use', 'machine'), ('predict', 'risk'), ('pose', 'patient'), ('accord', 'certain', 'aspect'), ('generate', 'machine'), ('use', 'training'), ('indicate', 'likelihood'), ('need', 'intervention'), ('facilitate', 'outreach'), ('attempt', 'decrease')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[('use', 'machine'), ('generate', 'machine'), ('learn', 'model'), ('learn', 'model'), ('attempt', 'decrease')]</t>
+          <t>[('predict', 'risk'), ('pose', 'patient'), ('accord', 'certain', 'aspect'), ('use', 'training', 'data'), ('indicate', 'various', 'patient', 'medication', 'data'), ('indicate', 'likelihood', 'patient'), ('need', 'intervention', 'care'), ('facilitate', 'outreach', 'effort'), ('attempt', 'decrease', 'likelihood')]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[('use', 'machine', 'learning', 'model'), ('generate', 'machine'), ('learn', 'model'), ('learn', 'model')]</t>
+          <t>[('predict', 'risk'), ('pose', 'patient'), ('indicate', 'likelihood'), ('need', 'intervention'), ('facilitate', 'outreach')]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[('use', 'machine'), ('accord', 'certain', 'aspect'), ('generate', 'machine'), ('learn', 'model'), ('learn', 'model'), ('attempt', 'decrease')]</t>
+          <t>[('predict', 'risk'), ('pose', 'patient'), ('use', 'training', 'data'), ('indicate', 'likelihood', 'patient'), ('need', 'intervention', 'care'), ('facilitate', 'outreach', 'effort'), ('attempt', 'decrease', 'likelihood')]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('predict', 'risk'), ('pose', 'patient'), ('indicate', 'likelihood'), ('need', 'intervention'), ('facilitate', 'outreach')]</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('predict', 'risk'), ('pose', 'patient'), ('use', 'training', 'data'), ('indicate', 'various', 'patient', 'medication', 'data'), ('indicate', 'likelihood', 'patient'), ('need', 'intervention', 'care'), ('facilitate', 'outreach', 'effort'), ('attempt', 'decrease', 'likelihood')]</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
+        <is>
+          <t>[('use', 'machine'), ('generate', 'machine'), ('use', 'training'), ('attempt', 'decrease')]</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>[('use', 'machine'), ('accord', 'certain', 'aspect'), ('generate', 'machine'), ('use', 'training'), ('attempt', 'decrease')]</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>[('accord', 'certain', 'aspect')]</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -868,70 +1078,105 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>The present invention relates to an artificial intelligence smart diagnosis apparatus, system and method. The artificial intelligence smart diagnosis apparatus according to the present invention comprises: an intelligent personal assistant data input/output module which collects audio and video data about condition of a user and outputs synthesized voice required to lead a conversation with the user; a data analysis module which analyzes a conversation period with the user, a change in voice of the user, and a conversation content by using the collected data, and outputs the analyzed data; and a diagnostic module which diagnoses a changed condition of the user by using the analyzed data. Therefore, a patient in the distance can be diagnosed and monitored by using an artificial intelligence input/output device based on voice and video data.</t>
+          <t>the present invention relates to an artificial intelligence smart diagnosis apparatus, system and method. the artificial intelligence smart diagnosis apparatus according to the present invention comprises: an intelligent personal assistant data input/output module which collects audio and video data about condition of a user and outputs synthesized voice required to lead a conversation with the user; a data analysis module which analyzes a conversation period with the user, a change in voice of the user, and a conversation content by using the collected data, and outputs the analyzed data; and a diagnostic module which diagnoses a changed condition of the user by using the analyzed data. therefore, a patient in the distance can be diagnosed and monitored by using an artificial intelligence input/output device based on voice and video data.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[('analyze', 'conversation'), ('collect', 'data'), ('analyze', 'data'), ('change', 'condition'), ('analyze', 'data'), ('base', 'voice')]</t>
+          <t>[('analyzes', 'a', 'conversation', 'period'), ('which', 'analyzes', 'a', 'conversation'), ('output', 'synthesize', 'voice'), ('collect', 'audio', 'and', 'video', 'data'), ('analyzes', 'a', 'conversation')]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[('analyze', 'conversation', 'period', 'user'), ('use', 'collect', 'data'), ('analyze', 'data'), ('change', 'condition', 'user'), ('use', 'analyze', 'data'), ('base', 'voice', 'video', 'data')]</t>
+          <t>[['present', 'invention', 'relates', 'artificial', 'intelligence', 'smart', 'diagnosis', 'apparatus', 'system', 'method'], ['artificial', 'intelligence', 'smart', 'diagnosis', 'apparatus', 'according', 'present', 'invention', 'comprises', 'intelligent', 'personal', 'assistant', 'data', 'input/output', 'module', 'collects', 'audio', 'video', 'data', 'condition', 'user', 'outputs', 'synthesized', 'voice', 'required', 'lead', 'conversation', 'user'], ['data', 'analysis', 'module', 'analyzes', 'conversation', 'period', 'user', 'change', 'voice', 'user', 'conversation', 'content', 'using', 'collected', 'data', 'outputs', 'analyzed', 'data'], ['diagnostic', 'module', 'diagnoses', 'changed', 'condition', 'user', 'using', 'analyzed', 'data'], ['therefore', 'patient', 'distance', 'diagnosed', 'monitored', 'using', 'artificial', 'intelligence', 'input/output', 'device', 'based', 'voice', 'video', 'data']]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[('relate', 'artificial', 'intelligence'), ('accord', 'present', 'invention'), ('collect', 'audio', 'video'), ('output', 'synthesized', 'voice'), ('require', 'lead', 'conversation'), ('analyze', 'conversation'), ('collect', 'data'), ('analyze', 'data'), ('change', 'condition'), ('analyze', 'data'), ('use', 'artificial', 'intelligence'), ('base', 'voice')]</t>
+          <t>[[('present', 'JJ'), ('invention', 'NN'), ('relates', 'VBZ'), ('artificial', 'JJ'), ('intelligence', 'NN'), ('smart', 'JJ'), ('diagnosis', 'NN'), ('apparatus', 'NN'), ('system', 'NN'), ('method', 'NN')], [('artificial', 'JJ'), ('intelligence', 'NN'), ('smart', 'JJ'), ('diagnosis', 'NN'), ('apparatus', 'NN'), ('according', 'VBG'), ('present', 'JJ'), ('invention', 'NN'), ('comprises', 'VBZ'), ('intelligent', 'JJ'), ('personal', 'JJ'), ('assistant', 'NN'), ('data', 'NNS'), ('input', 'NN'), ('/', 'SYM'), ('output', 'NN'), ('module', 'NN'), ('collects', 'VBZ'), ('audio', 'JJ'), ('video', 'NN'), ('data', 'NNS'), ('condition', 'NN'), ('user', 'NN'), ('outputs', 'NNS'), ('synthesized', 'JJ'), ('voice', 'NN'), ('required', 'VBN'), ('lead', 'NN'), ('conversation', 'NN'), ('user', 'NN')], [('data', 'NNS'), ('analysis', 'NN'), ('module', 'NN'), ('analyzes', 'VBZ'), ('conversation', 'NN'), ('period', 'NN'), ('user', 'NN'), ('change', 'NN'), ('voice', 'NN'), ('user', 'NN'), ('conversation', 'NN'), ('content', 'NN'), ('using', 'VBG'), ('collected', 'VBN'), ('data', 'NNS'), ('outputs', 'NNS'), ('analyzed', 'VBD'), ('data', 'NNS')], [('diagnostic', 'JJ'), ('module', 'NN'), ('diagnoses', 'NNS'), ('changed', 'VBD'), ('condition', 'NN'), ('user', 'NN'), ('using', 'VBG'), ('analyzed', 'VBN'), ('data', 'NNS')], [('therefore', 'RB'), ('patient', 'JJ'), ('distance', 'NN'), ('diagnosed', 'VBN'), ('monitored', 'VBN'), ('using', 'VBG'), ('artificial', 'JJ'), ('intelligence', 'NN'), ('input', 'NN'), ('/', 'SYM'), ('output', 'NN'), ('device', 'NN'), ('based', 'VBN'), ('voice', 'NN'), ('video', 'NN'), ('data', 'NNS')]]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('collect', 'audio', 'and', 'video', 'data'), ('output', 'synthesize', 'voice'), ('analyzes', 'a', 'conversation'), ('collect', 'audio', 'and', 'video', 'data'), ('which', 'analyzes', 'a', 'conversation'), ('collect', 'audio', 'and', 'video', 'data'), ('output', 'synthesize', 'voice'), ('analyzes', 'a', 'conversation', 'period'), ('analyzes', 'a', 'conversation', 'period'), ('collect', 'audio', 'and', 'video', 'data'), ('output', 'synthesize', 'voice'), ('analyzes', 'a', 'conversation', 'period')]</t>
+          <t>[[('present', 'JJ'), ('invention', 'NN'), ('relate', 'VBZ'), ('artificial', 'JJ'), ('intelligence', 'NN'), ('smart', 'JJ'), ('diagnosis', 'NN'), ('apparatus', 'NN'), ('system', 'NN'), ('method', 'NN')], [('artificial', 'JJ'), ('intelligence', 'NN'), ('smart', 'JJ'), ('diagnosis', 'NN'), ('apparatus', 'NN'), ('accord', 'VBG'), ('present', 'JJ'), ('invention', 'NN'), ('comprise', 'VBZ'), ('intelligent', 'JJ'), ('personal', 'JJ'), ('assistant', 'NN'), ('data', 'NNS'), ('input', 'NN'), ('/', 'SYM'), ('output', 'NN'), ('module', 'NN'), ('collect', 'VBZ'), ('audio', 'JJ'), ('video', 'NN'), ('data', 'NNS'), ('condition', 'NN'), ('user', 'NN'), ('output', 'NNS'), ('synthesized', 'JJ'), ('voice', 'NN'), ('require', 'VBN'), ('lead', 'NN'), ('conversation', 'NN'), ('user', 'NN')], [('data', 'NNS'), ('analysis', 'NN'), ('module', 'NN'), ('analyze', 'VBZ'), ('conversation', 'NN'), ('period', 'NN'), ('user', 'NN'), ('change', 'NN'), ('voice', 'NN'), ('user', 'NN'), ('conversation', 'NN'), ('content', 'NN'), ('use', 'VBG'), ('collect', 'VBN'), ('data', 'NNS'), ('output', 'NNS'), ('analyze', 'VBD'), ('data', 'NNS')], [('diagnostic', 'JJ'), ('module', 'NN'), ('diagnosis', 'NNS'), ('change', 'VBD'), ('condition', 'NN'), ('user', 'NN'), ('use', 'VBG'), ('analyze', 'VBN'), ('data', 'NNS')], [('therefore', 'RB'), ('patient', 'JJ'), ('distance', 'NN'), ('diagnose', 'VBN'), ('monitor', 'VBN'), ('use', 'VBG'), ('artificial', 'JJ'), ('intelligence', 'NN'), ('input', 'NN'), ('/', 'SYM'), ('output', 'NN'), ('device', 'NN'), ('base', 'VBN'), ('voice', 'NN'), ('video', 'NN'), ('data', 'NNS')]]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>[('require', 'lead'), ('analyze', 'conversation'), ('collect', 'data'), ('analyze', 'data'), ('change', 'condition'), ('analyze', 'data'), ('base', 'voice')]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[('require', 'lead', 'conversation', 'user'), ('analyze', 'conversation', 'period', 'user', 'change', 'voice', 'user', 'conversation', 'content'), ('use', 'collect', 'data', 'output'), ('analyze', 'data'), ('change', 'condition', 'user'), ('use', 'analyze', 'data'), ('base', 'voice', 'video', 'data')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('collect', 'audio', 'video'), ('require', 'lead'), ('analyze', 'conversation'), ('collect', 'data'), ('analyze', 'data'), ('change', 'condition'), ('analyze', 'data'), ('base', 'voice')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[('comprise', 'intelligent', 'personal', 'assistant', 'data', 'input'), ('collect', 'audio', 'video', 'data', 'condition', 'user', 'output'), ('require', 'lead', 'conversation', 'user'), ('analyze', 'conversation', 'period', 'user', 'change', 'voice', 'user', 'conversation', 'content'), ('use', 'collect', 'data', 'output'), ('analyze', 'data'), ('change', 'condition', 'user'), ('use', 'analyze', 'data'), ('base', 'voice', 'video', 'data')]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>[('analyze', 'conversation'), ('collect', 'data'), ('analyze', 'data'), ('analyze', 'data'), ('base', 'voice')]</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>[('analyze', 'conversation', 'period', 'user'), ('use', 'collect', 'data'), ('analyze', 'data'), ('use', 'analyze', 'data'), ('base', 'voice', 'video', 'data')]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[('collect', 'audio', 'video'), ('output', 'synthesized', 'voice'), ('require', 'lead', 'conversation'), ('analyze', 'conversation'), ('collect', 'data'), ('analyze', 'data'), ('analyze', 'data'), ('base', 'voice')]</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>[('change', 'condition')]</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>[('require', 'lead', 'conversation', 'user'), ('analyze', 'conversation', 'period', 'user', 'change', 'voice', 'user', 'conversation', 'content'), ('use', 'collect', 'data', 'output'), ('analyze', 'data'), ('use', 'analyze', 'data'), ('base', 'voice', 'video', 'data')]</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>[('collect', 'audio', 'video'), ('analyze', 'conversation'), ('collect', 'data'), ('analyze', 'data'), ('analyze', 'data'), ('base', 'voice')]</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>[('comprise', 'intelligent', 'personal', 'assistant', 'data', 'input'), ('collect', 'audio', 'video', 'data', 'condition', 'user', 'output'), ('require', 'lead', 'conversation', 'user'), ('analyze', 'conversation', 'period', 'user', 'change', 'voice', 'user', 'conversation', 'content'), ('use', 'collect', 'data', 'output'), ('analyze', 'data'), ('use', 'analyze', 'data'), ('base', 'voice', 'video', 'data')]</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>[('require', 'lead'), ('change', 'condition')]</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>[('change', 'condition', 'user')]</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>[('relate', 'artificial', 'intelligence'), ('accord', 'present', 'invention'), ('change', 'condition'), ('use', 'artificial', 'intelligence')]</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>[('require', 'lead'), ('change', 'condition')]</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>[('change', 'condition', 'user')]</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -940,70 +1185,105 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>The present invention relates to an apparatus and a method for predicting and providing the surface roughness of a product to be molded by using artificial intelligence, and an apparatus and a method for predicting and providing molding conditions by using artificial intelligence. The apparatus for predicting and providing the surface roughness of a product to be molded by using artificial intelligence, according to the present invention, may comprise: a display; a memory, which is generated using artificial intelligence and stores matching information in which a surface roughness image and molding conditions are matched; an input module for inputting molding conditions for molding a product to be molded; and a processor for outputting, on the basis of the matching information, the expected surface roughness image of a product to be molded according to the input molding conditions through the display.</t>
+          <t>the present invention relates to an apparatus and a method for predicting and providing the surface roughness of a product to be molded by using artificial intelligence, and an apparatus and a method for predicting and providing molding conditions by using artificial intelligence. the apparatus for predicting and providing the surface roughness of a product to be molded by using artificial intelligence, according to the present invention, may comprise: a display; a memory, which is generated using artificial intelligence and stores matching information in which a surface roughness image and molding conditions are matched; an input module for inputting molding conditions for molding a product to be molded; and a processor for outputting, on the basis of the matching information, the expected surface roughness image of a product to be molded according to the input molding conditions through the display.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[('provide', 'surface'), ('mold', 'condition'), ('provide', 'surface'), ('comprise', 'display'), ('match', 'information'), ('mold', 'condition'), ('mold', 'condition'), ('mold', 'product'), ('match', 'information'), ('expect', 'surface'), ('accord', 'input'), ('mold', 'condition')]</t>
+          <t>[('predict', 'and', 'provide', 'the', 'surface', 'roughness', 'of', 'a', 'product'), ('predict', 'and', 'provide', 'mold', 'condition'), ('match', 'information'), ('predict', 'and', 'provide', 'the', 'surface', 'roughness'), ('store', 'match', 'information')]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[('predict', 'provide', 'surface'), ('predict', 'provide', 'mold', 'condition'), ('predict', 'provide', 'surface'), ('comprise', 'display'), ('match', 'information', 'surface', 'roughness', 'image'), ('mold', 'condition'), ('inputting', 'mold', 'condition'), ('mold', 'product'), ('match', 'information'), ('expect', 'surface', 'roughness', 'image', 'product'), ('mold', 'accord', 'input'), ('mold', 'condition')]</t>
+          <t>[['present', 'invention', 'relates', 'apparatus', 'method', 'predicting', 'providing', 'surface', 'roughness', 'product', 'molded', 'using', 'artificial', 'intelligence', 'apparatus', 'method', 'predicting', 'providing', 'molding', 'conditions', 'using', 'artificial', 'intelligence'], ['apparatus', 'predicting', 'providing', 'surface', 'roughness', 'product', 'molded', 'using', 'artificial', 'intelligence', 'according', 'present', 'invention', 'may', 'comprise', 'display'], ['memory', 'generated', 'using', 'artificial', 'intelligence', 'stores', 'matching', 'information', 'surface', 'roughness', 'image', 'molding', 'conditions', 'matched'], ['input', 'module', 'inputting', 'molding', 'conditions', 'molding', 'product', 'molded'], ['processor', 'outputting', 'basis', 'matching', 'information', 'expected', 'surface', 'roughness', 'image', 'product', 'molded', 'according', 'input', 'molding', 'conditions', 'display']]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[('relate', 'apparatus', 'method'), ('provide', 'surface'), ('use', 'artificial', 'intelligence'), ('mold', 'condition'), ('use', 'artificial', 'intelligence'), ('provide', 'surface'), ('use', 'artificial', 'intelligence'), ('accord', 'present', 'invention'), ('comprise', 'display'), ('use', 'artificial', 'intelligence'), ('match', 'information'), ('mold', 'condition'), ('mold', 'condition'), ('mold', 'product'), ('match', 'information'), ('expect', 'surface'), ('accord', 'input'), ('mold', 'condition')]</t>
+          <t>[[('present', 'JJ'), ('invention', 'NN'), ('relates', 'VBZ'), ('apparatus', 'NN'), ('method', 'NN'), ('predicting', 'VBG'), ('providing', 'VBG'), ('surface', 'NN'), ('roughness', 'NN'), ('product', 'NN'), ('molded', 'VBN'), ('using', 'VBG'), ('artificial', 'JJ'), ('intelligence', 'NN'), ('apparatus', 'NN'), ('method', 'NN'), ('predicting', 'VBG'), ('providing', 'VBG'), ('molding', 'NN'), ('conditions', 'NNS'), ('using', 'VBG'), ('artificial', 'JJ'), ('intelligence', 'NN')], [('apparatus', 'NNP'), ('predicting', 'VBG'), ('providing', 'VBG'), ('surface', 'NN'), ('roughness', 'NN'), ('product', 'NN'), ('molded', 'VBN'), ('using', 'VBG'), ('artificial', 'JJ'), ('intelligence', 'NN'), ('according', 'VBG'), ('present', 'JJ'), ('invention', 'NN'), ('may', 'MD'), ('comprise', 'VB'), ('display', 'NN')], [('memory', 'NN'), ('generated', 'VBN'), ('using', 'VBG'), ('artificial', 'JJ'), ('intelligence', 'NN'), ('stores', 'NNS'), ('matching', 'VBG'), ('information', 'NN'), ('surface', 'NN'), ('roughness', 'NN'), ('image', 'NN'), ('molding', 'NN'), ('conditions', 'NNS'), ('matched', 'VBD')], [('input', 'NN'), ('module', 'NN'), ('inputting', 'VBG'), ('molding', 'NN'), ('conditions', 'NNS'), ('molding', 'VBG'), ('product', 'NN'), ('molded', 'VBN')], [('processor', 'NN'), ('outputting', 'NN'), ('basis', 'NN'), ('matching', 'NN'), ('information', 'NN'), ('expected', 'VBD'), ('surface', 'NN'), ('roughness', 'NN'), ('image', 'NN'), ('product', 'NN'), ('molded', 'VBD'), ('according', 'VBG'), ('input', 'NN'), ('molding', 'NN'), ('conditions', 'NNS'), ('display', 'NN')]]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('predict', 'and', 'provide', 'the', 'surface', 'roughness'), ('predict', 'and', 'provide', 'mold', 'condition'), ('match', 'information'), ('predict', 'and', 'provide', 'the', 'surface', 'roughness', 'of', 'a', 'product'), ('predict', 'and', 'provide', 'mold', 'condition'), ('match', 'information'), ('predict', 'and', 'provide', 'the', 'surface', 'roughness', 'of', 'a', 'product'), ('predict', 'and', 'provide', 'mold', 'condition'), ('predict', 'and', 'provide', 'the', 'surface', 'roughness', 'of', 'a', 'product'), ('match', 'information'), ('predict', 'and', 'provide', 'the', 'surface', 'roughness'), ('store', 'match', 'information'), ('predict', 'and', 'provide', 'the', 'surface', 'roughness'), ('predict', 'and', 'provide', 'mold', 'condition'), ('store', 'match', 'information')]</t>
+          <t>[[('present', 'JJ'), ('invention', 'NN'), ('relate', 'VBZ'), ('apparatus', 'NN'), ('method', 'NN'), ('predict', 'VBG'), ('provide', 'VBG'), ('surface', 'NN'), ('roughness', 'NN'), ('product', 'NN'), ('mold', 'VBN'), ('use', 'VBG'), ('artificial', 'JJ'), ('intelligence', 'NN'), ('apparatus', 'NN'), ('method', 'NN'), ('predict', 'VBG'), ('provide', 'VBG'), ('molding', 'NN'), ('condition', 'NNS'), ('use', 'VBG'), ('artificial', 'JJ'), ('intelligence', 'NN')], [('apparatus', 'NNP'), ('predict', 'VBG'), ('provide', 'VBG'), ('surface', 'NN'), ('roughness', 'NN'), ('product', 'NN'), ('mold', 'VBN'), ('use', 'VBG'), ('artificial', 'JJ'), ('intelligence', 'NN'), ('accord', 'VBG'), ('present', 'JJ'), ('invention', 'NN'), ('may', 'MD'), ('comprise', 'VB'), ('display', 'NN')], [('memory', 'NN'), ('generate', 'VBN'), ('use', 'VBG'), ('artificial', 'JJ'), ('intelligence', 'NN'), ('store', 'NNS'), ('match', 'VBG'), ('information', 'NN'), ('surface', 'NN'), ('roughness', 'NN'), ('image', 'NN'), ('molding', 'NN'), ('condition', 'NNS'), ('match', 'VBD')], [('input', 'NN'), ('module', 'NN'), ('inputting', 'VBG'), ('molding', 'NN'), ('condition', 'NNS'), ('mold', 'VBG'), ('product', 'NN'), ('mold', 'VBN')], [('processor', 'NN'), ('outputting', 'NN'), ('basis', 'NN'), ('matching', 'NN'), ('information', 'NN'), ('expect', 'VBD'), ('surface', 'NN'), ('roughness', 'NN'), ('image', 'NN'), ('product', 'NN'), ('mold', 'VBD'), ('accord', 'VBG'), ('input', 'NN'), ('molding', 'NN'), ('condition', 'NNS'), ('display', 'NN')]]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('provide', 'surface'), ('mold', 'condition'), ('provide', 'surface'), ('match', 'information'), ('mold', 'condition'), ('mold', 'condition'), ('mold', 'product'), ('match', 'information'), ('expect', 'surface'), ('mold', 'condition')]</t>
+          <t>[('relate', 'apparatus'), ('provide', 'surface'), ('provide', 'molding'), ('provide', 'surface'), ('comprise', 'display'), ('match', 'information'), ('inputting', 'molding'), ('mold', 'product'), ('expect', 'surface'), ('accord', 'input')]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[('predict', 'provide', 'surface'), ('predict', 'provide', 'mold', 'condition'), ('predict', 'provide', 'surface'), ('match', 'information', 'surface', 'roughness', 'image'), ('mold', 'condition'), ('inputting', 'mold', 'condition'), ('mold', 'product'), ('match', 'information'), ('expect', 'surface', 'roughness', 'image', 'product'), ('mold', 'accord', 'input'), ('mold', 'condition')]</t>
+          <t>[('predict', 'provide', 'surface', 'roughness', 'product'), ('predict', 'provide', 'molding', 'condition'), ('predict', 'provide', 'surface', 'roughness', 'product'), ('comprise', 'display'), ('match', 'information', 'surface', 'roughness', 'image', 'molding', 'condition'), ('inputting', 'molding', 'condition'), ('mold', 'product'), ('expect', 'surface', 'roughness', 'image', 'product'), ('mold', 'accord', 'input', 'molding', 'condition', 'display')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[('provide', 'surface'), ('mold', 'condition'), ('provide', 'surface'), ('match', 'information'), ('mold', 'condition'), ('mold', 'condition'), ('mold', 'product'), ('match', 'information'), ('expect', 'surface'), ('mold', 'condition')]</t>
+          <t>[('relate', 'apparatus'), ('provide', 'surface'), ('provide', 'molding'), ('provide', 'surface'), ('comprise', 'display'), ('match', 'information'), ('inputting', 'molding'), ('mold', 'product'), ('expect', 'surface'), ('accord', 'input')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[('comprise', 'display'), ('accord', 'input')]</t>
+          <t>[('predict', 'provide', 'surface', 'roughness', 'product'), ('predict', 'provide', 'molding', 'condition'), ('predict', 'provide', 'surface', 'roughness', 'product'), ('comprise', 'display'), ('match', 'information', 'surface', 'roughness', 'image', 'molding', 'condition'), ('inputting', 'molding', 'condition'), ('mold', 'product'), ('expect', 'surface', 'roughness', 'image', 'product'), ('mold', 'accord', 'input', 'molding', 'condition', 'display')]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>[('provide', 'surface'), ('provide', 'molding'), ('provide', 'surface'), ('match', 'information'), ('mold', 'product'), ('expect', 'surface')]</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>[('predict', 'provide', 'surface', 'roughness', 'product'), ('predict', 'provide', 'molding', 'condition'), ('predict', 'provide', 'surface', 'roughness', 'product'), ('match', 'information', 'surface', 'roughness', 'image', 'molding', 'condition'), ('inputting', 'molding', 'condition'), ('mold', 'product'), ('expect', 'surface', 'roughness', 'image', 'product'), ('mold', 'accord', 'input', 'molding', 'condition', 'display')]</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>[('provide', 'surface'), ('provide', 'molding'), ('provide', 'surface'), ('match', 'information'), ('mold', 'product'), ('expect', 'surface')]</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>[('predict', 'provide', 'surface', 'roughness', 'product'), ('predict', 'provide', 'molding', 'condition'), ('predict', 'provide', 'surface', 'roughness', 'product'), ('match', 'information', 'surface', 'roughness', 'image', 'molding', 'condition'), ('inputting', 'molding', 'condition'), ('mold', 'product'), ('expect', 'surface', 'roughness', 'image', 'product'), ('mold', 'accord', 'input', 'molding', 'condition', 'display')]</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>[('relate', 'apparatus'), ('comprise', 'display'), ('inputting', 'molding'), ('accord', 'input')]</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>[('comprise', 'display')]</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>[('relate', 'apparatus', 'method'), ('use', 'artificial', 'intelligence'), ('use', 'artificial', 'intelligence'), ('use', 'artificial', 'intelligence'), ('accord', 'present', 'invention'), ('comprise', 'display'), ('use', 'artificial', 'intelligence'), ('accord', 'input')]</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>[('relate', 'apparatus'), ('comprise', 'display'), ('inputting', 'molding'), ('accord', 'input')]</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>[('comprise', 'display')]</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1012,142 +1292,212 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Provided are a device for updating a first artificial intelligence (AI) model for recommending content, which provides an accurate and useful recommendation result, and a method thereof. According to the present invention, the method comprises the following steps: identifying a first private parameter and a first public parameter for a loss function related to update of the first AI model; transmitting the first public parameter to a second device using a second AI model corresponding to the first AI model, wherein the second AI model is updated by using the loss function; receiving a second public parameter for the loss function from the second device; receiving, from the second device, a second cross-update parameter determined on the basis of the first public parameter; updating the first private parameter and the first public parameter on the basis of the second cross update parameter such that a value of the loss function is minimized; updating the first AI model on the basis of the updated first personal parameter, the first public parameter, and the second public parameter received from the second device; and determining recommended content by using the updated first AI model to provide a list of recommended contents.</t>
+          <t>provided are a device for updating a first artificial intelligence (ai) model for recommending content, which provides an accurate and useful recommendation result, and a method thereof. according to the present invention, the method comprises the following steps: identifying a first private parameter and a first public parameter for a loss function related to update of the first ai model; transmitting the first public parameter to a second device using a second ai model corresponding to the first ai model, wherein the second ai model is updated by using the loss function; receiving a second public parameter for the loss function from the second device; receiving, from the second device, a second cross-update parameter determined on the basis of the first public parameter; updating the first private parameter and the first public parameter on the basis of the second cross update parameter such that a value of the loss function is minimized; updating the first ai model on the basis of the updated first personal parameter, the first public parameter, and the second public parameter received from the second device; and determining recommended content by using the updated first ai model to provide a list of recommended contents.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[('provide', 'device'), ('ai', 'model'), ('follow', 'step'), ('use', 'loss'), ('determine', 'basis'), ('provide', 'list'), ('recommend', 'content')]</t>
+          <t>[('transmit', 'the', 'first', 'public', 'parameter'), ('recommend', 'content'), ('update', 'the', 'first', 'private', 'parameter'), ('update',), ('transmit', 'the', 'first', 'public', 'parameter', 'to', 'a', 'second', 'device'), ('determine', 'recommend', 'content'), ('receive', 'a', 'second', 'public', 'parameter', 'for', 'the', 'loss', 'function', 'from', 'the', 'second', 'device'), ('update', 'a', 'first', 'artificial', 'intelligence', 'ai', 'model'), ('identify', 'a', 'first', 'private', 'parameter'), ('identify', 'a', 'first', 'private', 'parameter', 'and', 'a', 'first', 'public', 'parameter'), ('identify',), ('transmit',), ('update', 'the', 'first', 'ai', 'model'), ('receive', 'a', 'second', 'public', 'parameter'), ('update', 'the', 'first', 'private', 'parameter', 'and', 'the', 'first', 'public', 'parameter'), ('update', 'a', 'first', 'artificial', 'intelligence', 'ai', 'model', 'for', 'recommend', 'content')]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[('provide', 'device'), ('ai', 'model', 'recommending', 'content'), ('comprise', 'follow', 'step'), ('update', 'use', 'loss', 'function'), ('determine', 'basis', 'first'), ('provide', 'list'), ('recommend', 'content')]</t>
+          <t>[['provided', 'device', 'updating', 'first', 'artificial', 'intelligence', 'ai', 'model', 'recommending', 'content', 'provides', 'accurate', 'useful', 'recommendation', 'result', 'method', 'thereof'], ['according', 'present', 'invention', 'method', 'comprises', 'following', 'steps', 'identifying', 'first', 'private', 'parameter', 'first', 'public', 'parameter', 'loss', 'function', 'related', 'update', 'first', 'ai', 'model'], ['transmitting', 'first', 'public', 'parameter', 'second', 'device', 'using', 'second', 'ai', 'model', 'corresponding', 'first', 'ai', 'model', 'wherein', 'second', 'ai', 'model', 'updated', 'using', 'loss', 'function'], ['receiving', 'second', 'public', 'parameter', 'loss', 'function', 'second', 'device'], ['receiving', 'second', 'device', 'second', 'cross-update', 'parameter', 'determined', 'basis', 'first', 'public', 'parameter'], ['updating', 'first', 'private', 'parameter', 'first', 'public', 'parameter', 'basis', 'second', 'cross', 'update', 'parameter', 'value', 'loss', 'function', 'minimized'], ['updating', 'first', 'ai', 'model', 'basis', 'updated', 'first', 'personal', 'parameter', 'first', 'public', 'parameter', 'second', 'public', 'parameter', 'received', 'second', 'device'], ['determining', 'recommended', 'content', 'using', 'updated', 'first', 'ai', 'model', 'provide', 'list', 'recommended', 'contents']]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[('provide', 'device'), ('ai', 'model'), ('accord', 'present', 'invention'), ('follow', 'step'), ('correspond', 'first', 'ai'), ('use', 'loss'), ('determine', 'basis'), ('receive', 'second', 'device'), ('provide', 'list'), ('recommend', 'content')]</t>
+          <t>[[('provided', 'VBD'), ('device', 'NN'), ('updating', 'VBG'), ('first', 'JJ'), ('artificial', 'JJ'), ('intelligence', 'NN'), ('ai', ','), ('model', 'NN'), ('recommending', 'VBG'), ('content', 'NN'), ('provides', 'VBZ'), ('accurate', 'JJ'), ('useful', 'JJ'), ('recommendation', 'NN'), ('result', 'NN'), ('method', 'NN'), ('thereof', 'RB')], [('according', 'VBG'), ('present', 'JJ'), ('invention', 'NN'), ('method', 'NN'), ('comprises', 'NNS'), ('following', 'VBG'), ('steps', 'NNS'), ('identifying', 'VBG'), ('first', 'JJ'), ('private', 'JJ'), ('parameter', 'NN'), ('first', 'JJ'), ('public', 'JJ'), ('parameter', 'NN'), ('loss', 'NN'), ('function', 'NN'), ('related', 'VBN'), ('update', 'NN'), ('first', 'JJ'), ('ai', 'NNP'), ('model', 'NN')], [('transmitting', 'VBG'), ('first', 'JJ'), ('public', 'JJ'), ('parameter', 'NN'), ('second', 'JJ'), ('device', 'NN'), ('using', 'VBG'), ('second', 'JJ'), ('ai', 'NNP'), ('model', 'NN'), ('corresponding', 'NNP'), ('first', 'RB'), ('ai', 'NNP'), ('model', 'NN'), ('wherein', 'WRB'), ('second', 'RB'), ('ai', 'VBP'), ('model', 'NN'), ('updated', 'VBD'), ('using', 'VBG'), ('loss', 'NN'), ('function', 'NN')], [('receiving', 'VBG'), ('second', 'JJ'), ('public', 'JJ'), ('parameter', 'NN'), ('loss', 'NN'), ('function', 'NN'), ('second', 'JJ'), ('device', 'NN')], [('receiving', 'VBG'), ('second', 'JJ'), ('device', 'NN'), ('second', 'JJ'), ('cross', 'JJ'), ('-', 'JJ'), ('update', 'JJ'), ('parameter', 'NN'), ('determined', 'VBD'), ('basis', 'NN'), ('first', 'JJ'), ('public', 'JJ'), ('parameter', 'NN')], [('updating', 'VBG'), ('first', 'JJ'), ('private', 'JJ'), ('parameter', 'NN'), ('first', 'JJ'), ('public', 'JJ'), ('parameter', 'NN'), ('basis', 'NN'), ('second', 'NNP'), ('cross', 'NN'), ('update', 'NN'), ('parameter', 'NN'), ('value', 'NN'), ('loss', 'NN'), ('function', 'NN'), ('minimized', 'VBD')], [('updating', 'VBG'), ('first', 'RB'), ('ai', 'NNP'), ('model', 'NNP'), ('basis', 'NN'), ('updated', 'VBD'), ('first', 'JJ'), ('personal', 'JJ'), ('parameter', 'NN'), ('first', 'JJ'), ('public', 'JJ'), ('parameter', 'NN'), ('second', 'JJ'), ('public', 'JJ'), ('parameter', 'NN'), ('received', 'VBD'), ('second', 'JJ'), ('device', 'NN')], [('determining', 'VBG'), ('recommended', 'VBN'), ('content', 'NN'), ('using', 'VBG'), ('updated', 'VBN'), ('first', 'JJ'), ('ai', 'NNP'), ('model', 'NN'), ('provide', 'NN'), ('list', 'NN'), ('recommended', 'VBN'), ('contents', 'NNS')]]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('recommend', 'content'), ('identify',), ('transmit',), ('receive', 'a', 'second', 'public', 'parameter'), ('update',), ('determine', 'recommend', 'content'), ('update', 'a', 'first', 'artificial', 'intelligence', 'ai', 'model'), ('identify', 'a', 'first', 'private', 'parameter', 'and', 'a', 'first', 'public', 'parameter'), ('transmit', 'the', 'first', 'public', 'parameter', 'to', 'a', 'second', 'device'), ('receive', 'a', 'second', 'public', 'parameter', 'for', 'the', 'loss', 'function', 'from', 'the', 'second', 'device'), ('update', 'the', 'first', 'private', 'parameter', 'and', 'the', 'first', 'public', 'parameter'), ('update', 'the', 'first', 'ai', 'model'), ('determine', 'recommend', 'content'), ('recommend', 'content'), ('identify', 'a', 'first', 'private', 'parameter'), ('transmit', 'the', 'first', 'public', 'parameter'), ('receive', 'a', 'second', 'public', 'parameter'), ('update', 'the', 'first', 'private', 'parameter'), ('recommend', 'content'), ('recommend', 'content'), ('recommend', 'content'), ('update', 'a', 'first', 'artificial', 'intelligence', 'ai', 'model', 'for', 'recommend', 'content'), ('identify', 'a', 'first', 'private', 'parameter'), ('transmit', 'the', 'first', 'public', 'parameter'), ('receive', 'a', 'second', 'public', 'parameter'), ('update', 'the', 'first', 'ai', 'model'), ('determine', 'recommend', 'content')]</t>
+          <t>[[('provide', 'VBD'), ('device', 'NN'), ('update', 'VBG'), ('first', 'JJ'), ('artificial', 'JJ'), ('intelligence', 'NN'), ('ai', ','), ('model', 'NN'), ('recommend', 'VBG'), ('content', 'NN'), ('provide', 'VBZ'), ('accurate', 'JJ'), ('useful', 'JJ'), ('recommendation', 'NN'), ('result', 'NN'), ('method', 'NN'), ('thereof', 'RB')], [('accord', 'VBG'), ('present', 'JJ'), ('invention', 'NN'), ('method', 'NN'), ('comprises', 'NNS'), ('follow', 'VBG'), ('step', 'NNS'), ('identify', 'VBG'), ('first', 'JJ'), ('private', 'JJ'), ('parameter', 'NN'), ('first', 'JJ'), ('public', 'JJ'), ('parameter', 'NN'), ('loss', 'NN'), ('function', 'NN'), ('relate', 'VBN'), ('update', 'NN'), ('first', 'JJ'), ('ai', 'NNP'), ('model', 'NN')], [('transmit', 'VBG'), ('first', 'JJ'), ('public', 'JJ'), ('parameter', 'NN'), ('second', 'JJ'), ('device', 'NN'), ('use', 'VBG'), ('second', 'JJ'), ('ai', 'NNP'), ('model', 'NN'), ('corresponding', 'NNP'), ('first', 'RB'), ('ai', 'NNP'), ('model', 'NN'), ('wherein', 'WRB'), ('second', 'RB'), ('ai', 'VBP'), ('model', 'NN'), ('update', 'VBD'), ('use', 'VBG'), ('loss', 'NN'), ('function', 'NN')], [('receive', 'VBG'), ('second', 'JJ'), ('public', 'JJ'), ('parameter', 'NN'), ('loss', 'NN'), ('function', 'NN'), ('second', 'JJ'), ('device', 'NN')], [('receive', 'VBG'), ('second', 'JJ'), ('device', 'NN'), ('second', 'JJ'), ('cross', 'JJ'), ('-', 'JJ'), ('update', 'JJ'), ('parameter', 'NN'), ('determine', 'VBD'), ('basis', 'NN'), ('first', 'JJ'), ('public', 'JJ'), ('parameter', 'NN')], [('update', 'VBG'), ('first', 'JJ'), ('private', 'JJ'), ('parameter', 'NN'), ('first', 'JJ'), ('public', 'JJ'), ('parameter', 'NN'), ('basis', 'NN'), ('second', 'NNP'), ('cross', 'NN'), ('update', 'NN'), ('parameter', 'NN'), ('value', 'NN'), ('loss', 'NN'), ('function', 'NN'), ('minimize', 'VBD')], [('update', 'VBG'), ('first', 'RB'), ('ai', 'NNP'), ('model', 'NNP'), ('basis', 'NN'), ('update', 'VBD'), ('first', 'JJ'), ('personal', 'JJ'), ('parameter', 'NN'), ('first', 'JJ'), ('public', 'JJ'), ('parameter', 'NN'), ('second', 'JJ'), ('public', 'JJ'), ('parameter', 'NN'), ('receive', 'VBD'), ('second', 'JJ'), ('device', 'NN')], [('determine', 'VBG'), ('recommend', 'VBN'), ('content', 'NN'), ('use', 'VBG'), ('update', 'VBN'), ('first', 'JJ'), ('ai', 'NNP'), ('model', 'NN'), ('provide', 'NN'), ('list', 'NN'), ('recommend', 'VBN'), ('content', 'NNS')]]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('provide', 'device'), ('ai', 'model'), ('use', 'loss'), ('determine', 'basis'), ('recommend', 'content')]</t>
+          <t>[('provide', 'device'), ('recommend', 'content'), ('follow', 'step'), ('relate', 'update'), ('use', 'loss'), ('determine', 'basis'), ('recommend', 'content'), ('recommend', 'content')]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[('provide', 'device'), ('ai', 'model', 'recommending', 'content'), ('update', 'use', 'loss', 'function'), ('determine', 'basis', 'first'), ('recommend', 'content')]</t>
+          <t>[('provide', 'device'), ('recommend', 'content'), ('follow', 'step'), ('relate', 'update'), ('update', 'use', 'loss', 'function'), ('determine', 'basis'), ('determine', 'recommend', 'content'), ('recommend', 'content')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[('provide', 'device'), ('ai', 'model'), ('correspond', 'first', 'ai'), ('use', 'loss'), ('determine', 'basis'), ('receive', 'second', 'device'), ('recommend', 'content')]</t>
+          <t>[('provide', 'device'), ('recommend', 'content'), ('follow', 'step'), ('relate', 'update'), ('use', 'loss'), ('receive', 'second', 'device'), ('determine', 'basis'), ('receive', 'second', 'device'), ('recommend', 'content'), ('recommend', 'content')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[('follow', 'step'), ('provide', 'list')]</t>
+          <t>[('provide', 'device'), ('recommend', 'content'), ('follow', 'step'), ('identify', 'first', 'private', 'parameter'), ('relate', 'update'), ('transmit', 'first', 'public', 'parameter'), ('update', 'use', 'loss', 'function'), ('receive', 'second', 'public', 'parameter', 'loss', 'function'), ('receive', 'second', 'device'), ('determine', 'basis'), ('update', 'first', 'private', 'parameter'), ('update', 'first', 'personal', 'parameter'), ('receive', 'second', 'device'), ('determine', 'recommend', 'content'), ('recommend', 'content')]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[('comprise', 'follow', 'step'), ('provide', 'list')]</t>
+          <t>[('provide', 'device'), ('recommend', 'content'), ('relate', 'update'), ('use', 'loss'), ('determine', 'basis'), ('recommend', 'content'), ('recommend', 'content')]</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>[('accord', 'present', 'invention'), ('follow', 'step'), ('provide', 'list')]</t>
+          <t>[('provide', 'device'), ('recommend', 'content'), ('relate', 'update'), ('update', 'use', 'loss', 'function'), ('determine', 'basis'), ('determine', 'recommend', 'content'), ('recommend', 'content')]</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>[('update', 'the', 'first', 'private', 'parameter'), ('identify', 'a', 'first', 'private', 'parameter'), ('update',), ('identify',), ('identify', 'a', 'first', 'private', 'parameter', 'and', 'a', 'first', 'public', 'parameter'), ('receive', 'a', 'second', 'public', 'parameter'), ('transmit', 'the', 'first', 'public', 'parameter'), ('transmit',), ('update', 'the', 'first', 'private', 'parameter', 'and', 'the', 'first', 'public', 'parameter')]</t>
+          <t>[('provide', 'device'), ('recommend', 'content'), ('relate', 'update'), ('use', 'loss'), ('receive', 'second', 'device'), ('determine', 'basis'), ('receive', 'second', 'device'), ('recommend', 'content'), ('recommend', 'content')]</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[('identify',), ('transmit',), ('receive', 'a', 'second', 'public', 'parameter')]</t>
+          <t>[('provide', 'device'), ('recommend', 'content'), ('identify', 'first', 'private', 'parameter'), ('relate', 'update'), ('transmit', 'first', 'public', 'parameter'), ('update', 'use', 'loss', 'function'), ('receive', 'second', 'public', 'parameter', 'loss', 'function'), ('receive', 'second', 'device'), ('determine', 'basis'), ('update', 'first', 'private', 'parameter'), ('update', 'first', 'personal', 'parameter'), ('receive', 'second', 'device'), ('determine', 'recommend', 'content'), ('recommend', 'content')]</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>[('update',), ('identify',), ('transmit',)]</t>
+          <t>[('follow', 'step')]</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>[('follow', 'step')]</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>[('follow', 'step')]</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>[('follow', 'step')]</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>[('identify',), ('identify', 'a', 'first', 'private', 'parameter'), ('receive', 'a', 'second', 'public', 'parameter'), ('transmit', 'the', 'first', 'public', 'parameter'), ('transmit',), ('identify', 'a', 'first', 'private', 'parameter', 'and', 'a', 'first', 'public', 'parameter')]</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>[('identify',), ('identify', 'a', 'first', 'private', 'parameter'), ('receive', 'a', 'second', 'public', 'parameter'), ('transmit', 'the', 'first', 'public', 'parameter'), ('transmit',), ('identify', 'a', 'first', 'private', 'parameter', 'and', 'a', 'first', 'public', 'parameter')]</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>[('identify',), ('identify', 'a', 'first', 'private', 'parameter'), ('transmit', 'the', 'first', 'public', 'parameter'), ('transmit',), ('identify', 'a', 'first', 'private', 'parameter', 'and', 'a', 'first', 'public', 'parameter')]</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>An artificial intelligence (AI) system for determining to which social group a person belongs. The AI system includes a computer system and a computer program product which, when running on the computer system, is to: retrieve at least one image of the person belonging to a social group; labels the person, resulting in a labeled person; retrieve at least one image part showing appearance of the labeled person; subject said at least one image part to at least one trained machine learning model defined in the computer program product, the machine learning model including at least a part that is trained on a test set of annotated images which are annotated with respect to categories that correlate to social group, and determine from the at least one trained machine learning model a social group category to which the labeled person belongs.</t>
+          <t>an artificial intelligence (ai) system for determining to which social group a person belongs. the ai system includes a computer system and a computer program product which, when running on the computer system, is to: retrieve at least one image of the person belonging to a social group; labels the person, resulting in a labeled person; retrieve at least one image part showing appearance of the labeled person; subject said at least one image part to at least one trained machine learning model defined in the computer program product, the machine learning model including at least a part that is trained on a test set of annotated images which are annotated with respect to categories that correlate to social group, and determine from the at least one trained machine learning model a social group category to which the labeled person belongs.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[('include', 'computer'), ('run', 'computer'), ('label', 'person'), ('show', 'appearance'), ('label', 'person'), ('learn', 'model'), ('define', 'computer'), ('learn', 'model'), ('train', 'test'), ('annotate', 'image'), ('label', 'person')]</t>
+          <t>[('retrieve', 'at', 'least', 'one', 'image', 'of', 'the', 'person'), ('retrieve', 'at', 'least', 'one', 'image', 'part', 'show', 'appearance'), ('retrieve', 'at', 'least', 'one', 'image', 'of', 'the', 'person', 'belonging', 'to', 'a', 'social', 'group'), ('retrieve', 'at', 'least', 'one', 'image', 'of', 'the', 'person', 'belonging'), ('label', 'the', 'person'), ('result', 'in', 'a', 'label', 'person'), ('retrieve', 'at', 'least', 'one', 'image', 'part', 'show', 'appearance', 'of', 'the', 'label', 'person'), ('determine', 'to', 'which', 'social', 'group', 'a', 'person', 'belongs'), ('retrieve', 'at', 'least', 'one', 'image')]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[('include', 'computer', 'system', 'computer', 'program', 'product'), ('run', 'computer', 'system'), ('result', 'label', 'person'), ('show', 'appearance'), ('label', 'person'), ('learn', 'model'), ('define', 'computer', 'program', 'product'), ('learn', 'model'), ('train', 'test', 'set'), ('annotate', 'image'), ('label', 'person', 'belongs')]</t>
+          <t>[['artificial', 'intelligence', 'ai', 'system', 'determining', 'social', 'group', 'person', 'belongs'], ['ai', 'system', 'includes', 'computer', 'system', 'computer', 'program', 'product', 'running', 'computer', 'system', 'retrieve', 'least', 'one', 'image', 'person', 'belonging', 'social', 'group'], ['labels', 'person', 'resulting', 'labeled', 'person'], ['retrieve', 'least', 'one', 'image', 'part', 'showing', 'appearance', 'labeled', 'person'], ['subject', 'said', 'least', 'one', 'image', 'part', 'least', 'one', 'trained', 'machine', 'learning', 'model', 'defined', 'computer', 'program', 'product', 'machine', 'learning', 'model', 'including', 'least', 'part', 'trained', 'test', 'set', 'annotated', 'images', 'annotated', 'respect', 'categories', 'correlate', 'social', 'group', 'determine', 'least', 'one', 'trained', 'machine', 'learning', 'model', 'social', 'group', 'category', 'labeled', 'person', 'belongs']]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[('determine', 'social', 'group'), ('include', 'computer'), ('run', 'computer'), ('belong', 'social', 'group'), ('label', 'person'), ('show', 'appearance'), ('label', 'person'), ('learn', 'model'), ('define', 'computer'), ('learn', 'model'), ('include', 'least', 'part'), ('train', 'test'), ('annotate', 'image'), ('annotate', 'respect', 'category'), ('correlate', 'social', 'group'), ('label', 'person')]</t>
+          <t>[[('artificial', 'JJ'), ('intelligence', 'NN'), ('ai', 'VBP'), ('system', 'NN'), ('determining', 'VBG'), ('social', 'JJ'), ('group', 'NN'), ('person', 'NN'), ('belongs', 'VBZ')], [('ai', 'VBN'), ('system', 'NN'), ('includes', 'VBZ'), ('computer', 'NN'), ('system', 'NN'), ('computer', 'NN'), ('program', 'NN'), ('product', 'NN'), ('running', 'VBG'), ('computer', 'NN'), ('system', 'NN'), ('retrieve', 'VBD'), ('least', 'JJS'), ('one', 'CD'), ('image', 'NN'), ('person', 'NN'), ('belonging', 'VBG'), ('social', 'JJ'), ('group', 'NN')], [('labels', 'VBZ'), ('person', 'NN'), ('resulting', 'VBG'), ('labeled', 'VBN'), ('person', 'NN')], [('retrieve', 'VB'), ('least', 'JJS'), ('one', 'CD'), ('image', 'NN'), ('part', 'NN'), ('showing', 'VBG'), ('appearance', 'NN'), ('labeled', 'VBN'), ('person', 'NN')], [('subject', 'NN'), ('said', 'VBD'), ('least', 'JJS'), ('one', 'CD'), ('image', 'NN'), ('part', 'NN'), ('least', 'RBS'), ('one', 'CD'), ('trained', 'VBN'), ('machine', 'NN'), ('learning', 'VBG'), ('model', 'NN'), ('defined', 'VBN'), ('computer', 'NN'), ('program', 'NN'), ('product', 'NN'), ('machine', 'NN'), ('learning', 'NN'), ('model', 'NN'), ('including', 'VBG'), ('least', 'JJS'), ('part', 'NN'), ('trained', 'VBN'), ('test', 'NN'), ('set', 'VBN'), ('annotated', 'VBN'), ('images', 'NNS'), ('annotated', 'VBD'), ('respect', 'NN'), ('categories', 'NNS'), ('correlate', 'VBP'), ('social', 'JJ'), ('group', 'NN'), ('determine', 'VB'), ('least', 'RBS'), ('one', 'CD'), ('trained', 'VBN'), ('machine', 'NN'), ('learning', 'VBG'), ('model', 'NN'), ('social', 'JJ'), ('group', 'NN'), ('category', 'NN'), ('labeled', 'VBN'), ('person', 'NN'), ('belongs', 'VBZ')]]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('determine', 'to', 'which', 'social', 'group', 'a', 'person', 'belongs'), ('retrieve', 'at', 'least', 'one', 'image'), ('label', 'the', 'person'), ('result', 'in', 'a', 'label', 'person'), ('retrieve', 'at', 'least', 'one', 'image', 'part', 'show', 'appearance', 'of', 'the', 'label', 'person'), ('determine', 'to', 'which', 'social', 'group', 'a', 'person', 'belongs'), ('retrieve', 'at', 'least', 'one', 'image', 'of', 'the', 'person'), ('label', 'the', 'person'), ('result', 'in', 'a', 'label', 'person'), ('retrieve', 'at', 'least', 'one', 'image', 'part', 'show', 'appearance'), ('determine', 'to', 'which', 'social', 'group', 'a', 'person', 'belongs'), ('retrieve', 'at', 'least', 'one', 'image', 'of', 'the', 'person', 'belonging'), ('label', 'the', 'person'), ('result', 'in', 'a', 'label', 'person'), ('determine', 'to', 'which', 'social', 'group', 'a', 'person', 'belongs'), ('determine', 'to', 'which', 'social', 'group', 'a', 'person', 'belongs'), ('retrieve', 'at', 'least', 'one', 'image', 'of', 'the', 'person', 'belonging', 'to', 'a', 'social', 'group')]</t>
+          <t>[[('artificial', 'JJ'), ('intelligence', 'NN'), ('ai', 'VBP'), ('system', 'NN'), ('determine', 'VBG'), ('social', 'JJ'), ('group', 'NN'), ('person', 'NN'), ('belong', 'VBZ')], [('ai', 'VBN'), ('system', 'NN'), ('include', 'VBZ'), ('computer', 'NN'), ('system', 'NN'), ('computer', 'NN'), ('program', 'NN'), ('product', 'NN'), ('run', 'VBG'), ('computer', 'NN'), ('system', 'NN'), ('retrieve', 'VBD'), ('least', 'JJS'), ('one', 'CD'), ('image', 'NN'), ('person', 'NN'), ('belong', 'VBG'), ('social', 'JJ'), ('group', 'NN')], [('label', 'VBZ'), ('person', 'NN'), ('result', 'VBG'), ('label', 'VBN'), ('person', 'NN')], [('retrieve', 'VB'), ('least', 'JJS'), ('one', 'CD'), ('image', 'NN'), ('part', 'NN'), ('show', 'VBG'), ('appearance', 'NN'), ('label', 'VBN'), ('person', 'NN')], [('subject', 'NN'), ('say', 'VBD'), ('least', 'JJS'), ('one', 'CD'), ('image', 'NN'), ('part', 'NN'), ('least', 'RBS'), ('one', 'CD'), ('train', 'VBN'), ('machine', 'NN'), ('learn', 'VBG'), ('model', 'NN'), ('define', 'VBN'), ('computer', 'NN'), ('program', 'NN'), ('product', 'NN'), ('machine', 'NN'), ('learning', 'NN'), ('model', 'NN'), ('include', 'VBG'), ('least', 'JJS'), ('part', 'NN'), ('train', 'VBN'), ('test', 'NN'), ('set', 'VBN'), ('annotate', 'VBN'), ('image', 'NNS'), ('annotate', 'VBD'), ('respect', 'NN'), ('category', 'NNS'), ('correlate', 'VBP'), ('social', 'JJ'), ('group', 'NN'), ('determine', 'VB'), ('least', 'RBS'), ('one', 'CD'), ('train', 'VBN'), ('machine', 'NN'), ('learn', 'VBG'), ('model', 'NN'), ('social', 'JJ'), ('group', 'NN'), ('category', 'NN'), ('label', 'VBN'), ('person', 'NN'), ('belong', 'VBZ')]]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('label', 'person'), ('show', 'appearance'), ('label', 'person'), ('annotate', 'image'), ('label', 'person')]</t>
+          <t>[('include', 'computer'), ('run', 'computer'), ('label', 'person'), ('label', 'person'), ('show', 'appearance'), ('label', 'person'), ('train', 'machine'), ('define', 'computer'), ('train', 'test'), ('annotate', 'image'), ('annotate', 'respect'), ('train', 'machine'), ('label', 'person')]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[('result', 'label', 'person'), ('show', 'appearance'), ('label', 'person'), ('annotate', 'image'), ('label', 'person', 'belongs')]</t>
+          <t>[('label', 'person'), ('result', 'label', 'person'), ('show', 'appearance'), ('label', 'person'), ('train', 'machine'), ('train', 'test'), ('set', 'annotate', 'image'), ('annotate', 'respect', 'category'), ('train', 'machine'), ('label', 'person')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[('determine', 'social', 'group'), ('belong', 'social', 'group'), ('label', 'person'), ('show', 'appearance'), ('label', 'person'), ('include', 'least', 'part'), ('annotate', 'image'), ('correlate', 'social', 'group'), ('label', 'person')]</t>
+          <t>[('determine', 'social', 'group'), ('include', 'computer'), ('run', 'computer'), ('belong', 'social', 'group'), ('label', 'person'), ('label', 'person'), ('show', 'appearance'), ('label', 'person'), ('train', 'machine'), ('define', 'computer'), ('include', 'least', 'part'), ('train', 'test'), ('annotate', 'image'), ('annotate', 'respect'), ('correlate', 'social', 'group'), ('train', 'machine'), ('label', 'person')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[('include', 'computer'), ('run', 'computer'), ('learn', 'model'), ('define', 'computer'), ('learn', 'model'), ('train', 'test')]</t>
+          <t>[('determine', 'social', 'group', 'person'), ('belong', 'social', 'group'), ('label', 'person'), ('result', 'label', 'person'), ('show', 'appearance'), ('label', 'person'), ('train', 'machine'), ('include', 'least', 'part'), ('train', 'test'), ('set', 'annotate', 'image'), ('annotate', 'respect', 'category'), ('correlate', 'social', 'group'), ('train', 'machine'), ('label', 'person')]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[('include', 'computer', 'system', 'computer', 'program', 'product'), ('run', 'computer', 'system'), ('learn', 'model'), ('define', 'computer', 'program', 'product'), ('learn', 'model'), ('train', 'test', 'set')]</t>
+          <t>[('label', 'person'), ('label', 'person'), ('show', 'appearance'), ('label', 'person'), ('annotate', 'image'), ('label', 'person')]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[('include', 'computer'), ('run', 'computer'), ('learn', 'model'), ('define', 'computer'), ('learn', 'model'), ('train', 'test'), ('annotate', 'respect', 'category')]</t>
+          <t>[('label', 'person'), ('result', 'label', 'person'), ('show', 'appearance'), ('label', 'person'), ('set', 'annotate', 'image'), ('label', 'person')]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('determine', 'social', 'group'), ('belong', 'social', 'group'), ('label', 'person'), ('label', 'person'), ('show', 'appearance'), ('label', 'person'), ('include', 'least', 'part'), ('annotate', 'image'), ('correlate', 'social', 'group'), ('label', 'person')]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('determine', 'social', 'group', 'person'), ('belong', 'social', 'group'), ('label', 'person'), ('result', 'label', 'person'), ('show', 'appearance'), ('label', 'person'), ('include', 'least', 'part'), ('set', 'annotate', 'image'), ('correlate', 'social', 'group'), ('label', 'person')]</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
+        <is>
+          <t>[('include', 'computer'), ('run', 'computer'), ('train', 'machine'), ('define', 'computer'), ('train', 'test'), ('annotate', 'respect'), ('train', 'machine')]</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>[('train', 'machine'), ('train', 'test'), ('annotate', 'respect', 'category'), ('train', 'machine')]</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>[('include', 'computer'), ('run', 'computer'), ('train', 'machine'), ('define', 'computer'), ('train', 'test'), ('annotate', 'respect'), ('train', 'machine')]</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>[('train', 'machine'), ('train', 'test'), ('annotate', 'respect', 'category'), ('train', 'machine')]</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1156,70 +1506,105 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>The invention provides a method and a system for detecting and positioning a moving object under a camera based on artificial intelligence, wherein the method comprises the following steps: the extraction step: extracting a target in the image by using an improved preset network; cascade matching step: predicting and updating a motion trail of a target through a Kalman filtering algorithm, and matching the predicted motion trail with a detection result of a current frame based on a Hungary algorithm; GIOU matching step: carrying out association matching on the predicted motion trail and the detection result which are unsuccessfully matched by utilizing a generalized cross-correlation ratio GIOU; position constraint step: and for the predicted motion trail of unsuccessful GIOU matching, calculating the position of the target relative to the carrier according to the motion target through a relative positioning algorithm, calculating the target closest to the tracking and detecting result, and updating the state again. According to the invention, ASF is added on the original yp module of yolov5, so that the adaptive fusion of high-low layer characteristics and the accurate positioning of targets are facilitated.</t>
+          <t>the invention provides a method and a system for detecting and positioning a moving object under a camera based on artificial intelligence, wherein the method comprises the following steps: the extraction step: extracting a target in the image by using an improved preset network; cascade matching step: predicting and updating a motion trail of a target through a kalman filtering algorithm, and matching the predicted motion trail with a detection result of a current frame based on a hungary algorithm; giou matching step: carrying out association matching on the predicted motion trail and the detection result which are unsuccessfully matched by utilizing a generalized cross-correlation ratio giou; position constraint step: and for the predicted motion trail of unsuccessful giou matching, calculating the position of the target relative to the carrier according to the motion target through a relative positioning algorithm, calculating the target closest to the tracking and detecting result, and updating the state again. according to the invention, asf is added on the original yp module of yolov5, so that the adaptive fusion of high-low layer characteristics and the accurate positioning of targets are facilitated.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[('follow', 'step'), ('extract', 'target'), ('improve', 'preset'), ('match', 'step'), ('filter', 'algorithm'), ('predict', 'motion'), ('match', 'step'), ('carry', 'association'), ('predict', 'motion'), ('predict', 'motion'), ('calculate', 'position'), ('accord', 'motion'), ('calculate', 'target'), ('detect', 'result'), ('update', 'state'), ('accord', 'invention'), ('position', 'target')]</t>
+          <t>[('carry', 'out', 'association'), ('match', 'on', 'the', 'predict', 'motion', 'trail'), ('calculate', 'the', 'position', 'of', 'the', 'target', 'relative'), ('calculate', 'the', 'target', 'closest', 'to', 'the', 'track', 'and', 'detect', 'result'), ('calculate', 'the', 'position'), ('calculate', 'the', 'target', 'closest'), ('calculate', 'the', 'position', 'of', 'the', 'target'), ('update', 'the', 'state', 'again'), ('detect', 'and', 'position', 'a', 'move', 'object'), ('predict', 'and', 'update', 'a', 'motion', 'trail', 'of', 'a', 'target'), ('carry', 'out', 'association', 'match'), ('carry', 'out', 'association', 'match', 'on', 'the', 'predict', 'motion', 'trail'), ('predict', 'and', 'update', 'a', 'motion'), ('detect', 'and', 'position', 'a', 'move', 'object', 'under', 'a', 'camera'), ('extract', 'a', 'target', 'in', 'the', 'image'), ('update', 'the', 'state'), ('calculate', 'the', 'position', 'of', 'the', 'target', 'relative', 'to', 'the', 'carrier'), ('predict', 'motion', 'trail'), ('calculate', 'the', 'target'), ('match', 'the', 'predict', 'motion', 'trail', 'with', 'a', 'detection', 'result', 'of', 'a', 'current', 'frame', 'base', 'on', 'a', 'hungary', 'algorithm'), ('predict', 'and', 'update', 'a', 'motion', 'trail'), ('match', 'the', 'predict', 'motion', 'trail')]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[('comprise', 'follow', 'step'), ('extract', 'target', 'image'), ('use', 'improve', 'preset', 'network'), ('match', 'step'), ('filter', 'algorithm'), ('match', 'predict', 'motion', 'trail', 'detection', 'result'), ('match', 'step'), ('carry', 'association'), ('match', 'predict', 'motion', 'trail', 'detection', 'result', 'unsuccessfully'), ('predict', 'motion', 'trail'), ('calculate', 'position', 'target'), ('accord', 'motion', 'target'), ('calculate', 'target'), ('track', 'detect', 'result'), ('update', 'state'), ('accord', 'invention'), ('accurate', 'position', 'target')]</t>
+          <t>[['invention', 'provides', 'method', 'system', 'detecting', 'positioning', 'moving', 'object', 'camera', 'based', 'artificial', 'intelligence', 'wherein', 'method', 'comprises', 'following', 'steps', 'extraction', 'step', 'extracting', 'target', 'image', 'using', 'improved', 'preset', 'network'], ['cascade', 'matching', 'step', 'predicting', 'updating', 'motion', 'trail', 'target', 'kalman', 'filtering', 'algorithm', 'matching', 'predicted', 'motion', 'trail', 'detection', 'result', 'current', 'frame', 'based', 'hungary', 'algorithm'], ['giou', 'matching', 'step', 'carrying', 'association', 'matching', 'predicted', 'motion', 'trail', 'detection', 'result', 'unsuccessfully', 'matched', 'utilizing', 'generalized', 'cross-correlation', 'ratio', 'giou'], ['position', 'constraint', 'step', 'predicted', 'motion', 'trail', 'unsuccessful', 'giou', 'matching', 'calculating', 'position', 'target', 'relative', 'carrier', 'according', 'motion', 'target', 'relative', 'positioning', 'algorithm', 'calculating', 'target', 'closest', 'tracking', 'detecting', 'result', 'updating', 'state'], ['according', 'invention', 'asf', 'added', 'original', 'yp', 'module', 'yolov5', 'adaptive', 'fusion', 'high-low', 'layer', 'characteristics', 'accurate', 'positioning', 'targets', 'facilitated']]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[('provide', 'method', 'system'), ('move', 'object', 'camera'), ('base', 'artificial', 'intelligence'), ('follow', 'step'), ('extract', 'target'), ('improve', 'preset'), ('match', 'step'), ('predict', 'updating', 'motion'), ('filter', 'algorithm'), ('predict', 'motion'), ('base', 'hungary', 'algorithm'), ('match', 'step'), ('carry', 'association'), ('predict', 'motion'), ('predict', 'motion'), ('calculate', 'position'), ('accord', 'motion'), ('calculate', 'target'), ('detect', 'result'), ('update', 'state'), ('accord', 'invention'), ('add', 'original', 'yp'), ('position', 'target')]</t>
+          <t>[[('invention', 'NN'), ('provides', 'VBZ'), ('method', 'NN'), ('system', 'NN'), ('detecting', 'VBG'), ('positioning', 'VBG'), ('moving', 'VBG'), ('object', 'JJ'), ('camera', 'NN'), ('based', 'VBN'), ('artificial', 'JJ'), ('intelligence', 'NN'), ('wherein', 'WRB'), ('method', 'NN'), ('comprises', 'NNS'), ('following', 'VBG'), ('steps', 'NNS'), ('extraction', 'NN'), ('step', 'NN'), ('extracting', 'VBG'), ('target', 'NN'), ('image', 'NN'), ('using', 'VBG'), ('improved', 'VBN'), ('preset', 'JJ'), ('network', 'NN')], [('cascade', 'NN'), ('matching', 'NN'), ('step', 'NN'), ('predicting', 'VBG'), ('updating', 'VBG'), ('motion', 'NN'), ('trail', 'NN'), ('target', 'NN'), ('kalman', 'NN'), ('filtering', 'NNP'), ('algorithm', 'NNP'), ('matching', 'NNP'), ('predicted', 'VBD'), ('motion', 'NN'), ('trail', 'NN'), ('detection', 'NN'), ('result', 'VBP'), ('current', 'JJ'), ('frame', 'NN'), ('based', 'VBN'), ('hungary', 'NNP'), ('algorithm', 'NNP')], [('giou', 'NN'), ('matching', 'VBG'), ('step', 'NN'), ('carrying', 'VBG'), ('association', 'NN'), ('matching', 'NN'), ('predicted', 'VBD'), ('motion', 'NN'), ('trail', 'NN'), ('detection', 'NN'), ('result', 'VBP'), ('unsuccessfully', 'RB'), ('matched', 'VBN'), ('utilizing', 'VBG'), ('generalized', 'VBN'), ('cross', 'JJ'), ('-', 'JJ'), ('correlation', 'JJ'), ('ratio', 'NN'), ('giou', 'NN')], [('position', 'NN'), ('constraint', 'NN'), ('step', 'NN'), ('predicted', 'VBD'), ('motion', 'NN'), ('trail', 'NN'), ('unsuccessful', 'JJ'), ('giou', 'NN'), ('matching', 'VBG'), ('calculating', 'VBG'), ('position', 'NN'), ('target', 'NN'), ('relative', 'JJ'), ('carrier', 'NN'), ('according', 'VBG'), ('motion', 'NN'), ('target', 'NN'), ('relative', 'JJ'), ('positioning', 'NN'), ('algorithm', 'NNS'), ('calculating', 'VBG'), ('target', 'NN'), ('closest', 'JJS'), ('tracking', 'NN'), ('detecting', 'VBG'), ('result', 'NN'), ('updating', 'VBG'), ('state', 'NN')], [('according', 'VBG'), ('invention', 'NN'), ('asf', 'NN'), ('added', 'VBD'), ('original', 'JJ'), ('yp', 'NNP'), ('module', 'NN'), ('yolov5', 'NN'), ('adaptive', 'JJ'), ('fusion', 'NN'), ('high', 'JJ'), ('-', 'HYPH'), ('low', 'JJ'), ('layer', 'NN'), ('characteristics', 'NNS'), ('accurate', 'JJ'), ('positioning', 'NN'), ('targets', 'NNS'), ('facilitated', 'VBN')]]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('detect', 'and', 'position', 'a', 'move', 'object', 'under', 'a', 'camera'), ('extract', 'a', 'target', 'in', 'the', 'image'), ('predict', 'and', 'update', 'a', 'motion'), ('match', 'the', 'predict', 'motion', 'trail'), ('calculate', 'the', 'position'), ('calculate', 'the', 'target', 'closest'), ('update', 'the', 'state'), ('detect', 'and', 'position', 'a', 'move', 'object'), ('extract', 'a', 'target', 'in', 'the', 'image'), ('predict', 'and', 'update', 'a', 'motion', 'trail', 'of', 'a', 'target'), ('match', 'the', 'predict', 'motion', 'trail', 'with', 'a', 'detection', 'result', 'of', 'a', 'current', 'frame', 'base', 'on', 'a', 'hungary', 'algorithm'), ('carry', 'out', 'association'), ('match', 'on', 'the', 'predict', 'motion', 'trail'), ('calculate', 'the', 'position', 'of', 'the', 'target', 'relative'), ('calculate', 'the', 'target', 'closest', 'to', 'the', 'track', 'and', 'detect', 'result'), ('update', 'the', 'state', 'again'), ('detect', 'and', 'position', 'a', 'move', 'object', 'under', 'a', 'camera'), ('predict', 'and', 'update', 'a', 'motion', 'trail', 'of', 'a', 'target'), ('predict', 'motion', 'trail'), ('calculate', 'the', 'position', 'of', 'the', 'target'), ('calculate', 'the', 'target'), ('update', 'the', 'state'), ('detect', 'and', 'position', 'a', 'move', 'object'), ('extract', 'a', 'target', 'in', 'the', 'image'), ('predict', 'and', 'update', 'a', 'motion', 'trail', 'of', 'a', 'target'), ('match', 'the', 'predict', 'motion', 'trail'), ('carry', 'out', 'association', 'match'), ('calculate', 'the', 'position', 'of', 'the', 'target', 'relative', 'to', 'the', 'carrier'), ('detect', 'and', 'position', 'a', 'move', 'object'), ('extract', 'a', 'target', 'in', 'the', 'image'), ('predict', 'and', 'update', 'a', 'motion', 'trail'), ('match', 'the', 'predict', 'motion', 'trail'), ('carry', 'out', 'association', 'match', 'on', 'the', 'predict', 'motion', 'trail'), ('calculate', 'the', 'position', 'of', 'the', 'target')]</t>
+          <t>[[('invention', 'NN'), ('provide', 'VBZ'), ('method', 'NN'), ('system', 'NN'), ('detect', 'VBG'), ('position', 'VBG'), ('move', 'VBG'), ('object', 'JJ'), ('camera', 'NN'), ('base', 'VBN'), ('artificial', 'JJ'), ('intelligence', 'NN'), ('wherein', 'WRB'), ('method', 'NN'), ('comprises', 'NNS'), ('follow', 'VBG'), ('step', 'NNS'), ('extraction', 'NN'), ('step', 'NN'), ('extract', 'VBG'), ('target', 'NN'), ('image', 'NN'), ('use', 'VBG'), ('improve', 'VBN'), ('preset', 'JJ'), ('network', 'NN')], [('cascade', 'NN'), ('matching', 'NN'), ('step', 'NN'), ('predict', 'VBG'), ('update', 'VBG'), ('motion', 'NN'), ('trail', 'NN'), ('target', 'NN'), ('kalman', 'NN'), ('filtering', 'NNP'), ('algorithm', 'NNP'), ('matching', 'NNP'), ('predict', 'VBD'), ('motion', 'NN'), ('trail', 'NN'), ('detection', 'NN'), ('result', 'VBP'), ('current', 'JJ'), ('frame', 'NN'), ('base', 'VBN'), ('hungary', 'NNP'), ('algorithm', 'NNP')], [('giou', 'NN'), ('match', 'VBG'), ('step', 'NN'), ('carry', 'VBG'), ('association', 'NN'), ('matching', 'NN'), ('predict', 'VBD'), ('motion', 'NN'), ('trail', 'NN'), ('detection', 'NN'), ('result', 'VBP'), ('unsuccessfully', 'RB'), ('match', 'VBN'), ('utilize', 'VBG'), ('generalize', 'VBN'), ('cross', 'JJ'), ('-', 'JJ'), ('correlation', 'JJ'), ('ratio', 'NN'), ('giou', 'NN')], [('position', 'NN'), ('constraint', 'NN'), ('step', 'NN'), ('predict', 'VBD'), ('motion', 'NN'), ('trail', 'NN'), ('unsuccessful', 'JJ'), ('giou', 'NN'), ('match', 'VBG'), ('calculate', 'VBG'), ('position', 'NN'), ('target', 'NN'), ('relative', 'JJ'), ('carrier', 'NN'), ('accord', 'VBG'), ('motion', 'NN'), ('target', 'NN'), ('relative', 'JJ'), ('positioning', 'NN'), ('algorithm', 'NNS'), ('calculate', 'VBG'), ('target', 'NN'), ('close', 'JJS'), ('tracking', 'NN'), ('detect', 'VBG'), ('result', 'NN'), ('update', 'VBG'), ('state', 'NN')], [('accord', 'VBG'), ('invention', 'NN'), ('asf', 'NN'), ('add', 'VBD'), ('original', 'JJ'), ('yp', 'NNP'), ('module', 'NN'), ('yolov5', 'NN'), ('adaptive', 'JJ'), ('fusion', 'NN'), ('high', 'JJ'), ('-', 'HYPH'), ('low', 'JJ'), ('layer', 'NN'), ('characteristic', 'NNS'), ('accurate', 'JJ'), ('positioning', 'NN'), ('target', 'NNS'), ('facilitate', 'VBN')]]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('extract', 'target'), ('match', 'step'), ('filter', 'algorithm'), ('predict', 'motion'), ('match', 'step'), ('carry', 'association'), ('predict', 'motion'), ('predict', 'motion'), ('calculate', 'position'), ('accord', 'motion'), ('calculate', 'target'), ('detect', 'result'), ('update', 'state'), ('position', 'target')]</t>
+          <t>[('follow', 'step'), ('extract', 'target'), ('update', 'motion'), ('predict', 'motion'), ('base', 'hungary'), ('match', 'step'), ('carry', 'association'), ('predict', 'motion'), ('predict', 'motion'), ('calculate', 'position'), ('accord', 'motion'), ('calculate', 'target'), ('detect', 'result'), ('update', 'state')]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[('extract', 'target', 'image'), ('match', 'step'), ('filter', 'algorithm'), ('match', 'predict', 'motion', 'trail', 'detection', 'result'), ('match', 'step'), ('carry', 'association'), ('match', 'predict', 'motion', 'trail', 'detection', 'result', 'unsuccessfully'), ('predict', 'motion', 'trail'), ('calculate', 'position', 'target'), ('accord', 'motion', 'target'), ('calculate', 'target'), ('track', 'detect', 'result'), ('update', 'state'), ('accurate', 'position', 'target')]</t>
+          <t>[('follow', 'step', 'extraction', 'step'), ('extract', 'target', 'image'), ('predict', 'update', 'motion', 'trail', 'target', 'kalman', 'filtering', 'algorithm', 'matching'), ('predict', 'motion', 'trail', 'detection'), ('base', 'hungary', 'algorithm'), ('match', 'step'), ('carry', 'association', 'matching'), ('predict', 'motion', 'trail', 'detection'), ('result', 'unsuccessfully'), ('predict', 'motion', 'trail'), ('match', 'calculate', 'position', 'target'), ('accord', 'motion', 'target'), ('calculate', 'target'), ('detect', 'result'), ('update', 'state')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[('move', 'object', 'camera'), ('base', 'artificial', 'intelligence'), ('extract', 'target'), ('match', 'step'), ('predict', 'updating', 'motion'), ('filter', 'algorithm'), ('predict', 'motion'), ('base', 'hungary', 'algorithm'), ('match', 'step'), ('carry', 'association'), ('predict', 'motion'), ('predict', 'motion'), ('calculate', 'position'), ('accord', 'motion'), ('calculate', 'target'), ('detect', 'result'), ('update', 'state'), ('position', 'target')]</t>
+          <t>[('move', 'object', 'camera'), ('follow', 'step'), ('extract', 'target'), ('improve', 'preset', 'network'), ('update', 'motion'), ('predict', 'motion'), ('result', 'current', 'frame'), ('base', 'hungary'), ('match', 'step'), ('carry', 'association'), ('predict', 'motion'), ('predict', 'motion'), ('calculate', 'position'), ('accord', 'motion'), ('calculate', 'target'), ('detect', 'result'), ('update', 'state'), ('add', 'original', 'yp')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[('follow', 'step'), ('improve', 'preset'), ('accord', 'invention')]</t>
+          <t>[('detect', 'position', 'move', 'object', 'camera'), ('follow', 'step', 'extraction', 'step'), ('extract', 'target', 'image'), ('use', 'improve', 'preset', 'network'), ('predict', 'update', 'motion', 'trail', 'target', 'kalman', 'filtering', 'algorithm', 'matching'), ('predict', 'motion', 'trail', 'detection'), ('result', 'current', 'frame'), ('base', 'hungary', 'algorithm'), ('match', 'step'), ('carry', 'association', 'matching'), ('predict', 'motion', 'trail', 'detection'), ('match', 'utilize', 'generalize', 'cross', '-', 'correlation', 'ratio', 'giou'), ('predict', 'motion', 'trail'), ('match', 'calculate', 'position', 'target'), ('accord', 'motion', 'target'), ('calculate', 'target'), ('detect', 'result'), ('update', 'state'), ('add', 'original', 'yp', 'module', 'yolov5')]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[('comprise', 'follow', 'step'), ('use', 'improve', 'preset', 'network'), ('accord', 'invention')]</t>
+          <t>[('extract', 'target'), ('update', 'motion'), ('predict', 'motion'), ('base', 'hungary'), ('match', 'step'), ('carry', 'association'), ('predict', 'motion'), ('predict', 'motion'), ('calculate', 'position'), ('accord', 'motion'), ('calculate', 'target'), ('detect', 'result'), ('update', 'state')]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[('provide', 'method', 'system'), ('follow', 'step'), ('improve', 'preset'), ('accord', 'invention'), ('add', 'original', 'yp')]</t>
+          <t>[('extract', 'target', 'image'), ('predict', 'update', 'motion', 'trail', 'target', 'kalman', 'filtering', 'algorithm', 'matching'), ('predict', 'motion', 'trail', 'detection'), ('base', 'hungary', 'algorithm'), ('match', 'step'), ('carry', 'association', 'matching'), ('predict', 'motion', 'trail', 'detection'), ('result', 'unsuccessfully'), ('predict', 'motion', 'trail'), ('match', 'calculate', 'position', 'target'), ('accord', 'motion', 'target'), ('calculate', 'target'), ('detect', 'result'), ('update', 'state')]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('move', 'object', 'camera'), ('extract', 'target'), ('update', 'motion'), ('predict', 'motion'), ('result', 'current', 'frame'), ('base', 'hungary'), ('match', 'step'), ('carry', 'association'), ('predict', 'motion'), ('predict', 'motion'), ('calculate', 'position'), ('accord', 'motion'), ('calculate', 'target'), ('detect', 'result'), ('update', 'state')]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('detect', 'position', 'move', 'object', 'camera'), ('extract', 'target', 'image'), ('predict', 'update', 'motion', 'trail', 'target', 'kalman', 'filtering', 'algorithm', 'matching'), ('predict', 'motion', 'trail', 'detection'), ('result', 'current', 'frame'), ('base', 'hungary', 'algorithm'), ('match', 'step'), ('carry', 'association', 'matching'), ('predict', 'motion', 'trail', 'detection'), ('match', 'utilize', 'generalize', 'cross', '-', 'correlation', 'ratio', 'giou'), ('predict', 'motion', 'trail'), ('match', 'calculate', 'position', 'target'), ('accord', 'motion', 'target'), ('calculate', 'target'), ('detect', 'result'), ('update', 'state')]</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
+        <is>
+          <t>[('follow', 'step')]</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>[('follow', 'step', 'extraction', 'step')]</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>[('follow', 'step'), ('improve', 'preset', 'network'), ('add', 'original', 'yp')]</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>[('follow', 'step', 'extraction', 'step'), ('use', 'improve', 'preset', 'network'), ('add', 'original', 'yp', 'module', 'yolov5')]</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1228,286 +1613,426 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Managing directors and chief executives formulate and review the policies and plan, direct, coordinate and evaluate the overall activities of enterprises or organizations (except special-interest organizations and government departments) with the support of other managers, usually within guidelines established by a board of directors or a governing body to whom they are answerable for the operations undertaken and results.</t>
+          <t>managing directors and chief executives formulate and review the policies and plan, direct, coordinate and evaluate the overall activities of enterprises or organizations (except special-interest organizations and government departments) with the support of other managers, usually within guidelines established by a board of directors or a governing body to whom they are answerable for the operations undertaken and results.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[('manage', 'director'), ('formulate', 'review'), ('enterprises', 'organization'), ('establish', 'board'), ('govern', 'body')]</t>
+          <t>[('direct',), ('evaluate', 'the', 'overall', 'activity'), ('plan', 'direct', 'coordinate', 'and', 'evaluate', 'the', 'overall', 'activity'), ('coordinate', 'evaluate'), ('plan',), ('formulate', 'and', 'review', 'the', 'policy', 'and', 'plan'), ('evaluate',), ('coordinate', 'and', 'evaluate', 'the', 'overall', 'activity', 'of', 'enterprise', 'or', 'organization'), ('formulate', 'and', 'review', 'the', 'policy'), ('formulate', 'and', 'review'), ('coordinate',)]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[('manage', 'director'), ('formulate', 'review', 'policy'), ('enterprises', 'organization'), ('establish', 'board', 'director'), ('govern', 'body')]</t>
+          <t>[['managing', 'directors', 'chief', 'executives', 'formulate', 'review', 'policies', 'plan', 'direct', 'coordinate', 'evaluate', 'overall', 'activities', 'enterprises', 'organizations', 'except', 'special-interest', 'organizations', 'government', 'departments', 'support', 'managers', 'usually', 'within', 'guidelines', 'established', 'board', 'directors', 'governing', 'body', 'answerable', 'operations', 'undertaken', 'results']]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[('manage', 'director'), ('formulate', 'review'), ('evaluate', 'overall', 'activity'), ('enterprises', 'organization'), ('establish', 'board'), ('govern', 'body')]</t>
+          <t>[[('managing', 'VBG'), ('directors', 'NNS'), ('chief', 'NN'), ('executives', 'NNS'), ('formulate', 'VBP'), ('review', 'NN'), ('policies', 'NNS'), ('plan', 'VBP'), ('direct', 'JJ'), ('coordinate', 'NN'), ('evaluate', 'VBP'), ('overall', 'JJ'), ('activities', 'NNS'), ('enterprises', 'NNS'), ('organizations', 'NNS'), ('except', 'IN'), ('special', 'JJ'), ('-', 'HYPH'), ('interest', 'NN'), ('organizations', 'NNS'), ('government', 'NN'), ('departments', 'NNS'), ('support', 'VBP'), ('managers', 'NNS'), ('usually', 'RB'), ('within', 'IN'), ('guidelines', 'NNS'), ('established', 'VBD'), ('board', 'NN'), ('directors', 'NNS'), ('governing', 'VBG'), ('body', 'NN'), ('answerable', 'JJ'), ('operations', 'NNS'), ('undertaken', 'VBD'), ('results', 'NNS')]]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('formulate', 'and', 'review'), ('coordinate',), ('evaluate',), ('formulate', 'and', 'review', 'the', 'policy', 'and', 'plan'), ('direct',), ('coordinate', 'and', 'evaluate', 'the', 'overall', 'activity', 'of', 'enterprise', 'or', 'organization'), ('formulate', 'and', 'review', 'the', 'policy'), ('plan', 'direct', 'coordinate', 'and', 'evaluate', 'the', 'overall', 'activity'), ('formulate', 'and', 'review', 'the', 'policy'), ('plan',), ('direct',), ('coordinate', 'evaluate'), ('formulate', 'and', 'review', 'the', 'policy', 'and', 'plan'), ('evaluate', 'the', 'overall', 'activity')]</t>
+          <t>[[('manage', 'VBG'), ('director', 'NNS'), ('chief', 'NN'), ('executive', 'NNS'), ('formulate', 'VBP'), ('review', 'NN'), ('policy', 'NNS'), ('plan', 'VBP'), ('direct', 'JJ'), ('coordinate', 'NN'), ('evaluate', 'VBP'), ('overall', 'JJ'), ('activity', 'NNS'), ('enterprise', 'NNS'), ('organization', 'NNS'), ('except', 'IN'), ('special', 'JJ'), ('-', 'HYPH'), ('interest', 'NN'), ('organization', 'NNS'), ('government', 'NN'), ('department', 'NNS'), ('support', 'VBP'), ('manager', 'NNS'), ('usually', 'RB'), ('within', 'IN'), ('guideline', 'NNS'), ('establish', 'VBD'), ('board', 'NN'), ('director', 'NNS'), ('govern', 'VBG'), ('body', 'NN'), ('answerable', 'JJ'), ('operation', 'NNS'), ('undertake', 'VBD'), ('result', 'NNS')]]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('formulate', 'review'), ('enterprises', 'organization')]</t>
+          <t>[('manage', 'director'), ('formulate', 'review'), ('support', 'manager'), ('establish', 'board'), ('govern', 'body'), ('undertake', 'result')]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[('formulate', 'review', 'policy'), ('enterprises', 'organization')]</t>
+          <t>[('manage', 'director', 'chief', 'executive'), ('formulate', 'review', 'policy'), ('support', 'manager', 'usually'), ('establish', 'board', 'director'), ('govern', 'body'), ('undertake', 'result')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[('formulate', 'review'), ('evaluate', 'overall', 'activity'), ('enterprises', 'organization')]</t>
+          <t>[('manage', 'director'), ('formulate', 'review'), ('plan', 'direct', 'coordinate'), ('evaluate', 'overall', 'activity'), ('support', 'manager'), ('establish', 'board'), ('govern', 'body'), ('undertake', 'result')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[('manage', 'director'), ('establish', 'board'), ('govern', 'body')]</t>
+          <t>[('manage', 'director', 'chief', 'executive'), ('formulate', 'review', 'policy'), ('plan', 'direct', 'coordinate'), ('evaluate', 'overall', 'activity', 'enterprise', 'organization'), ('support', 'manager'), ('establish', 'board', 'director'), ('govern', 'body'), ('undertake', 'result')]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[('manage', 'director'), ('establish', 'board', 'director'), ('govern', 'body')]</t>
+          <t>[('formulate', 'review')]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[('manage', 'director'), ('establish', 'board'), ('govern', 'body')]</t>
+          <t>[('formulate', 'review', 'policy')]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>[('plan', 'direct', 'coordinate', 'and', 'evaluate', 'the', 'overall', 'activity'), ('direct',), ('coordinate', 'evaluate'), ('coordinate',), ('evaluate', 'the', 'overall', 'activity'), ('plan',), ('evaluate',)]</t>
+          <t>[('formulate', 'review'), ('plan', 'direct', 'coordinate'), ('evaluate', 'overall', 'activity')]</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[('plan', 'direct', 'coordinate', 'and', 'evaluate', 'the', 'overall', 'activity'), ('direct',), ('coordinate', 'evaluate'), ('coordinate',), ('evaluate', 'the', 'overall', 'activity'), ('plan',), ('evaluate',)]</t>
+          <t>[('formulate', 'review', 'policy'), ('plan', 'direct', 'coordinate'), ('evaluate', 'overall', 'activity', 'enterprise', 'organization')]</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>[('plan',), ('direct',), ('coordinate',)]</t>
+          <t>[('manage', 'director'), ('support', 'manager'), ('establish', 'board'), ('govern', 'body'), ('undertake', 'result')]</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>[('manage', 'director', 'chief', 'executive'), ('support', 'manager', 'usually'), ('establish', 'board', 'director'), ('govern', 'body'), ('undertake', 'result')]</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>[('manage', 'director'), ('support', 'manager'), ('establish', 'board'), ('govern', 'body'), ('undertake', 'result')]</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>[('manage', 'director', 'chief', 'executive'), ('support', 'manager'), ('establish', 'board', 'director'), ('govern', 'body'), ('undertake', 'result')]</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>[('coordinate', 'and', 'evaluate', 'the', 'overall', 'activity', 'of', 'enterprise', 'or', 'organization'), ('direct',), ('plan', 'direct', 'coordinate', 'and', 'evaluate', 'the', 'overall', 'activity'), ('coordinate', 'evaluate'), ('plan',), ('evaluate',), ('evaluate', 'the', 'overall', 'activity'), ('coordinate',)]</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>[('coordinate', 'and', 'evaluate', 'the', 'overall', 'activity', 'of', 'enterprise', 'or', 'organization'), ('direct',), ('plan', 'direct', 'coordinate', 'and', 'evaluate', 'the', 'overall', 'activity'), ('coordinate', 'evaluate'), ('plan',), ('evaluate',), ('evaluate', 'the', 'overall', 'activity'), ('coordinate',)]</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mining supervisors oversee mining and quarrying operations and directly supervise and coordinate the activities of miners working in underground and surface mines and quarries.</t>
+          <t>mining supervisors oversee mining and quarrying operations and directly supervise and coordinate the activities of miners working in underground and surface mines and quarries.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[('quarry', 'operation'), ('supervise', 'coordinate')]</t>
+          <t>[('coordinate', 'the', 'activity'), ('coordinate', 'the', 'activity', 'of', 'miner'), ('directly', 'supervise'), ('oversee', 'mining'), ('oversee', 'mining', 'and', 'quarry', 'operation'), ('quarry', 'operation'), ('supervise', 'and', 'coordinate', 'the', 'activity', 'of', 'miner'), ('directly', 'supervise', 'and', 'coordinate', 'the', 'activity')]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[('oversee', 'mine', 'quarry', 'operation', 'directly'), ('supervise', 'coordinate', 'activity', 'miner')]</t>
+          <t>[['mining', 'supervisors', 'oversee', 'mining', 'quarrying', 'operations', 'directly', 'supervise', 'coordinate', 'activities', 'miners', 'working', 'underground', 'surface', 'mines', 'quarries']]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[('quarry', 'operation'), ('supervise', 'coordinate'), ('work', 'underground', 'surface')]</t>
+          <t>[[('mining', 'NN'), ('supervisors', 'NNS'), ('oversee', 'VBP'), ('mining', 'NN'), ('quarrying', 'VBG'), ('operations', 'NNS'), ('directly', 'RB'), ('supervise', 'VBP'), ('coordinate', 'NN'), ('activities', 'NNS'), ('miners', 'NNS'), ('working', 'VBG'), ('underground', 'JJ'), ('surface', 'NN'), ('mines', 'NNS'), ('quarries', 'NNS')]]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('directly', 'supervise', 'and', 'coordinate', 'the', 'activity'), ('oversee', 'mining'), ('quarry', 'operation'), ('directly', 'supervise'), ('coordinate', 'the', 'activity'), ('supervise', 'and', 'coordinate', 'the', 'activity', 'of', 'miner'), ('oversee', 'mining', 'and', 'quarry', 'operation'), ('directly', 'supervise', 'and', 'coordinate', 'the', 'activity'), ('oversee', 'mining', 'and', 'quarry', 'operation'), ('coordinate', 'the', 'activity', 'of', 'miner')]</t>
+          <t>[[('mining', 'NN'), ('supervisor', 'NNS'), ('oversee', 'VBP'), ('mining', 'NN'), ('quarry', 'VBG'), ('operation', 'NNS'), ('directly', 'RB'), ('supervise', 'VBP'), ('coordinate', 'NN'), ('activity', 'NNS'), ('miner', 'NNS'), ('work', 'VBG'), ('underground', 'JJ'), ('surface', 'NN'), ('mine', 'NNS'), ('quarry', 'NNS')]]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('quarry', 'operation'), ('supervise', 'coordinate')]</t>
+          <t>[('oversee', 'mining'), ('quarry', 'operation'), ('supervise', 'coordinate')]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[('oversee', 'mine', 'quarry', 'operation', 'directly'), ('supervise', 'coordinate', 'activity', 'miner')]</t>
+          <t>[('oversee', 'mining'), ('quarry', 'operation', 'directly'), ('supervise', 'coordinate', 'activity', 'miner')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[('quarry', 'operation'), ('supervise', 'coordinate')]</t>
+          <t>[('oversee', 'mining'), ('quarry', 'operation'), ('supervise', 'coordinate'), ('work', 'underground', 'surface')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('oversee', 'mining'), ('quarry', 'operation'), ('supervise', 'coordinate', 'activity', 'miner'), ('work', 'underground', 'surface', 'mine', 'quarry')]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('oversee', 'mining'), ('quarry', 'operation'), ('supervise', 'coordinate')]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>[('oversee', 'mining'), ('quarry', 'operation', 'directly'), ('supervise', 'coordinate', 'activity', 'miner')]</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[('oversee', 'mining'), ('quarry', 'operation'), ('supervise', 'coordinate')]</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>[('oversee', 'mining'), ('quarry', 'operation'), ('supervise', 'coordinate', 'activity', 'miner'), ('work', 'underground', 'surface', 'mine', 'quarry')]</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
           <t>[('work', 'underground', 'surface')]</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>[('oversee', 'mining')]</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>[('oversee', 'mining')]</t>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Senior government officials advise governments on policy matters, oversee the interpretation and implementation of government policies and legislation by government departments and agencies, represent their country abroad and act on its behalf, or carry out similar tasks in intergovernmental organizations. They plan, organize, direct, control and evaluate the overall activities of municipal or local, regional and national government departments, boards, agencies or commissions in accordance with legislation and policies established by government and legislative bodies.</t>
+          <t>senior government officials advise governments on policy matters, oversee the interpretation and implementation of government policies and legislation by government departments and agencies, represent their country abroad and act on its behalf, or carry out similar tasks in intergovernmental organizations. they plan, organize, direct, control and evaluate the overall activities of municipal or local, regional and national government departments, boards, agencies or commissions in accordance with legislation and policies established by government and legislative bodies.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[('advise', 'government'), ('establish', 'government')]</t>
+          <t>[('represent', 'their', 'country', 'abroad'), ('advise', 'government'), ('organize',), ('direct',), ('represent', 'their', 'country'), ('evaluate', 'the', 'overall', 'activity', 'of', 'municipal', 'or', 'local'), ('oversee', 'the', 'interpretation', 'and', 'implementation', 'of', 'government', 'policy'), ('oversee', 'the', 'interpretation', 'and', 'implementation'), ('plan',), ('control',), ('act', 'on', 'its', 'behalf'), ('carry', 'out', 'similar', 'task'), ('evaluate',), ('evaluate', 'the', 'overall', 'activity'), ('advise', 'government', 'on', 'policy', 'matter'), ('oversee', 'the', 'interpretation', 'and', 'implementation', 'of', 'government', 'policy', 'and', 'legislation'), ('represent', 'their', 'country', 'abroad', 'and', 'act')]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[('advise', 'government', 'policy', 'matter'), ('establish', 'government')]</t>
+          <t>[['senior', 'government', 'officials', 'advise', 'governments', 'policy', 'matters', 'oversee', 'interpretation', 'implementation', 'government', 'policies', 'legislation', 'government', 'departments', 'agencies', 'represent', 'country', 'abroad', 'act', 'behalf', 'carry', 'similar', 'tasks', 'intergovernmental', 'organizations'], ['plan', 'organize', 'direct', 'control', 'evaluate', 'overall', 'activities', 'municipal', 'local', 'regional', 'national', 'government', 'departments', 'boards', 'agencies', 'commissions', 'accordance', 'legislation', 'policies', 'established', 'government', 'legislative', 'bodies']]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[('advise', 'government'), ('evaluate', 'overall', 'activity'), ('establish', 'government')]</t>
+          <t>[[('senior', 'JJ'), ('government', 'NN'), ('officials', 'NNS'), ('advise', 'VBP'), ('governments', 'NNS'), ('policy', 'NN'), ('matters', 'NNS'), ('oversee', 'VBP'), ('interpretation', 'NN'), ('implementation', 'NN'), ('government', 'NN'), ('policies', 'NNS'), ('legislation', 'NN'), ('government', 'NN'), ('departments', 'NNS'), ('agencies', 'NNS'), ('represent', 'VBP'), ('country', 'NN'), ('abroad', 'RB'), ('act', 'NN'), ('behalf', 'NN'), ('carry', 'VBP'), ('similar', 'JJ'), ('tasks', 'NNS'), ('intergovernmental', 'JJ'), ('organizations', 'NNS')], [('plan', 'NN'), ('organize', 'VB'), ('direct', 'JJ'), ('control', 'NN'), ('evaluate', 'VBP'), ('overall', 'JJ'), ('activities', 'NNS'), ('municipal', 'JJ'), ('local', 'JJ'), ('regional', 'JJ'), ('national', 'JJ'), ('government', 'NN'), ('departments', 'NNS'), ('boards', 'NNS'), ('agencies', 'NNS'), ('commissions', 'NNS'), ('accordance', 'NN'), ('legislation', 'NN'), ('policies', 'NNS'), ('established', 'VBD'), ('government', 'NN'), ('legislative', 'JJ'), ('bodies', 'NNS')]]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('advise', 'government', 'on', 'policy', 'matter'), ('oversee', 'the', 'interpretation', 'and', 'implementation', 'of', 'government', 'policy'), ('represent', 'their', 'country'), ('act', 'on', 'its', 'behalf'), ('carry', 'out', 'similar', 'task'), ('plan',), ('organize',), ('direct',), ('control',), ('evaluate',), ('advise', 'government', 'on', 'policy', 'matter'), ('oversee', 'the', 'interpretation', 'and', 'implementation'), ('represent', 'their', 'country', 'abroad'), ('act', 'on', 'its', 'behalf'), ('carry', 'out', 'similar', 'task'), ('plan',), ('organize',), ('direct',), ('control',), ('evaluate', 'the', 'overall', 'activity'), ('advise', 'government', 'on', 'policy', 'matter'), ('oversee', 'the', 'interpretation', 'and', 'implementation', 'of', 'government', 'policy'), ('represent', 'their', 'country', 'abroad', 'and', 'act'), ('carry', 'out', 'similar', 'task'), ('plan',), ('organize',), ('direct',), ('control',), ('evaluate', 'the', 'overall', 'activity'), ('advise', 'government', 'on', 'policy', 'matter'), ('oversee', 'the', 'interpretation', 'and', 'implementation', 'of', 'government', 'policy', 'and', 'legislation'), ('represent', 'their', 'country', 'abroad'), ('carry', 'out', 'similar', 'task'), ('plan',), ('organize',), ('direct',), ('control',), ('evaluate', 'the', 'overall', 'activity'), ('advise', 'government'), ('oversee', 'the', 'interpretation', 'and', 'implementation'), ('represent', 'their', 'country', 'abroad'), ('plan',), ('organize',), ('direct',), ('control',), ('evaluate', 'the', 'overall', 'activity', 'of', 'municipal', 'or', 'local')]</t>
+          <t>[[('senior', 'JJ'), ('government', 'NN'), ('official', 'NNS'), ('advise', 'VBP'), ('government', 'NNS'), ('policy', 'NN'), ('matter', 'NNS'), ('oversee', 'VBP'), ('interpretation', 'NN'), ('implementation', 'NN'), ('government', 'NN'), ('policy', 'NNS'), ('legislation', 'NN'), ('government', 'NN'), ('department', 'NNS'), ('agency', 'NNS'), ('represent', 'VBP'), ('country', 'NN'), ('abroad', 'RB'), ('act', 'NN'), ('behalf', 'NN'), ('carry', 'VBP'), ('similar', 'JJ'), ('task', 'NNS'), ('intergovernmental', 'JJ'), ('organization', 'NNS')], [('plan', 'NN'), ('organize', 'VB'), ('direct', 'JJ'), ('control', 'NN'), ('evaluate', 'VBP'), ('overall', 'JJ'), ('activity', 'NNS'), ('municipal', 'JJ'), ('local', 'JJ'), ('regional', 'JJ'), ('national', 'JJ'), ('government', 'NN'), ('department', 'NNS'), ('board', 'NNS'), ('agency', 'NNS'), ('commission', 'NNS'), ('accordance', 'NN'), ('legislation', 'NN'), ('policy', 'NNS'), ('establish', 'VBD'), ('government', 'NN'), ('legislative', 'JJ'), ('body', 'NNS')]]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('advise', 'government'), ('establish', 'government')]</t>
+          <t>[('advise', 'government'), ('oversee', 'interpretation'), ('represent', 'country'), ('establish', 'government')]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[('advise', 'government', 'policy', 'matter'), ('establish', 'government')]</t>
+          <t>[('advise', 'government', 'policy', 'matter'), ('oversee', 'interpretation', 'implementation', 'government', 'policy', 'legislation', 'government', 'department', 'agency'), ('represent', 'country', 'abroad', 'act', 'behalf'), ('establish', 'government')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[('advise', 'government'), ('evaluate', 'overall', 'activity'), ('establish', 'government')]</t>
+          <t>[('advise', 'government'), ('oversee', 'interpretation'), ('represent', 'country'), ('carry', 'similar', 'task'), ('organize', 'direct', 'control'), ('evaluate', 'overall', 'activity'), ('establish', 'government')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('advise', 'government', 'policy', 'matter'), ('oversee', 'interpretation', 'implementation', 'government', 'policy', 'legislation', 'government', 'department', 'agency'), ('represent', 'country'), ('carry', 'similar', 'task'), ('organize', 'direct', 'control'), ('evaluate', 'overall', 'activity'), ('establish', 'government')]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('advise', 'government'), ('oversee', 'interpretation'), ('represent', 'country'), ('establish', 'government')]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('advise', 'government', 'policy', 'matter'), ('oversee', 'interpretation', 'implementation', 'government', 'policy', 'legislation', 'government', 'department', 'agency'), ('represent', 'country', 'abroad', 'act', 'behalf'), ('establish', 'government')]</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>[('oversee', 'the', 'interpretation', 'and', 'implementation'), ('represent', 'their', 'country', 'abroad'), ('direct',), ('carry', 'out', 'similar', 'task'), ('control',), ('evaluate', 'the', 'overall', 'activity'), ('represent', 'their', 'country', 'abroad', 'and', 'act'), ('act', 'on', 'its', 'behalf'), ('evaluate', 'the', 'overall', 'activity', 'of', 'municipal', 'or', 'local'), ('plan',), ('organize',), ('represent', 'their', 'country'), ('evaluate',)]</t>
+          <t>[('advise', 'government'), ('oversee', 'interpretation'), ('represent', 'country'), ('carry', 'similar', 'task'), ('organize', 'direct', 'control'), ('evaluate', 'overall', 'activity'), ('establish', 'government')]</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[('oversee', 'the', 'interpretation', 'and', 'implementation'), ('represent', 'their', 'country', 'abroad'), ('direct',), ('carry', 'out', 'similar', 'task'), ('control',), ('evaluate', 'the', 'overall', 'activity'), ('represent', 'their', 'country', 'abroad', 'and', 'act'), ('act', 'on', 'its', 'behalf'), ('evaluate', 'the', 'overall', 'activity', 'of', 'municipal', 'or', 'local'), ('plan',), ('organize',), ('represent', 'their', 'country'), ('evaluate',)]</t>
+          <t>[('advise', 'government', 'policy', 'matter'), ('oversee', 'interpretation', 'implementation', 'government', 'policy', 'legislation', 'government', 'department', 'agency'), ('represent', 'country'), ('carry', 'similar', 'task'), ('organize', 'direct', 'control'), ('evaluate', 'overall', 'activity'), ('establish', 'government')]</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>[('oversee', 'the', 'interpretation', 'and', 'implementation'), ('represent', 'their', 'country', 'abroad'), ('direct',), ('carry', 'out', 'similar', 'task'), ('control',), ('represent', 'their', 'country', 'abroad', 'and', 'act'), ('act', 'on', 'its', 'behalf'), ('plan',), ('organize',), ('represent', 'their', 'country')]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>[('organize',), ('evaluate', 'the', 'overall', 'activity', 'of', 'municipal', 'or', 'local'), ('direct',), ('control',), ('plan',), ('act', 'on', 'its', 'behalf'), ('carry', 'out', 'similar', 'task'), ('evaluate',), ('evaluate', 'the', 'overall', 'activity')]</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>[('organize',), ('evaluate', 'the', 'overall', 'activity', 'of', 'municipal', 'or', 'local'), ('direct',), ('control',), ('plan',), ('evaluate',), ('carry', 'out', 'similar', 'task'), ('evaluate', 'the', 'overall', 'activity')]</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>[('plan',), ('act', 'on', 'its', 'behalf')]</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>[('plan',), ('act', 'on', 'its', 'behalf')]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Medical and pathology laboratory technicians perform clinical tests on specimens of bodily fluids and tissues in order to obtain information about the health of a patient or cause of death.</t>
+          <t>medical and pathology laboratory technicians perform clinical tests on specimens of bodily fluids and tissues in order to obtain information about the health of a patient or cause of death.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>[('perform', 'clinical', 'test'), ('obtain', 'information'), ('obtain', 'information', 'about', 'the', 'health'), ('perform', 'clinical', 'test', 'on', 'specimen')]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[['medical', 'pathology', 'laboratory', 'technicians', 'perform', 'clinical', 'tests', 'specimens', 'bodily', 'fluids', 'tissues', 'order', 'obtain', 'information', 'health', 'patient', 'cause', 'death']]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>[[('medical', 'NNP'), ('pathology', 'NN'), ('laboratory', 'NN'), ('technicians', 'NNS'), ('perform', 'VBP'), ('clinical', 'JJ'), ('tests', 'NNS'), ('specimens', 'VBZ'), ('bodily', 'RB'), ('fluids', 'NNS'), ('tissues', 'NNS'), ('order', 'NN'), ('obtain', 'VB'), ('information', 'NN'), ('health', 'NN'), ('patient', 'NN'), ('cause', 'VB'), ('death', 'NN')]]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[[('medical', 'NNP'), ('pathology', 'NN'), ('laboratory', 'NN'), ('technician', 'NNS'), ('perform', 'VBP'), ('clinical', 'JJ'), ('test', 'NNS'), ('specimens', 'VBZ'), ('bodily', 'RB'), ('fluid', 'NNS'), ('tissue', 'NNS'), ('order', 'NN'), ('obtain', 'VB'), ('information', 'NN'), ('health', 'NN'), ('patient', 'NN'), ('cause', 'VB'), ('death', 'NN')]]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[('obtain', 'information'), ('cause', 'death')]</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>[('specimens', 'bodily', 'fluid', 'tissue', 'order'), ('obtain', 'information', 'health', 'patient'), ('cause', 'death')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('perform', 'clinical', 'test'), ('obtain', 'information'), ('cause', 'death')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[('perform', 'clinical', 'test'), ('obtain', 'information', 'health', 'patient'), ('cause', 'death')]</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>[('obtain', 'information')]</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>[('specimens', 'bodily', 'fluid', 'tissue', 'order'), ('obtain', 'information', 'health', 'patient', 'cause', 'death')]</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>[('obtain', 'information', 'health', 'patient')]</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>[('perform', 'clinical', 'test'), ('obtain', 'information')]</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>[('perform', 'clinical', 'test', 'on', 'specimen'), ('obtain', 'information'), ('perform', 'clinical', 'test'), ('perform', 'clinical', 'test'), ('obtain', 'information'), ('perform', 'clinical', 'test'), ('obtain', 'information', 'about', 'the', 'health'), ('perform', 'clinical', 'test'), ('obtain', 'information', 'about', 'the', 'health')]</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>[('obtain', 'information')]</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>[('obtain', 'information', 'health', 'patient', 'cause', 'death')]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>[('perform', 'clinical', 'test'), ('obtain', 'information')]</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>[('specimens', 'bodily', 'fluid', 'tissue', 'order')]</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>[('perform', 'clinical', 'test'), ('obtain', 'information', 'health', 'patient')]</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>[('cause', 'death')]</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>[('specimens', 'bodily', 'fluid', 'tissue', 'order'), ('cause', 'death')]</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>[('cause', 'death')]</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>[('cause', 'death')]</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
         <is>
           <t>[('perform', 'clinical', 'test'), ('perform', 'clinical', 'test', 'on', 'specimen')]</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>[('perform', 'clinical', 'test'), ('perform', 'clinical', 'test', 'on', 'specimen')]</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1516,286 +2041,426 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Environmental protection professionals study and assess the effects on the environment of human activity such as air, water and noise pollution, soil contamination, climate change, toxic waste and depletion and degradation of natural resources. They develop plans and solutions to protect, conserve, restore, minimize and prevent further damage to the environment.</t>
+          <t>environmental protection professionals study and assess the effects on the environment of human activity such as air, water and noise pollution, soil contamination, climate change, toxic waste and depletion and degradation of natural resources. they develop plans and solutions to protect, conserve, restore, minimize and prevent further damage to the environment.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[('develop', 'plan'), ('minimize', 'prevent')]</t>
+          <t>[('prevent', 'far', 'damage', 'to', 'the', 'environment'), ('minimize', 'and', 'prevent'), ('minimize',), ('develop', 'plan', 'and', 'solution'), ('prevent', 'far', 'damage'), ('minimize', 'and', 'prevent', 'far', 'damage'), ('protect',), ('develop', 'plan'), ('study', 'and', 'ass', 'the', 'effect'), ('restore',), ('conserve',), ('study', 'and', 'ass', 'the', 'effect', 'on', 'the', 'environment'), ('study', 'and', 'ass')]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[('develop', 'plan', 'solution'), ('minimize', 'prevent', 'damage', 'environment')]</t>
+          <t>[['environmental', 'protection', 'professionals', 'study', 'assess', 'effects', 'environment', 'human', 'activity', 'air', 'water', 'noise', 'pollution', 'soil', 'contamination', 'climate', 'change', 'toxic', 'waste', 'depletion', 'degradation', 'natural', 'resources'], ['develop', 'plans', 'solutions', 'protect', 'conserve', 'restore', 'minimize', 'prevent', 'damage', 'environment']]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[('study', 'assess', 'effect'), ('develop', 'plan'), ('minimize', 'prevent')]</t>
+          <t>[[('environmental', 'JJ'), ('protection', 'NN'), ('professionals', 'NNS'), ('study', 'VBP'), ('assess', 'NN'), ('effects', 'NNS'), ('environment', 'NN'), ('human', 'JJ'), ('activity', 'NN'), ('air', 'NN'), ('water', 'NN'), ('noise', 'NN'), ('pollution', 'NN'), ('soil', 'NN'), ('contamination', 'NN'), ('climate', 'NN'), ('change', 'VBP'), ('toxic', 'JJ'), ('waste', 'NN'), ('depletion', 'NN'), ('degradation', 'NN'), ('natural', 'JJ'), ('resources', 'NNS')], [('develop', 'VB'), ('plans', 'NNS'), ('solutions', 'NNS'), ('protect', 'VBP'), ('conserve', 'NN'), ('restore', 'NN'), ('minimize', 'NN'), ('prevent', 'VB'), ('damage', 'NN'), ('environment', 'NN')]]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('study', 'and', 'ass'), ('develop', 'plan', 'and', 'solution'), ('protect',), ('conserve',), ('restore',), ('minimize',), ('prevent', 'far', 'damage'), ('study', 'and', 'ass', 'the', 'effect', 'on', 'the', 'environment'), ('develop', 'plan', 'and', 'solution'), ('study', 'and', 'ass', 'the', 'effect'), ('develop', 'plan', 'and', 'solution'), ('protect',), ('conserve',), ('restore',), ('minimize', 'and', 'prevent'), ('study', 'and', 'ass'), ('develop', 'plan', 'and', 'solution'), ('protect',), ('conserve',), ('restore',), ('minimize', 'and', 'prevent', 'far', 'damage'), ('study', 'and', 'ass', 'the', 'effect', 'on', 'the', 'environment'), ('develop', 'plan'), ('prevent', 'far', 'damage', 'to', 'the', 'environment')]</t>
+          <t>[[('environmental', 'JJ'), ('protection', 'NN'), ('professional', 'NNS'), ('study', 'VBP'), ('ass', 'NN'), ('effect', 'NNS'), ('environment', 'NN'), ('human', 'JJ'), ('activity', 'NN'), ('air', 'NN'), ('water', 'NN'), ('noise', 'NN'), ('pollution', 'NN'), ('soil', 'NN'), ('contamination', 'NN'), ('climate', 'NN'), ('change', 'VBP'), ('toxic', 'JJ'), ('waste', 'NN'), ('depletion', 'NN'), ('degradation', 'NN'), ('natural', 'JJ'), ('resource', 'NNS')], [('develop', 'VB'), ('plan', 'NNS'), ('solution', 'NNS'), ('protect', 'VBP'), ('conserve', 'NN'), ('restore', 'NN'), ('minimize', 'NN'), ('prevent', 'VB'), ('damage', 'NN'), ('environment', 'NN')]]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('develop', 'plan'), ('minimize', 'prevent')]</t>
+          <t>[('study', 'ass'), ('develop', 'plan'), ('protect', 'conserve'), ('prevent', 'damage')]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[('develop', 'plan', 'solution'), ('minimize', 'prevent', 'damage', 'environment')]</t>
+          <t>[('study', 'ass', 'effect', 'environment'), ('develop', 'plan', 'solution'), ('protect', 'conserve', 'restore', 'minimize'), ('prevent', 'damage', 'environment')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[('study', 'assess', 'effect'), ('develop', 'plan'), ('minimize', 'prevent')]</t>
+          <t>[('study', 'ass'), ('change', 'toxic', 'waste'), ('develop', 'plan'), ('protect', 'conserve'), ('prevent', 'damage')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('study', 'ass', 'effect', 'environment'), ('change', 'toxic', 'waste', 'depletion', 'degradation'), ('develop', 'plan', 'solution'), ('protect', 'conserve', 'restore', 'minimize'), ('prevent', 'damage', 'environment')]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('study', 'ass'), ('develop', 'plan'), ('protect', 'conserve'), ('prevent', 'damage')]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('study', 'ass', 'effect', 'environment'), ('develop', 'plan', 'solution'), ('protect', 'conserve', 'restore', 'minimize'), ('prevent', 'damage', 'environment')]</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>[('study', 'and', 'ass'), ('protect',), ('study', 'and', 'ass', 'the', 'effect'), ('conserve',), ('restore',), ('study', 'and', 'ass', 'the', 'effect', 'on', 'the', 'environment')]</t>
+          <t>[('study', 'ass'), ('develop', 'plan'), ('protect', 'conserve'), ('prevent', 'damage')]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[('study', 'and', 'ass'), ('protect',), ('study', 'and', 'ass', 'the', 'effect'), ('restore',), ('conserve',)]</t>
+          <t>[('study', 'ass', 'effect', 'environment'), ('develop', 'plan', 'solution'), ('protect', 'conserve', 'restore', 'minimize'), ('prevent', 'damage', 'environment')]</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>[('protect',), ('restore',), ('conserve',)]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>[('change', 'toxic', 'waste')]</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>[('change', 'toxic', 'waste', 'depletion', 'degradation')]</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>[('minimize',), ('restore',)]</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>[('minimize',), ('restore',)]</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cartographers and surveyors determine the exact position of, or prepare and revise digital, graphic and pictorial maps, charts or other visual representation of, natural and constructed features and boundaries of land, seas, underground areas and celestial bodies, applying scientific and mathematical principles.</t>
+          <t>cartographers and surveyors determine the exact position of, or prepare and revise digital, graphic and pictorial maps, charts or other visual representation of, natural and constructed features and boundaries of land, seas, underground areas and celestial bodies, applying scientific and mathematical principles.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>[('determine', 'the', 'exact', 'position'), ('prepare', 'and', 'revise', 'digital'), ('apply', 'scientific', 'and', 'mathematical', 'principle'), ('prepare', 'and', 'revise')]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[['cartographers', 'surveyors', 'determine', 'exact', 'position', 'prepare', 'revise', 'digital', 'graphic', 'pictorial', 'maps', 'charts', 'visual', 'representation', 'natural', 'constructed', 'features', 'boundaries', 'land', 'seas', 'underground', 'areas', 'celestial', 'bodies', 'applying', 'scientific', 'mathematical', 'principles']]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>[[('cartographers', 'NNS'), ('surveyors', 'NNS'), ('determine', 'VBP'), ('exact', 'JJ'), ('position', 'NN'), ('prepare', 'VBP'), ('revise', 'VB'), ('digital', 'JJ'), ('graphic', 'JJ'), ('pictorial', 'JJ'), ('maps', 'NNS'), ('charts', 'NNS'), ('visual', 'JJ'), ('representation', 'NN'), ('natural', 'JJ'), ('constructed', 'VBN'), ('features', 'NNS'), ('boundaries', 'NNS'), ('land', 'NN'), ('seas', 'NNPS'), ('underground', 'JJ'), ('areas', 'VBZ'), ('celestial', 'JJ'), ('bodies', 'NNS'), ('applying', 'VBG'), ('scientific', 'JJ'), ('mathematical', 'JJ'), ('principles', 'NNS')]]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>[[('cartographer', 'NNS'), ('surveyor', 'NNS'), ('determine', 'VBP'), ('exact', 'JJ'), ('position', 'NN'), ('prepare', 'VBP'), ('revise', 'VB'), ('digital', 'JJ'), ('graphic', 'JJ'), ('pictorial', 'JJ'), ('map', 'NNS'), ('chart', 'NNS'), ('visual', 'JJ'), ('representation', 'NN'), ('natural', 'JJ'), ('construct', 'VBN'), ('feature', 'NNS'), ('boundary', 'NNS'), ('land', 'NN'), ('sea', 'NNPS'), ('underground', 'JJ'), ('areas', 'VBZ'), ('celestial', 'JJ'), ('body', 'NNS'), ('apply', 'VBG'), ('scientific', 'JJ'), ('mathematical', 'JJ'), ('principle', 'NNS')]]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>[('construct', 'feature')]</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>[('construct', 'feature', 'boundary')]</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[('determine', 'exact', 'position'), ('construct', 'feature')]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[('determine', 'the', 'exact', 'position'), ('prepare', 'and', 'revise'), ('apply', 'scientific', 'and', 'mathematical', 'principle'), ('determine', 'the', 'exact', 'position'), ('apply', 'scientific', 'and', 'mathematical', 'principle'), ('determine', 'the', 'exact', 'position'), ('prepare', 'and', 'revise', 'digital'), ('determine', 'the', 'exact', 'position'), ('prepare', 'and', 'revise'), ('apply', 'scientific', 'and', 'mathematical', 'principle'), ('determine', 'the', 'exact', 'position'), ('apply', 'scientific', 'and', 'mathematical', 'principle')]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('construct', 'feature', 'boundary', 'land', 'sea')]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
+          <t>[('determine', 'exact', 'position'), ('construct', 'feature'), ('areas', 'celestial', 'body')]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[('determine', 'exact', 'position'), ('prepare', 'revise', 'digital', 'graphic', 'pictorial', 'map', 'chart'), ('construct', 'feature', 'boundary', 'land', 'sea'), ('areas', 'celestial', 'body'), ('apply', 'scientific', 'mathematical', 'principle')]</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
           <t>[('determine', 'exact', 'position')]</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>[('determine', 'exact', 'position'), ('prepare', 'revise', 'digital', 'graphic', 'pictorial', 'map', 'chart'), ('apply', 'scientific', 'mathematical', 'principle')]</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>[('construct', 'feature')]</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>[('construct', 'feature', 'boundary')]</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>[('construct', 'feature')]</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>[('prepare', 'and', 'revise', 'digital'), ('determine', 'the', 'exact', 'position'), ('prepare', 'and', 'revise'), ('apply', 'scientific', 'and', 'mathematical', 'principle')]</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>[('prepare', 'and', 'revise', 'digital'), ('determine', 'the', 'exact', 'position'), ('prepare', 'and', 'revise'), ('apply', 'scientific', 'and', 'mathematical', 'principle')]</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>[('prepare', 'and', 'revise', 'digital'), ('prepare', 'and', 'revise'), ('apply', 'scientific', 'and', 'mathematical', 'principle')]</t>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>[('construct', 'feature', 'boundary', 'land', 'sea')]</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>[('construct', 'feature'), ('areas', 'celestial', 'body')]</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>[('construct', 'feature', 'boundary', 'land', 'sea'), ('areas', 'celestial', 'body')]</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>[('determine', 'the', 'exact', 'position'), ('prepare', 'and', 'revise', 'digital'), ('apply', 'scientific', 'and', 'mathematical', 'principle'), ('prepare', 'and', 'revise')]</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>[('determine', 'the', 'exact', 'position'), ('prepare', 'and', 'revise', 'digital'), ('apply', 'scientific', 'and', 'mathematical', 'principle'), ('prepare', 'and', 'revise')]</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>[('prepare', 'and', 'revise', 'digital'), ('apply', 'scientific', 'and', 'mathematical', 'principle'), ('prepare', 'and', 'revise')]</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Physicists and astronomers conduct research and improve or develop concepts, theories and operational methods concerning matter, space, time, energy, forces and fields and the interrelationship between these physical phenomena. They apply scientific knowledge relating to physics and astronomy in industrial, medical, military or other fields.</t>
+          <t>physicists and astronomers conduct research and improve or develop concepts, theories and operational methods concerning matter, space, time, energy, forces and fields and the interrelationship between these physical phenomena. they apply scientific knowledge relating to physics and astronomy in industrial, medical, military or other fields.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[('conduct', 'research'), ('improve', 'develop'), ('concern', 'matter'), ('relate', 'physic')]</t>
+          <t>[('apply', 'scientific', 'knowledge', 'relate'), ('improve', 'or', 'develop', 'concept'), ('conduct', 'research', 'and', 'improve', 'or', 'develop'), ('conduct', 'research', 'and', 'improve'), ('conduct', 'research'), ('conduct', 'research', 'and', 'improve', 'or', 'develop', 'concept'), ('develop', 'concept', 'theory', 'and', 'operational', 'method'), ('apply', 'scientific', 'knowledge')]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[('conduct', 'research'), ('improve', 'develop', 'concept'), ('concern', 'matter'), ('relate', 'physic')]</t>
+          <t>[['physicists', 'astronomers', 'conduct', 'research', 'improve', 'develop', 'concepts', 'theories', 'operational', 'methods', 'concerning', 'matter', 'space', 'time', 'energy', 'forces', 'fields', 'interrelationship', 'physical', 'phenomena'], ['apply', 'scientific', 'knowledge', 'relating', 'physics', 'astronomy', 'industrial', 'medical', 'military', 'fields']]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[('conduct', 'research'), ('improve', 'develop'), ('concern', 'matter'), ('relate', 'physic')]</t>
+          <t>[[('physicists', 'VBZ'), ('astronomers', 'NNS'), ('conduct', 'VBP'), ('research', 'NN'), ('improve', 'VBP'), ('develop', 'VB'), ('concepts', 'NNS'), ('theories', 'NNS'), ('operational', 'JJ'), ('methods', 'NNS'), ('concerning', 'VBG'), ('matter', 'NN'), ('space', 'NN'), ('time', 'NN'), ('energy', 'NN'), ('forces', 'NNS'), ('fields', 'VBZ'), ('interrelationship', 'NN'), ('physical', 'JJ'), ('phenomena', 'NNS')], [('apply', 'VB'), ('scientific', 'JJ'), ('knowledge', 'NN'), ('relating', 'VBG'), ('physics', 'NNP'), ('astronomy', 'NN'), ('industrial', 'JJ'), ('medical', 'JJ'), ('military', 'JJ'), ('fields', 'NNS')]]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[('conduct', 'research'), ('improve', 'or', 'develop', 'concept'), ('apply', 'scientific', 'knowledge', 'relate'), ('conduct', 'research', 'and', 'improve', 'or', 'develop'), ('apply', 'scientific', 'knowledge'), ('conduct', 'research', 'and', 'improve', 'or', 'develop', 'concept'), ('apply', 'scientific', 'knowledge'), ('conduct', 'research', 'and', 'improve'), ('develop', 'concept', 'theory', 'and', 'operational', 'method'), ('apply', 'scientific', 'knowledge'), ('conduct', 'research'), ('improve', 'or', 'develop', 'concept'), ('apply', 'scientific', 'knowledge')]</t>
+          <t>[[('physicists', 'VBZ'), ('astronomer', 'NNS'), ('conduct', 'VBP'), ('research', 'NN'), ('improve', 'VBP'), ('develop', 'VB'), ('concept', 'NNS'), ('theory', 'NNS'), ('operational', 'JJ'), ('method', 'NNS'), ('concern', 'VBG'), ('matter', 'NN'), ('space', 'NN'), ('time', 'NN'), ('energy', 'NN'), ('force', 'NNS'), ('field', 'VBZ'), ('interrelationship', 'NN'), ('physical', 'JJ'), ('phenomenon', 'NNS')], [('apply', 'VB'), ('scientific', 'JJ'), ('knowledge', 'NN'), ('relate', 'VBG'), ('physic', 'NNP'), ('astronomy', 'NN'), ('industrial', 'JJ'), ('medical', 'JJ'), ('military', 'JJ'), ('field', 'NNS')]]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[('conduct', 'research'), ('improve', 'develop'), ('relate', 'physic')]</t>
+          <t>[('physicists', 'astronomer'), ('conduct', 'research'), ('develop', 'concept'), ('concern', 'matter'), ('field', 'interrelationship'), ('relate', 'physic')]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[('conduct', 'research'), ('improve', 'develop', 'concept'), ('relate', 'physic')]</t>
+          <t>[('physicists', 'astronomer'), ('conduct', 'research'), ('improve', 'develop', 'concept', 'theory'), ('concern', 'matter', 'space', 'time', 'energy', 'force'), ('field', 'interrelationship'), ('relate', 'physic', 'astronomy')]</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[('conduct', 'research'), ('improve', 'develop'), ('relate', 'physic')]</t>
+          <t>[('physicists', 'astronomer'), ('conduct', 'research'), ('develop', 'concept'), ('concern', 'matter'), ('field', 'interrelationship'), ('apply', 'scientific', 'knowledge'), ('relate', 'physic')]</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[('concern', 'matter')]</t>
+          <t>[('physicists', 'astronomer'), ('conduct', 'research'), ('improve', 'develop', 'concept', 'theory'), ('concern', 'matter', 'space', 'time', 'energy', 'force'), ('field', 'interrelationship'), ('apply', 'scientific', 'knowledge'), ('relate', 'physic', 'astronomy')]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[('concern', 'matter')]</t>
+          <t>[('conduct', 'research'), ('develop', 'concept'), ('relate', 'physic')]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[('concern', 'matter')]</t>
+          <t>[('conduct', 'research'), ('improve', 'develop', 'concept', 'theory'), ('relate', 'physic', 'astronomy')]</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
+          <t>[('conduct', 'research'), ('develop', 'concept'), ('apply', 'scientific', 'knowledge'), ('relate', 'physic')]</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>[('conduct', 'research'), ('improve', 'develop', 'concept', 'theory'), ('apply', 'scientific', 'knowledge'), ('relate', 'physic', 'astronomy')]</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>[('physicists', 'astronomer'), ('concern', 'matter'), ('field', 'interrelationship')]</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>[('physicists', 'astronomer'), ('concern', 'matter', 'space', 'time', 'energy', 'force'), ('field', 'interrelationship')]</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>[('physicists', 'astronomer'), ('concern', 'matter'), ('field', 'interrelationship')]</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>[('physicists', 'astronomer'), ('concern', 'matter', 'space', 'time', 'energy', 'force'), ('field', 'interrelationship')]</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
           <t>[('apply', 'scientific', 'knowledge')]</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>[('apply', 'scientific', 'knowledge')]</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>[('apply', 'scientific', 'knowledge')]</t>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dental assistants and therapists provide basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
+          <t>dental assistants and therapists provide basic dental care services for the prevention and treatment of diseases and disorders of the teeth and mouth, according to care plans and procedures established by a dentist or other oral health professional.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[('diseases', 'disorder'), ('accord', 'care')]</t>
+          <t>[('provide', 'basic', 'dental'), ('provide', 'basic', 'dental', 'care', 'service')]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[('diseases', 'disorder', 'teeth', 'mouth'), ('accord', 'care', 'plan', 'procedure')]</t>
+          <t>[['dental', 'assistants', 'therapists', 'provide', 'basic', 'dental', 'care', 'services', 'prevention', 'treatment', 'diseases', 'disorders', 'teeth', 'mouth', 'according', 'care', 'plans', 'procedures', 'established', 'dentist', 'oral', 'health', 'professional']]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[('provide', 'basic', 'dental'), ('diseases', 'disorder'), ('accord', 'care')]</t>
+          <t>[[('dental', 'JJ'), ('assistants', 'NNS'), ('therapists', 'NNS'), ('provide', 'VBP'), ('basic', 'JJ'), ('dental', 'JJ'), ('care', 'NN'), ('services', 'NNS'), ('prevention', 'NN'), ('treatment', 'NN'), ('diseases', 'NNS'), ('disorders', 'VBZ'), ('teeth', 'NNS'), ('mouth', 'NN'), ('according', 'VBG'), ('care', 'NN'), ('plans', 'NNS'), ('procedures', 'NNS'), ('established', 'VBN'), ('dentist', 'NN'), ('oral', 'JJ'), ('health', 'NN'), ('professional', 'NN')]]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[('provide', 'basic', 'dental', 'care', 'service'), ('provide', 'basic', 'dental', 'care', 'service'), ('provide', 'basic', 'dental'), ('provide', 'basic', 'dental', 'care', 'service'), ('provide', 'basic', 'dental', 'care', 'service')]</t>
+          <t>[[('dental', 'JJ'), ('assistant', 'NNS'), ('therapist', 'NNS'), ('provide', 'VBP'), ('basic', 'JJ'), ('dental', 'JJ'), ('care', 'NN'), ('service', 'NNS'), ('prevention', 'NN'), ('treatment', 'NN'), ('disease', 'NNS'), ('disorder', 'VBZ'), ('teeth', 'NNS'), ('mouth', 'NN'), ('accord', 'VBG'), ('care', 'NN'), ('plan', 'NNS'), ('procedure', 'NNS'), ('establish', 'VBN'), ('dentist', 'NN'), ('oral', 'JJ'), ('health', 'NN'), ('professional', 'NN')]]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>[('disorder', 'teeth'), ('accord', 'care'), ('establish', 'dentist')]</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>[('disorder', 'teeth', 'mouth'), ('accord', 'care', 'plan', 'procedure'), ('establish', 'dentist')]</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[('disorder', 'teeth'), ('accord', 'care'), ('establish', 'dentist')]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[('provide', 'basic', 'dental', 'care', 'service', 'prevention', 'treatment', 'disease'), ('disorder', 'teeth', 'mouth'), ('accord', 'care', 'plan', 'procedure'), ('establish', 'dentist')]</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>[('accord', 'care')]</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[('accord', 'care', 'plan', 'procedure')]</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>[('provide', 'basic', 'dental'), ('accord', 'care')]</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>[('diseases', 'disorder')]</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>[('diseases', 'disorder', 'teeth', 'mouth')]</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>[('diseases', 'disorder')]</t>
-        </is>
-      </c>
       <c r="L19" t="inlineStr">
         <is>
+          <t>[('accord', 'care')]</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>[('provide', 'basic', 'dental', 'care', 'service', 'prevention', 'treatment', 'disease'), ('accord', 'care', 'plan', 'procedure')]</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>[('disorder', 'teeth'), ('establish', 'dentist')]</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>[('disorder', 'teeth', 'mouth'), ('establish', 'dentist')]</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>[('disorder', 'teeth'), ('establish', 'dentist')]</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>[('disorder', 'teeth', 'mouth'), ('establish', 'dentist')]</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
           <t>[('provide', 'basic', 'dental')]</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>[('provide', 'basic', 'dental')]</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>[('provide', 'basic', 'dental')]</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1804,70 +2469,105 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Management and organization analysts assist organizations to achieve greater efficiency and solve organizational problems. They study organizational structures, methods, systems and procedures.</t>
+          <t>management and organization analysts assist organizations to achieve greater efficiency and solve organizational problems. they study organizational structures, methods, systems and procedures.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>[('solve', 'organizational', 'problem'), ('achieve', 'greater', 'efficiency'), ('analyst', 'assist', 'organization'), ('study', 'organizational', 'structure', 'method', 'system', 'and', 'procedure'), ('assist', 'organization'), ('assist', 'organization', 'to', 'achieve', 'greater', 'efficiency'), ('study', 'organizational', 'structure')]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[['management', 'organization', 'analysts', 'assist', 'organizations', 'achieve', 'greater', 'efficiency', 'solve', 'organizational', 'problems'], ['study', 'organizational', 'structures', 'methods', 'systems', 'procedures']]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[[('management', 'NN'), ('organization', 'NN'), ('analysts', 'NNS'), ('assist', 'VBP'), ('organizations', 'NNS'), ('achieve', 'VBP'), ('greater', 'JJR'), ('efficiency', 'NN'), ('solve', 'VBP'), ('organizational', 'JJ'), ('problems', 'NNS')], [('study', 'VB'), ('organizational', 'JJ'), ('structures', 'NNS'), ('methods', 'NNS'), ('systems', 'NNS'), ('procedures', 'NNS')]]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[[('management', 'NN'), ('organization', 'NN'), ('analyst', 'NNS'), ('assist', 'VBP'), ('organization', 'NNS'), ('achieve', 'VBP'), ('great', 'JJR'), ('efficiency', 'NN'), ('solve', 'VBP'), ('organizational', 'JJ'), ('problem', 'NNS')], [('study', 'VB'), ('organizational', 'JJ'), ('structure', 'NNS'), ('method', 'NNS'), ('system', 'NNS'), ('procedure', 'NNS')]]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>[('assist', 'organization')]</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[('assist', 'organization')]</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[('assist', 'organization'), ('achieve', 'great', 'efficiency'), ('solve', 'organizational', 'problem'), ('study', 'organizational', 'structure')]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[('assist', 'organization'), ('achieve', 'great', 'efficiency'), ('solve', 'organizational', 'problem')]</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>[('analyst', 'assist', 'organization'), ('solve', 'organizational', 'problem'), ('study', 'organizational', 'structure', 'method', 'system', 'and', 'procedure'), ('assist', 'organization'), ('study', 'organizational', 'structure', 'method', 'system', 'and', 'procedure'), ('achieve', 'greater', 'efficiency'), ('solve', 'organizational', 'problem'), ('study', 'organizational', 'structure'), ('assist', 'organization'), ('achieve', 'greater', 'efficiency'), ('solve', 'organizational', 'problem'), ('study', 'organizational', 'structure', 'method', 'system', 'and', 'procedure'), ('assist', 'organization', 'to', 'achieve', 'greater', 'efficiency'), ('solve', 'organizational', 'problem'), ('study', 'organizational', 'structure')]</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[('assist', 'organization')]</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[('assist', 'organization')]</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>[('assist', 'organization'), ('achieve', 'great', 'efficiency'), ('solve', 'organizational', 'problem'), ('study', 'organizational', 'structure')]</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>[('assist', 'organization'), ('achieve', 'great', 'efficiency'), ('solve', 'organizational', 'problem')]</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>[('achieve', 'greater', 'efficiency'), ('study', 'organizational', 'structure'), ('solve', 'organizational', 'problem'), ('study', 'organizational', 'structure', 'method', 'system', 'and', 'procedure')]</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>[('achieve', 'greater', 'efficiency'), ('study', 'organizational', 'structure'), ('solve', 'organizational', 'problem'), ('study', 'organizational', 'structure', 'method', 'system', 'and', 'procedure')]</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>[('solve', 'organizational', 'problem'), ('study', 'organizational', 'structure', 'method', 'system', 'and', 'procedure'), ('achieve', 'greater', 'efficiency'), ('study', 'organizational', 'structure')]</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>[('solve', 'organizational', 'problem'), ('study', 'organizational', 'structure', 'method', 'system', 'and', 'procedure'), ('achieve', 'greater', 'efficiency'), ('study', 'organizational', 'structure')]</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1876,142 +2576,212 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Economists conduct research, monitor data, analyse information and prepare reports and plans to resolve economic and business problems and develop models to analyse, explain and forecast economic behaviour and patterns. They provide advice to business, interest groups and governments to formulate solutions to present or projected economic and business problems.</t>
+          <t>economists conduct research, monitor data, analyse information and prepare reports and plans to resolve economic and business problems and develop models to analyse, explain and forecast economic behaviour and patterns. they provide advice to business, interest groups and governments to formulate solutions to present or projected economic and business problems.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[('conduct', 'research'), ('develop', 'model'), ('formulate', 'solution')]</t>
+          <t>[('analyse', 'and', 'prepare', 'report'), ('resolve', 'economic', 'and', 'business', 'problem'), ('develop', 'model'), ('analyse', 'information'), ('formulate', 'solution'), ('provide', 'advice', 'to', 'business', 'interest', 'group', 'and', 'government', 'to', 'formulate', 'solution'), ('analyse', 'information', 'and', 'prepare', 'report', 'and', 'plan'), ('plan', 'to', 'resolve'), ('resolve', 'economic'), ('provide', 'advice'), ('provide', 'advice', 'to', 'business'), ('conduct', 'research'), ('analyse',), ('prepare', 'report', 'and', 'plan'), ('monitor', 'data')]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[('conduct', 'research'), ('develop', 'model'), ('formulate', 'solution')]</t>
+          <t>[['economists', 'conduct', 'research', 'monitor', 'data', 'analyse', 'information', 'prepare', 'reports', 'plans', 'resolve', 'economic', 'business', 'problems', 'develop', 'models', 'analyse', 'explain', 'forecast', 'economic', 'behaviour', 'patterns'], ['provide', 'advice', 'business', 'interest', 'groups', 'governments', 'formulate', 'solutions', 'present', 'projected', 'economic', 'business', 'problems']]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[('conduct', 'research'), ('resolve', 'economic', 'business'), ('develop', 'model'), ('formulate', 'solution')]</t>
+          <t>[[('economists', 'NNS'), ('conduct', 'VBP'), ('research', 'NN'), ('monitor', 'NN'), ('data', 'NNP'), ('analyse', 'NNP'), ('information', 'NN'), ('prepare', 'NN'), ('reports', 'NNS'), ('plans', 'NNS'), ('resolve', 'VB'), ('economic', 'JJ'), ('business', 'NN'), ('problems', 'NNS'), ('develop', 'VBP'), ('models', 'NNS'), ('analyse', 'NNP'), ('explain', 'VB'), ('forecast', 'NN'), ('economic', 'JJ'), ('behaviour', 'NN'), ('patterns', 'NNS')], [('provide', 'VB'), ('advice', 'NN'), ('business', 'NN'), ('interest', 'NN'), ('groups', 'NNS'), ('governments', 'NNS'), ('formulate', 'VBP'), ('solutions', 'NNS'), ('present', 'JJ'), ('projected', 'VBN'), ('economic', 'JJ'), ('business', 'NN'), ('problems', 'NNS')]]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[('conduct', 'research'), ('monitor', 'data'), ('analyse', 'information'), ('prepare', 'report', 'and', 'plan'), ('resolve', 'economic', 'and', 'business', 'problem'), ('develop', 'model'), ('analyse',), ('provide', 'advice'), ('formulate', 'solution'), ('conduct', 'research'), ('monitor', 'data'), ('analyse', 'and', 'prepare', 'report'), ('plan', 'to', 'resolve'), ('provide', 'advice', 'to', 'business', 'interest', 'group', 'and', 'government', 'to', 'formulate', 'solution'), ('conduct', 'research'), ('monitor', 'data'), ('analyse', 'information', 'and', 'prepare', 'report', 'and', 'plan'), ('resolve', 'economic'), ('develop', 'model'), ('provide', 'advice'), ('formulate', 'solution'), ('conduct', 'research'), ('monitor', 'data'), ('analyse', 'information', 'and', 'prepare', 'report', 'and', 'plan'), ('resolve', 'economic', 'and', 'business', 'problem'), ('develop', 'model'), ('provide', 'advice'), ('formulate', 'solution'), ('resolve', 'economic', 'and', 'business', 'problem'), ('provide', 'advice', 'to', 'business'), ('formulate', 'solution')]</t>
+          <t>[[('economist', 'NNS'), ('conduct', 'VBP'), ('research', 'NN'), ('monitor', 'NN'), ('data', 'NNP'), ('analyse', 'NNP'), ('information', 'NN'), ('prepare', 'NN'), ('report', 'NNS'), ('plan', 'NNS'), ('resolve', 'VB'), ('economic', 'JJ'), ('business', 'NN'), ('problem', 'NNS'), ('develop', 'VBP'), ('model', 'NNS'), ('analyse', 'NNP'), ('explain', 'VB'), ('forecast', 'NN'), ('economic', 'JJ'), ('behaviour', 'NN'), ('pattern', 'NNS')], [('provide', 'VB'), ('advice', 'NN'), ('business', 'NN'), ('interest', 'NN'), ('group', 'NNS'), ('government', 'NNS'), ('formulate', 'VBP'), ('solution', 'NNS'), ('present', 'JJ'), ('project', 'VBN'), ('economic', 'JJ'), ('business', 'NN'), ('problem', 'NNS')]]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[('conduct', 'research'), ('develop', 'model'), ('formulate', 'solution')]</t>
+          <t>[('conduct', 'research'), ('explain', 'forecast'), ('provide', 'advice'), ('formulate', 'solution')]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[('conduct', 'research'), ('develop', 'model'), ('formulate', 'solution')]</t>
+          <t>[('conduct', 'research', 'monitor', 'data', 'analyse', 'information', 'prepare', 'report', 'plan'), ('explain', 'forecast'), ('provide', 'advice', 'business', 'interest', 'group', 'government'), ('formulate', 'solution')]</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[('conduct', 'research'), ('resolve', 'economic', 'business'), ('develop', 'model'), ('formulate', 'solution')]</t>
+          <t>[('conduct', 'research'), ('resolve', 'economic', 'business'), ('explain', 'forecast'), ('provide', 'advice'), ('formulate', 'solution'), ('project', 'economic', 'business')]</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('conduct', 'research', 'monitor', 'data', 'analyse', 'information', 'prepare', 'report', 'plan'), ('resolve', 'economic', 'business', 'problem'), ('explain', 'forecast'), ('provide', 'advice', 'business', 'interest', 'group', 'government'), ('formulate', 'solution'), ('project', 'economic', 'business', 'problem')]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('conduct', 'research'), ('provide', 'advice'), ('formulate', 'solution')]</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('conduct', 'research', 'monitor', 'data', 'analyse', 'information', 'prepare', 'report', 'plan'), ('provide', 'advice', 'business', 'interest', 'group', 'government'), ('formulate', 'solution')]</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>[('analyse',), ('monitor', 'data'), ('provide', 'advice', 'to', 'business'), ('analyse', 'information'), ('resolve', 'economic', 'and', 'business', 'problem'), ('provide', 'advice'), ('plan', 'to', 'resolve'), ('analyse', 'and', 'prepare', 'report'), ('prepare', 'report', 'and', 'plan'), ('analyse', 'information', 'and', 'prepare', 'report', 'and', 'plan'), ('resolve', 'economic')]</t>
+          <t>[('conduct', 'research'), ('resolve', 'economic', 'business'), ('provide', 'advice'), ('formulate', 'solution'), ('project', 'economic', 'business')]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[('analyse',), ('monitor', 'data'), ('provide', 'advice', 'to', 'business'), ('analyse', 'information'), ('resolve', 'economic', 'and', 'business', 'problem'), ('provide', 'advice'), ('plan', 'to', 'resolve'), ('analyse', 'and', 'prepare', 'report'), ('prepare', 'report', 'and', 'plan'), ('analyse', 'information', 'and', 'prepare', 'report', 'and', 'plan'), ('resolve', 'economic')]</t>
+          <t>[('conduct', 'research', 'monitor', 'data', 'analyse', 'information', 'prepare', 'report', 'plan'), ('resolve', 'economic', 'business', 'problem'), ('provide', 'advice', 'business', 'interest', 'group', 'government'), ('formulate', 'solution'), ('project', 'economic', 'business', 'problem')]</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>[('analyse',), ('monitor', 'data'), ('analyse', 'information'), ('provide', 'advice'), ('analyse', 'and', 'prepare', 'report'), ('prepare', 'report', 'and', 'plan'), ('analyse', 'information', 'and', 'prepare', 'report', 'and', 'plan')]</t>
+          <t>[('explain', 'forecast')]</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>[('explain', 'forecast')]</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>[('explain', 'forecast')]</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>[('explain', 'forecast')]</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>[('analyse', 'and', 'prepare', 'report'), ('resolve', 'economic', 'and', 'business', 'problem'), ('develop', 'model'), ('analyse', 'information', 'and', 'prepare', 'report', 'and', 'plan'), ('analyse', 'information'), ('resolve', 'economic'), ('plan', 'to', 'resolve'), ('prepare', 'report', 'and', 'plan'), ('analyse',), ('monitor', 'data')]</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>[('develop', 'model'), ('resolve', 'economic')]</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>[('analyse', 'and', 'prepare', 'report'), ('develop', 'model'), ('analyse', 'information', 'and', 'prepare', 'report', 'and', 'plan'), ('analyse', 'information'), ('prepare', 'report', 'and', 'plan'), ('analyse',), ('monitor', 'data')]</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>[('develop', 'model')]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>The utility model provides a fruit quality control surveys system based on computer vision, including automatic feeding device and conveyer belt, the automatic feeding device conveys on being used for placing the fruit in conveyer belt, and fruit quality control survey system includes: set up in the mount of the side of conveyer belt with set up the optical detection device on the mount, the mount includes the montant and the horizontal pole of setting on the montant that sets up in the side of conveyer belt, and the top of horizontal pole suspension at the conveyer belt, the optical detection device includes camera and the computer that is connected with the camera, the camera sets up on the horizontal pole for absorb the fruit image of the fruit on the conveyer belt, the computer is used for gathering the fruit image that the camera absorbed to fruit image to gathering carries out image processing and parameter measurement, is used for signifying the resolute quality control survey the result whether fruit exists the scar. The fruit image is gathered through the computer vision technique to this application, obtains fruit quality control and surveys the result, can improve fruit quality control and survey efficiency, reduces the loss.</t>
+          <t>the utility model provides a fruit quality control surveys system based on computer vision, including automatic feeding device and conveyer belt, the automatic feeding device conveys on being used for placing the fruit in conveyer belt, and fruit quality control survey system includes: set up in the mount of the side of conveyer belt with set up the optical detection device on the mount, the mount includes the montant and the horizontal pole of setting on the montant that sets up in the side of conveyer belt, and the top of horizontal pole suspension at the conveyer belt, the optical detection device includes camera and the computer that is connected with the camera, the camera sets up on the horizontal pole for absorb the fruit image of the fruit on the conveyer belt, the computer is used for gathering the fruit image that the camera absorbed to fruit image to gathering carries out image processing and parameter measurement, is used for signifying the resolute quality control survey the result whether fruit exists the scar. the fruit image is gathered through the computer vision technique to this application, obtains fruit quality control and surveys the result, can improve fruit quality control and survey efficiency, reduces the loss.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[('base', 'computer'), ('place', 'fruit'), ('side', 'conveyer'), ('include', 'camera'), ('connect', 'camera'), ('gather', 'fruit'), ('carry', 'image'), ('exist', 'scar'), ('gather', 'computer'), ('fruit', 'quality'), ('improve', 'fruit')]</t>
+          <t>[('fruit', 'quality', 'control'), ('absorb', 'the', 'fruit', 'image'), ('image', 'processing'), ('gathering', 'carry', 'out', 'image', 'processing'), ('conveyer', 'belt'), ('fruit', 'quality', 'control', 'survey', 'system'), ('signify', 'the', 'resolute', 'quality', 'control', 'survey'), ('automatic', 'feed', 'device'), ('signify', 'the', 'resolute', 'quality', 'control'), ('fruit', 'quality', 'control', 'survey'), ('place', 'the', 'fruit', 'in', 'conveyer', 'belt'), ('gathering', 'the', 'fruit', 'image')]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[('base', 'computer', 'vision'), ('use', 'place', 'fruit', 'conveyer', 'belt'), ('side', 'conveyer', 'belt'), ('include', 'camera', 'computer'), ('connect', 'camera'), ('use', 'gather', 'fruit', 'image', 'camera'), ('carry', 'image', 'processing', 'parameter', 'measurement'), ('result', 'whether', 'fruit'), ('exist', 'scar'), ('gather', 'computer', 'vision', 'technique', 'application'), ('fruit', 'quality', 'control', 'survey'), ('improve', 'fruit', 'quality', 'control', 'survey', 'efficiency')]</t>
+          <t>[['utility', 'model', 'provides', 'fruit', 'quality', 'control', 'surveys', 'system', 'based', 'computer', 'vision', 'including', 'automatic', 'feeding', 'device', 'conveyer', 'belt', 'automatic', 'feeding', 'device', 'conveys', 'used', 'placing', 'fruit', 'conveyer', 'belt', 'fruit', 'quality', 'control', 'survey', 'system', 'includes', 'set', 'mount', 'side', 'conveyer', 'belt', 'set', 'optical', 'detection', 'device', 'mount', 'mount', 'includes', 'montant', 'horizontal', 'pole', 'setting', 'montant', 'sets', 'side', 'conveyer', 'belt', 'top', 'horizontal', 'pole', 'suspension', 'conveyer', 'belt', 'optical', 'detection', 'device', 'includes', 'camera', 'computer', 'connected', 'camera', 'camera', 'sets', 'horizontal', 'pole', 'absorb', 'fruit', 'image', 'fruit', 'conveyer', 'belt', 'computer', 'used', 'gathering', 'fruit', 'image', 'camera', 'absorbed', 'fruit', 'image', 'gathering', 'carries', 'image', 'processing', 'parameter', 'measurement', 'used', 'signifying', 'resolute', 'quality', 'control', 'survey', 'result', 'whether', 'fruit', 'exists', 'scar'], ['fruit', 'image', 'gathered', 'computer', 'vision', 'technique', 'application', 'obtains', 'fruit', 'quality', 'control', 'surveys', 'result', 'improve', 'fruit', 'quality', 'control', 'survey', 'efficiency', 'reduces', 'loss']]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[('provide', 'fruit', 'quality'), ('base', 'computer'), ('include', 'automatic', 'feeding'), ('place', 'fruit'), ('set', 'mount', 'side'), ('set', 'optical', 'detection'), ('set', 'montant', 'set'), ('side', 'conveyer'), ('include', 'camera'), ('connect', 'camera'), ('set', 'horizontal', 'pole'), ('gather', 'fruit'), ('absorb', 'fruit', 'image'), ('carry', 'image'), ('signify', 'resolute', 'quality'), ('exist', 'scar'), ('gather', 'computer'), ('fruit', 'quality'), ('improve', 'fruit')]</t>
+          <t>[[('utility', 'NN'), ('model', 'NN'), ('provides', 'VBZ'), ('fruit', 'NN'), ('quality', 'NN'), ('control', 'NN'), ('surveys', 'NNS'), ('system', 'NN'), ('based', 'VBN'), ('computer', 'NN'), ('vision', 'NN'), ('including', 'VBG'), ('automatic', 'JJ'), ('feeding', 'NN'), ('device', 'NN'), ('conveyer', 'NN'), ('belt', 'NN'), ('automatic', 'JJ'), ('feeding', 'NN'), ('device', 'NN'), ('conveys', 'VBZ'), ('used', 'VBN'), ('placing', 'VBG'), ('fruit', 'NN'), ('conveyer', 'NN'), ('belt', 'NN'), ('fruit', 'NN'), ('quality', 'NN'), ('control', 'NN'), ('survey', 'NN'), ('system', 'NN'), ('includes', 'VBZ'), ('set', 'VBN'), ('mount', 'NNP'), ('side', 'NN'), ('conveyer', 'NN'), ('belt', 'NN'), ('set', 'VBD'), ('optical', 'JJ'), ('detection', 'NN'), ('device', 'NN'), ('mount', 'NNP'), ('mount', 'NNP'), ('includes', 'VBZ'), ('montant', 'JJ'), ('horizontal', 'JJ'), ('pole', 'NN'), ('setting', 'VBG'), ('montant', 'JJ'), ('sets', 'NNS'), ('side', 'NN'), ('conveyer', 'NN'), ('belt', 'NN'), ('top', 'JJ'), ('horizontal', 'JJ'), ('pole', 'NN'), ('suspension', 'NN'), ('conveyer', 'NN'), ('belt', 'NN'), ('optical', 'JJ'), ('detection', 'NN'), ('device', 'NN'), ('includes', 'VBZ'), ('camera', 'NN'), ('computer', 'NN'), ('connected', 'VBN'), ('camera', 'NN'), ('camera', 'NN'), ('sets', 'VBZ'), ('horizontal', 'JJ'), ('pole', 'NN'), ('absorb', 'VBP'), ('fruit', 'NN'), ('image', 'NN'), ('fruit', 'NN'), ('conveyer', 'NN'), ('belt', 'NN'), ('computer', 'NN'), ('used', 'VBD'), ('gathering', 'VBG'), ('fruit', 'NN'), ('image', 'NN'), ('camera', 'NN'), ('absorbed', 'VBN'), ('fruit', 'NN'), ('image', 'NN'), ('gathering', 'NN'), ('carries', 'VBZ'), ('image', 'NN'), ('processing', 'NN'), ('parameter', 'NN'), ('measurement', 'NN'), ('used', 'VBD'), ('signifying', 'VBG'), ('resolute', 'JJ'), ('quality', 'NN'), ('control', 'NN'), ('survey', 'NN'), ('result', 'VBP'), ('whether', 'IN'), ('fruit', 'NN'), ('exists', 'VBZ'), ('scar', 'NN')], [('fruit', 'NN'), ('image', 'NN'), ('gathered', 'VBD'), ('computer', 'NN'), ('vision', 'NN'), ('technique', 'NN'), ('application', 'NN'), ('obtains', 'VBZ'), ('fruit', 'NN'), ('quality', 'NN'), ('control', 'NN'), ('surveys', 'NNS'), ('result', 'VBP'), ('improve', 'VB'), ('fruit', 'NN'), ('quality', 'NN'), ('control', 'NN'), ('survey', 'NN'), ('efficiency', 'NN'), ('reduces', 'VBZ'), ('loss', 'NN')]]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[('fruit', 'quality', 'control', 'survey', 'system'), ('automatic', 'feed', 'device'), ('place', 'the', 'fruit', 'in', 'conveyer', 'belt'), ('absorb', 'the', 'fruit', 'image'), ('gathering', 'the', 'fruit', 'image'), ('signify', 'the', 'resolute', 'quality', 'control', 'survey'), ('fruit', 'quality', 'control'), ('place', 'the', 'fruit', 'in', 'conveyer', 'belt'), ('absorb', 'the', 'fruit', 'image'), ('gathering', 'the', 'fruit', 'image'), ('gathering', 'carry', 'out', 'image', 'processing'), ('signify', 'the', 'resolute', 'quality', 'control', 'survey'), ('automatic', 'feed', 'device'), ('fruit', 'quality', 'control'), ('place', 'the', 'fruit', 'in', 'conveyer', 'belt'), ('absorb', 'the', 'fruit', 'image'), ('gathering', 'the', 'fruit', 'image'), ('image', 'processing'), ('signify', 'the', 'resolute', 'quality', 'control'), ('fruit', 'quality', 'control', 'survey'), ('automatic', 'feed', 'device'), ('conveyer', 'belt'), ('absorb', 'the', 'fruit', 'image'), ('gathering', 'the', 'fruit', 'image'), ('image', 'processing'), ('signify', 'the', 'resolute', 'quality', 'control', 'survey')]</t>
+          <t>[[('utility', 'NN'), ('model', 'NN'), ('provide', 'VBZ'), ('fruit', 'NN'), ('quality', 'NN'), ('control', 'NN'), ('survey', 'NNS'), ('system', 'NN'), ('base', 'VBN'), ('computer', 'NN'), ('vision', 'NN'), ('include', 'VBG'), ('automatic', 'JJ'), ('feeding', 'NN'), ('device', 'NN'), ('conveyer', 'NN'), ('belt', 'NN'), ('automatic', 'JJ'), ('feeding', 'NN'), ('device', 'NN'), ('convey', 'VBZ'), ('use', 'VBN'), ('place', 'VBG'), ('fruit', 'NN'), ('conveyer', 'NN'), ('belt', 'NN'), ('fruit', 'NN'), ('quality', 'NN'), ('control', 'NN'), ('survey', 'NN'), ('system', 'NN'), ('include', 'VBZ'), ('set', 'VBN'), ('mount', 'NNP'), ('side', 'NN'), ('conveyer', 'NN'), ('belt', 'NN'), ('set', 'VBD'), ('optical', 'JJ'), ('detection', 'NN'), ('device', 'NN'), ('mount', 'NNP'), ('mount', 'NNP'), ('include', 'VBZ'), ('montant', 'JJ'), ('horizontal', 'JJ'), ('pole', 'NN'), ('set', 'VBG'), ('montant', 'JJ'), ('set', 'NNS'), ('side', 'NN'), ('conveyer', 'NN'), ('belt', 'NN'), ('top', 'JJ'), ('horizontal', 'JJ'), ('pole', 'NN'), ('suspension', 'NN'), ('conveyer', 'NN'), ('belt', 'NN'), ('optical', 'JJ'), ('detection', 'NN'), ('device', 'NN'), ('include', 'VBZ'), ('camera', 'NN'), ('computer', 'NN'), ('connect', 'VBN'), ('camera', 'NN'), ('camera', 'NN'), ('set', 'VBZ'), ('horizontal', 'JJ'), ('pole', 'NN'), ('absorb', 'VBP'), ('fruit', 'NN'), ('image', 'NN'), ('fruit', 'NN'), ('conveyer', 'NN'), ('belt', 'NN'), ('computer', 'NN'), ('use', 'VBD'), ('gather', 'VBG'), ('fruit', 'NN'), ('image', 'NN'), ('camera', 'NN'), ('absorb', 'VBN'), ('fruit', 'NN'), ('image', 'NN'), ('gathering', 'NN'), ('carry', 'VBZ'), ('image', 'NN'), ('processing', 'NN'), ('parameter', 'NN'), ('measurement', 'NN'), ('use', 'VBD'), ('signify', 'VBG'), ('resolute', 'JJ'), ('quality', 'NN'), ('control', 'NN'), ('survey', 'NN'), ('result', 'VBP'), ('whether', 'IN'), ('fruit', 'NN'), ('exist', 'VBZ'), ('scar', 'NN')], [('fruit', 'NN'), ('image', 'NN'), ('gather', 'VBD'), ('computer', 'NN'), ('vision', 'NN'), ('technique', 'NN'), ('application', 'NN'), ('obtain', 'VBZ'), ('fruit', 'NN'), ('quality', 'NN'), ('control', 'NN'), ('survey', 'NNS'), ('result', 'VBP'), ('improve', 'VB'), ('fruit', 'NN'), ('quality', 'NN'), ('control', 'NN'), ('survey', 'NN'), ('efficiency', 'NN'), ('reduce', 'VBZ'), ('loss', 'NN')]]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[('place', 'fruit'), ('side', 'conveyer'), ('gather', 'fruit'), ('carry', 'image'), ('fruit', 'quality'), ('improve', 'fruit')]</t>
+          <t>[('provide', 'fruit'), ('base', 'computer'), ('place', 'fruit'), ('set', 'mount'), ('include', 'camera'), ('connect', 'camera'), ('absorb', 'fruit'), ('gather', 'fruit'), ('absorb', 'fruit'), ('carry', 'image'), ('exist', 'scar'), ('gather', 'computer'), ('obtain', 'fruit'), ('improve', 'fruit'), ('reduce', 'loss')]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[('use', 'place', 'fruit', 'conveyer', 'belt'), ('side', 'conveyer', 'belt'), ('use', 'gather', 'fruit', 'image', 'camera'), ('carry', 'image', 'processing', 'parameter', 'measurement'), ('result', 'whether', 'fruit'), ('fruit', 'quality', 'control', 'survey'), ('improve', 'fruit', 'quality', 'control', 'survey', 'efficiency')]</t>
+          <t>[('base', 'computer', 'vision'), ('include', 'set', 'mount', 'side', 'conveyer', 'belt'), ('include', 'camera', 'computer'), ('connect', 'camera', 'camera'), ('absorb', 'fruit', 'image', 'fruit', 'conveyer', 'belt', 'computer'), ('use', 'gather', 'fruit', 'image', 'camera'), ('absorb', 'fruit', 'image', 'gathering'), ('carry', 'image', 'processing', 'parameter', 'measurement'), ('result', 'whether', 'fruit'), ('exist', 'scar'), ('gather', 'computer', 'vision', 'technique', 'application'), ('obtain', 'fruit', 'quality', 'control', 'survey'), ('result', 'improve', 'fruit', 'quality', 'control', 'survey', 'efficiency'), ('reduce', 'loss')]</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[('provide', 'fruit', 'quality'), ('include', 'automatic', 'feeding'), ('place', 'fruit'), ('side', 'conveyer'), ('gather', 'fruit'), ('absorb', 'fruit', 'image'), ('carry', 'image'), ('signify', 'resolute', 'quality'), ('fruit', 'quality'), ('improve', 'fruit')]</t>
+          <t>[('provide', 'fruit'), ('base', 'computer'), ('include', 'automatic', 'feeding'), ('place', 'fruit'), ('set', 'mount'), ('set', 'optical', 'detection'), ('set', 'montant', 'set'), ('include', 'camera'), ('connect', 'camera'), ('set', 'horizontal', 'pole'), ('absorb', 'fruit'), ('gather', 'fruit'), ('absorb', 'fruit'), ('carry', 'image'), ('signify', 'resolute', 'quality'), ('exist', 'scar'), ('gather', 'computer'), ('obtain', 'fruit'), ('improve', 'fruit'), ('reduce', 'loss')]</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[('base', 'computer'), ('include', 'camera'), ('connect', 'camera'), ('exist', 'scar'), ('gather', 'computer')]</t>
+          <t>[('base', 'computer', 'vision'), ('include', 'automatic', 'feeding', 'device', 'conveyer', 'belt'), ('include', 'set', 'mount', 'side', 'conveyer', 'belt'), ('set', 'optical', 'detection', 'device', 'mount', 'mount'), ('include', 'montant', 'horizontal', 'pole'), ('set', 'montant', 'set', 'side', 'conveyer', 'belt'), ('include', 'camera', 'computer'), ('connect', 'camera', 'camera'), ('set', 'horizontal', 'pole'), ('absorb', 'fruit', 'image', 'fruit', 'conveyer', 'belt', 'computer'), ('use', 'gather', 'fruit', 'image', 'camera'), ('absorb', 'fruit', 'image', 'gathering'), ('carry', 'image', 'processing', 'parameter', 'measurement'), ('use', 'signify', 'resolute', 'quality', 'control', 'survey'), ('result', 'whether', 'fruit'), ('exist', 'scar'), ('gather', 'computer', 'vision', 'technique', 'application'), ('obtain', 'fruit', 'quality', 'control', 'survey'), ('result', 'improve', 'fruit', 'quality', 'control', 'survey', 'efficiency'), ('reduce', 'loss')]</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[('base', 'computer', 'vision'), ('include', 'camera', 'computer'), ('connect', 'camera'), ('exist', 'scar'), ('gather', 'computer', 'vision', 'technique', 'application')]</t>
+          <t>[('provide', 'fruit'), ('place', 'fruit'), ('absorb', 'fruit'), ('gather', 'fruit'), ('absorb', 'fruit'), ('carry', 'image'), ('obtain', 'fruit'), ('improve', 'fruit')]</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>[('base', 'computer'), ('set', 'mount', 'side'), ('set', 'optical', 'detection'), ('set', 'montant', 'set'), ('include', 'camera'), ('connect', 'camera'), ('set', 'horizontal', 'pole'), ('exist', 'scar'), ('gather', 'computer')]</t>
+          <t>[('include', 'set', 'mount', 'side', 'conveyer', 'belt'), ('absorb', 'fruit', 'image', 'fruit', 'conveyer', 'belt', 'computer'), ('use', 'gather', 'fruit', 'image', 'camera'), ('absorb', 'fruit', 'image', 'gathering'), ('carry', 'image', 'processing', 'parameter', 'measurement'), ('result', 'whether', 'fruit'), ('obtain', 'fruit', 'quality', 'control', 'survey'), ('result', 'improve', 'fruit', 'quality', 'control', 'survey', 'efficiency')]</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
+          <t>[('provide', 'fruit'), ('include', 'automatic', 'feeding'), ('place', 'fruit'), ('absorb', 'fruit'), ('gather', 'fruit'), ('absorb', 'fruit'), ('carry', 'image'), ('signify', 'resolute', 'quality'), ('obtain', 'fruit'), ('improve', 'fruit')]</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>[('include', 'automatic', 'feeding', 'device', 'conveyer', 'belt'), ('include', 'set', 'mount', 'side', 'conveyer', 'belt'), ('set', 'optical', 'detection', 'device', 'mount', 'mount'), ('set', 'montant', 'set', 'side', 'conveyer', 'belt'), ('absorb', 'fruit', 'image', 'fruit', 'conveyer', 'belt', 'computer'), ('use', 'gather', 'fruit', 'image', 'camera'), ('absorb', 'fruit', 'image', 'gathering'), ('carry', 'image', 'processing', 'parameter', 'measurement'), ('use', 'signify', 'resolute', 'quality', 'control', 'survey'), ('result', 'whether', 'fruit'), ('obtain', 'fruit', 'quality', 'control', 'survey'), ('result', 'improve', 'fruit', 'quality', 'control', 'survey', 'efficiency')]</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>[('base', 'computer'), ('set', 'mount'), ('include', 'camera'), ('connect', 'camera'), ('exist', 'scar'), ('gather', 'computer'), ('reduce', 'loss')]</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>[('base', 'computer', 'vision'), ('include', 'camera', 'computer'), ('connect', 'camera', 'camera'), ('exist', 'scar'), ('gather', 'computer', 'vision', 'technique', 'application'), ('reduce', 'loss')]</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>[('base', 'computer'), ('set', 'mount'), ('set', 'optical', 'detection'), ('set', 'montant', 'set'), ('include', 'camera'), ('connect', 'camera'), ('set', 'horizontal', 'pole'), ('exist', 'scar'), ('gather', 'computer'), ('reduce', 'loss')]</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>[('base', 'computer', 'vision'), ('include', 'montant', 'horizontal', 'pole'), ('include', 'camera', 'computer'), ('connect', 'camera', 'camera'), ('set', 'horizontal', 'pole'), ('exist', 'scar'), ('gather', 'computer', 'vision', 'technique', 'application'), ('reduce', 'loss')]</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>[('signify', 'the', 'resolute', 'quality', 'control', 'survey'), ('automatic', 'feed', 'device'), ('conveyer', 'belt'), ('signify', 'the', 'resolute', 'quality', 'control')]</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
           <t>[('automatic', 'feed', 'device')]</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>[('automatic', 'feed', 'device')]</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>[('conveyer', 'belt')]</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2020,70 +2790,105 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>The invention discloses a method, a device and a storage medium for detecting a paper roll packaging defect based on deep learning, wherein the detection method trains a second deep learning network model according to a data set until convergence, and obtains a second classification prediction result; training a first deep learning network model according to the data set until convergence, and calculating a first classification loss of the first deep learning network model according to the second classification prediction result when the first deep learning network model is trained; packing the trained first deep learning network model into a detection model; and inputting the packaging image to a detection model, processing and analyzing the packaging image to determine the category of the packaging defect, and automatically classifying the packaging defect according to the category of the packaging defect. The technical scheme of the invention realizes the rapid detection and the accurate classification of the packaging defects.</t>
+          <t>the invention discloses a method, a device and a storage medium for detecting a paper roll packaging defect based on deep learning, wherein the detection method trains a second deep learning network model according to a data set until convergence, and obtains a second classification prediction result; training a first deep learning network model according to the data set until convergence, and calculating a first classification loss of the first deep learning network model according to the second classification prediction result when the first deep learning network model is trained; packing the trained first deep learning network model into a detection model; and inputting the packaging image to a detection model, processing and analyzing the packaging image to determine the category of the packaging defect, and automatically classifying the packaging defect according to the category of the packaging defect. the technical scheme of the invention realizes the rapid detection and the accurate classification of the packaging defects.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[('detect', 'paper'), ('accord', 'data'), ('accord', 'data'), ('inputting', 'packaging'), ('analyze', 'packaging'), ('classify', 'packaging'), ('accord', 'category')]</t>
+          <t>[('train', 'a', 'second', 'deep', 'learn', 'network', 'model'), ('automatically', 'classify', 'the', 'packaging', 'defect'), ('pack', 'the', 'train', 'first', 'deep', 'learn', 'network', 'model', 'into', 'a', 'detection', 'model'), ('train', 'a', 'second', 'deep', 'learn', 'network'), ('detect', 'a', 'paper', 'roll', 'packaging', 'defect', 'base', 'on', 'deep', 'learn'), ('processing', 'and', 'analyze', 'the', 'packaging', 'image'), ('inputting', 'the', 'packaging', 'image', 'to', 'a', 'detection', 'model'), ('processing', 'and', 'analyze'), ('automatically', 'classify'), ('classify', 'the', 'packaging', 'defect'), ('pack', 'the', 'train', 'first', 'deep', 'learn', 'network', 'model'), ('inputting', 'the', 'packaging', 'image'), ('training', 'a', 'first', 'deep', 'learn', 'network', 'model'), ('detect', 'a', 'paper', 'roll', 'packaging', 'defect'), ('analyze', 'the', 'packaging', 'image'), ('calculate', 'a', 'first', 'classification', 'loss'), ('training', 'a', 'first', 'deep', 'learn', 'network')]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[('detect', 'paper', 'roll', 'packaging', 'defect'), ('accord', 'data', 'set', 'convergence'), ('accord', 'data', 'set', 'convergence'), ('inputting', 'packaging', 'image', 'detection', 'model'), ('process', 'analyze', 'packaging', 'image'), ('classify', 'packaging', 'defect'), ('accord', 'category', 'packaging', 'defect')]</t>
+          <t>[['invention', 'discloses', 'method', 'device', 'storage', 'medium', 'detecting', 'paper', 'roll', 'packaging', 'defect', 'based', 'deep', 'learning', 'wherein', 'detection', 'method', 'trains', 'second', 'deep', 'learning', 'network', 'model', 'according', 'data', 'set', 'convergence', 'obtains', 'second', 'classification', 'prediction', 'result'], ['training', 'first', 'deep', 'learning', 'network', 'model', 'according', 'data', 'set', 'convergence', 'calculating', 'first', 'classification', 'loss', 'first', 'deep', 'learning', 'network', 'model', 'according', 'second', 'classification', 'prediction', 'result', 'first', 'deep', 'learning', 'network', 'model', 'trained'], ['packing', 'trained', 'first', 'deep', 'learning', 'network', 'model', 'detection', 'model'], ['inputting', 'packaging', 'image', 'detection', 'model', 'processing', 'analyzing', 'packaging', 'image', 'determine', 'category', 'packaging', 'defect', 'automatically', 'classifying', 'packaging', 'defect', 'according', 'category', 'packaging', 'defect'], ['technical', 'scheme', 'invention', 'realizes', 'rapid', 'detection', 'accurate', 'classification', 'packaging', 'defects']]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[('detect', 'paper'), ('base', 'deep', 'learning'), ('accord', 'data'), ('accord', 'data'), ('calculate', 'first', 'classification'), ('accord', 'second', 'classification'), ('inputting', 'packaging'), ('analyze', 'packaging'), ('classify', 'packaging'), ('accord', 'category'), ('realize', 'rapid', 'detection')]</t>
+          <t>[[('invention', 'NN'), ('discloses', 'VBZ'), ('method', 'NN'), ('device', 'NN'), ('storage', 'NN'), ('medium', 'NN'), ('detecting', 'NN'), ('paper', 'NN'), ('roll', 'NN'), ('packaging', 'NN'), ('defect', 'NN'), ('based', 'VBN'), ('deep', 'JJ'), ('learning', 'NN'), ('wherein', 'WRB'), ('detection', 'NN'), ('method', 'NN'), ('trains', 'VBZ'), ('second', 'JJ'), ('deep', 'JJ'), ('learning', 'VBG'), ('network', 'NN'), ('model', 'NN'), ('according', 'VBG'), ('data', 'NNS'), ('set', 'VBN'), ('convergence', 'NN'), ('obtains', 'VBZ'), ('second', 'JJ'), ('classification', 'NN'), ('prediction', 'NN'), ('result', 'NN')], [('training', 'VBG'), ('first', 'JJ'), ('deep', 'JJ'), ('learning', 'VBG'), ('network', 'NN'), ('model', 'NN'), ('according', 'VBG'), ('data', 'NNS'), ('set', 'VBN'), ('convergence', 'NN'), ('calculating', 'VBG'), ('first', 'JJ'), ('classification', 'NN'), ('loss', 'NN'), ('first', 'JJ'), ('deep', 'JJ'), ('learning', 'VBG'), ('network', 'NN'), ('model', 'NN'), ('according', 'VBG'), ('second', 'JJ'), ('classification', 'NN'), ('prediction', 'NN'), ('result', 'VBP'), ('first', 'RB'), ('deep', 'JJ'), ('learning', 'VBG'), ('network', 'NN'), ('model', 'NN'), ('trained', 'VBD')], [('packing', 'VBG'), ('trained', 'VBN'), ('first', 'JJ'), ('deep', 'JJ'), ('learning', 'VBG'), ('network', 'NN'), ('model', 'NN'), ('detection', 'NNP'), ('model', 'NN')], [('inputting', 'VBG'), ('packaging', 'NN'), ('image', 'NN'), ('detection', 'NN'), ('model', 'NN'), ('processing', 'NN'), ('analyzing', 'VBG'), ('packaging', 'NN'), ('image', 'NN'), ('determine', 'NN'), ('category', 'NN'), ('packaging', 'NN'), ('defect', 'NN'), ('automatically', 'RB'), ('classifying', 'VBG'), ('packaging', 'NN'), ('defect', 'NN'), ('according', 'VBG'), ('category', 'JJ'), ('packaging', 'NN'), ('defect', 'NN')], [('technical', 'JJ'), ('scheme', 'NN'), ('invention', 'NN'), ('realizes', 'VBZ'), ('rapid', 'JJ'), ('detection', 'NN'), ('accurate', 'JJ'), ('classification', 'NN'), ('packaging', 'NN'), ('defects', 'NNS')]]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[('detect', 'a', 'paper', 'roll', 'packaging', 'defect'), ('train', 'a', 'second', 'deep', 'learn', 'network', 'model'), ('training', 'a', 'first', 'deep', 'learn', 'network', 'model'), ('calculate', 'a', 'first', 'classification', 'loss'), ('pack', 'the', 'train', 'first', 'deep', 'learn', 'network', 'model'), ('processing', 'and', 'analyze', 'the', 'packaging', 'image'), ('automatically', 'classify', 'the', 'packaging', 'defect'), ('detect', 'a', 'paper', 'roll', 'packaging', 'defect'), ('training', 'a', 'first', 'deep', 'learn', 'network', 'model'), ('calculate', 'a', 'first', 'classification', 'loss'), ('pack', 'the', 'train', 'first', 'deep', 'learn', 'network', 'model', 'into', 'a', 'detection', 'model'), ('inputting', 'the', 'packaging', 'image', 'to', 'a', 'detection', 'model'), ('processing', 'and', 'analyze', 'the', 'packaging', 'image'), ('automatically', 'classify', 'the', 'packaging', 'defect'), ('detect', 'a', 'paper', 'roll', 'packaging', 'defect', 'base', 'on', 'deep', 'learn'), ('train', 'a', 'second', 'deep', 'learn', 'network', 'model'), ('training', 'a', 'first', 'deep', 'learn', 'network', 'model'), ('calculate', 'a', 'first', 'classification', 'loss'), ('pack', 'the', 'train', 'first', 'deep', 'learn', 'network', 'model'), ('inputting', 'the', 'packaging', 'image'), ('processing', 'and', 'analyze', 'the', 'packaging', 'image'), ('classify', 'the', 'packaging', 'defect'), ('detect', 'a', 'paper', 'roll', 'packaging', 'defect'), ('train', 'a', 'second', 'deep', 'learn', 'network'), ('training', 'a', 'first', 'deep', 'learn', 'network'), ('calculate', 'a', 'first', 'classification', 'loss'), ('pack', 'the', 'train', 'first', 'deep', 'learn', 'network', 'model'), ('inputting', 'the', 'packaging', 'image'), ('processing', 'and', 'analyze'), ('automatically', 'classify'), ('detect', 'a', 'paper', 'roll', 'packaging', 'defect'), ('train', 'a', 'second', 'deep', 'learn', 'network', 'model'), ('training', 'a', 'first', 'deep', 'learn', 'network', 'model'), ('calculate', 'a', 'first', 'classification', 'loss'), ('pack', 'the', 'train', 'first', 'deep', 'learn', 'network', 'model'), ('inputting', 'the', 'packaging', 'image'), ('analyze', 'the', 'packaging', 'image'), ('automatically', 'classify', 'the', 'packaging', 'defect')]</t>
+          <t>[[('invention', 'NN'), ('disclose', 'VBZ'), ('method', 'NN'), ('device', 'NN'), ('storage', 'NN'), ('medium', 'NN'), ('detecting', 'NN'), ('paper', 'NN'), ('roll', 'NN'), ('packaging', 'NN'), ('defect', 'NN'), ('base', 'VBN'), ('deep', 'JJ'), ('learning', 'NN'), ('wherein', 'WRB'), ('detection', 'NN'), ('method', 'NN'), ('train', 'VBZ'), ('second', 'JJ'), ('deep', 'JJ'), ('learn', 'VBG'), ('network', 'NN'), ('model', 'NN'), ('accord', 'VBG'), ('data', 'NNS'), ('set', 'VBN'), ('convergence', 'NN'), ('obtain', 'VBZ'), ('second', 'JJ'), ('classification', 'NN'), ('prediction', 'NN'), ('result', 'NN')], [('train', 'VBG'), ('first', 'JJ'), ('deep', 'JJ'), ('learn', 'VBG'), ('network', 'NN'), ('model', 'NN'), ('accord', 'VBG'), ('data', 'NNS'), ('set', 'VBN'), ('convergence', 'NN'), ('calculate', 'VBG'), ('first', 'JJ'), ('classification', 'NN'), ('loss', 'NN'), ('first', 'JJ'), ('deep', 'JJ'), ('learn', 'VBG'), ('network', 'NN'), ('model', 'NN'), ('accord', 'VBG'), ('second', 'JJ'), ('classification', 'NN'), ('prediction', 'NN'), ('result', 'VBP'), ('first', 'RB'), ('deep', 'JJ'), ('learn', 'VBG'), ('network', 'NN'), ('model', 'NN'), ('train', 'VBD')], [('pack', 'VBG'), ('train', 'VBN'), ('first', 'JJ'), ('deep', 'JJ'), ('learn', 'VBG'), ('network', 'NN'), ('model', 'NN'), ('detection', 'NNP'), ('model', 'NN')], [('inputting', 'VBG'), ('packaging', 'NN'), ('image', 'NN'), ('detection', 'NN'), ('model', 'NN'), ('processing', 'NN'), ('analyze', 'VBG'), ('packaging', 'NN'), ('image', 'NN'), ('determine', 'NN'), ('category', 'NN'), ('packaging', 'NN'), ('defect', 'NN'), ('automatically', 'RB'), ('classify', 'VBG'), ('packaging', 'NN'), ('defect', 'NN'), ('accord', 'VBG'), ('category', 'JJ'), ('packaging', 'NN'), ('defect', 'NN')], [('technical', 'JJ'), ('scheme', 'NN'), ('invention', 'NN'), ('realize', 'VBZ'), ('rapid', 'JJ'), ('detection', 'NN'), ('accurate', 'JJ'), ('classification', 'NN'), ('packaging', 'NN'), ('defect', 'NNS')]]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[('detect', 'paper'), ('inputting', 'packaging'), ('analyze', 'packaging'), ('classify', 'packaging')]</t>
+          <t>[('learn', 'network'), ('accord', 'data'), ('set', 'convergence'), ('learn', 'network'), ('accord', 'data'), ('set', 'convergence'), ('learn', 'network'), ('learn', 'network'), ('learn', 'network'), ('inputting', 'packaging'), ('analyze', 'packaging'), ('classify', 'packaging')]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[('detect', 'paper', 'roll', 'packaging', 'defect'), ('inputting', 'packaging', 'image', 'detection', 'model'), ('process', 'analyze', 'packaging', 'image'), ('classify', 'packaging', 'defect'), ('accord', 'category', 'packaging', 'defect')]</t>
+          <t>[('accord', 'data'), ('set', 'convergence'), ('accord', 'data'), ('set', 'convergence'), ('result', 'first'), ('analyze', 'packaging', 'image', 'determine', 'category', 'packaging', 'defect', 'automatically'), ('classify', 'packaging', 'defect')]</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[('detect', 'paper'), ('base', 'deep', 'learning'), ('calculate', 'first', 'classification'), ('accord', 'second', 'classification'), ('inputting', 'packaging'), ('analyze', 'packaging'), ('classify', 'packaging'), ('realize', 'rapid', 'detection')]</t>
+          <t>[('base', 'deep', 'learning'), ('learn', 'network'), ('accord', 'data'), ('set', 'convergence'), ('obtain', 'second', 'classification'), ('learn', 'network'), ('accord', 'data'), ('set', 'convergence'), ('calculate', 'first', 'classification'), ('learn', 'network'), ('accord', 'second', 'classification'), ('learn', 'network'), ('learn', 'network'), ('inputting', 'packaging'), ('analyze', 'packaging'), ('classify', 'packaging'), ('accord', 'category', 'packaging'), ('realize', 'rapid', 'detection')]</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[('accord', 'data'), ('accord', 'data'), ('accord', 'category')]</t>
+          <t>[('base', 'deep', 'learning'), ('accord', 'data'), ('set', 'convergence'), ('obtain', 'second', 'classification', 'prediction', 'result'), ('accord', 'data'), ('set', 'convergence'), ('calculate', 'first', 'classification', 'loss'), ('accord', 'second', 'classification', 'prediction'), ('analyze', 'packaging', 'image', 'determine', 'category', 'packaging', 'defect'), ('classify', 'packaging', 'defect'), ('accord', 'category', 'packaging', 'defect'), ('realize', 'rapid', 'detection')]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[('accord', 'data', 'set', 'convergence'), ('accord', 'data', 'set', 'convergence')]</t>
+          <t>[('learn', 'network'), ('learn', 'network'), ('learn', 'network'), ('learn', 'network'), ('learn', 'network'), ('inputting', 'packaging'), ('analyze', 'packaging'), ('classify', 'packaging')]</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>[('accord', 'data'), ('accord', 'data'), ('accord', 'category')]</t>
+          <t>[('result', 'first'), ('analyze', 'packaging', 'image', 'determine', 'category', 'packaging', 'defect', 'automatically'), ('classify', 'packaging', 'defect')]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>[('calculate', 'a', 'first', 'classification', 'loss'), ('training', 'a', 'first', 'deep', 'learn', 'network'), ('train', 'a', 'second', 'deep', 'learn', 'network'), ('pack', 'the', 'train', 'first', 'deep', 'learn', 'network', 'model', 'into', 'a', 'detection', 'model'), ('training', 'a', 'first', 'deep', 'learn', 'network', 'model'), ('train', 'a', 'second', 'deep', 'learn', 'network', 'model'), ('pack', 'the', 'train', 'first', 'deep', 'learn', 'network', 'model')]</t>
+          <t>[('base', 'deep', 'learning'), ('learn', 'network'), ('obtain', 'second', 'classification'), ('learn', 'network'), ('calculate', 'first', 'classification'), ('learn', 'network'), ('accord', 'second', 'classification'), ('learn', 'network'), ('learn', 'network'), ('inputting', 'packaging'), ('analyze', 'packaging'), ('classify', 'packaging'), ('accord', 'category', 'packaging'), ('realize', 'rapid', 'detection')]</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>[('calculate', 'a', 'first', 'classification', 'loss'), ('train', 'a', 'second', 'deep', 'learn', 'network'), ('training', 'a', 'first', 'deep', 'learn', 'network')]</t>
+          <t>[('base', 'deep', 'learning'), ('obtain', 'second', 'classification', 'prediction', 'result'), ('calculate', 'first', 'classification', 'loss'), ('accord', 'second', 'classification', 'prediction'), ('analyze', 'packaging', 'image', 'determine', 'category', 'packaging', 'defect'), ('classify', 'packaging', 'defect'), ('accord', 'category', 'packaging', 'defect'), ('realize', 'rapid', 'detection')]</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
+        <is>
+          <t>[('accord', 'data'), ('set', 'convergence'), ('accord', 'data'), ('set', 'convergence')]</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>[('accord', 'data'), ('set', 'convergence'), ('accord', 'data'), ('set', 'convergence')]</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>[('accord', 'data'), ('set', 'convergence'), ('accord', 'data'), ('set', 'convergence')]</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>[('accord', 'data'), ('set', 'convergence'), ('accord', 'data'), ('set', 'convergence')]</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>[('calculate', 'a', 'first', 'classification', 'loss')]</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>[('train', 'a', 'second', 'deep', 'learn', 'network', 'model'), ('train', 'a', 'second', 'deep', 'learn', 'network')]</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2092,70 +2897,105 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A system and method for selecting and presenting advertisements based on natural language processing of voice-based inputs is provided. A user utterance may be received at an input device, and a conversational, natural language processor may identify a request from the utterance. At least one advertisement may be selected and presented to the user based on the identified request. The advertisement may be presented as a natural language response, thereby creating a conversational feel to the presentation of advertisements. The request and the user&amp;#39;s subsequent interaction with the advertisement may be tracked to build user statistical profiles, thus enhancing subsequent selection and presentation of advertisements.</t>
+          <t>a system and method for selecting and presenting advertisements based on natural language processing of voice-based inputs is provided. a user utterance may be received at an input device, and a conversational, natural language processor may identify a request from the utterance. at least one advertisement may be selected and presented to the user based on the identified request. the advertisement may be presented as a natural language response, thereby creating a conversational feel to the presentation of advertisements. the request and the user&amp;#39;s subsequent interaction with the advertisement may be tracked to build user statistical profiles, thus enhancing subsequent selection and presentation of advertisements.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[('present', 'advertisement'), ('receive', 'input'), ('identify', 'request'), ('identify', 'request')]</t>
+          <t>[('create', 'a', 'conversational', 'feel', 'to', 'the', 'presentation', 'of', 'advertisement'), ('select', 'and', 'present', 'advertisement'), ('create', 'a', 'conversational', 'feel'), ('select', 'and', 'present', 'advertisement', 'base', 'on', 'natural', 'language', 'processing'), ('identify', 'a', 'request', 'from', 'the', 'utterance'), ('identify', 'a', 'request')]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[('select', 'present', 'advertisement'), ('receive', 'input', 'device'), ('identify', 'request', 'utterance'), ('base', 'identify', 'request')]</t>
+          <t>[['system', 'method', 'selecting', 'presenting', 'advertisements', 'based', 'natural', 'language', 'processing', 'voice-based', 'inputs', 'provided'], ['user', 'utterance', 'may', 'received', 'input', 'device', 'conversational', 'natural', 'language', 'processor', 'may', 'identify', 'request', 'utterance'], ['least', 'one', 'advertisement', 'may', 'selected', 'presented', 'user', 'based', 'identified', 'request'], ['advertisement', 'may', 'presented', 'natural', 'language', 'response', 'thereby', 'creating', 'conversational', 'feel', 'presentation', 'advertisements'], ['request', 'user', '39', 'subsequent', 'interaction', 'advertisement', 'may', 'tracked', 'build', 'user', 'statistical', 'profiles', 'thus', 'enhancing', 'subsequent', 'selection', 'presentation', 'advertisements']]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[('present', 'advertisement'), ('base', 'natural', 'language'), ('process', 'voice-based', 'input'), ('receive', 'input'), ('identify', 'request'), ('identify', 'request'), ('present', 'natural', 'language'), ('create', 'conversational', 'feel'), ('enhance', 'subsequent', 'selection')]</t>
+          <t>[[('system', 'NN'), ('method', 'NN'), ('selecting', 'VBG'), ('presenting', 'VBG'), ('advertisements', 'NNS'), ('based', 'VBN'), ('natural', 'JJ'), ('language', 'NN'), ('processing', 'NN'), ('voice', 'NN'), ('-', 'HYPH'), ('based', 'VBN'), ('inputs', 'NNS'), ('provided', 'VBD')], [('user', 'NN'), ('utterance', 'NN'), ('may', 'MD'), ('received', 'VB'), ('input', 'NN'), ('device', 'NN'), ('conversational', 'JJ'), ('natural', 'JJ'), ('language', 'NN'), ('processor', 'NN'), ('may', 'MD'), ('identify', 'VB'), ('request', 'NN'), ('utterance', 'NN')], [('least', 'JJS'), ('one', 'CD'), ('advertisement', 'NN'), ('may', 'MD'), ('selected', 'VBN'), ('presented', 'VBN'), ('user', 'NN'), ('based', 'VBN'), ('identified', 'VBN'), ('request', 'NN')], [('advertisement', 'NN'), ('may', 'MD'), ('presented', 'VBN'), ('natural', 'JJ'), ('language', 'NN'), ('response', 'NN'), ('thereby', 'RB'), ('creating', 'VBG'), ('conversational', 'JJ'), ('feel', 'NN'), ('presentation', 'NN'), ('advertisements', 'NNS')], [('request', 'NN'), ('user', 'NN'), ('39', 'CD'), ('subsequent', 'JJ'), ('interaction', 'NN'), ('advertisement', 'NN'), ('may', 'MD'), ('tracked', 'VBD'), ('build', 'VB'), ('user', 'NN'), ('statistical', 'JJ'), ('profiles', 'NNS'), ('thus', 'RB'), ('enhancing', 'VBG'), ('subsequent', 'JJ'), ('selection', 'NN'), ('presentation', 'NN'), ('advertisements', 'NNS')]]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[('select', 'and', 'present', 'advertisement'), ('identify', 'a', 'request', 'from', 'the', 'utterance'), ('create', 'a', 'conversational', 'feel'), ('select', 'and', 'present', 'advertisement'), ('identify', 'a', 'request', 'from', 'the', 'utterance'), ('create', 'a', 'conversational', 'feel', 'to', 'the', 'presentation', 'of', 'advertisement'), ('select', 'and', 'present', 'advertisement', 'base', 'on', 'natural', 'language', 'processing'), ('select', 'and', 'present', 'advertisement'), ('identify', 'a', 'request', 'from', 'the', 'utterance'), ('create', 'a', 'conversational', 'feel'), ('select', 'and', 'present', 'advertisement'), ('identify', 'a', 'request')]</t>
+          <t>[[('system', 'NN'), ('method', 'NN'), ('select', 'VBG'), ('present', 'VBG'), ('advertisement', 'NNS'), ('base', 'VBN'), ('natural', 'JJ'), ('language', 'NN'), ('processing', 'NN'), ('voice', 'NN'), ('-', 'HYPH'), ('base', 'VBN'), ('input', 'NNS'), ('provide', 'VBD')], [('user', 'NN'), ('utterance', 'NN'), ('may', 'MD'), ('receive', 'VB'), ('input', 'NN'), ('device', 'NN'), ('conversational', 'JJ'), ('natural', 'JJ'), ('language', 'NN'), ('processor', 'NN'), ('may', 'MD'), ('identify', 'VB'), ('request', 'NN'), ('utterance', 'NN')], [('least', 'JJS'), ('one', 'CD'), ('advertisement', 'NN'), ('may', 'MD'), ('select', 'VBN'), ('present', 'VBN'), ('user', 'NN'), ('base', 'VBN'), ('identify', 'VBN'), ('request', 'NN')], [('advertisement', 'NN'), ('may', 'MD'), ('present', 'VBN'), ('natural', 'JJ'), ('language', 'NN'), ('response', 'NN'), ('thereby', 'RB'), ('create', 'VBG'), ('conversational', 'JJ'), ('feel', 'NN'), ('presentation', 'NN'), ('advertisement', 'NNS')], [('request', 'NN'), ('user', 'NN'), ('39', 'CD'), ('subsequent', 'JJ'), ('interaction', 'NN'), ('advertisement', 'NN'), ('may', 'MD'), ('track', 'VBD'), ('build', 'VB'), ('user', 'NN'), ('statistical', 'JJ'), ('profile', 'NNS'), ('thus', 'RB'), ('enhance', 'VBG'), ('subsequent', 'JJ'), ('selection', 'NN'), ('presentation', 'NN'), ('advertisement', 'NNS')]]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[('present', 'advertisement'), ('identify', 'request'), ('identify', 'request')]</t>
+          <t>[('present', 'advertisement'), ('base', 'input'), ('receive', 'input'), ('identify', 'request'), ('present', 'user'), ('identify', 'request'), ('build', 'user')]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[('select', 'present', 'advertisement'), ('identify', 'request', 'utterance'), ('base', 'identify', 'request')]</t>
+          <t>[('select', 'present', 'advertisement'), ('base', 'input'), ('receive', 'input', 'device'), ('identify', 'request', 'utterance'), ('select', 'present', 'user'), ('base', 'identify', 'request'), ('track', 'build', 'user')]</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[('present', 'advertisement'), ('base', 'natural', 'language'), ('identify', 'request'), ('identify', 'request'), ('present', 'natural', 'language'), ('create', 'conversational', 'feel')]</t>
+          <t>[('present', 'advertisement'), ('base', 'natural', 'language'), ('base', 'input'), ('receive', 'input'), ('identify', 'request'), ('present', 'user'), ('identify', 'request'), ('present', 'natural', 'language'), ('create', 'conversational', 'feel'), ('build', 'user'), ('enhance', 'subsequent', 'selection')]</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[('receive', 'input')]</t>
+          <t>[('select', 'present', 'advertisement'), ('base', 'natural', 'language', 'processing', 'voice'), ('base', 'input'), ('receive', 'input', 'device'), ('identify', 'request', 'utterance'), ('select', 'present', 'user'), ('base', 'identify', 'request'), ('present', 'natural', 'language', 'response'), ('create', 'conversational', 'feel', 'presentation', 'advertisement'), ('track', 'build', 'user'), ('enhance', 'subsequent', 'selection', 'presentation', 'advertisement')]</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[('receive', 'input', 'device')]</t>
+          <t>[('present', 'advertisement'), ('base', 'input'), ('identify', 'request'), ('present', 'user'), ('identify', 'request')]</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>[('process', 'voice-based', 'input'), ('receive', 'input'), ('enhance', 'subsequent', 'selection')]</t>
+          <t>[('select', 'present', 'advertisement'), ('base', 'input'), ('identify', 'request', 'utterance'), ('select', 'present', 'user'), ('base', 'identify', 'request')]</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
+          <t>[('present', 'advertisement'), ('base', 'natural', 'language'), ('base', 'input'), ('identify', 'request'), ('present', 'user'), ('identify', 'request'), ('present', 'natural', 'language'), ('create', 'conversational', 'feel')]</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>[('select', 'present', 'advertisement'), ('base', 'natural', 'language', 'processing', 'voice'), ('base', 'input'), ('identify', 'request', 'utterance'), ('select', 'present', 'user'), ('base', 'identify', 'request'), ('present', 'natural', 'language', 'response'), ('create', 'conversational', 'feel', 'presentation', 'advertisement'), ('enhance', 'subsequent', 'selection', 'presentation', 'advertisement')]</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>[('receive', 'input'), ('build', 'user')]</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>[('receive', 'input', 'device'), ('track', 'build', 'user')]</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>[('receive', 'input'), ('build', 'user'), ('enhance', 'subsequent', 'selection')]</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>[('receive', 'input', 'device'), ('track', 'build', 'user')]</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
           <t>[('create', 'a', 'conversational', 'feel')]</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>[('create', 'a', 'conversational', 'feel')]</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2164,142 +3004,212 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>An artificial intelligence server for controlling a plurality of robots using artificial intelligence includes a communication unit configured to receive a captured image of each of a plurality of zones and a processor configured to acquire situation information of each zone based on the received image, acquire degrees of guidance urgency respectively corresponding to the plurality of zones based on the acquired situation information of each zone, determine whether there is a degree of guidance urgency greater than a predetermined value in the acquired degrees of guidance urgency, and, when there is a degree of guidance urgency greater than the predetermined value, transmit a first control command for moving one or more robots to a zone corresponding to the degree of guidance urgency.</t>
+          <t>an artificial intelligence server for controlling a plurality of robots using artificial intelligence includes a communication unit configured to receive a captured image of each of a plurality of zones and a processor configured to acquire situation information of each zone based on the received image, acquire degrees of guidance urgency respectively corresponding to the plurality of zones based on the acquired situation information of each zone, determine whether there is a degree of guidance urgency greater than a predetermined value in the acquired degrees of guidance urgency, and, when there is a degree of guidance urgency greater than the predetermined value, transmit a first control command for moving one or more robots to a zone corresponding to the degree of guidance urgency.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[('control', 'plurality'), ('include', 'communication'), ('capture', 'image'), ('zone', 'processor'), ('acquire', 'situation'), ('receive', 'image'), ('acquire', 'degree'), ('guidance', 'urgency'), ('correspond', 'plurality'), ('predetermine', 'value'), ('acquire', 'degree'), ('predetermine', 'value')]</t>
+          <t>[('determine', 'whether'), ('determine', 'whether', 'there', 'be', 'a', 'degree', 'of', 'guidance', 'urgency', 'greater', 'than', 'a', 'predetermine', 'value'), ('receive', 'a', 'capture', 'image'), ('determine', 'whether', 'there', 'be', 'a', 'degree', 'of', 'guidance'), ('acquire', 'degree', 'of', 'guidance'), ('receive', 'a', 'capture', 'image', 'of', 'each', 'of', 'a', 'plurality', 'of', 'zone'), ('configure', 'to', 'receive', 'a', 'capture', 'image'), ('acquire', 'situation', 'information'), ('acquire', 'degree', 'of', 'guidance', 'urgency'), ('acquire', 'situation', 'information', 'of', 'each', 'zone'), ('acquire', 'degree', 'of', 'guidance', 'urgency', 'respectively'), ('control', 'a', 'plurality', 'of', 'robot'), ('transmit', 'a', 'first', 'control', 'command')]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[('control', 'plurality', 'robot'), ('include', 'communication', 'unit'), ('capture', 'image', 'plurality'), ('zone', 'processor'), ('configure', 'acquire', 'situation', 'information', 'zone'), ('base', 'receive', 'image'), ('acquire', 'degree'), ('guidance', 'urgency', 'respectively'), ('correspond', 'plurality', 'zone'), ('predetermine', 'value'), ('acquire', 'degree', 'guidance', 'urgency'), ('predetermine', 'value')]</t>
+          <t>[['artificial', 'intelligence', 'server', 'controlling', 'plurality', 'robots', 'using', 'artificial', 'intelligence', 'includes', 'communication', 'unit', 'configured', 'receive', 'captured', 'image', 'plurality', 'zones', 'processor', 'configured', 'acquire', 'situation', 'information', 'zone', 'based', 'received', 'image', 'acquire', 'degrees', 'guidance', 'urgency', 'respectively', 'corresponding', 'plurality', 'zones', 'based', 'acquired', 'situation', 'information', 'zone', 'determine', 'whether', 'degree', 'guidance', 'urgency', 'greater', 'predetermined', 'value', 'acquired', 'degrees', 'guidance', 'urgency', 'degree', 'guidance', 'urgency', 'greater', 'predetermined', 'value', 'transmit', 'first', 'control', 'command', 'moving', 'one', 'robots', 'zone', 'corresponding', 'degree', 'guidance', 'urgency']]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[('control', 'plurality'), ('use', 'artificial', 'intelligence'), ('include', 'communication'), ('capture', 'image'), ('zone', 'processor'), ('acquire', 'situation'), ('receive', 'image'), ('acquire', 'degree'), ('guidance', 'urgency'), ('correspond', 'plurality'), ('base', 'acquired', 'situation'), ('predetermine', 'value'), ('acquire', 'degree'), ('predetermine', 'value'), ('correspond', 'degree', 'guidance')]</t>
+          <t>[[('artificial', 'JJ'), ('intelligence', 'NN'), ('server', 'NN'), ('controlling', 'VBG'), ('plurality', 'NN'), ('robots', 'NNS'), ('using', 'VBG'), ('artificial', 'JJ'), ('intelligence', 'NN'), ('includes', 'VBZ'), ('communication', 'NN'), ('unit', 'NN'), ('configured', 'VBD'), ('receive', 'VBP'), ('captured', 'VBN'), ('image', 'NN'), ('plurality', 'NN'), ('zones', 'NNS'), ('processor', 'NN'), ('configured', 'VBD'), ('acquire', 'VBP'), ('situation', 'NN'), ('information', 'NN'), ('zone', 'NN'), ('based', 'VBN'), ('received', 'VBD'), ('image', 'NN'), ('acquire', 'NN'), ('degrees', 'NNS'), ('guidance', 'NN'), ('urgency', 'NN'), ('respectively', 'RB'), ('corresponding', 'VBG'), ('plurality', 'NN'), ('zones', 'NNS'), ('based', 'VBN'), ('acquired', 'VBN'), ('situation', 'NN'), ('information', 'NN'), ('zone', 'NN'), ('determine', 'VB'), ('whether', 'IN'), ('degree', 'NN'), ('guidance', 'NN'), ('urgency', 'NN'), ('greater', 'JJR'), ('predetermined', 'JJ'), ('value', 'NN'), ('acquired', 'VBN'), ('degrees', 'NNS'), ('guidance', 'NN'), ('urgency', 'NN'), ('degree', 'NN'), ('guidance', 'NN'), ('urgency', 'NN'), ('greater', 'JJR'), ('predetermined', 'JJ'), ('value', 'NN'), ('transmit', 'VBP'), ('first', 'JJ'), ('control', 'NNP'), ('command', 'NN'), ('moving', 'VBG'), ('one', 'CD'), ('robots', 'NNS'), ('zone', 'NN'), ('corresponding', 'NN'), ('degree', 'NN'), ('guidance', 'NN'), ('urgency', 'NN')]]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[('control', 'a', 'plurality', 'of', 'robot'), ('receive', 'a', 'capture', 'image'), ('acquire', 'situation', 'information'), ('acquire', 'degree', 'of', 'guidance', 'urgency'), ('determine', 'whether', 'there', 'be', 'a', 'degree', 'of', 'guidance', 'urgency', 'greater', 'than', 'a', 'predetermine', 'value'), ('transmit', 'a', 'first', 'control', 'command'), ('control', 'a', 'plurality', 'of', 'robot'), ('receive', 'a', 'capture', 'image', 'of', 'each', 'of', 'a', 'plurality', 'of', 'zone'), ('acquire', 'situation', 'information', 'of', 'each', 'zone'), ('acquire', 'degree', 'of', 'guidance', 'urgency'), ('determine', 'whether'), ('transmit', 'a', 'first', 'control', 'command'), ('control', 'a', 'plurality', 'of', 'robot'), ('receive', 'a', 'capture', 'image'), ('determine', 'whether', 'there', 'be', 'a', 'degree', 'of', 'guidance'), ('transmit', 'a', 'first', 'control', 'command'), ('configure', 'to', 'receive', 'a', 'capture', 'image'), ('acquire', 'situation', 'information'), ('acquire', 'degree', 'of', 'guidance'), ('transmit', 'a', 'first', 'control', 'command'), ('control', 'a', 'plurality', 'of', 'robot'), ('receive', 'a', 'capture', 'image', 'of', 'each', 'of', 'a', 'plurality', 'of', 'zone'), ('acquire', 'situation', 'information'), ('acquire', 'degree', 'of', 'guidance', 'urgency', 'respectively'), ('determine', 'whether', 'there', 'be', 'a', 'degree', 'of', 'guidance'), ('transmit', 'a', 'first', 'control', 'command')]</t>
+          <t>[[('artificial', 'JJ'), ('intelligence', 'NN'), ('server', 'NN'), ('control', 'VBG'), ('plurality', 'NN'), ('robot', 'NNS'), ('use', 'VBG'), ('artificial', 'JJ'), ('intelligence', 'NN'), ('include', 'VBZ'), ('communication', 'NN'), ('unit', 'NN'), ('configure', 'VBD'), ('receive', 'VBP'), ('capture', 'VBN'), ('image', 'NN'), ('plurality', 'NN'), ('zone', 'NNS'), ('processor', 'NN'), ('configure', 'VBD'), ('acquire', 'VBP'), ('situation', 'NN'), ('information', 'NN'), ('zone', 'NN'), ('base', 'VBN'), ('receive', 'VBD'), ('image', 'NN'), ('acquire', 'NN'), ('degree', 'NNS'), ('guidance', 'NN'), ('urgency', 'NN'), ('respectively', 'RB'), ('correspond', 'VBG'), ('plurality', 'NN'), ('zone', 'NNS'), ('base', 'VBN'), ('acquire', 'VBN'), ('situation', 'NN'), ('information', 'NN'), ('zone', 'NN'), ('determine', 'VB'), ('whether', 'IN'), ('degree', 'NN'), ('guidance', 'NN'), ('urgency', 'NN'), ('great', 'JJR'), ('predetermined', 'JJ'), ('value', 'NN'), ('acquire', 'VBN'), ('degree', 'NNS'), ('guidance', 'NN'), ('urgency', 'NN'), ('degree', 'NN'), ('guidance', 'NN'), ('urgency', 'NN'), ('great', 'JJR'), ('predetermined', 'JJ'), ('value', 'NN'), ('transmit', 'VBP'), ('first', 'JJ'), ('control', 'NNP'), ('command', 'NN'), ('move', 'VBG'), ('one', 'CD'), ('robot', 'NNS'), ('zone', 'NN'), ('corresponding', 'NN'), ('degree', 'NN'), ('guidance', 'NN'), ('urgency', 'NN')]]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[('control', 'plurality'), ('capture', 'image'), ('zone', 'processor'), ('acquire', 'situation'), ('receive', 'image'), ('acquire', 'degree'), ('guidance', 'urgency'), ('correspond', 'plurality'), ('predetermine', 'value'), ('acquire', 'degree'), ('predetermine', 'value')]</t>
+          <t>[('control', 'plurality'), ('include', 'communication'), ('capture', 'image'), ('acquire', 'situation'), ('receive', 'image'), ('correspond', 'plurality'), ('acquire', 'situation'), ('acquire', 'degree')]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[('control', 'plurality', 'robot'), ('capture', 'image', 'plurality'), ('zone', 'processor'), ('configure', 'acquire', 'situation', 'information', 'zone'), ('base', 'receive', 'image'), ('acquire', 'degree'), ('guidance', 'urgency', 'respectively'), ('correspond', 'plurality', 'zone'), ('predetermine', 'value'), ('acquire', 'degree', 'guidance', 'urgency'), ('predetermine', 'value')]</t>
+          <t>[('control', 'plurality', 'robot'), ('include', 'communication', 'unit'), ('configure', 'receive', 'capture', 'image', 'plurality', 'zone', 'processor'), ('configure', 'acquire', 'situation', 'information', 'zone'), ('base', 'receive', 'image', 'acquire', 'degree', 'guidance', 'urgency', 'respectively'), ('correspond', 'plurality', 'zone'), ('base', 'acquire', 'situation', 'information', 'zone'), ('determine', 'whether', 'degree', 'guidance', 'urgency'), ('acquire', 'degree', 'guidance', 'urgency', 'degree', 'guidance', 'urgency')]</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[('control', 'plurality'), ('capture', 'image'), ('zone', 'processor'), ('acquire', 'situation'), ('receive', 'image'), ('acquire', 'degree'), ('guidance', 'urgency'), ('correspond', 'plurality'), ('base', 'acquired', 'situation'), ('predetermine', 'value'), ('acquire', 'degree'), ('predetermine', 'value'), ('correspond', 'degree', 'guidance')]</t>
+          <t>[('control', 'plurality'), ('include', 'communication'), ('capture', 'image'), ('acquire', 'situation'), ('receive', 'image'), ('correspond', 'plurality'), ('acquire', 'situation'), ('acquire', 'degree'), ('transmit', 'first', 'control')]</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t>[('control', 'plurality', 'robot'), ('include', 'communication', 'unit'), ('configure', 'receive', 'capture', 'image', 'plurality', 'zone', 'processor'), ('configure', 'acquire', 'situation', 'information', 'zone'), ('base', 'receive', 'image', 'acquire', 'degree', 'guidance', 'urgency'), ('correspond', 'plurality', 'zone'), ('base', 'acquire', 'situation', 'information', 'zone'), ('determine', 'whether', 'degree', 'guidance', 'urgency'), ('acquire', 'degree', 'guidance', 'urgency', 'degree', 'guidance', 'urgency'), ('transmit', 'first', 'control', 'command')]</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>[('control', 'plurality'), ('capture', 'image'), ('acquire', 'situation'), ('receive', 'image'), ('correspond', 'plurality'), ('acquire', 'situation'), ('acquire', 'degree')]</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>[('control', 'plurality', 'robot'), ('configure', 'receive', 'capture', 'image', 'plurality', 'zone', 'processor'), ('configure', 'acquire', 'situation', 'information', 'zone'), ('base', 'receive', 'image', 'acquire', 'degree', 'guidance', 'urgency', 'respectively'), ('correspond', 'plurality', 'zone'), ('base', 'acquire', 'situation', 'information', 'zone'), ('determine', 'whether', 'degree', 'guidance', 'urgency'), ('acquire', 'degree', 'guidance', 'urgency', 'degree', 'guidance', 'urgency')]</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>[('control', 'plurality'), ('capture', 'image'), ('acquire', 'situation'), ('receive', 'image'), ('correspond', 'plurality'), ('acquire', 'situation'), ('acquire', 'degree'), ('transmit', 'first', 'control')]</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>[('control', 'plurality', 'robot'), ('configure', 'receive', 'capture', 'image', 'plurality', 'zone', 'processor'), ('configure', 'acquire', 'situation', 'information', 'zone'), ('base', 'receive', 'image', 'acquire', 'degree', 'guidance', 'urgency'), ('correspond', 'plurality', 'zone'), ('base', 'acquire', 'situation', 'information', 'zone'), ('determine', 'whether', 'degree', 'guidance', 'urgency'), ('acquire', 'degree', 'guidance', 'urgency', 'degree', 'guidance', 'urgency'), ('transmit', 'first', 'control', 'command')]</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>[('include', 'communication')]</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>[('include', 'communication', 'unit')]</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>[('use', 'artificial', 'intelligence'), ('include', 'communication')]</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>[('include', 'communication')]</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>[('include', 'communication', 'unit')]</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
         <is>
           <t>[('determine', 'whether')]</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
         <is>
           <t>[('determine', 'whether')]</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>[('determine', 'whether')]</t>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A system for predicting a non-fraud dispute using an artificial intelligence (AI) based communications system is disclosed. The system may comprise a data access interface to receive instructions historical transaction and disputes data from at least one data source associated with an account issuer. The data access interface may also receive incoming transaction data associated with a transaction from at least one data source associated with an account holder. The system may comprise a processor to predict a likelihood of a non-fraud dispute associated with the transaction by: examining the historical transaction and disputes data; retrieving non-fraud dispute attributes; parsing the incoming transaction data; applying predictive analytics to the incoming transaction data to yield a prediction value; determining that the prediction value meets a predetermined threshold; and generating a prediction for the likelihood of a non-fraud dispute associated with the transaction associated with the account holder to be outputted, via an output interface to a user device.</t>
+          <t>a system for predicting a non-fraud dispute using an artificial intelligence (ai) based communications system is disclosed. the system may comprise a data access interface to receive instructions historical transaction and disputes data from at least one data source associated with an account issuer. the data access interface may also receive incoming transaction data associated with a transaction from at least one data source associated with an account holder. the system may comprise a processor to predict a likelihood of a non-fraud dispute associated with the transaction by: examining the historical transaction and disputes data; retrieving non-fraud dispute attributes; parsing the incoming transaction data; applying predictive analytics to the incoming transaction data to yield a prediction value; determining that the prediction value meets a predetermined threshold; and generating a prediction for the likelihood of a non-fraud dispute associated with the transaction associated with the account holder to be outputted, via an output interface to a user device.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[('base', 'communication'), ('comprise', 'data'), ('receive', 'instruction'), ('associate', 'account'), ('incoming', 'transaction'), ('associate', 'account'), ('comprise', 'processor'), ('associate', 'transaction'), ('incoming', 'transaction'), ('incoming', 'transaction'), ('determine', 'prediction'), ('predetermine', 'threshold'), ('generate', 'prediction'), ('associate', 'transaction'), ('associate', 'account')]</t>
+          <t>[('receive', 'instruction', 'historical', 'transaction'), ('generate', 'a', 'prediction', 'for', 'the', 'likelihood'), ('determine', 'that', 'the', 'prediction', 'value'), ('retrieve', 'nonfraud', 'dispute', 'attribute'), ('generate', 'a', 'prediction', 'for', 'the', 'likelihood', 'of', 'a', 'nonfraud', 'dispute'), ('predict', 'a', 'likelihood'), ('determine', 'that', 'the', 'prediction', 'value', 'meet', 'a', 'predetermine', 'threshold'), ('receive', 'incoming', 'transaction', 'data'), ('examine', 'the', 'historical', 'transaction'), ('apply', 'predictive', 'analytics', 'to', 'the', 'incoming', 'transaction', 'data'), ('dispute', 'data'), ('predict', 'a', 'nonfraud', 'dispute'), ('comprise', 'a', 'data', 'access', 'interface'), ('generate', 'a', 'prediction'), ('dispute', 'data', 'from', 'at', 'least', 'one', 'data', 'source'), ('apply', 'predictive', 'analytics'), ('predict', 'a', 'likelihood', 'of', 'a', 'nonfraud', 'dispute'), ('parse', 'the', 'incoming', 'transaction', 'data'), ('examine', 'the', 'historical', 'transaction', 'and', 'dispute', 'data')]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[('base', 'communication', 'system'), ('comprise', 'data', 'access', 'interface'), ('receive', 'instruction'), ('associate', 'account', 'issuer'), ('receive', 'incoming', 'transaction', 'data'), ('associate', 'account', 'holder'), ('comprise', 'processor', 'predict'), ('associate', 'transaction'), ('parse', 'incoming', 'transaction', 'data'), ('incoming', 'transaction', 'data', 'yield', 'prediction', 'value'), ('determine', 'prediction', 'value', 'meet'), ('predetermine', 'threshold'), ('generate', 'prediction'), ('associate', 'transaction'), ('associate', 'account', 'holder')]</t>
+          <t>[['system', 'predicting', 'non-fraud', 'dispute', 'using', 'artificial', 'intelligence', 'ai', 'based', 'communications', 'system', 'disclosed'], ['system', 'may', 'comprise', 'data', 'access', 'interface', 'receive', 'instructions', 'historical', 'transaction', 'disputes', 'data', 'least', 'one', 'data', 'source', 'associated', 'account', 'issuer'], ['data', 'access', 'interface', 'may', 'also', 'receive', 'incoming', 'transaction', 'data', 'associated', 'transaction', 'least', 'one', 'data', 'source', 'associated', 'account', 'holder'], ['system', 'may', 'comprise', 'processor', 'predict', 'likelihood', 'non-fraud', 'dispute', 'associated', 'transaction', 'examining', 'historical', 'transaction', 'disputes', 'data'], ['retrieving', 'non-fraud', 'dispute', 'attributes'], ['parsing', 'incoming', 'transaction', 'data'], ['applying', 'predictive', 'analytics', 'incoming', 'transaction', 'data', 'yield', 'prediction', 'value'], ['determining', 'prediction', 'value', 'meets', 'predetermined', 'threshold'], ['generating', 'prediction', 'likelihood', 'non-fraud', 'dispute', 'associated', 'transaction', 'associated', 'account', 'holder', 'outputted', 'via', 'output', 'interface', 'user', 'device']]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[('predict', 'non-fraud', 'dispute'), ('use', 'artificial', 'intelligence'), ('base', 'communication'), ('comprise', 'data'), ('receive', 'instruction'), ('associate', 'account'), ('incoming', 'transaction'), ('associate', 'account'), ('comprise', 'processor'), ('likelihood', 'non-fraud', 'dispute'), ('associate', 'transaction'), ('examine', 'historical', 'transaction'), ('retrieve', 'non-fraud', 'dispute'), ('incoming', 'transaction'), ('apply', 'predictive', 'analytics'), ('incoming', 'transaction'), ('determine', 'prediction'), ('predetermine', 'threshold'), ('generate', 'prediction'), ('likelihood', 'non-fraud', 'dispute'), ('associate', 'transaction'), ('associate', 'account'), ('interface', 'user', 'device')]</t>
+          <t>[[('system', 'NN'), ('predicting', 'VBG'), ('non', 'JJ'), ('-', 'JJ'), ('fraud', 'JJ'), ('dispute', 'NN'), ('using', 'VBG'), ('artificial', 'JJ'), ('intelligence', 'NN'), ('ai', 'VBP'), ('based', 'VBN'), ('communications', 'NNS'), ('system', 'NN'), ('disclosed', 'VBD')], [('system', 'NN'), ('may', 'MD'), ('comprise', 'VB'), ('data', 'NNS'), ('access', 'NN'), ('interface', 'NN'), ('receive', 'VBP'), ('instructions', 'NNS'), ('historical', 'JJ'), ('transaction', 'NN'), ('disputes', 'NNS'), ('data', 'NNS'), ('least', 'RBS'), ('one', 'CD'), ('data', 'NNS'), ('source', 'NN'), ('associated', 'VBD'), ('account', 'NNP'), ('issuer', 'NNP')], [('data', 'NNS'), ('access', 'NN'), ('interface', 'NN'), ('may', 'MD'), ('also', 'RB'), ('receive', 'VB'), ('incoming', 'JJ'), ('transaction', 'NN'), ('data', 'NNS'), ('associated', 'VBD'), ('transaction', 'NN'), ('least', 'JJS'), ('one', 'CD'), ('data', 'NNS'), ('source', 'NN'), ('associated', 'VBN'), ('account', 'NN'), ('holder', 'NN')], [('system', 'NN'), ('may', 'MD'), ('comprise', 'VB'), ('processor', 'NN'), ('predict', 'VB'), ('likelihood', 'NN'), ('non', 'JJ'), ('-', 'JJ'), ('fraud', 'JJ'), ('dispute', 'NN'), ('associated', 'VBN'), ('transaction', 'NN'), ('examining', 'VBG'), ('historical', 'JJ'), ('transaction', 'NN'), ('disputes', 'NNS'), ('data', 'NN')], [('retrieving', 'VBG'), ('non', 'JJ'), ('-', 'JJ'), ('fraud', 'JJ'), ('dispute', 'NN'), ('attributes', 'NNS')], [('parsing', 'VBG'), ('incoming', 'JJ'), ('transaction', 'NN'), ('data', 'NNS')], [('applying', 'VBG'), ('predictive', 'JJ'), ('analytics', 'NNS'), ('incoming', 'JJ'), ('transaction', 'NN'), ('data', 'NNS'), ('yield', 'VBP'), ('prediction', 'NN'), ('value', 'NN')], [('determining', 'VBG'), ('prediction', 'NN'), ('value', 'NN'), ('meets', 'VBZ'), ('predetermined', 'VBN'), ('threshold', 'NN')], [('generating', 'VBG'), ('prediction', 'NN'), ('likelihood', 'NN'), ('non', 'JJ'), ('-', 'JJ'), ('fraud', 'JJ'), ('dispute', 'NN'), ('associated', 'VBN'), ('transaction', 'NNP'), ('associated', 'NNP'), ('account', 'NNP'), ('holder', 'NN'), ('outputted', 'VBD'), ('via', 'IN'), ('output', 'NN'), ('interface', 'NN'), ('user', 'NN'), ('device', 'NN')]]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[('predict', 'a', 'nonfraud', 'dispute'), ('receive', 'instruction', 'historical', 'transaction'), ('dispute', 'data'), ('receive', 'incoming', 'transaction', 'data'), ('predict', 'a', 'likelihood', 'of', 'a', 'nonfraud', 'dispute'), ('examine', 'the', 'historical', 'transaction'), ('retrieve', 'nonfraud', 'dispute', 'attribute'), ('parse', 'the', 'incoming', 'transaction', 'data'), ('apply', 'predictive', 'analytics', 'to', 'the', 'incoming', 'transaction', 'data'), ('determine', 'that', 'the', 'prediction', 'value', 'meet', 'a', 'predetermine', 'threshold'), ('generate', 'a', 'prediction', 'for', 'the', 'likelihood', 'of', 'a', 'nonfraud', 'dispute'), ('predict', 'a', 'nonfraud', 'dispute'), ('comprise', 'a', 'data', 'access', 'interface'), ('receive', 'incoming', 'transaction', 'data'), ('predict', 'a', 'likelihood', 'of', 'a', 'nonfraud', 'dispute'), ('examine', 'the', 'historical', 'transaction'), ('dispute', 'data'), ('retrieve', 'nonfraud', 'dispute', 'attribute'), ('parse', 'the', 'incoming', 'transaction', 'data'), ('apply', 'predictive', 'analytics'), ('determine', 'that', 'the', 'prediction', 'value', 'meet', 'a', 'predetermine', 'threshold'), ('generate', 'a', 'prediction'), ('predict', 'a', 'nonfraud', 'dispute'), ('predict', 'a', 'likelihood', 'of', 'a', 'nonfraud', 'dispute'), ('examine', 'the', 'historical', 'transaction'), ('parse', 'the', 'incoming', 'transaction', 'data'), ('apply', 'predictive', 'analytics'), ('determine', 'that', 'the', 'prediction', 'value', 'meet', 'a', 'predetermine', 'threshold'), ('generate', 'a', 'prediction', 'for', 'the', 'likelihood'), ('predict', 'a', 'nonfraud', 'dispute'), ('comprise', 'a', 'data', 'access', 'interface'), ('receive', 'instruction', 'historical', 'transaction'), ('dispute', 'data'), ('predict', 'a', 'likelihood'), ('examine', 'the', 'historical', 'transaction'), ('retrieve', 'nonfraud', 'dispute', 'attribute'), ('parse', 'the', 'incoming', 'transaction', 'data'), ('apply', 'predictive', 'analytics'), ('determine', 'that', 'the', 'prediction', 'value'), ('generate', 'a', 'prediction'), ('predict', 'a', 'nonfraud', 'dispute'), ('comprise', 'a', 'data', 'access', 'interface'), ('receive', 'instruction', 'historical', 'transaction'), ('dispute', 'data', 'from', 'at', 'least', 'one', 'data', 'source'), ('receive', 'incoming', 'transaction', 'data'), ('predict', 'a', 'likelihood', 'of', 'a', 'nonfraud', 'dispute'), ('examine', 'the', 'historical', 'transaction', 'and', 'dispute', 'data'), ('retrieve', 'nonfraud', 'dispute', 'attribute'), ('parse', 'the', 'incoming', 'transaction', 'data'), ('apply', 'predictive', 'analytics'), ('determine', 'that', 'the', 'prediction', 'value', 'meet', 'a', 'predetermine', 'threshold'), ('generate', 'a', 'prediction', 'for', 'the', 'likelihood', 'of', 'a', 'nonfraud', 'dispute')]</t>
+          <t>[[('system', 'NN'), ('predict', 'VBG'), ('non', 'JJ'), ('-', 'JJ'), ('fraud', 'JJ'), ('dispute', 'NN'), ('use', 'VBG'), ('artificial', 'JJ'), ('intelligence', 'NN'), ('ai', 'VBP'), ('base', 'VBN'), ('communication', 'NNS'), ('system', 'NN'), ('disclose', 'VBD')], [('system', 'NN'), ('may', 'MD'), ('comprise', 'VB'), ('data', 'NNS'), ('access', 'NN'), ('interface', 'NN'), ('receive', 'VBP'), ('instruction', 'NNS'), ('historical', 'JJ'), ('transaction', 'NN'), ('dispute', 'NNS'), ('data', 'NNS'), ('least', 'RBS'), ('one', 'CD'), ('data', 'NNS'), ('source', 'NN'), ('associate', 'VBD'), ('account', 'NNP'), ('issuer', 'NNP')], [('data', 'NNS'), ('access', 'NN'), ('interface', 'NN'), ('may', 'MD'), ('also', 'RB'), ('receive', 'VB'), ('incoming', 'JJ'), ('transaction', 'NN'), ('data', 'NNS'), ('associate', 'VBD'), ('transaction', 'NN'), ('least', 'JJS'), ('one', 'CD'), ('data', 'NNS'), ('source', 'NN'), ('associate', 'VBN'), ('account', 'NN'), ('holder', 'NN')], [('system', 'NN'), ('may', 'MD'), ('comprise', 'VB'), ('processor', 'NN'), ('predict', 'VB'), ('likelihood', 'NN'), ('non', 'JJ'), ('-', 'JJ'), ('fraud', 'JJ'), ('dispute', 'NN'), ('associate', 'VBN'), ('transaction', 'NN'), ('examine', 'VBG'), ('historical', 'JJ'), ('transaction', 'NN'), ('dispute', 'NNS'), ('data', 'NN')], [('retrieve', 'VBG'), ('non', 'JJ'), ('-', 'JJ'), ('fraud', 'JJ'), ('dispute', 'NN'), ('attribute', 'NNS')], [('parse', 'VBG'), ('incoming', 'JJ'), ('transaction', 'NN'), ('data', 'NNS')], [('apply', 'VBG'), ('predictive', 'JJ'), ('analytics', 'NNS'), ('incoming', 'JJ'), ('transaction', 'NN'), ('data', 'NNS'), ('yield', 'VBP'), ('prediction', 'NN'), ('value', 'NN')], [('determine', 'VBG'), ('prediction', 'NN'), ('value', 'NN'), ('meet', 'VBZ'), ('predetermine', 'VBN'), ('threshold', 'NN')], [('generate', 'VBG'), ('prediction', 'NN'), ('likelihood', 'NN'), ('non', 'JJ'), ('-', 'JJ'), ('fraud', 'JJ'), ('dispute', 'NN'), ('associate', 'VBN'), ('transaction', 'NNP'), ('associated', 'NNP'), ('account', 'NNP'), ('holder', 'NN'), ('output', 'VBD'), ('via', 'IN'), ('output', 'NN'), ('interface', 'NN'), ('user', 'NN'), ('device', 'NN')]]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[('comprise', 'data'), ('receive', 'instruction'), ('incoming', 'transaction'), ('comprise', 'processor'), ('associate', 'transaction'), ('incoming', 'transaction'), ('incoming', 'transaction'), ('determine', 'prediction'), ('predetermine', 'threshold'), ('generate', 'prediction'), ('associate', 'transaction')]</t>
+          <t>[('base', 'communication'), ('comprise', 'data'), ('receive', 'instruction'), ('associate', 'account'), ('associate', 'transaction'), ('associate', 'account'), ('comprise', 'processor'), ('predict', 'likelihood'), ('associate', 'transaction'), ('yield', 'prediction'), ('determine', 'prediction'), ('predetermine', 'threshold'), ('generate', 'prediction'), ('associate', 'transaction')]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[('comprise', 'data', 'access', 'interface'), ('receive', 'instruction'), ('receive', 'incoming', 'transaction', 'data'), ('comprise', 'processor', 'predict'), ('associate', 'transaction'), ('parse', 'incoming', 'transaction', 'data'), ('incoming', 'transaction', 'data', 'yield', 'prediction', 'value'), ('determine', 'prediction', 'value', 'meet'), ('predetermine', 'threshold'), ('generate', 'prediction'), ('associate', 'transaction')]</t>
+          <t>[('comprise', 'data', 'access', 'interface'), ('receive', 'instruction'), ('associate', 'account', 'issuer'), ('associate', 'transaction'), ('associate', 'account', 'holder'), ('comprise', 'processor'), ('predict', 'likelihood'), ('associate', 'transaction'), ('yield', 'prediction', 'value'), ('determine', 'prediction', 'value'), ('meet', 'predetermine', 'threshold'), ('generate', 'prediction', 'likelihood'), ('associate', 'transaction', 'associated', 'account', 'holder'), ('output', 'via', 'output', 'interface', 'user', 'device')]</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[('predict', 'non-fraud', 'dispute'), ('comprise', 'data'), ('receive', 'instruction'), ('incoming', 'transaction'), ('comprise', 'processor'), ('likelihood', 'non-fraud', 'dispute'), ('associate', 'transaction'), ('examine', 'historical', 'transaction'), ('retrieve', 'non-fraud', 'dispute'), ('incoming', 'transaction'), ('apply', 'predictive', 'analytics'), ('incoming', 'transaction'), ('determine', 'prediction'), ('predetermine', 'threshold'), ('generate', 'prediction'), ('likelihood', 'non-fraud', 'dispute'), ('associate', 'transaction'), ('interface', 'user', 'device')]</t>
+          <t>[('base', 'communication'), ('comprise', 'data'), ('receive', 'instruction'), ('associate', 'account'), ('receive', 'incoming', 'transaction'), ('associate', 'transaction'), ('associate', 'account'), ('comprise', 'processor'), ('predict', 'likelihood'), ('associate', 'transaction'), ('examine', 'historical', 'transaction'), ('parse', 'incoming', 'transaction'), ('apply', 'predictive', 'analytics'), ('yield', 'prediction'), ('determine', 'prediction'), ('predetermine', 'threshold'), ('generate', 'prediction'), ('associate', 'transaction')]</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[('base', 'communication'), ('associate', 'account'), ('associate', 'account'), ('associate', 'account')]</t>
+          <t>[('predict', 'non', '-', 'fraud', 'dispute'), ('comprise', 'data', 'access', 'interface'), ('receive', 'instruction'), ('associate', 'account', 'issuer'), ('receive', 'incoming', 'transaction', 'data'), ('associate', 'transaction'), ('associate', 'account', 'holder'), ('comprise', 'processor'), ('predict', 'likelihood'), ('associate', 'transaction'), ('examine', 'historical', 'transaction', 'dispute', 'data'), ('retrieve', 'non', '-', 'fraud', 'dispute', 'attribute'), ('parse', 'incoming', 'transaction', 'data'), ('apply', 'predictive', 'analytics'), ('yield', 'prediction', 'value'), ('determine', 'prediction', 'value'), ('meet', 'predetermine', 'threshold'), ('generate', 'prediction', 'likelihood'), ('associate', 'transaction', 'associated', 'account', 'holder'), ('output', 'via', 'output', 'interface', 'user', 'device')]</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[('base', 'communication', 'system'), ('associate', 'account', 'issuer'), ('associate', 'account', 'holder'), ('associate', 'account', 'holder')]</t>
+          <t>[('comprise', 'data'), ('receive', 'instruction'), ('associate', 'transaction'), ('comprise', 'processor'), ('predict', 'likelihood'), ('associate', 'transaction'), ('yield', 'prediction'), ('determine', 'prediction'), ('predetermine', 'threshold'), ('generate', 'prediction'), ('associate', 'transaction')]</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>[('use', 'artificial', 'intelligence'), ('base', 'communication'), ('associate', 'account'), ('associate', 'account'), ('associate', 'account')]</t>
+          <t>[('comprise', 'data', 'access', 'interface'), ('receive', 'instruction'), ('associate', 'transaction'), ('comprise', 'processor'), ('predict', 'likelihood'), ('associate', 'transaction'), ('yield', 'prediction', 'value'), ('determine', 'prediction', 'value'), ('meet', 'predetermine', 'threshold'), ('generate', 'prediction', 'likelihood'), ('associate', 'transaction', 'associated', 'account', 'holder'), ('output', 'via', 'output', 'interface', 'user', 'device')]</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>[('apply', 'predictive', 'analytics'), ('retrieve', 'nonfraud', 'dispute', 'attribute'), ('predict', 'a', 'nonfraud', 'dispute'), ('predict', 'a', 'likelihood'), ('predict', 'a', 'likelihood', 'of', 'a', 'nonfraud', 'dispute')]</t>
+          <t>[('comprise', 'data'), ('receive', 'instruction'), ('receive', 'incoming', 'transaction'), ('associate', 'transaction'), ('comprise', 'processor'), ('predict', 'likelihood'), ('associate', 'transaction'), ('examine', 'historical', 'transaction'), ('parse', 'incoming', 'transaction'), ('apply', 'predictive', 'analytics'), ('yield', 'prediction'), ('determine', 'prediction'), ('predetermine', 'threshold'), ('generate', 'prediction'), ('associate', 'transaction')]</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
+          <t>[('predict', 'non', '-', 'fraud', 'dispute'), ('comprise', 'data', 'access', 'interface'), ('receive', 'instruction'), ('receive', 'incoming', 'transaction', 'data'), ('associate', 'transaction'), ('comprise', 'processor'), ('predict', 'likelihood'), ('associate', 'transaction'), ('examine', 'historical', 'transaction', 'dispute', 'data'), ('retrieve', 'non', '-', 'fraud', 'dispute', 'attribute'), ('parse', 'incoming', 'transaction', 'data'), ('apply', 'predictive', 'analytics'), ('yield', 'prediction', 'value'), ('determine', 'prediction', 'value'), ('meet', 'predetermine', 'threshold'), ('generate', 'prediction', 'likelihood'), ('associate', 'transaction', 'associated', 'account', 'holder'), ('output', 'via', 'output', 'interface', 'user', 'device')]</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>[('base', 'communication'), ('associate', 'account'), ('associate', 'account')]</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>[('associate', 'account', 'issuer'), ('associate', 'account', 'holder')]</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>[('base', 'communication'), ('associate', 'account'), ('associate', 'account')]</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>[('associate', 'account', 'issuer'), ('associate', 'account', 'holder')]</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
           <t>[('apply', 'predictive', 'analytics'), ('retrieve', 'nonfraud', 'dispute', 'attribute')]</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>[('apply', 'predictive', 'analytics'), ('retrieve', 'nonfraud', 'dispute', 'attribute')]</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>[('retrieve', 'nonfraud', 'dispute', 'attribute')]</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2308,142 +3218,212 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A user console for controlling a remote surgical robotic instrument may include an adjustable ergonomic seat assembly comprising a seat pan, where the seat assembly is configurable between a seated configuration and an elevated configuration, and where the seat pan has a higher anteverted position in the elevated configuration than in the seated configuration. The user console may further include a display configured to receive real time surgical information, and one or more controls for remotely controlling the robotic instrument. The display and/or the one or more controls may have multiple positions and change position automatically according to a seating profile associated with at least one user.</t>
+          <t>a user console for controlling a remote surgical robotic instrument may include an adjustable ergonomic seat assembly comprising a seat pan, where the seat assembly is configurable between a seated configuration and an elevated configuration, and where the seat pan has a higher anteverted position in the elevated configuration than in the seated configuration. the user console may further include a display configured to receive real time surgical information, and one or more controls for remotely controlling the robotic instrument. the display and/or the one or more controls may have multiple positions and change position automatically according to a seating profile associated with at least one user.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[('comprise', 'seat'), ('seat', 'configuration'), ('elevate', 'configuration'), ('elevate', 'configuration'), ('seat', 'configuration'), ('include', 'display'), ('multiple', 'position'), ('change', 'position'), ('seat', 'profile')]</t>
+          <t>[('real', 'time', 'surgical', 'information'), ('control', 'the', 'robotic', 'instrument'), ('control', 'a', 'remote', 'surgical', 'robotic', 'instrument'), ('receive', 'real', 'time', 'surgical', 'information'), ('remotely', 'control', 'the', 'robotic', 'instrument'), ('change', 'position', 'automatically')]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[('comprise', 'seat', 'pan'), ('seat', 'configuration'), ('elevate', 'configuration'), ('elevate', 'configuration'), ('seat', 'configuration'), ('include', 'display'), ('control', 'remotely'), ('multiple', 'position'), ('change', 'position', 'automatically'), ('accord', 'seat', 'profile')]</t>
+          <t>[['user', 'console', 'controlling', 'remote', 'surgical', 'robotic', 'instrument', 'may', 'include', 'adjustable', 'ergonomic', 'seat', 'assembly', 'comprising', 'seat', 'pan', 'seat', 'assembly', 'configurable', 'seated', 'configuration', 'elevated', 'configuration', 'seat', 'pan', 'higher', 'anteverted', 'position', 'elevated', 'configuration', 'seated', 'configuration'], ['user', 'console', 'may', 'include', 'display', 'configured', 'receive', 'real', 'time', 'surgical', 'information', 'one', 'controls', 'remotely', 'controlling', 'robotic', 'instrument'], ['display', 'and/or', 'one', 'controls', 'may', 'multiple', 'positions', 'change', 'position', 'automatically', 'according', 'seating', 'profile', 'associated', 'least', 'one', 'user']]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[('comprise', 'seat'), ('seat', 'configuration'), ('elevate', 'configuration'), ('elevate', 'configuration'), ('seat', 'configuration'), ('include', 'display'), ('control', 'robotic', 'instrument'), ('multiple', 'position'), ('change', 'position'), ('seat', 'profile')]</t>
+          <t>[[('user', 'NN'), ('console', 'NN'), ('controlling', 'VBG'), ('remote', 'JJ'), ('surgical', 'JJ'), ('robotic', 'JJ'), ('instrument', 'NN'), ('may', 'MD'), ('include', 'VB'), ('adjustable', 'JJ'), ('ergonomic', 'JJ'), ('seat', 'NN'), ('assembly', 'NN'), ('comprising', 'VBG'), ('seat', 'NN'), ('pan', 'NN'), ('seat', 'NN'), ('assembly', 'NN'), ('configurable', 'JJ'), ('seated', 'VBN'), ('configuration', 'NN'), ('elevated', 'VBD'), ('configuration', 'NN'), ('seat', 'NN'), ('pan', 'NN'), ('higher', 'JJR'), ('anteverted', 'VBN'), ('position', 'NN'), ('elevated', 'VBD'), ('configuration', 'NN'), ('seated', 'VBN'), ('configuration', 'NN')], [('user', 'NN'), ('console', 'NN'), ('may', 'MD'), ('include', 'VB'), ('display', 'NN'), ('configured', 'VBN'), ('receive', 'VBP'), ('real', 'JJ'), ('time', 'NN'), ('surgical', 'JJ'), ('information', 'NN'), ('one', 'CD'), ('controls', 'VBZ'), ('remotely', 'RB'), ('controlling', 'VBG'), ('robotic', 'JJ'), ('instrument', 'NN')], [('display', 'NN'), ('and/or', 'CC'), ('one', 'CD'), ('controls', 'NNS'), ('may', 'MD'), ('multiple', 'JJ'), ('positions', 'NNS'), ('change', 'VBP'), ('position', 'NN'), ('automatically', 'RB'), ('according', 'VBG'), ('seating', 'VBG'), ('profile', 'NN'), ('associated', 'VBN'), ('least', 'JJS'), ('one', 'CD'), ('user', 'NN')]]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[('control', 'a', 'remote', 'surgical', 'robotic', 'instrument'), ('receive', 'real', 'time', 'surgical', 'information'), ('change', 'position', 'automatically'), ('control', 'a', 'remote', 'surgical', 'robotic', 'instrument'), ('receive', 'real', 'time', 'surgical', 'information'), ('control', 'the', 'robotic', 'instrument'), ('change', 'position', 'automatically'), ('control', 'a', 'remote', 'surgical', 'robotic', 'instrument'), ('real', 'time', 'surgical', 'information'), ('change', 'position', 'automatically'), ('receive', 'real', 'time', 'surgical', 'information'), ('control', 'the', 'robotic', 'instrument'), ('control', 'a', 'remote', 'surgical', 'robotic', 'instrument'), ('receive', 'real', 'time', 'surgical', 'information'), ('remotely', 'control', 'the', 'robotic', 'instrument')]</t>
+          <t>[[('user', 'NN'), ('console', 'NN'), ('control', 'VBG'), ('remote', 'JJ'), ('surgical', 'JJ'), ('robotic', 'JJ'), ('instrument', 'NN'), ('may', 'MD'), ('include', 'VB'), ('adjustable', 'JJ'), ('ergonomic', 'JJ'), ('seat', 'NN'), ('assembly', 'NN'), ('comprise', 'VBG'), ('seat', 'NN'), ('pan', 'NN'), ('seat', 'NN'), ('assembly', 'NN'), ('configurable', 'JJ'), ('seat', 'VBN'), ('configuration', 'NN'), ('elevate', 'VBD'), ('configuration', 'NN'), ('seat', 'NN'), ('pan', 'NN'), ('high', 'JJR'), ('anteverted', 'VBN'), ('position', 'NN'), ('elevate', 'VBD'), ('configuration', 'NN'), ('seat', 'VBN'), ('configuration', 'NN')], [('user', 'NN'), ('console', 'NN'), ('may', 'MD'), ('include', 'VB'), ('display', 'NN'), ('configure', 'VBN'), ('receive', 'VBP'), ('real', 'JJ'), ('time', 'NN'), ('surgical', 'JJ'), ('information', 'NN'), ('one', 'CD'), ('control', 'VBZ'), ('remotely', 'RB'), ('control', 'VBG'), ('robotic', 'JJ'), ('instrument', 'NN')], [('display', 'NN'), ('and/or', 'CC'), ('one', 'CD'), ('control', 'NNS'), ('may', 'MD'), ('multiple', 'JJ'), ('position', 'NNS'), ('change', 'VBP'), ('position', 'NN'), ('automatically', 'RB'), ('accord', 'VBG'), ('seat', 'VBG'), ('profile', 'NN'), ('associate', 'VBN'), ('least', 'JJS'), ('one', 'CD'), ('user', 'NN')]]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[('multiple', 'position'), ('change', 'position')]</t>
+          <t>[('comprise', 'seat'), ('seat', 'configuration'), ('elevate', 'configuration'), ('anteverted', 'position'), ('elevate', 'configuration'), ('seat', 'configuration'), ('include', 'display'), ('change', 'position'), ('seat', 'profile')]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[('control', 'remotely'), ('multiple', 'position'), ('change', 'position', 'automatically')]</t>
+          <t>[('comprise', 'seat', 'pan', 'seat', 'assembly'), ('seat', 'configuration'), ('elevate', 'configuration', 'seat', 'pan'), ('anteverted', 'position'), ('elevate', 'configuration'), ('seat', 'configuration'), ('include', 'display'), ('control', 'remotely'), ('change', 'position', 'automatically'), ('accord', 'seat', 'profile')]</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[('control', 'robotic', 'instrument'), ('multiple', 'position'), ('change', 'position')]</t>
+          <t>[('comprise', 'seat'), ('seat', 'configuration'), ('elevate', 'configuration'), ('anteverted', 'position'), ('elevate', 'configuration'), ('seat', 'configuration'), ('include', 'display'), ('receive', 'real', 'time'), ('control', 'robotic', 'instrument'), ('change', 'position'), ('seat', 'profile')]</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
+          <t>[('control', 'remote', 'surgical', 'robotic', 'instrument'), ('include', 'adjustable', 'ergonomic', 'seat', 'assembly'), ('comprise', 'seat', 'pan', 'seat', 'assembly'), ('seat', 'configuration'), ('elevate', 'configuration', 'seat', 'pan'), ('anteverted', 'position'), ('elevate', 'configuration'), ('seat', 'configuration'), ('include', 'display'), ('configure', 'receive', 'real', 'time'), ('control', 'robotic', 'instrument'), ('change', 'position'), ('accord', 'seat', 'profile')]</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>[('anteverted', 'position'), ('change', 'position')]</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>[('anteverted', 'position'), ('control', 'remotely'), ('change', 'position', 'automatically')]</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>[('anteverted', 'position'), ('receive', 'real', 'time'), ('control', 'robotic', 'instrument'), ('change', 'position')]</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>[('control', 'remote', 'surgical', 'robotic', 'instrument'), ('anteverted', 'position'), ('configure', 'receive', 'real', 'time'), ('control', 'robotic', 'instrument'), ('change', 'position')]</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
           <t>[('comprise', 'seat'), ('seat', 'configuration'), ('elevate', 'configuration'), ('elevate', 'configuration'), ('seat', 'configuration'), ('include', 'display'), ('seat', 'profile')]</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>[('comprise', 'seat', 'pan'), ('seat', 'configuration'), ('elevate', 'configuration'), ('elevate', 'configuration'), ('seat', 'configuration'), ('include', 'display'), ('accord', 'seat', 'profile')]</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>[('comprise', 'seat', 'pan', 'seat', 'assembly'), ('seat', 'configuration'), ('elevate', 'configuration', 'seat', 'pan'), ('elevate', 'configuration'), ('seat', 'configuration'), ('include', 'display'), ('accord', 'seat', 'profile')]</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
         <is>
           <t>[('comprise', 'seat'), ('seat', 'configuration'), ('elevate', 'configuration'), ('elevate', 'configuration'), ('seat', 'configuration'), ('include', 'display'), ('seat', 'profile')]</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>[('remotely', 'control', 'the', 'robotic', 'instrument'), ('receive', 'real', 'time', 'surgical', 'information'), ('real', 'time', 'surgical', 'information'), ('control', 'the', 'robotic', 'instrument'), ('control', 'a', 'remote', 'surgical', 'robotic', 'instrument')]</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>[('include', 'adjustable', 'ergonomic', 'seat', 'assembly'), ('comprise', 'seat', 'pan', 'seat', 'assembly'), ('seat', 'configuration'), ('elevate', 'configuration', 'seat', 'pan'), ('elevate', 'configuration'), ('seat', 'configuration'), ('include', 'display'), ('accord', 'seat', 'profile')]</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>[('real', 'time', 'surgical', 'information'), ('remotely', 'control', 'the', 'robotic', 'instrument'), ('control', 'a', 'remote', 'surgical', 'robotic', 'instrument'), ('control', 'the', 'robotic', 'instrument'), ('receive', 'real', 'time', 'surgical', 'information')]</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
         <is>
           <t>[('real', 'time', 'surgical', 'information'), ('receive', 'real', 'time', 'surgical', 'information')]</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>[('real', 'time', 'surgical', 'information'), ('receive', 'real', 'time', 'surgical', 'information')]</t>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>The invention provides a method for calculating road condition cycle number of an automobile test field based on a genetic algorithm, which is characterized by comprising the following steps of: step 1, obtaining an initial population by adopting a random assignment mode, taking the initial population as a parent population, and setting the initial evolution time t to be 0; step 2, carrying out equivalent calculation on the parent population to obtain the damage Y of the test field si (ii) a Step 3, calculating to obtain a target function; step 4, calculating the relative fitness of each cycle number in the parent population; step 5, carrying out genetic operator operation to obtain an offspring population, and setting the evolution time t to be t + 1; step 6, if the child population does not meet the convergence condition or the number of evolutions is less than the maximum number of evolutions, enabling the child population to replace the parent population, returning to the step 2, and if the child population meets the convergence condition and the number of evolutions is more than or equal to the maximum number of evolutions, outputting the child population as a target population; and 7, selecting the cycle number with the minimum value of the target function from the target population as a result and outputting the result.</t>
+          <t>the invention provides a method for calculating road condition cycle number of an automobile test field based on a genetic algorithm, which is characterized by comprising the following steps of: step 1, obtaining an initial population by adopting a random assignment mode, taking the initial population as a parent population, and setting the initial evolution time t to be 0; step 2, carrying out equivalent calculation on the parent population to obtain the damage y of the test field si (ii) a step 3, calculating to obtain a target function; step 4, calculating the relative fitness of each cycle number in the parent population; step 5, carrying out genetic operator operation to obtain an offspring population, and setting the evolution time t to be t + 1; step 6, if the child population does not meet the convergence condition or the number of evolutions is less than the maximum number of evolutions, enabling the child population to replace the parent population, returning to the step 2, and if the child population meets the convergence condition and the number of evolutions is more than or equal to the maximum number of evolutions, outputting the child population as a target population; and 7, selecting the cycle number with the minimum value of the target function from the target population as a result and outputting the result.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[('calculate', 'road'), ('follow', 'step'), ('obtain', 'target'), ('set', 'evolution'), ('replace', 'parent'), ('return', 'step'), ('convergence', 'condition'), ('select', 'cycle'), ('output', 'result')]</t>
+          <t>[('obtain', 'an', 'initial', 'population'), ('enable', 'the', 'child', 'population', 'to', 'replace', 'the', 'parent', 'population'), ('set', 'the', 'initial', 'evolution', 'time'), ('take', 'the', 'initial', 'population', 'as', 'a', 'parent', 'population'), ('calculate', 'to', 'obtain', 'a', 'target', 'function'), ('calculate', 'road', 'condition', 'cycle', 'number'), ('calculate', 'the', 'relative', 'fitness', 'of', 'each', 'cycle', 'number'), ('set', 'the', 'evolution', 'time', 't', 'to', 'be', 't', '1'), ('take', 'the', 'initial', 'population'), ('set', 'the', 'initial', 'evolution', 'time', 't', 'to', 'be', '0'), ('carry', 'out', 'equivalent', 'calculation', 'on', 'the', 'parent', 'population'), ('carry', 'out', 'genetic', 'operator', 'operation'), ('set', 'the', 'evolution', 'time'), ('calculate', 'road', 'condition', 'cycle', 'number', 'of', 'an', 'automobile', 'test', 'field'), ('calculate', 'the', 'relative', 'fitness'), ('output', 'the', 'child', 'population', 'as', 'a', 'target', 'population'), ('calculate', 'the', 'relative', 'fitness', 'of', 'each', 'cycle', 'number', 'in', 'the', 'parent', 'population'), ('carry', 'out', 'equivalent', 'calculation')]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[('calculate', 'road', 'condition', 'cycle', 'number'), ('characterize', 'comprise', 'follow', 'step'), ('calculate', 'obtain', 'target', 'function'), ('set', 'evolution', 'time'), ('replace', 'parent', 'population'), ('return', 'step'), ('convergence', 'condition', 'number', 'evolution'), ('select', 'cycle', 'number'), ('output', 'result')]</t>
+          <t>[['invention', 'provides', 'method', 'calculating', 'road', 'condition', 'cycle', 'number', 'automobile', 'test', 'field', 'based', 'genetic', 'algorithm', 'characterized', 'comprising', 'following', 'steps', 'step', '1', 'obtaining', 'initial', 'population', 'adopting', 'random', 'assignment', 'mode', 'taking', 'initial', 'population', 'parent', 'population', 'setting', 'initial', 'evolution', 'time', '0'], ['step', '2', 'carrying', 'equivalent', 'calculation', 'parent', 'population', 'obtain', 'damage', 'test', 'field', 'si', 'ii', 'step', '3', 'calculating', 'obtain', 'target', 'function'], ['step', '4', 'calculating', 'relative', 'fitness', 'cycle', 'number', 'parent', 'population'], ['step', '5', 'carrying', 'genetic', 'operator', 'operation', 'obtain', 'offspring', 'population', 'setting', 'evolution', 'time', '1'], ['step', '6', 'child', 'population', 'meet', 'convergence', 'condition', 'number', 'evolutions', 'less', 'maximum', 'number', 'evolutions', 'enabling', 'child', 'population', 'replace', 'parent', 'population', 'returning', 'step', '2', 'child', 'population', 'meets', 'convergence', 'condition', 'number', 'evolutions', 'equal', 'maximum', 'number', 'evolutions', 'outputting', 'child', 'population', 'target', 'population'], ['7', 'selecting', 'cycle', 'number', 'minimum', 'value', 'target', 'function', 'target', 'population', 'result', 'outputting', 'result']]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[('calculate', 'road'), ('base', 'genetic', 'algorithm'), ('follow', 'step'), ('obtain', 'initial', 'population'), ('adopt', 'random', 'assignment'), ('take', 'initial', 'population'), ('set', 'initial', 'evolution'), ('carry', 'equivalent', 'calculation'), ('obtain', 'damage', 'test'), ('obtain', 'target'), ('calculate', 'relative', 'fitness'), ('carry', 'genetic', 'operator'), ('obtain', 'offspring', 'population'), ('set', 'evolution'), ('enable', 'child', 'population'), ('replace', 'parent'), ('return', 'step'), ('convergence', 'condition'), ('output', 'child', 'population'), ('select', 'cycle'), ('output', 'result')]</t>
+          <t>[[('invention', 'NN'), ('provides', 'VBZ'), ('method', 'NN'), ('calculating', 'VBG'), ('road', 'NN'), ('condition', 'NN'), ('cycle', 'NN'), ('number', 'NN'), ('automobile', 'NN'), ('test', 'NN'), ('field', 'NN'), ('based', 'VBN'), ('genetic', 'NNP'), ('algorithm', 'NNP'), ('characterized', 'VBD'), ('comprising', 'NN'), ('following', 'VBG'), ('steps', 'NNS'), ('step', 'NN'), ('1', 'CD'), ('obtaining', 'VBG'), ('initial', 'JJ'), ('population', 'NN'), ('adopting', 'VBG'), ('random', 'JJ'), ('assignment', 'NN'), ('mode', 'NN'), ('taking', 'VBG'), ('initial', 'JJ'), ('population', 'NN'), ('parent', 'NN'), ('population', 'NN'), ('setting', 'VBG'), ('initial', 'JJ'), ('evolution', 'NN'), ('time', 'NN'), ('0', 'CD')], [('step', 'NN'), ('2', 'CD'), ('carrying', 'VBG'), ('equivalent', 'JJ'), ('calculation', 'NN'), ('parent', 'NN'), ('population', 'NN'), ('obtain', 'VB'), ('damage', 'NN'), ('test', 'NN'), ('field', 'NN'), ('si', 'NNP'), ('ii', 'NNP'), ('step', 'NN'), ('3', 'CD'), ('calculating', 'VBG'), ('obtain', 'NN'), ('target', 'NN'), ('function', 'NN')], [('step', 'NN'), ('4', 'CD'), ('calculating', 'VBG'), ('relative', 'JJ'), ('fitness', 'NN'), ('cycle', 'NN'), ('number', 'NN'), ('parent', 'NN'), ('population', 'NN')], [('step', 'NN'), ('5', 'CD'), ('carrying', 'VBG'), ('genetic', 'JJ'), ('operator', 'NN'), ('operation', 'NN'), ('obtain', 'VBP'), ('offspring', 'NN'), ('population', 'NN'), ('setting', 'VBG'), ('evolution', 'NN'), ('time', 'NN'), ('1', 'CD')], [('step', 'NN'), ('6', 'CD'), ('child', 'NN'), ('population', 'NN'), ('meet', 'VB'), ('convergence', 'NN'), ('condition', 'NN'), ('number', 'NN'), ('evolutions', 'NNS'), ('less', 'RBR'), ('maximum', 'JJ'), ('number', 'NN'), ('evolutions', 'NNS'), ('enabling', 'VBG'), ('child', 'NN'), ('population', 'NN'), ('replace', 'VB'), ('parent', 'NN'), ('population', 'NN'), ('returning', 'VBG'), ('step', 'NN'), ('2', 'CD'), ('child', 'NN'), ('population', 'NN'), ('meets', 'VBZ'), ('convergence', 'NN'), ('condition', 'NN'), ('number', 'NN'), ('evolutions', 'NNS'), ('equal', 'JJ'), ('maximum', 'JJ'), ('number', 'NN'), ('evolutions', 'NNS'), ('outputting', 'VBG'), ('child', 'NN'), ('population', 'NN'), ('target', 'NN'), ('population', 'NN')], [('7', 'CD'), ('selecting', 'VBG'), ('cycle', 'NN'), ('number', 'NN'), ('minimum', 'JJ'), ('value', 'NN'), ('target', 'NN'), ('function', 'NN'), ('target', 'NN'), ('population', 'NN'), ('result', 'NN'), ('outputting', 'VBG'), ('result', 'NN')]]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[('calculate', 'road', 'condition', 'cycle', 'number', 'of', 'an', 'automobile', 'test', 'field'), ('obtain', 'an', 'initial', 'population'), ('take', 'the', 'initial', 'population', 'as', 'a', 'parent', 'population'), ('set', 'the', 'initial', 'evolution', 'time'), ('carry', 'out', 'equivalent', 'calculation', 'on', 'the', 'parent', 'population'), ('calculate', 'to', 'obtain', 'a', 'target', 'function'), ('calculate', 'the', 'relative', 'fitness', 'of', 'each', 'cycle', 'number', 'in', 'the', 'parent', 'population'), ('set', 'the', 'evolution', 'time'), ('enable', 'the', 'child', 'population', 'to', 'replace', 'the', 'parent', 'population'), ('output', 'the', 'child', 'population', 'as', 'a', 'target', 'population'), ('calculate', 'road', 'condition', 'cycle', 'number'), ('obtain', 'an', 'initial', 'population'), ('take', 'the', 'initial', 'population', 'as', 'a', 'parent', 'population'), ('set', 'the', 'initial', 'evolution', 'time', 't', 'to', 'be', '0'), ('carry', 'out', 'equivalent', 'calculation'), ('calculate', 'to', 'obtain', 'a', 'target', 'function'), ('calculate', 'the', 'relative', 'fitness', 'of', 'each', 'cycle', 'number'), ('carry', 'out', 'genetic', 'operator', 'operation'), ('set', 'the', 'evolution', 'time', 't', 'to', 'be', 't', '1'), ('enable', 'the', 'child', 'population', 'to', 'replace', 'the', 'parent', 'population'), ('output', 'the', 'child', 'population', 'as', 'a', 'target', 'population'), ('calculate', 'road', 'condition', 'cycle', 'number', 'of', 'an', 'automobile', 'test', 'field'), ('obtain', 'an', 'initial', 'population'), ('carry', 'out', 'equivalent', 'calculation', 'on', 'the', 'parent', 'population'), ('calculate', 'to', 'obtain', 'a', 'target', 'function'), ('calculate', 'the', 'relative', 'fitness', 'of', 'each', 'cycle', 'number'), ('carry', 'out', 'genetic', 'operator', 'operation'), ('calculate', 'road', 'condition', 'cycle', 'number'), ('obtain', 'an', 'initial', 'population'), ('take', 'the', 'initial', 'population'), ('set', 'the', 'initial', 'evolution', 'time'), ('carry', 'out', 'equivalent', 'calculation'), ('calculate', 'to', 'obtain', 'a', 'target', 'function'), ('calculate', 'the', 'relative', 'fitness'), ('carry', 'out', 'genetic', 'operator', 'operation'), ('set', 'the', 'evolution', 'time'), ('calculate', 'road', 'condition', 'cycle', 'number', 'of', 'an', 'automobile', 'test', 'field'), ('obtain', 'an', 'initial', 'population'), ('carry', 'out', 'equivalent', 'calculation', 'on', 'the', 'parent', 'population'), ('calculate', 'to', 'obtain', 'a', 'target', 'function'), ('calculate', 'the', 'relative', 'fitness'), ('carry', 'out', 'genetic', 'operator', 'operation'), ('enable', 'the', 'child', 'population', 'to', 'replace', 'the', 'parent', 'population'), ('output', 'the', 'child', 'population', 'as', 'a', 'target', 'population')]</t>
+          <t>[[('invention', 'NN'), ('provide', 'VBZ'), ('method', 'NN'), ('calculate', 'VBG'), ('road', 'NN'), ('condition', 'NN'), ('cycle', 'NN'), ('number', 'NN'), ('automobile', 'NN'), ('test', 'NN'), ('field', 'NN'), ('base', 'VBN'), ('genetic', 'NNP'), ('algorithm', 'NNP'), ('characterize', 'VBD'), ('comprising', 'NN'), ('follow', 'VBG'), ('step', 'NNS'), ('step', 'NN'), ('1', 'CD'), ('obtain', 'VBG'), ('initial', 'JJ'), ('population', 'NN'), ('adopt', 'VBG'), ('random', 'JJ'), ('assignment', 'NN'), ('mode', 'NN'), ('take', 'VBG'), ('initial', 'JJ'), ('population', 'NN'), ('parent', 'NN'), ('population', 'NN'), ('set', 'VBG'), ('initial', 'JJ'), ('evolution', 'NN'), ('time', 'NN'), ('0', 'CD')], [('step', 'NN'), ('2', 'CD'), ('carry', 'VBG'), ('equivalent', 'JJ'), ('calculation', 'NN'), ('parent', 'NN'), ('population', 'NN'), ('obtain', 'VB'), ('damage', 'NN'), ('test', 'NN'), ('field', 'NN'), ('si', 'NNP'), ('ii', 'NNP'), ('step', 'NN'), ('3', 'CD'), ('calculate', 'VBG'), ('obtain', 'NN'), ('target', 'NN'), ('function', 'NN')], [('step', 'NN'), ('4', 'CD'), ('calculate', 'VBG'), ('relative', 'JJ'), ('fitness', 'NN'), ('cycle', 'NN'), ('number', 'NN'), ('parent', 'NN'), ('population', 'NN')], [('step', 'NN'), ('5', 'CD'), ('carry', 'VBG'), ('genetic', 'JJ'), ('operator', 'NN'), ('operation', 'NN'), ('obtain', 'VBP'), ('offspring', 'NN'), ('population', 'NN'), ('set', 'VBG'), ('evolution', 'NN'), ('time', 'NN'), ('1', 'CD')], [('step', 'NN'), ('6', 'CD'), ('child', 'NN'), ('population', 'NN'), ('meet', 'VB'), ('convergence', 'NN'), ('condition', 'NN'), ('number', 'NN'), ('evolution', 'NNS'), ('less', 'RBR'), ('maximum', 'JJ'), ('number', 'NN'), ('evolution', 'NNS'), ('enable', 'VBG'), ('child', 'NN'), ('population', 'NN'), ('replace', 'VB'), ('parent', 'NN'), ('population', 'NN'), ('return', 'VBG'), ('step', 'NN'), ('2', 'CD'), ('child', 'NN'), ('population', 'NN'), ('meet', 'VBZ'), ('convergence', 'NN'), ('condition', 'NN'), ('number', 'NN'), ('evolution', 'NNS'), ('equal', 'JJ'), ('maximum', 'JJ'), ('number', 'NN'), ('evolution', 'NNS'), ('output', 'VBG'), ('child', 'NN'), ('population', 'NN'), ('target', 'NN'), ('population', 'NN')], [('7', 'CD'), ('select', 'VBG'), ('cycle', 'NN'), ('number', 'NN'), ('minimum', 'JJ'), ('value', 'NN'), ('target', 'NN'), ('function', 'NN'), ('target', 'NN'), ('population', 'NN'), ('result', 'NN'), ('output', 'VBG'), ('result', 'NN')]]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[('calculate', 'road'), ('obtain', 'target'), ('set', 'evolution'), ('replace', 'parent'), ('convergence', 'condition'), ('select', 'cycle'), ('output', 'result')]</t>
+          <t>[('calculate', 'road'), ('base', 'genetic'), ('characterize', 'comprising'), ('follow', 'step'), ('obtain', 'damage'), ('calculate', 'obtain'), ('obtain', 'offspring'), ('set', 'evolution'), ('meet', 'convergence'), ('enable', 'child'), ('replace', 'parent'), ('return', 'step'), ('meet', 'convergence'), ('output', 'child'), ('select', 'cycle'), ('output', 'result')]</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[('calculate', 'road', 'condition', 'cycle', 'number'), ('calculate', 'obtain', 'target', 'function'), ('set', 'evolution', 'time'), ('replace', 'parent', 'population'), ('convergence', 'condition', 'number', 'evolution'), ('select', 'cycle', 'number'), ('output', 'result')]</t>
+          <t>[('calculate', 'road', 'condition', 'cycle', 'number', 'automobile', 'test', 'field'), ('base', 'genetic', 'algorithm'), ('characterize', 'comprising'), ('follow', 'step', 'step'), ('obtain', 'damage', 'test', 'field', 'si', 'ii', 'step'), ('calculate', 'obtain', 'target', 'function'), ('obtain', 'offspring', 'population'), ('set', 'evolution', 'time'), ('meet', 'convergence', 'condition', 'number', 'evolution'), ('enable', 'child', 'population'), ('replace', 'parent', 'population'), ('return', 'step'), ('meet', 'convergence', 'condition', 'number', 'evolution'), ('output', 'child', 'population', 'target', 'population'), ('select', 'cycle', 'number'), ('output', 'result')]</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[('calculate', 'road'), ('base', 'genetic', 'algorithm'), ('obtain', 'initial', 'population'), ('take', 'initial', 'population'), ('set', 'initial', 'evolution'), ('carry', 'equivalent', 'calculation'), ('obtain', 'damage', 'test'), ('obtain', 'target'), ('calculate', 'relative', 'fitness'), ('carry', 'genetic', 'operator'), ('obtain', 'offspring', 'population'), ('set', 'evolution'), ('enable', 'child', 'population'), ('replace', 'parent'), ('convergence', 'condition'), ('output', 'child', 'population'), ('select', 'cycle'), ('output', 'result')]</t>
+          <t>[('calculate', 'road'), ('base', 'genetic'), ('characterize', 'comprising'), ('follow', 'step'), ('obtain', 'initial', 'population'), ('adopt', 'random', 'assignment'), ('take', 'initial', 'population'), ('set', 'initial', 'evolution'), ('carry', 'equivalent', 'calculation'), ('obtain', 'damage'), ('calculate', 'obtain'), ('calculate', 'relative', 'fitness'), ('carry', 'genetic', 'operator'), ('obtain', 'offspring'), ('set', 'evolution'), ('meet', 'convergence'), ('enable', 'child'), ('replace', 'parent'), ('return', 'step'), ('meet', 'convergence'), ('output', 'child'), ('select', 'cycle'), ('output', 'result')]</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[('follow', 'step'), ('return', 'step')]</t>
+          <t>[('calculate', 'road', 'condition', 'cycle', 'number', 'automobile', 'test', 'field'), ('base', 'genetic', 'algorithm'), ('characterize', 'comprising'), ('follow', 'step', 'step'), ('obtain', 'initial', 'population'), ('adopt', 'random', 'assignment', 'mode'), ('take', 'initial', 'population', 'parent', 'population'), ('set', 'initial', 'evolution', 'time'), ('carry', 'equivalent', 'calculation', 'parent', 'population'), ('obtain', 'damage', 'test', 'field', 'si', 'ii', 'step'), ('calculate', 'obtain', 'target', 'function'), ('calculate', 'relative', 'fitness', 'cycle', 'number', 'parent', 'population'), ('carry', 'genetic', 'operator', 'operation'), ('obtain', 'offspring', 'population'), ('set', 'evolution', 'time'), ('meet', 'convergence', 'condition', 'number', 'evolution'), ('enable', 'child', 'population'), ('replace', 'parent', 'population'), ('return', 'step'), ('meet', 'convergence', 'condition', 'number', 'evolution'), ('output', 'child', 'population', 'target', 'population'), ('select', 'cycle', 'number'), ('output', 'result')]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[('characterize', 'comprise', 'follow', 'step'), ('return', 'step')]</t>
+          <t>[('calculate', 'road'), ('base', 'genetic'), ('obtain', 'damage'), ('calculate', 'obtain'), ('obtain', 'offspring'), ('set', 'evolution'), ('enable', 'child'), ('replace', 'parent'), ('output', 'child'), ('select', 'cycle'), ('output', 'result')]</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>[('follow', 'step'), ('adopt', 'random', 'assignment'), ('return', 'step')]</t>
+          <t>[('calculate', 'road', 'condition', 'cycle', 'number', 'automobile', 'test', 'field'), ('base', 'genetic', 'algorithm'), ('obtain', 'damage', 'test', 'field', 'si', 'ii', 'step'), ('calculate', 'obtain', 'target', 'function'), ('obtain', 'offspring', 'population'), ('set', 'evolution', 'time'), ('meet', 'convergence', 'condition', 'number', 'evolution'), ('enable', 'child', 'population'), ('replace', 'parent', 'population'), ('meet', 'convergence', 'condition', 'number', 'evolution'), ('output', 'child', 'population', 'target', 'population'), ('select', 'cycle', 'number'), ('output', 'result')]</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>[('take', 'the', 'initial', 'population'), ('carry', 'out', 'genetic', 'operator', 'operation'), ('carry', 'out', 'equivalent', 'calculation')]</t>
+          <t>[('calculate', 'road'), ('base', 'genetic'), ('obtain', 'initial', 'population'), ('take', 'initial', 'population'), ('set', 'initial', 'evolution'), ('carry', 'equivalent', 'calculation'), ('obtain', 'damage'), ('calculate', 'obtain'), ('calculate', 'relative', 'fitness'), ('carry', 'genetic', 'operator'), ('obtain', 'offspring'), ('set', 'evolution'), ('enable', 'child'), ('replace', 'parent'), ('output', 'child'), ('select', 'cycle'), ('output', 'result')]</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>[('carry', 'out', 'genetic', 'operator', 'operation'), ('carry', 'out', 'equivalent', 'calculation')]</t>
+          <t>[('calculate', 'road', 'condition', 'cycle', 'number', 'automobile', 'test', 'field'), ('base', 'genetic', 'algorithm'), ('obtain', 'initial', 'population'), ('take', 'initial', 'population', 'parent', 'population'), ('set', 'initial', 'evolution', 'time'), ('carry', 'equivalent', 'calculation', 'parent', 'population'), ('obtain', 'damage', 'test', 'field', 'si', 'ii', 'step'), ('calculate', 'obtain', 'target', 'function'), ('calculate', 'relative', 'fitness', 'cycle', 'number', 'parent', 'population'), ('carry', 'genetic', 'operator', 'operation'), ('obtain', 'offspring', 'population'), ('set', 'evolution', 'time'), ('meet', 'convergence', 'condition', 'number', 'evolution'), ('enable', 'child', 'population'), ('replace', 'parent', 'population'), ('meet', 'convergence', 'condition', 'number', 'evolution'), ('output', 'child', 'population', 'target', 'population'), ('select', 'cycle', 'number'), ('output', 'result')]</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
+        <is>
+          <t>[('characterize', 'comprising'), ('follow', 'step'), ('meet', 'convergence'), ('return', 'step'), ('meet', 'convergence')]</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>[('characterize', 'comprising'), ('follow', 'step', 'step'), ('return', 'step')]</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>[('characterize', 'comprising'), ('follow', 'step'), ('adopt', 'random', 'assignment'), ('meet', 'convergence'), ('return', 'step'), ('meet', 'convergence')]</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>[('characterize', 'comprising'), ('follow', 'step', 'step'), ('adopt', 'random', 'assignment', 'mode'), ('return', 'step')]</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>[('take', 'the', 'initial', 'population'), ('carry', 'out', 'equivalent', 'calculation')]</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>[('carry', 'out', 'equivalent', 'calculation')]</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2452,70 +3432,105 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Provided herein as a steerable surgical robotic system for positioning a catheter comprising a sheath and a guidewire within a patient body, including a sheath driver configured to advance and retract a sheath having a hollow interior along a sheath advance and retract path extending therein, a guidewire driver configured to advance and retract a guidewire along a guidewire advance and retract path extending therein, wherein each of the sheath advance and retract path and the guidewire advance and retract path extend between pairs of rollers in the respective sheath and roller drivers, and the paths are parallel to each another.</t>
+          <t>provided herein as a steerable surgical robotic system for positioning a catheter comprising a sheath and a guidewire within a patient body, including a sheath driver configured to advance and retract a sheath having a hollow interior along a sheath advance and retract path extending therein, a guidewire driver configured to advance and retract a guidewire along a guidewire advance and retract path extending therein, wherein each of the sheath advance and retract path and the guidewire advance and retract path extend between pairs of rollers in the respective sheath and roller drivers, and the paths are parallel to each another.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[('provide', 'herein'), ('position', 'catheter'), ('comprise', 'sheath'), ('include', 'sheath'), ('configure', 'advance'), ('extend', 'therein'), ('configure', 'advance'), ('extend', 'therein'), ('pair', 'roller')]</t>
+          <t>[('advance', 'and', 'retract', 'path'), ('advance', 'and', 'retract'), ('advance', 'and', 'retract', 'a', 'sheath'), ('position', 'a', 'catheter'), ('advance', 'and', 'retract', 'a', 'guidewire'), ('position', 'a', 'catheter', 'comprise', 'a', 'sheath'), ('advance', 'and', 'retract', 'path', 'extend')]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[('provide', 'herein'), ('position', 'catheter'), ('comprise', 'sheath', 'guidewire'), ('include', 'sheath', 'driver'), ('configure', 'advance', 'retract', 'sheath', 'hollow', 'interior'), ('extend', 'therein'), ('configure', 'advance', 'retract', 'guidewire'), ('extend', 'therein'), ('extend', 'pair', 'roller')]</t>
+          <t>[['provided', 'herein', 'steerable', 'surgical', 'robotic', 'system', 'positioning', 'catheter', 'comprising', 'sheath', 'guidewire', 'within', 'patient', 'body', 'including', 'sheath', 'driver', 'configured', 'advance', 'retract', 'sheath', 'hollow', 'interior', 'along', 'sheath', 'advance', 'retract', 'path', 'extending', 'therein', 'guidewire', 'driver', 'configured', 'advance', 'retract', 'guidewire', 'along', 'guidewire', 'advance', 'retract', 'path', 'extending', 'therein', 'wherein', 'sheath', 'advance', 'retract', 'path', 'guidewire', 'advance', 'retract', 'path', 'extend', 'pairs', 'rollers', 'respective', 'sheath', 'roller', 'drivers', 'paths', 'parallel', 'another']]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[('provide', 'herein'), ('position', 'catheter'), ('comprise', 'sheath'), ('include', 'sheath'), ('configure', 'advance'), ('extend', 'therein'), ('configure', 'advance'), ('extend', 'therein'), ('pair', 'roller')]</t>
+          <t>[[('provided', 'VBN'), ('herein', 'NN'), ('steerable', 'VBP'), ('surgical', 'JJ'), ('robotic', 'JJ'), ('system', 'NN'), ('positioning', 'VBG'), ('catheter', 'NN'), ('comprising', 'VBG'), ('sheath', 'JJ'), ('guidewire', 'NN'), ('within', 'IN'), ('patient', 'JJ'), ('body', 'NN'), ('including', 'VBG'), ('sheath', 'JJ'), ('driver', 'NN'), ('configured', 'VBD'), ('advance', 'JJ'), ('retract', 'NN'), ('sheath', 'JJ'), ('hollow', 'JJ'), ('interior', 'NN'), ('along', 'IN'), ('sheath', 'JJ'), ('advance', 'JJ'), ('retract', 'NN'), ('path', 'NN'), ('extending', 'VBG'), ('therein', 'RB'), ('guidewire', 'NN'), ('driver', 'NN'), ('configured', 'VBD'), ('advance', 'JJ'), ('retract', 'NN'), ('guidewire', 'NN'), ('along', 'IN'), ('guidewire', 'NN'), ('advance', 'JJ'), ('retract', 'NN'), ('path', 'NN'), ('extending', 'VBG'), ('therein', 'RB'), ('wherein', 'WRB'), ('sheath', 'JJ'), ('advance', 'JJ'), ('retract', 'NN'), ('path', 'NN'), ('guidewire', 'NN'), ('advance', 'NN'), ('retract', 'NN'), ('path', 'NN'), ('extend', 'NN'), ('pairs', 'VBZ'), ('rollers', 'NNS'), ('respective', 'JJ'), ('sheath', 'JJ'), ('roller', 'NN'), ('drivers', 'NNS'), ('paths', 'NNS'), ('parallel', 'VBP'), ('another', 'DT')]]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[('position', 'a', 'catheter'), ('advance', 'and', 'retract', 'a', 'sheath'), ('advance', 'and', 'retract', 'path', 'extend'), ('advance', 'and', 'retract', 'a', 'guidewire'), ('advance', 'and', 'retract', 'path', 'extend'), ('position', 'a', 'catheter'), ('advance', 'and', 'retract', 'a', 'sheath'), ('advance', 'and', 'retract', 'a', 'guidewire'), ('advance', 'and', 'retract', 'path'), ('position', 'a', 'catheter', 'comprise', 'a', 'sheath'), ('advance', 'and', 'retract'), ('position', 'a', 'catheter')]</t>
+          <t>[[('provide', 'VBN'), ('herein', 'NN'), ('steerable', 'VBP'), ('surgical', 'JJ'), ('robotic', 'JJ'), ('system', 'NN'), ('position', 'VBG'), ('catheter', 'NN'), ('comprise', 'VBG'), ('sheath', 'JJ'), ('guidewire', 'NN'), ('within', 'IN'), ('patient', 'JJ'), ('body', 'NN'), ('include', 'VBG'), ('sheath', 'JJ'), ('driver', 'NN'), ('configure', 'VBD'), ('advance', 'JJ'), ('retract', 'NN'), ('sheath', 'JJ'), ('hollow', 'JJ'), ('interior', 'NN'), ('along', 'IN'), ('sheath', 'JJ'), ('advance', 'JJ'), ('retract', 'NN'), ('path', 'NN'), ('extend', 'VBG'), ('therein', 'RB'), ('guidewire', 'NN'), ('driver', 'NN'), ('configure', 'VBD'), ('advance', 'JJ'), ('retract', 'NN'), ('guidewire', 'NN'), ('along', 'IN'), ('guidewire', 'NN'), ('advance', 'JJ'), ('retract', 'NN'), ('path', 'NN'), ('extend', 'VBG'), ('therein', 'RB'), ('wherein', 'WRB'), ('sheath', 'JJ'), ('advance', 'JJ'), ('retract', 'NN'), ('path', 'NN'), ('guidewire', 'NN'), ('advance', 'NN'), ('retract', 'NN'), ('path', 'NN'), ('extend', 'NN'), ('pair', 'VBZ'), ('roller', 'NNS'), ('respective', 'JJ'), ('sheath', 'JJ'), ('roller', 'NN'), ('driver', 'NNS'), ('path', 'NNS'), ('parallel', 'VBP'), ('another', 'DT')]]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[('position', 'catheter'), ('comprise', 'sheath'), ('include', 'sheath'), ('configure', 'advance'), ('extend', 'therein'), ('configure', 'advance'), ('extend', 'therein')]</t>
+          <t>[('provide', 'herein'), ('position', 'catheter'), ('pair', 'roller')]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[('position', 'catheter'), ('comprise', 'sheath', 'guidewire'), ('include', 'sheath', 'driver'), ('configure', 'advance', 'retract', 'sheath', 'hollow', 'interior'), ('extend', 'therein'), ('configure', 'advance', 'retract', 'guidewire'), ('extend', 'therein'), ('extend', 'pair', 'roller')]</t>
+          <t>[('provide', 'herein'), ('position', 'catheter'), ('extend', 'therein', 'guidewire', 'driver'), ('extend', 'therein'), ('pair', 'roller')]</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[('position', 'catheter'), ('comprise', 'sheath'), ('include', 'sheath'), ('configure', 'advance'), ('extend', 'therein'), ('configure', 'advance'), ('extend', 'therein')]</t>
+          <t>[('provide', 'herein'), ('position', 'catheter'), ('comprise', 'sheath', 'guidewire'), ('include', 'sheath', 'driver'), ('configure', 'advance', 'retract'), ('configure', 'advance', 'retract'), ('pair', 'roller')]</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
+          <t>[('provide', 'herein'), ('position', 'catheter'), ('comprise', 'sheath', 'guidewire'), ('include', 'sheath', 'driver'), ('configure', 'advance', 'retract'), ('configure', 'advance', 'retract', 'guidewire'), ('pair', 'roller')]</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>[('position', 'catheter')]</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>[('position', 'catheter'), ('extend', 'therein', 'guidewire', 'driver'), ('extend', 'therein')]</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>[('position', 'catheter'), ('comprise', 'sheath', 'guidewire'), ('include', 'sheath', 'driver'), ('configure', 'advance', 'retract'), ('configure', 'advance', 'retract')]</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>[('position', 'catheter'), ('comprise', 'sheath', 'guidewire'), ('include', 'sheath', 'driver'), ('configure', 'advance', 'retract'), ('configure', 'advance', 'retract', 'guidewire')]</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
           <t>[('provide', 'herein'), ('pair', 'roller')]</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>[('provide', 'herein')]</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>[('provide', 'herein'), ('pair', 'roller')]</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>[('provide', 'herein'), ('pair', 'roller')]</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>[('provide', 'herein'), ('pair', 'roller')]</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>[('advance', 'and', 'retract', 'path'), ('advance', 'and', 'retract'), ('advance', 'and', 'retract', 'a', 'sheath'), ('advance', 'and', 'retract', 'a', 'guidewire'), ('advance', 'and', 'retract', 'path', 'extend')]</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>[('advance', 'and', 'retract', 'path'), ('advance', 'and', 'retract'), ('advance', 'and', 'retract', 'a', 'sheath')]</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2524,142 +3539,212 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>The present invention relates to an image recognition sensing device for determining a view state in the air, and a method thereof. The image recognition sensing device according to an embodiment of the present invention includes a light emitting part for emitting light while sequentially flickering at a plurality of positions; a first camera for photographing the light emitting part at a distance from the light emitting part; and a control part which receives image data photographed by the first camera, analyzes at least two among the luminous intensity of each of the positions, a luminous position shift by the sequential flickering, and a luminous object size for each of the positions, from the received image data, and determines the view state in the air.</t>
+          <t>the present invention relates to an image recognition sensing device for determining a view state in the air, and a method thereof. the image recognition sensing device according to an embodiment of the present invention includes a light emitting part for emitting light while sequentially flickering at a plurality of positions; a first camera for photographing the light emitting part at a distance from the light emitting part; and a control part which receives image data photographed by the first camera, analyzes at least two among the luminous intensity of each of the positions, a luminous position shift by the sequential flickering, and a luminous object size for each of the positions, from the received image data, and determines the view state in the air.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[('relate', 'image'), ('sense', 'device'), ('determine', 'view'), ('sense', 'device'), ('emit', 'part'), ('flicker', 'plurality'), ('emit', 'part'), ('emit', 'part'), ('control', 'part'), ('receive', 'image'), ('receive', 'image')]</t>
+          <t>[('analyzes',), ('image', 'recognition'), ('determine', 'a', 'view', 'state'), ('analyzes', 'at', 'least', 'two', 'among', 'the', 'luminous', 'intensity'), ('determines', 'the', 'view', 'state', 'in', 'the', 'air'), ('photograph', 'the', 'light', 'emit', 'part'), ('photograph', 'the', 'light'), ('receives', 'image', 'data', 'photograph'), ('determine', 'a', 'view', 'state', 'in', 'the', 'air'), ('receives', 'image', 'data'), ('receives', 'image')]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[('relate', 'image', 'recognition'), ('sense', 'device'), ('determine', 'view', 'state', 'air'), ('sense', 'device'), ('emit', 'part'), ('flicker', 'plurality', 'position'), ('emit', 'part', 'distance', 'light'), ('emit', 'part'), ('control', 'part'), ('receive', 'image', 'data'), ('photograph', 'first', 'camera'), ('receive', 'image', 'data')]</t>
+          <t>[['present', 'invention', 'relates', 'image', 'recognition', 'sensing', 'device', 'determining', 'view', 'state', 'air', 'method', 'thereof'], ['image', 'recognition', 'sensing', 'device', 'according', 'embodiment', 'present', 'invention', 'includes', 'light', 'emitting', 'part', 'emitting', 'light', 'sequentially', 'flickering', 'plurality', 'positions'], ['first', 'camera', 'photographing', 'light', 'emitting', 'part', 'distance', 'light', 'emitting', 'part'], ['control', 'part', 'receives', 'image', 'data', 'photographed', 'first', 'camera', 'analyzes', 'least', 'two', 'among', 'luminous', 'intensity', 'positions', 'luminous', 'position', 'shift', 'sequential', 'flickering', 'luminous', 'object', 'size', 'positions', 'received', 'image', 'data', 'determines', 'view', 'state', 'air']]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[('relate', 'image'), ('sense', 'device'), ('determine', 'view'), ('sense', 'device'), ('emit', 'part'), ('flicker', 'plurality'), ('emit', 'part'), ('emit', 'part'), ('control', 'part'), ('receive', 'image'), ('receive', 'image')]</t>
+          <t>[[('present', 'JJ'), ('invention', 'NN'), ('relates', 'VBZ'), ('image', 'NN'), ('recognition', 'NN'), ('sensing', 'VBG'), ('device', 'NN'), ('determining', 'VBG'), ('view', 'NN'), ('state', 'NN'), ('air', 'NN'), ('method', 'NN'), ('thereof', 'RB')], [('image', 'NN'), ('recognition', 'NN'), ('sensing', 'VBG'), ('device', 'NN'), ('according', 'VBG'), ('embodiment', 'JJ'), ('present', 'JJ'), ('invention', 'NN'), ('includes', 'VBZ'), ('light', 'NN'), ('emitting', 'VBG'), ('part', 'NN'), ('emitting', 'VBG'), ('light', 'NN'), ('sequentially', 'RB'), ('flickering', 'VBG'), ('plurality', 'NN'), ('positions', 'NNS')], [('first', 'JJ'), ('camera', 'NN'), ('photographing', 'VBG'), ('light', 'NN'), ('emitting', 'VBG'), ('part', 'NN'), ('distance', 'NN'), ('light', 'NN'), ('emitting', 'VBG'), ('part', 'NN')], [('control', 'NNP'), ('part', 'NN'), ('receives', 'VBZ'), ('image', 'NN'), ('data', 'NNS'), ('photographed', 'VBD'), ('first', 'JJ'), ('camera', 'NN'), ('analyzes', 'VBZ'), ('least', 'RBS'), ('two', 'CD'), ('among', 'IN'), ('luminous', 'JJ'), ('intensity', 'NN'), ('positions', 'NNS'), ('luminous', 'JJ'), ('position', 'NN'), ('shift', 'VBP'), ('sequential', 'JJ'), ('flickering', 'VBG'), ('luminous', 'JJ'), ('object', 'NN'), ('size', 'NN'), ('positions', 'NNS'), ('received', 'VBD'), ('image', 'NN'), ('data', 'NNS'), ('determines', 'VBZ'), ('view', 'VBP'), ('state', 'NN'), ('air', 'NN')]]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[('image', 'recognition'), ('determine', 'a', 'view', 'state', 'in', 'the', 'air'), ('photograph', 'the', 'light'), ('receives', 'image', 'data'), ('analyzes', 'at', 'least', 'two', 'among', 'the', 'luminous', 'intensity'), ('determines', 'the', 'view', 'state', 'in', 'the', 'air'), ('image', 'recognition'), ('determine', 'a', 'view', 'state', 'in', 'the', 'air'), ('photograph', 'the', 'light', 'emit', 'part'), ('receives', 'image', 'data', 'photograph'), ('analyzes', 'at', 'least', 'two', 'among', 'the', 'luminous', 'intensity'), ('image', 'recognition'), ('determine', 'a', 'view', 'state', 'in', 'the', 'air'), ('image', 'recognition'), ('determine', 'a', 'view', 'state'), ('analyzes',), ('determine', 'a', 'view', 'state', 'in', 'the', 'air'), ('photograph', 'the', 'light', 'emit', 'part'), ('receives', 'image'), ('analyzes',), ('determines', 'the', 'view', 'state', 'in', 'the', 'air')]</t>
+          <t>[[('present', 'JJ'), ('invention', 'NN'), ('relate', 'VBZ'), ('image', 'NN'), ('recognition', 'NN'), ('sense', 'VBG'), ('device', 'NN'), ('determine', 'VBG'), ('view', 'NN'), ('state', 'NN'), ('air', 'NN'), ('method', 'NN'), ('thereof', 'RB')], [('image', 'NN'), ('recognition', 'NN'), ('sense', 'VBG'), ('device', 'NN'), ('accord', 'VBG'), ('embodiment', 'JJ'), ('present', 'JJ'), ('invention', 'NN'), ('include', 'VBZ'), ('light', 'NN'), ('emit', 'VBG'), ('part', 'NN'), ('emit', 'VBG'), ('light', 'NN'), ('sequentially', 'RB'), ('flicker', 'VBG'), ('plurality', 'NN'), ('position', 'NNS')], [('first', 'JJ'), ('camera', 'NN'), ('photograph', 'VBG'), ('light', 'NN'), ('emit', 'VBG'), ('part', 'NN'), ('distance', 'NN'), ('light', 'NN'), ('emit', 'VBG'), ('part', 'NN')], [('control', 'NNP'), ('part', 'NN'), ('receive', 'VBZ'), ('image', 'NN'), ('data', 'NNS'), ('photograph', 'VBD'), ('first', 'JJ'), ('camera', 'NN'), ('analyze', 'VBZ'), ('least', 'RBS'), ('two', 'CD'), ('among', 'IN'), ('luminous', 'JJ'), ('intensity', 'NN'), ('position', 'NNS'), ('luminous', 'JJ'), ('position', 'NN'), ('shift', 'VBP'), ('sequential', 'JJ'), ('flicker', 'VBG'), ('luminous', 'JJ'), ('object', 'NN'), ('size', 'NN'), ('position', 'NNS'), ('receive', 'VBD'), ('image', 'NN'), ('data', 'NNS'), ('determine', 'VBZ'), ('view', 'VBP'), ('state', 'NN'), ('air', 'NN')]]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[('relate', 'image'), ('determine', 'view'), ('emit', 'part'), ('emit', 'part'), ('emit', 'part'), ('control', 'part'), ('receive', 'image'), ('receive', 'image')]</t>
+          <t>[('relate', 'image'), ('sense', 'device'), ('determine', 'view'), ('sense', 'device'), ('include', 'light'), ('emit', 'part'), ('emit', 'light'), ('flicker', 'plurality'), ('photograph', 'light'), ('emit', 'part'), ('emit', 'part'), ('receive', 'image'), ('receive', 'image'), ('view', 'state')]</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[('relate', 'image', 'recognition'), ('determine', 'view', 'state', 'air'), ('emit', 'part'), ('emit', 'part', 'distance', 'light'), ('emit', 'part'), ('control', 'part'), ('receive', 'image', 'data'), ('photograph', 'first', 'camera'), ('receive', 'image', 'data')]</t>
+          <t>[('relate', 'image', 'recognition'), ('sense', 'device'), ('sense', 'device'), ('include', 'light'), ('emit', 'part'), ('emit', 'light', 'sequentially'), ('flicker', 'plurality', 'position'), ('photograph', 'light'), ('emit', 'part', 'distance', 'light'), ('emit', 'part'), ('receive', 'image', 'data'), ('receive', 'image', 'data'), ('determine', 'view', 'state', 'air')]</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[('relate', 'image'), ('determine', 'view'), ('emit', 'part'), ('emit', 'part'), ('emit', 'part'), ('control', 'part'), ('receive', 'image'), ('receive', 'image')]</t>
+          <t>[('relate', 'image'), ('sense', 'device'), ('determine', 'view'), ('sense', 'device'), ('include', 'light'), ('emit', 'part'), ('emit', 'light'), ('flicker', 'plurality'), ('photograph', 'light'), ('emit', 'part'), ('emit', 'part'), ('receive', 'image'), ('photograph', 'first', 'camera'), ('flicker', 'luminous', 'object'), ('receive', 'image'), ('view', 'state')]</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
+          <t>[('relate', 'image', 'recognition'), ('sense', 'device'), ('sense', 'device'), ('include', 'light'), ('emit', 'part'), ('emit', 'light'), ('flicker', 'plurality', 'position'), ('photograph', 'light'), ('emit', 'part', 'distance', 'light'), ('emit', 'part'), ('receive', 'image', 'data'), ('photograph', 'first', 'camera'), ('flicker', 'luminous', 'object', 'size', 'position'), ('receive', 'image', 'data'), ('determine', 'view', 'state', 'air')]</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>[('relate', 'image'), ('determine', 'view'), ('include', 'light'), ('emit', 'part'), ('emit', 'light'), ('photograph', 'light'), ('emit', 'part'), ('emit', 'part'), ('receive', 'image'), ('receive', 'image'), ('view', 'state')]</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>[('relate', 'image', 'recognition'), ('include', 'light'), ('emit', 'part'), ('emit', 'light', 'sequentially'), ('photograph', 'light'), ('emit', 'part', 'distance', 'light'), ('emit', 'part'), ('receive', 'image', 'data'), ('receive', 'image', 'data'), ('determine', 'view', 'state', 'air')]</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>[('relate', 'image'), ('determine', 'view'), ('include', 'light'), ('emit', 'part'), ('emit', 'light'), ('photograph', 'light'), ('emit', 'part'), ('emit', 'part'), ('receive', 'image'), ('photograph', 'first', 'camera'), ('flicker', 'luminous', 'object'), ('receive', 'image'), ('view', 'state')]</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>[('relate', 'image', 'recognition'), ('include', 'light'), ('emit', 'part'), ('emit', 'light'), ('photograph', 'light'), ('emit', 'part', 'distance', 'light'), ('emit', 'part'), ('receive', 'image', 'data'), ('photograph', 'first', 'camera'), ('flicker', 'luminous', 'object', 'size', 'position'), ('receive', 'image', 'data'), ('determine', 'view', 'state', 'air')]</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
           <t>[('sense', 'device'), ('sense', 'device'), ('flicker', 'plurality')]</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>[('sense', 'device'), ('sense', 'device'), ('flicker', 'plurality', 'position')]</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>[('sense', 'device'), ('sense', 'device'), ('flicker', 'plurality')]</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>[('analyzes',), ('photograph', 'the', 'light'), ('analyzes', 'at', 'least', 'two', 'among', 'the', 'luminous', 'intensity')]</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>[('sense', 'device'), ('sense', 'device'), ('flicker', 'plurality', 'position')]</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
         <is>
           <t>[('analyzes',), ('analyzes', 'at', 'least', 'two', 'among', 'the', 'luminous', 'intensity')]</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>[('analyzes',), ('photograph', 'the', 'light'), ('analyzes', 'at', 'least', 'two', 'among', 'the', 'luminous', 'intensity')]</t>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>[('analyzes',), ('analyzes', 'at', 'least', 'two', 'among', 'the', 'luminous', 'intensity')]</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>[('analyzes',)]</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>[('analyzes',)]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>The invention discloses a human body falling detection method based on computer vision, which detects a human body falling event in a surveillance video by falling motion vector modeling, and describes space-time characteristics in the surveillance video by using an optical flow histogram and a motion boundary histogram, wherein the characteristics are used for training a Gaussian mixture model to obtain a falling motion mixture model. High-dimensional vectors are obtained by connecting the average adaptations of the blends in the fall motion blending model, and factor analysis is performed on the high-dimensional vectors to obtain low-dimensional fall motion vectors, which only retain important attributes related to detecting fall events. According to the invention, the falling motion attribute in the video is learned by using the falling motion mixed model, so that the influence of visual angles and lighting factors is reduced, the false identification rate of deceptive events is reduced, and a good human body falling detection and identification effect is achieved.</t>
+          <t>the invention discloses a human body falling detection method based on computer vision, which detects a human body falling event in a surveillance video by falling motion vector modeling, and describes space-time characteristics in the surveillance video by using an optical flow histogram and a motion boundary histogram, wherein the characteristics are used for training a gaussian mixture model to obtain a falling motion mixture model. high-dimensional vectors are obtained by connecting the average adaptations of the blends in the fall motion blending model, and factor analysis is performed on the high-dimensional vectors to obtain low-dimensional fall motion vectors, which only retain important attributes related to detecting fall events. according to the invention, the falling motion attribute in the video is learned by using the falling motion mixed model, so that the influence of visual angles and lighting factors is reduced, the false identification rate of deceptive events is reduced, and a good human body falling detection and identification effect is achieved.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[('fall', 'detection'), ('base', 'computer'), ('fall', 'event'), ('fall', 'motion'), ('fall', 'motion'), ('detect', 'fall'), ('accord', 'invention'), ('fall', 'motion'), ('fall', 'motion'), ('mix', 'model'), ('light', 'factor'), ('fall', 'detection')]</t>
+          <t>[('fall', 'motion', 'vector', 'model'), ('describes', 'spacetime', 'characteristic'), ('detects', 'a', 'human', 'body', 'fall'), ('detects', 'a', 'human', 'body', 'fall', 'event'), ('human', 'body', 'fall', 'detection'), ('detects', 'a', 'human', 'body', 'fall', 'event', 'in', 'a', 'surveillance', 'video')]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[('fall', 'detection', 'method'), ('base', 'computer', 'vision'), ('fall', 'event', 'surveillance', 'video'), ('fall', 'motion', 'vector'), ('obtain', 'fall', 'motion', 'mixture', 'model'), ('detect', 'fall', 'event'), ('accord', 'invention'), ('fall', 'motion', 'attribute', 'video'), ('learn', 'use', 'fall', 'motion'), ('mix', 'model'), ('light', 'factor'), ('fall', 'detection', 'identification', 'effect')]</t>
+          <t>[['invention', 'discloses', 'human', 'body', 'falling', 'detection', 'method', 'based', 'computer', 'vision', 'detects', 'human', 'body', 'falling', 'event', 'surveillance', 'video', 'falling', 'motion', 'vector', 'modeling', 'describes', 'space-time', 'characteristics', 'surveillance', 'video', 'using', 'optical', 'flow', 'histogram', 'motion', 'boundary', 'histogram', 'wherein', 'characteristics', 'used', 'training', 'gaussian', 'mixture', 'model', 'obtain', 'falling', 'motion', 'mixture', 'model'], ['high-dimensional', 'vectors', 'obtained', 'connecting', 'average', 'adaptations', 'blends', 'fall', 'motion', 'blending', 'model', 'factor', 'analysis', 'performed', 'high-dimensional', 'vectors', 'obtain', 'low-dimensional', 'fall', 'motion', 'vectors', 'retain', 'important', 'attributes', 'related', 'detecting', 'fall', 'events'], ['according', 'invention', 'falling', 'motion', 'attribute', 'video', 'learned', 'using', 'falling', 'motion', 'mixed', 'model', 'influence', 'visual', 'angles', 'lighting', 'factors', 'reduced', 'false', 'identification', 'rate', 'deceptive', 'events', 'reduced', 'good', 'human', 'body', 'falling', 'detection', 'identification', 'effect', 'achieved']]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[('disclose', 'human', 'body'), ('fall', 'detection'), ('base', 'computer'), ('fall', 'event'), ('fall', 'motion'), ('use', 'optical', 'flow'), ('train', 'gaussian', 'mixture'), ('fall', 'motion'), ('connect', 'average', 'adaptation'), ('blend', 'fall', 'motion'), ('perform', 'high-dimensional', 'vector'), ('obtain', 'low-dimensional', 'fall'), ('detect', 'fall'), ('accord', 'invention'), ('fall', 'motion'), ('fall', 'motion'), ('mix', 'model'), ('light', 'factor'), ('fall', 'detection')]</t>
+          <t>[[('invention', 'NN'), ('discloses', 'VBZ'), ('human', 'JJ'), ('body', 'NN'), ('falling', 'VBG'), ('detection', 'NN'), ('method', 'NN'), ('based', 'VBN'), ('computer', 'NN'), ('vision', 'NN'), ('detects', 'VBZ'), ('human', 'JJ'), ('body', 'NN'), ('falling', 'VBG'), ('event', 'NN'), ('surveillance', 'NN'), ('video', 'NN'), ('falling', 'VBG'), ('motion', 'NN'), ('vector', 'NN'), ('modeling', 'NN'), ('describes', 'VBZ'), ('space', 'NN'), ('-', 'HYPH'), ('time', 'NN'), ('characteristics', 'NNS'), ('surveillance', 'NN'), ('video', 'NN'), ('using', 'VBG'), ('optical', 'JJ'), ('flow', 'NN'), ('histogram', 'NN'), ('motion', 'NN'), ('boundary', 'NNP'), ('histogram', 'NN'), ('wherein', 'WRB'), ('characteristics', 'NNS'), ('used', 'VBD'), ('training', 'VBG'), ('gaussian', 'NN'), ('mixture', 'NN'), ('model', 'NN'), ('obtain', 'VBP'), ('falling', 'VBG'), ('motion', 'NN'), ('mixture', 'NN'), ('model', 'NN')], [('high', 'RB'), ('-', 'HYPH'), ('dimensional', 'JJ'), ('vectors', 'NNS'), ('obtained', 'VBD'), ('connecting', 'VBG'), ('average', 'JJ'), ('adaptations', 'NNS'), ('blends', 'NNS'), ('fall', 'VBP'), ('motion', 'NN'), ('blending', 'VBG'), ('model', 'NN'), ('factor', 'NN'), ('analysis', 'NN'), ('performed', 'VBD'), ('high', 'JJ'), ('-', 'HYPH'), ('dimensional', 'JJ'), ('vectors', 'NNS'), ('obtain', 'VBP'), ('low', 'RB'), ('-', 'HYPH'), ('dimensional', 'JJ'), ('fall', 'NN'), ('motion', 'NN'), ('vectors', 'NNS'), ('retain', 'VBP'), ('important', 'JJ'), ('attributes', 'NNS'), ('related', 'VBN'), ('detecting', 'VBG'), ('fall', 'NN'), ('events', 'NNS')], [('according', 'VBG'), ('invention', 'NN'), ('falling', 'VBG'), ('motion', 'NN'), ('attribute', 'NN'), ('video', 'NN'), ('learned', 'VBD'), ('using', 'VBG'), ('falling', 'VBG'), ('motion', 'NN'), ('mixed', 'VBN'), ('model', 'NN'), ('influence', 'NN'), ('visual', 'JJ'), ('angles', 'VBZ'), ('lighting', 'NN'), ('factors', 'NNS'), ('reduced', 'VBD'), ('false', 'JJ'), ('identification', 'NN'), ('rate', 'NN'), ('deceptive', 'JJ'), ('events', 'NNS'), ('reduced', 'VBD'), ('good', 'JJ'), ('human', 'JJ'), ('body', 'NN'), ('falling', 'VBG'), ('detection', 'NN'), ('identification', 'NN'), ('effect', 'NN'), ('achieved', 'VBN')]]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[('detects', 'a', 'human', 'body', 'fall'), ('fall', 'motion', 'vector', 'model'), ('describes', 'spacetime', 'characteristic'), ('human', 'body', 'fall', 'detection'), ('describes', 'spacetime', 'characteristic'), ('human', 'body', 'fall', 'detection'), ('detects', 'a', 'human', 'body', 'fall', 'event', 'in', 'a', 'surveillance', 'video'), ('fall', 'motion', 'vector', 'model'), ('fall', 'motion', 'vector', 'model'), ('describes', 'spacetime', 'characteristic'), ('human', 'body', 'fall', 'detection'), ('detects', 'a', 'human', 'body', 'fall', 'event'), ('describes', 'spacetime', 'characteristic')]</t>
+          <t>[[('invention', 'NN'), ('disclose', 'VBZ'), ('human', 'JJ'), ('body', 'NN'), ('fall', 'VBG'), ('detection', 'NN'), ('method', 'NN'), ('base', 'VBN'), ('computer', 'NN'), ('vision', 'NN'), ('detect', 'VBZ'), ('human', 'JJ'), ('body', 'NN'), ('fall', 'VBG'), ('event', 'NN'), ('surveillance', 'NN'), ('video', 'NN'), ('fall', 'VBG'), ('motion', 'NN'), ('vector', 'NN'), ('modeling', 'NN'), ('describe', 'VBZ'), ('space', 'NN'), ('-', 'HYPH'), ('time', 'NN'), ('characteristic', 'NNS'), ('surveillance', 'NN'), ('video', 'NN'), ('use', 'VBG'), ('optical', 'JJ'), ('flow', 'NN'), ('histogram', 'NN'), ('motion', 'NN'), ('boundary', 'NNP'), ('histogram', 'NN'), ('wherein', 'WRB'), ('characteristic', 'NNS'), ('use', 'VBD'), ('train', 'VBG'), ('gaussian', 'NN'), ('mixture', 'NN'), ('model', 'NN'), ('obtain', 'VBP'), ('fall', 'VBG'), ('motion', 'NN'), ('mixture', 'NN'), ('model', 'NN')], [('high', 'RB'), ('-', 'HYPH'), ('dimensional', 'JJ'), ('vector', 'NNS'), ('obtain', 'VBD'), ('connect', 'VBG'), ('average', 'JJ'), ('adaptation', 'NNS'), ('blend', 'NNS'), ('fall', 'VBP'), ('motion', 'NN'), ('blend', 'VBG'), ('model', 'NN'), ('factor', 'NN'), ('analysis', 'NN'), ('perform', 'VBD'), ('high', 'JJ'), ('-', 'HYPH'), ('dimensional', 'JJ'), ('vector', 'NNS'), ('obtain', 'VBP'), ('low', 'RB'), ('-', 'HYPH'), ('dimensional', 'JJ'), ('fall', 'NN'), ('motion', 'NN'), ('vector', 'NNS'), ('retain', 'VBP'), ('important', 'JJ'), ('attribute', 'NNS'), ('relate', 'VBN'), ('detect', 'VBG'), ('fall', 'NN'), ('event', 'NNS')], [('accord', 'VBG'), ('invention', 'NN'), ('fall', 'VBG'), ('motion', 'NN'), ('attribute', 'NN'), ('video', 'NN'), ('learn', 'VBD'), ('use', 'VBG'), ('fall', 'VBG'), ('motion', 'NN'), ('mix', 'VBN'), ('model', 'NN'), ('influence', 'NN'), ('visual', 'JJ'), ('angle', 'VBZ'), ('lighting', 'NN'), ('factor', 'NNS'), ('reduce', 'VBD'), ('false', 'JJ'), ('identification', 'NN'), ('rate', 'NN'), ('deceptive', 'JJ'), ('event', 'NNS'), ('reduce', 'VBD'), ('good', 'JJ'), ('human', 'JJ'), ('body', 'NN'), ('fall', 'VBG'), ('detection', 'NN'), ('identification', 'NN'), ('effect', 'NN'), ('achieve', 'VBN')]]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[('fall', 'detection'), ('fall', 'event'), ('fall', 'motion'), ('fall', 'motion'), ('detect', 'fall'), ('fall', 'motion'), ('fall', 'motion'), ('mix', 'model'), ('fall', 'detection')]</t>
+          <t>[('fall', 'detection'), ('base', 'computer'), ('fall', 'event'), ('fall', 'motion'), ('describe', 'space'), ('train', 'gaussian'), ('fall', 'motion'), ('fall', 'motion'), ('detect', 'fall'), ('fall', 'motion'), ('fall', 'motion'), ('angle', 'lighting'), ('fall', 'detection')]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[('fall', 'detection', 'method'), ('fall', 'event', 'surveillance', 'video'), ('fall', 'motion', 'vector'), ('obtain', 'fall', 'motion', 'mixture', 'model'), ('detect', 'fall', 'event'), ('fall', 'motion', 'attribute', 'video'), ('learn', 'use', 'fall', 'motion'), ('mix', 'model'), ('fall', 'detection', 'identification', 'effect')]</t>
+          <t>[('base', 'computer', 'vision'), ('fall', 'event', 'surveillance', 'video'), ('fall', 'motion', 'vector', 'modeling'), ('describe', 'space'), ('fall', 'motion'), ('obtain', 'low'), ('relate', 'detect', 'fall', 'event'), ('fall', 'motion', 'attribute', 'video'), ('learn', 'use', 'fall', 'motion'), ('angle', 'lighting', 'factor'), ('fall', 'detection', 'identification', 'effect')]</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[('disclose', 'human', 'body'), ('fall', 'detection'), ('fall', 'event'), ('fall', 'motion'), ('fall', 'motion'), ('blend', 'fall', 'motion'), ('perform', 'high-dimensional', 'vector'), ('obtain', 'low-dimensional', 'fall'), ('detect', 'fall'), ('fall', 'motion'), ('fall', 'motion'), ('mix', 'model'), ('fall', 'detection')]</t>
+          <t>[('disclose', 'human', 'body'), ('fall', 'detection'), ('base', 'computer'), ('detect', 'human', 'body'), ('fall', 'event'), ('fall', 'motion'), ('describe', 'space'), ('use', 'optical', 'flow'), ('train', 'gaussian'), ('fall', 'motion'), ('connect', 'average', 'adaptation'), ('fall', 'motion'), ('retain', 'important', 'attribute'), ('detect', 'fall'), ('fall', 'motion'), ('fall', 'motion'), ('angle', 'lighting'), ('reduce', 'false', 'identification'), ('fall', 'detection')]</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[('base', 'computer'), ('accord', 'invention'), ('light', 'factor')]</t>
+          <t>[('disclose', 'human', 'body'), ('base', 'computer', 'vision'), ('detect', 'human', 'body'), ('fall', 'event', 'surveillance', 'video'), ('fall', 'motion', 'vector', 'modeling'), ('describe', 'space'), ('use', 'optical', 'flow', 'histogram', 'motion', 'boundary', 'histogram'), ('obtain', 'connect', 'average', 'adaptation', 'blend'), ('fall', 'motion'), ('retain', 'important', 'attribute'), ('relate', 'detect', 'fall', 'event'), ('fall', 'motion', 'attribute', 'video'), ('learn', 'use', 'fall', 'motion'), ('angle', 'lighting', 'factor'), ('reduce', 'false', 'identification', 'rate'), ('reduce', 'good', 'human', 'body'), ('fall', 'detection', 'identification', 'effect')]</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[('base', 'computer', 'vision'), ('accord', 'invention'), ('light', 'factor')]</t>
+          <t>[('fall', 'detection'), ('fall', 'event'), ('fall', 'motion'), ('fall', 'motion'), ('fall', 'motion'), ('detect', 'fall'), ('fall', 'motion'), ('fall', 'motion'), ('fall', 'detection')]</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>[('base', 'computer'), ('use', 'optical', 'flow'), ('train', 'gaussian', 'mixture'), ('connect', 'average', 'adaptation'), ('accord', 'invention'), ('light', 'factor')]</t>
+          <t>[('fall', 'event', 'surveillance', 'video'), ('fall', 'motion', 'vector', 'modeling'), ('fall', 'motion'), ('relate', 'detect', 'fall', 'event'), ('fall', 'motion', 'attribute', 'video'), ('learn', 'use', 'fall', 'motion'), ('fall', 'detection', 'identification', 'effect')]</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
+          <t>[('disclose', 'human', 'body'), ('fall', 'detection'), ('detect', 'human', 'body'), ('fall', 'event'), ('fall', 'motion'), ('fall', 'motion'), ('fall', 'motion'), ('detect', 'fall'), ('fall', 'motion'), ('fall', 'motion'), ('fall', 'detection')]</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>[('disclose', 'human', 'body'), ('detect', 'human', 'body'), ('fall', 'event', 'surveillance', 'video'), ('fall', 'motion', 'vector', 'modeling'), ('use', 'optical', 'flow', 'histogram', 'motion', 'boundary', 'histogram'), ('fall', 'motion'), ('relate', 'detect', 'fall', 'event'), ('fall', 'motion', 'attribute', 'video'), ('learn', 'use', 'fall', 'motion'), ('reduce', 'good', 'human', 'body'), ('fall', 'detection', 'identification', 'effect')]</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>[('base', 'computer'), ('describe', 'space'), ('train', 'gaussian'), ('angle', 'lighting')]</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>[('base', 'computer', 'vision'), ('describe', 'space'), ('obtain', 'low'), ('angle', 'lighting', 'factor')]</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>[('base', 'computer'), ('describe', 'space'), ('use', 'optical', 'flow'), ('train', 'gaussian'), ('connect', 'average', 'adaptation'), ('retain', 'important', 'attribute'), ('angle', 'lighting'), ('reduce', 'false', 'identification')]</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>[('base', 'computer', 'vision'), ('describe', 'space'), ('obtain', 'connect', 'average', 'adaptation', 'blend'), ('retain', 'important', 'attribute'), ('angle', 'lighting', 'factor'), ('reduce', 'false', 'identification', 'rate')]</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
           <t>[('describes', 'spacetime', 'characteristic')]</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>[('describes', 'spacetime', 'characteristic')]</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>[('describes', 'spacetime', 'characteristic')]</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
         <is>
           <t>[('describes', 'spacetime', 'characteristic')]</t>
         </is>
@@ -2668,142 +3753,212 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Meter readers and vending-machine collectors stock vending machines and collect money from them or from parking meters and other coin-boxes, or read electricity, gas or water meters.</t>
+          <t>meter readers and vending-machine collectors stock vending machines and collect money from them or from parking meters and other coin-boxes, or read electricity, gas or water meters.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[('vend', 'machine'), ('park', 'meter')]</t>
+          <t>[('stock', 'vend', 'machine'), ('collect', 'money')]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[('vend', 'machine'), ('park', 'meter', 'coin-boxes')]</t>
+          <t>[['meter', 'readers', 'vending-machine', 'collectors', 'stock', 'vending', 'machines', 'collect', 'money', 'parking', 'meters', 'coin-boxes', 'read', 'electricity', 'gas', 'water', 'meters']]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[('vend', 'machine'), ('park', 'meter')]</t>
+          <t>[[('meter', 'NN'), ('readers', 'NNS'), ('vending', 'VBG'), ('-', 'HYPH'), ('machine', 'NN'), ('collectors', 'NNS'), ('stock', 'NN'), ('vending', 'VBG'), ('machines', 'NNS'), ('collect', 'VBP'), ('money', 'NN'), ('parking', 'NN'), ('meters', 'NNS'), ('coin', 'NN'), ('-', 'HYPH'), ('boxes', 'NNS'), ('read', 'VBP'), ('electricity', 'NN'), ('gas', 'NN'), ('water', 'NN'), ('meters', 'NNS')]]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[('stock', 'vend', 'machine'), ('collect', 'money'), ('stock', 'vend', 'machine'), ('collect', 'money'), ('stock', 'vend', 'machine'), ('collect', 'money'), ('collect', 'money'), ('collect', 'money')]</t>
+          <t>[[('meter', 'NN'), ('reader', 'NNS'), ('vend', 'VBG'), ('-', 'HYPH'), ('machine', 'NN'), ('collector', 'NNS'), ('stock', 'NN'), ('vend', 'VBG'), ('machine', 'NNS'), ('collect', 'VBP'), ('money', 'NN'), ('parking', 'NN'), ('meter', 'NNS'), ('coin', 'NN'), ('-', 'HYPH'), ('box', 'NNS'), ('read', 'VBP'), ('electricity', 'NN'), ('gas', 'NN'), ('water', 'NN'), ('meter', 'NNS')]]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[('vend', 'machine')]</t>
+          <t>[('vend', 'machine'), ('collect', 'money'), ('read', 'electricity')]</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[('vend', 'machine')]</t>
+          <t>[('vend', 'machine'), ('collect', 'money', 'parking', 'meter', 'coin'), ('read', 'electricity', 'gas', 'water', 'meter')]</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[('vend', 'machine')]</t>
+          <t>[('vend', 'machine'), ('collect', 'money'), ('read', 'electricity')]</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>[('park', 'meter')]</t>
+          <t>[('vend', 'machine'), ('collect', 'money', 'parking', 'meter', 'coin'), ('read', 'electricity', 'gas', 'water', 'meter')]</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>[('park', 'meter', 'coin-boxes')]</t>
+          <t>[('vend', 'machine'), ('collect', 'money')]</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>[('park', 'meter')]</t>
+          <t>[('vend', 'machine'), ('collect', 'money', 'parking', 'meter', 'coin')]</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>[('collect', 'money')]</t>
+          <t>[('vend', 'machine'), ('collect', 'money')]</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>[('collect', 'money')]</t>
+          <t>[('vend', 'machine'), ('collect', 'money', 'parking', 'meter', 'coin')]</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>[('collect', 'money')]</t>
+          <t>[('read', 'electricity')]</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>[('read', 'electricity', 'gas', 'water', 'meter')]</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>[('read', 'electricity')]</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>[('read', 'electricity', 'gas', 'water', 'meter')]</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Street and related service workers provide a variety of services on streets and in other public places, including cleaning shoes, washing car windows, running errands, handing out leaflets, looking after property, and providing other on-the-spot street services.</t>
+          <t>street and related service workers provide a variety of services on streets and in other public places, including cleaning shoes, washing car windows, running errands, handing out leaflets, looking after property, and providing other on-the-spot street services.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[('provide', 'variety'), ('include', 'cleaning'), ('wash', 'car'), ('run', 'errand'), ('hand', 'leaflet'), ('look', 'property')]</t>
+          <t>[('wash', 'car', 'window'), ('hand', 'out', 'leaflet'), ('run', 'errand'), ('cleaning', 'shoe'), ('look', 'after', 'property'), ('provide', 'other', 'onthespot', 'street', 'service'), ('provide', 'a', 'variety', 'of', 'service')]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[('provide', 'variety', 'service'), ('include', 'cleaning', 'shoe'), ('wash', 'car', 'window'), ('run', 'errand'), ('hand', 'leaflet'), ('look', 'property')]</t>
+          <t>[['street', 'related', 'service', 'workers', 'provide', 'variety', 'services', 'streets', 'public', 'places', 'including', 'cleaning', 'shoes', 'washing', 'car', 'windows', 'running', 'errands', 'handing', 'leaflets', 'looking', 'property', 'providing', 'on-the-spot', 'street', 'services']]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[('provide', 'variety'), ('streets', 'public', 'place'), ('include', 'cleaning'), ('wash', 'car'), ('run', 'errand'), ('hand', 'leaflet'), ('look', 'property'), ('provide', 'on-the-spot', 'street')]</t>
+          <t>[[('street', 'NN'), ('related', 'VBN'), ('service', 'NN'), ('workers', 'NNS'), ('provide', 'VBP'), ('variety', 'NN'), ('services', 'NNS'), ('streets', 'VBZ'), ('public', 'JJ'), ('places', 'NNS'), ('including', 'VBG'), ('cleaning', 'NN'), ('shoes', 'NNS'), ('washing', 'VBG'), ('car', 'NN'), ('windows', 'NNS'), ('running', 'VBG'), ('errands', 'NNS'), ('handing', 'NN'), ('leaflets', 'NNS'), ('looking', 'VBG'), ('property', 'NN'), ('providing', 'NN'), ('on', 'IN'), ('-', 'HYPH'), ('the', 'DT'), ('-', 'HYPH'), ('spot', 'NN'), ('street', 'NN'), ('services', 'NNS')]]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[('provide', 'a', 'variety', 'of', 'service'), ('cleaning', 'shoe'), ('wash', 'car', 'window'), ('run', 'errand'), ('hand', 'out', 'leaflet'), ('look', 'after', 'property'), ('provide', 'other', 'onthespot', 'street', 'service'), ('provide', 'a', 'variety', 'of', 'service'), ('cleaning', 'shoe'), ('wash', 'car', 'window'), ('run', 'errand'), ('hand', 'out', 'leaflet'), ('look', 'after', 'property'), ('provide', 'other', 'onthespot', 'street', 'service'), ('provide', 'a', 'variety', 'of', 'service'), ('cleaning', 'shoe'), ('wash', 'car', 'window'), ('run', 'errand'), ('hand', 'out', 'leaflet'), ('look', 'after', 'property'), ('provide', 'other', 'onthespot', 'street', 'service'), ('cleaning', 'shoe'), ('wash', 'car', 'window'), ('run', 'errand'), ('hand', 'out', 'leaflet'), ('look', 'after', 'property'), ('provide', 'other', 'onthespot', 'street', 'service'), ('provide', 'a', 'variety', 'of', 'service'), ('cleaning', 'shoe'), ('wash', 'car', 'window'), ('run', 'errand'), ('hand', 'out', 'leaflet'), ('look', 'after', 'property'), ('provide', 'other', 'onthespot', 'street', 'service')]</t>
+          <t>[[('street', 'NN'), ('relate', 'VBN'), ('service', 'NN'), ('worker', 'NNS'), ('provide', 'VBP'), ('variety', 'NN'), ('service', 'NNS'), ('streets', 'VBZ'), ('public', 'JJ'), ('place', 'NNS'), ('include', 'VBG'), ('cleaning', 'NN'), ('shoe', 'NNS'), ('wash', 'VBG'), ('car', 'NN'), ('window', 'NNS'), ('run', 'VBG'), ('errand', 'NNS'), ('handing', 'NN'), ('leaflet', 'NNS'), ('look', 'VBG'), ('property', 'NN'), ('providing', 'NN'), ('on', 'IN'), ('-', 'HYPH'), ('the', 'DT'), ('-', 'HYPH'), ('spot', 'NN'), ('street', 'NN'), ('service', 'NNS')]]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[('provide', 'variety'), ('include', 'cleaning'), ('wash', 'car'), ('run', 'errand'), ('hand', 'leaflet'), ('look', 'property')]</t>
+          <t>[('relate', 'service'), ('provide', 'variety'), ('include', 'cleaning'), ('wash', 'car'), ('run', 'errand'), ('look', 'property')]</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[('provide', 'variety', 'service'), ('include', 'cleaning', 'shoe'), ('wash', 'car', 'window'), ('run', 'errand'), ('hand', 'leaflet'), ('look', 'property')]</t>
+          <t>[('relate', 'service', 'worker'), ('provide', 'variety', 'service'), ('include', 'cleaning', 'shoe'), ('wash', 'car', 'window'), ('run', 'errand', 'handing', 'leaflet'), ('look', 'property', 'providing')]</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[('provide', 'variety'), ('include', 'cleaning'), ('wash', 'car'), ('run', 'errand'), ('hand', 'leaflet'), ('look', 'property'), ('provide', 'on-the-spot', 'street')]</t>
+          <t>[('relate', 'service'), ('provide', 'variety'), ('streets', 'public', 'place'), ('include', 'cleaning'), ('wash', 'car'), ('run', 'errand'), ('look', 'property')]</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('relate', 'service', 'worker'), ('provide', 'variety', 'service'), ('streets', 'public', 'place'), ('include', 'cleaning', 'shoe'), ('wash', 'car', 'window'), ('run', 'errand', 'handing', 'leaflet'), ('look', 'property', 'providing')]</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('relate', 'service'), ('provide', 'variety'), ('include', 'cleaning'), ('wash', 'car'), ('run', 'errand'), ('look', 'property')]</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
+          <t>[('relate', 'service', 'worker'), ('provide', 'variety', 'service'), ('include', 'cleaning', 'shoe'), ('wash', 'car', 'window'), ('run', 'errand', 'handing', 'leaflet'), ('look', 'property', 'providing')]</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>[('relate', 'service'), ('provide', 'variety'), ('include', 'cleaning'), ('wash', 'car'), ('run', 'errand'), ('look', 'property')]</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>[('relate', 'service', 'worker'), ('provide', 'variety', 'service'), ('include', 'cleaning', 'shoe'), ('wash', 'car', 'window'), ('run', 'errand', 'handing', 'leaflet'), ('look', 'property', 'providing')]</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
           <t>[('streets', 'public', 'place')]</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>[('streets', 'public', 'place')]</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>[('hand', 'out', 'leaflet')]</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>[('hand', 'out', 'leaflet')]</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2812,286 +3967,426 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Travel guides accompany individuals or groups on trips, sightseeing tours and excursions and on tours of places of interest such as historical sites, industrial establishments and theme parks. They describe points of interest and provide background information on interesting features.</t>
+          <t>travel guides accompany individuals or groups on trips, sightseeing tours and excursions and on tours of places of interest such as historical sites, industrial establishments and theme parks. they describe points of interest and provide background information on interesting features.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('accompany', 'individual', 'or', 'group', 'on', 'trip'), ('provide', 'background', 'information', 'on', 'interest', 'feature'), ('describe', 'point', 'of', 'interest'), ('accompany', 'individual', 'or', 'group'), ('sightsee', 'tour', 'and', 'excursion'), ('describe',), ('provide', 'background', 'information')]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[('provide', 'background', 'information', 'interesting', 'feature')]</t>
+          <t>[['travel', 'guides', 'accompany', 'individuals', 'groups', 'trips', 'sightseeing', 'tours', 'excursions', 'tours', 'places', 'interest', 'historical', 'sites', 'industrial', 'establishments', 'theme', 'parks'], ['describe', 'points', 'interest', 'provide', 'background', 'information', 'interesting', 'features']]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[[('travel', 'NN'), ('guides', 'NNS'), ('accompany', 'VBP'), ('individuals', 'NNS'), ('groups', 'NNS'), ('trips', 'VBZ'), ('sightseeing', 'NN'), ('tours', 'NNS'), ('excursions', 'NNS'), ('tours', 'NNS'), ('places', 'VBZ'), ('interest', 'NN'), ('historical', 'JJ'), ('sites', 'NNS'), ('industrial', 'JJ'), ('establishments', 'NNS'), ('theme', 'NN'), ('parks', 'NNS')], [('describe', 'VB'), ('points', 'NNS'), ('interest', 'NN'), ('provide', 'VBP'), ('background', 'NN'), ('information', 'NN'), ('interesting', 'JJ'), ('features', 'NNS')]]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[('accompany', 'individual', 'or', 'group'), ('describe', 'point', 'of', 'interest'), ('provide', 'background', 'information', 'on', 'interest', 'feature'), ('accompany', 'individual', 'or', 'group', 'on', 'trip'), ('sightsee', 'tour', 'and', 'excursion'), ('describe', 'point', 'of', 'interest'), ('provide', 'background', 'information'), ('accompany', 'individual', 'or', 'group', 'on', 'trip'), ('sightsee', 'tour', 'and', 'excursion'), ('describe', 'point', 'of', 'interest'), ('provide', 'background', 'information'), ('accompany', 'individual', 'or', 'group', 'on', 'trip'), ('sightsee', 'tour', 'and', 'excursion'), ('describe',), ('provide', 'background', 'information'), ('accompany', 'individual', 'or', 'group'), ('describe', 'point', 'of', 'interest'), ('provide', 'background', 'information')]</t>
+          <t>[[('travel', 'NN'), ('guide', 'NNS'), ('accompany', 'VBP'), ('individual', 'NNS'), ('group', 'NNS'), ('trip', 'VBZ'), ('sightseeing', 'NN'), ('tour', 'NNS'), ('excursion', 'NNS'), ('tour', 'NNS'), ('place', 'VBZ'), ('interest', 'NN'), ('historical', 'JJ'), ('site', 'NNS'), ('industrial', 'JJ'), ('establishment', 'NNS'), ('theme', 'NN'), ('park', 'NNS')], [('describe', 'VB'), ('point', 'NNS'), ('interest', 'NN'), ('provide', 'VBP'), ('background', 'NN'), ('information', 'NN'), ('interesting', 'JJ'), ('feature', 'NNS')]]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('accompany', 'individual'), ('trip', 'sightseeing'), ('place', 'interest'), ('describe', 'point'), ('provide', 'background')]</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[('provide', 'background', 'information', 'interesting', 'feature')]</t>
+          <t>[('accompany', 'individual', 'group'), ('trip', 'sightseeing', 'tour', 'excursion', 'tour'), ('place', 'interest'), ('describe', 'point', 'interest'), ('provide', 'background', 'information')]</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('accompany', 'individual'), ('trip', 'sightseeing'), ('place', 'interest'), ('describe', 'point'), ('provide', 'background')]</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('accompany', 'individual', 'group'), ('trip', 'sightseeing', 'tour', 'excursion', 'tour'), ('place', 'interest'), ('describe', 'point', 'interest'), ('provide', 'background', 'information')]</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('accompany', 'individual'), ('trip', 'sightseeing'), ('place', 'interest'), ('describe', 'point'), ('provide', 'background')]</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('accompany', 'individual', 'group'), ('trip', 'sightseeing', 'tour', 'excursion', 'tour'), ('place', 'interest'), ('describe', 'point', 'interest'), ('provide', 'background', 'information')]</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>[('provide', 'background', 'information', 'on', 'interest', 'feature'), ('accompany', 'individual', 'or', 'group', 'on', 'trip'), ('accompany', 'individual', 'or', 'group'), ('sightsee', 'tour', 'and', 'excursion'), ('describe',), ('provide', 'background', 'information'), ('describe', 'point', 'of', 'interest')]</t>
+          <t>[('accompany', 'individual'), ('trip', 'sightseeing'), ('place', 'interest'), ('describe', 'point'), ('provide', 'background')]</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>[('describe', 'point', 'of', 'interest'), ('accompany', 'individual', 'or', 'group'), ('sightsee', 'tour', 'and', 'excursion'), ('describe',), ('accompany', 'individual', 'or', 'group', 'on', 'trip')]</t>
+          <t>[('accompany', 'individual', 'group'), ('trip', 'sightseeing', 'tour', 'excursion', 'tour'), ('place', 'interest'), ('describe', 'point', 'interest'), ('provide', 'background', 'information')]</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>[('provide', 'background', 'information', 'on', 'interest', 'feature'), ('accompany', 'individual', 'or', 'group', 'on', 'trip'), ('accompany', 'individual', 'or', 'group'), ('sightsee', 'tour', 'and', 'excursion'), ('describe',), ('provide', 'background', 'information'), ('describe', 'point', 'of', 'interest')]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>[('sightsee', 'tour', 'and', 'excursion')]</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>[('sightsee', 'tour', 'and', 'excursion')]</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Railway brakers, signallers and shunters take charge of and safeguard railway freight trains during runs, control the movement of railway traffic by operating signals, switch rolling stock and make up trains in railway yards, make up trains for hauling in mines and control their movement.</t>
+          <t>railway brakers, signallers and shunters take charge of and safeguard railway freight trains during runs, control the movement of railway traffic by operating signals, switch rolling stock and make up trains in railway yards, make up trains for hauling in mines and control their movement.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[('take', 'charge'), ('operate', 'signal'), ('roll', 'stock'), ('make', 'train'), ('railway', 'yard'), ('haul', 'mine')]</t>
+          <t>[('control', 'their', 'movement'), ('switch', 'roll', 'stock', 'and', 'make', 'up', 'train'), ('make', 'up', 'train'), ('control', 'the', 'movement', 'of', 'railway', 'traffic'), ('make', 'up', 'train', 'in', 'railway', 'yard'), ('switch', 'roll', 'stock'), ('control', 'the', 'movement'), ('make', 'up', 'train', 'for', 'haul')]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[('take', 'charge'), ('operate', 'signal'), ('roll', 'stock'), ('make', 'train'), ('railway', 'yard'), ('haul', 'mine', 'control', 'movement')]</t>
+          <t>[['railway', 'brakers', 'signallers', 'shunters', 'take', 'charge', 'safeguard', 'railway', 'freight', 'trains', 'runs', 'control', 'movement', 'railway', 'traffic', 'operating', 'signals', 'switch', 'rolling', 'stock', 'make', 'trains', 'railway', 'yards', 'make', 'trains', 'hauling', 'mines', 'control', 'movement']]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[('take', 'charge'), ('operate', 'signal'), ('roll', 'stock'), ('make', 'train'), ('railway', 'yard'), ('haul', 'mine')]</t>
+          <t>[[('railway', 'NN'), ('brakers', 'NNS'), ('signallers', 'VBZ'), ('shunters', 'NNS'), ('take', 'VBP'), ('charge', 'NN'), ('safeguard', 'NN'), ('railway', 'NN'), ('freight', 'NN'), ('trains', 'NNS'), ('runs', 'VBZ'), ('control', 'NNP'), ('movement', 'NN'), ('railway', 'NN'), ('traffic', 'NN'), ('operating', 'NN'), ('signals', 'NNS'), ('switch', 'VBP'), ('rolling', 'VBG'), ('stock', 'NN'), ('make', 'VBP'), ('trains', 'NNS'), ('railway', 'NN'), ('yards', 'NNS'), ('make', 'VBP'), ('trains', 'NNS'), ('hauling', 'VBG'), ('mines', 'NNS'), ('control', 'NNP'), ('movement', 'NN')]]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[('control', 'the', 'movement', 'of', 'railway', 'traffic'), ('switch', 'roll', 'stock'), ('make', 'up', 'train', 'in', 'railway', 'yard'), ('make', 'up', 'train', 'for', 'haul'), ('control', 'their', 'movement'), ('control', 'the', 'movement', 'of', 'railway', 'traffic'), ('switch', 'roll', 'stock', 'and', 'make', 'up', 'train'), ('make', 'up', 'train', 'for', 'haul'), ('control', 'their', 'movement'), ('control', 'the', 'movement'), ('switch', 'roll', 'stock', 'and', 'make', 'up', 'train'), ('control', 'the', 'movement'), ('switch', 'roll', 'stock'), ('make', 'up', 'train'), ('control', 'the', 'movement'), ('switch', 'roll', 'stock'), ('make', 'up', 'train'), ('control', 'their', 'movement')]</t>
+          <t>[[('railway', 'NN'), ('brakers', 'NNS'), ('signallers', 'VBZ'), ('shunter', 'NNS'), ('take', 'VBP'), ('charge', 'NN'), ('safeguard', 'NN'), ('railway', 'NN'), ('freight', 'NN'), ('train', 'NNS'), ('run', 'VBZ'), ('control', 'NNP'), ('movement', 'NN'), ('railway', 'NN'), ('traffic', 'NN'), ('operating', 'NN'), ('signal', 'NNS'), ('switch', 'VBP'), ('roll', 'VBG'), ('stock', 'NN'), ('make', 'VBP'), ('train', 'NNS'), ('railway', 'NN'), ('yard', 'NNS'), ('make', 'VBP'), ('train', 'NNS'), ('haul', 'VBG'), ('mine', 'NNS'), ('control', 'NNP'), ('movement', 'NN')]]</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[('roll', 'stock'), ('make', 'train'), ('railway', 'yard'), ('haul', 'mine')]</t>
+          <t>[('signallers', 'shunter'), ('take', 'charge'), ('run', 'control'), ('roll', 'stock'), ('make', 'train'), ('make', 'train'), ('haul', 'mine')]</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[('roll', 'stock'), ('make', 'train'), ('railway', 'yard'), ('haul', 'mine', 'control', 'movement')]</t>
+          <t>[('signallers', 'shunter'), ('take', 'charge', 'safeguard', 'railway', 'freight', 'train'), ('run', 'control', 'movement', 'railway', 'traffic', 'operating', 'signal'), ('switch', 'roll', 'stock'), ('make', 'train', 'railway', 'yard'), ('make', 'train'), ('haul', 'mine', 'control', 'movement')]</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>[('roll', 'stock'), ('make', 'train'), ('railway', 'yard'), ('haul', 'mine')]</t>
+          <t>[('signallers', 'shunter'), ('take', 'charge'), ('run', 'control'), ('roll', 'stock'), ('make', 'train'), ('make', 'train'), ('haul', 'mine')]</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>[('take', 'charge'), ('operate', 'signal')]</t>
+          <t>[('signallers', 'shunter'), ('take', 'charge', 'safeguard', 'railway', 'freight', 'train'), ('run', 'control', 'movement', 'railway', 'traffic', 'operating', 'signal'), ('switch', 'roll', 'stock'), ('make', 'train', 'railway', 'yard'), ('make', 'train'), ('haul', 'mine', 'control', 'movement')]</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>[('take', 'charge'), ('operate', 'signal')]</t>
+          <t>[('run', 'control'), ('roll', 'stock'), ('make', 'train'), ('make', 'train'), ('haul', 'mine')]</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>[('take', 'charge'), ('operate', 'signal')]</t>
+          <t>[('take', 'charge', 'safeguard', 'railway', 'freight', 'train'), ('run', 'control', 'movement', 'railway', 'traffic', 'operating', 'signal'), ('switch', 'roll', 'stock'), ('make', 'train', 'railway', 'yard'), ('make', 'train'), ('haul', 'mine', 'control', 'movement')]</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>[('control', 'the', 'movement'), ('control', 'their', 'movement')]</t>
+          <t>[('run', 'control'), ('roll', 'stock'), ('make', 'train'), ('make', 'train'), ('haul', 'mine')]</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('take', 'charge', 'safeguard', 'railway', 'freight', 'train'), ('run', 'control', 'movement', 'railway', 'traffic', 'operating', 'signal'), ('switch', 'roll', 'stock'), ('make', 'train', 'railway', 'yard'), ('make', 'train'), ('haul', 'mine', 'control', 'movement')]</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>[('control', 'the', 'movement'), ('control', 'their', 'movement')]</t>
+          <t>[('signallers', 'shunter'), ('take', 'charge')]</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>[('signallers', 'shunter')]</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>[('signallers', 'shunter'), ('take', 'charge')]</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>[('signallers', 'shunter')]</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Packing, bottling and labelling machine operators monitor and operate machines which weigh, pack and label various products, or fill different containers with products.</t>
+          <t>packing, bottling and labelling machine operators monitor and operate machines which weigh, pack and label various products, or fill different containers with products.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[('label', 'machine')]</t>
+          <t>[('label', 'various', 'product'), ('fill', 'different', 'container', 'with', 'product'), ('operate', 'machine'), ('fill', 'different', 'container'), ('monitor', 'and', 'operate', 'machine'), ('pack', 'and', 'label', 'various', 'product'), ('pack',)]</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[('bottle', 'label', 'machine', 'operator')]</t>
+          <t>[['packing', 'bottling', 'labelling', 'machine', 'operators', 'monitor', 'operate', 'machines', 'weigh', 'pack', 'label', 'various', 'products', 'fill', 'different', 'containers', 'products']]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[('label', 'machine'), ('monitor', 'operate', 'machine'), ('label', 'various', 'product')]</t>
+          <t>[[('packing', 'VBG'), ('bottling', 'VBG'), ('labelling', 'NN'), ('machine', 'NN'), ('operators', 'NNS'), ('monitor', 'VBP'), ('operate', 'NN'), ('machines', 'NNS'), ('weigh', 'VBP'), ('pack', 'NN'), ('label', 'VB'), ('various', 'JJ'), ('products', 'NNS'), ('fill', 'VBP'), ('different', 'JJ'), ('containers', 'NNS'), ('products', 'NNS')]]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[('operate', 'machine'), ('pack',), ('label', 'various', 'product'), ('fill', 'different', 'container', 'with', 'product'), ('monitor', 'and', 'operate', 'machine'), ('pack', 'and', 'label', 'various', 'product'), ('fill', 'different', 'container', 'with', 'product'), ('monitor', 'and', 'operate', 'machine'), ('fill', 'different', 'container'), ('operate', 'machine'), ('pack', 'and', 'label', 'various', 'product'), ('fill', 'different', 'container', 'with', 'product'), ('fill', 'different', 'container')]</t>
+          <t>[[('pack', 'VBG'), ('bottle', 'VBG'), ('labelling', 'NN'), ('machine', 'NN'), ('operator', 'NNS'), ('monitor', 'VBP'), ('operate', 'NN'), ('machine', 'NNS'), ('weigh', 'VBP'), ('pack', 'NN'), ('label', 'VB'), ('various', 'JJ'), ('product', 'NNS'), ('fill', 'VBP'), ('different', 'JJ'), ('container', 'NNS'), ('product', 'NNS')]]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[('label', 'machine')]</t>
+          <t>[('bottle', 'labelling'), ('monitor', 'operate'), ('weigh', 'pack')]</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[('bottle', 'label', 'machine', 'operator')]</t>
+          <t>[('pack', 'bottle', 'labelling', 'machine', 'operator'), ('monitor', 'operate', 'machine'), ('weigh', 'pack')]</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>[('label', 'machine'), ('monitor', 'operate', 'machine'), ('label', 'various', 'product')]</t>
+          <t>[('bottle', 'labelling'), ('monitor', 'operate'), ('weigh', 'pack'), ('label', 'various', 'product'), ('fill', 'different', 'container')]</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('pack', 'bottle', 'labelling', 'machine', 'operator'), ('monitor', 'operate', 'machine'), ('weigh', 'pack'), ('label', 'various', 'product'), ('fill', 'different', 'container', 'product')]</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('monitor', 'operate'), ('weigh', 'pack')]</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('pack', 'bottle', 'labelling', 'machine', 'operator'), ('monitor', 'operate', 'machine'), ('weigh', 'pack')]</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>[('fill', 'different', 'container', 'with', 'product'), ('pack',), ('fill', 'different', 'container')]</t>
+          <t>[('monitor', 'operate'), ('weigh', 'pack'), ('label', 'various', 'product'), ('fill', 'different', 'container')]</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>[('fill', 'different', 'container', 'with', 'product'), ('pack',), ('fill', 'different', 'container')]</t>
+          <t>[('pack', 'bottle', 'labelling', 'machine', 'operator'), ('monitor', 'operate', 'machine'), ('weigh', 'pack'), ('label', 'various', 'product'), ('fill', 'different', 'container', 'product')]</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>[('fill', 'different', 'container'), ('pack',)]</t>
+          <t>[('bottle', 'labelling')]</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>[('bottle', 'labelling')]</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>[('fill', 'different', 'container'), ('label', 'various', 'product'), ('fill', 'different', 'container', 'with', 'product')]</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>[('fill', 'different', 'container'), ('label', 'various', 'product'), ('fill', 'different', 'container', 'with', 'product')]</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Information and communications technology user support technicians provide technical assistance to users, either directly or by telephone, email or other electronic means, including diagnosing and resolving issues and problems with software, hardware, computer peripheral equipment, networks, databases and the Internet, and providing guidance and support in the deployment, installation and maintenance of systems.</t>
+          <t>information and communications technology user support technicians provide technical assistance to users, either directly or by telephone, email or other electronic means, including diagnosing and resolving issues and problems with software, hardware, computer peripheral equipment, networks, databases and the internet, and providing guidance and support in the deployment, installation and maintenance of systems.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>[('diagnose', 'and', 'resolve', 'issue', 'and', 'problem'), ('provide', 'guidance', 'and', 'support'), ('provide', 'technical', 'assistance'), ('provide', 'technical', 'assistance', 'to', 'user'), ('diagnose', 'and', 'resolve', 'issue')]</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>[['information', 'communications', 'technology', 'user', 'support', 'technicians', 'provide', 'technical', 'assistance', 'users', 'either', 'directly', 'telephone', 'email', 'electronic', 'means', 'including', 'diagnosing', 'resolving', 'issues', 'problems', 'software', 'hardware', 'computer', 'peripheral', 'equipment', 'networks', 'databases', 'internet', 'providing', 'guidance', 'support', 'deployment', 'installation', 'maintenance', 'systems']]</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>[[('information', 'NN'), ('communications', 'NNS'), ('technology', 'NN'), ('user', 'NN'), ('support', 'NN'), ('technicians', 'NNS'), ('provide', 'VBP'), ('technical', 'JJ'), ('assistance', 'NN'), ('users', 'NNS'), ('either', 'CC'), ('directly', 'RB'), ('telephone', 'NN'), ('email', 'NN'), ('electronic', 'JJ'), ('means', 'NNS'), ('including', 'VBG'), ('diagnosing', 'VBG'), ('resolving', 'VBG'), ('issues', 'NNS'), ('problems', 'NNS'), ('software', 'NN'), ('hardware', 'NN'), ('computer', 'NN'), ('peripheral', 'JJ'), ('equipment', 'NN'), ('networks', 'NNS'), ('databases', 'VBZ'), ('internet', 'NN'), ('providing', 'VBG'), ('guidance', 'NN'), ('support', 'NN'), ('deployment', 'NN'), ('installation', 'NN'), ('maintenance', 'NN'), ('systems', 'NNS')]]</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>[[('information', 'NN'), ('communication', 'NNS'), ('technology', 'NN'), ('user', 'NN'), ('support', 'NN'), ('technician', 'NNS'), ('provide', 'VBP'), ('technical', 'JJ'), ('assistance', 'NN'), ('user', 'NNS'), ('either', 'CC'), ('directly', 'RB'), ('telephone', 'NN'), ('email', 'NN'), ('electronic', 'JJ'), ('mean', 'NNS'), ('include', 'VBG'), ('diagnose', 'VBG'), ('resolve', 'VBG'), ('issue', 'NNS'), ('problem', 'NNS'), ('software', 'NN'), ('hardware', 'NN'), ('computer', 'NN'), ('peripheral', 'JJ'), ('equipment', 'NN'), ('network', 'NNS'), ('databases', 'VBZ'), ('internet', 'NN'), ('provide', 'VBG'), ('guidance', 'NN'), ('support', 'NN'), ('deployment', 'NN'), ('installation', 'NN'), ('maintenance', 'NN'), ('system', 'NNS')]]</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>[('resolve', 'issue'), ('databases', 'internet'), ('provide', 'guidance')]</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>[('include', 'diagnose', 'resolve', 'issue', 'problem', 'software', 'hardware', 'computer'), ('databases', 'internet')]</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[('provide', 'technical', 'assistance'), ('resolve', 'issue'), ('databases', 'internet'), ('provide', 'guidance')]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>[('provide', 'technical', 'assistance', 'user'), ('include', 'diagnose', 'resolve', 'issue', 'problem', 'software', 'hardware', 'computer'), ('databases', 'internet')]</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
           <t>[('resolve', 'issue'), ('provide', 'guidance')]</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>[('include', 'diagnose', 'resolve', 'issue', 'problem', 'software'), ('provide', 'guidance', 'support', 'deployment')]</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>[('include', 'diagnose', 'resolve', 'issue', 'problem', 'software', 'hardware', 'computer')]</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>[('provide', 'technical', 'assistance'), ('resolve', 'issue'), ('provide', 'guidance')]</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>[('provide', 'technical', 'assistance', 'to', 'user'), ('diagnose', 'and', 'resolve', 'issue', 'and', 'problem'), ('provide', 'guidance', 'and', 'support'), ('provide', 'technical', 'assistance', 'to', 'user'), ('diagnose', 'and', 'resolve', 'issue', 'and', 'problem'), ('provide', 'guidance', 'and', 'support'), ('provide', 'technical', 'assistance'), ('diagnose', 'and', 'resolve', 'issue'), ('provide', 'technical', 'assistance', 'to', 'user'), ('diagnose', 'and', 'resolve', 'issue'), ('provide', 'technical', 'assistance', 'to', 'user'), ('diagnose', 'and', 'resolve', 'issue', 'and', 'problem'), ('provide', 'guidance', 'and', 'support')]</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>[('resolve', 'issue'), ('provide', 'guidance')]</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>[('include', 'diagnose', 'resolve', 'issue', 'problem', 'software'), ('provide', 'guidance', 'support', 'deployment')]</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>[('provide', 'technical', 'assistance'), ('resolve', 'issue'), ('provide', 'guidance')]</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('provide', 'technical', 'assistance', 'user'), ('include', 'diagnose', 'resolve', 'issue', 'problem', 'software', 'hardware', 'computer')]</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
+        <is>
+          <t>[('databases', 'internet')]</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>[('databases', 'internet')]</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>[('databases', 'internet')]</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>[('databases', 'internet')]</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>[('provide', 'guidance', 'and', 'support'), ('provide', 'technical', 'assistance', 'to', 'user'), ('provide', 'technical', 'assistance')]</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3100,288 +4395,428 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Handicraft workers in wood, basketry and related materials apply traditional techniques such as seasoning, impregnation to prepare wood, straw, rattan, reeds, clay, shells and other materials, and carve, mould, assemble, weave or paint and decorate various articles for personal or household use or for decorative purposes. Basketry weavers, brush makers and related workers select and prepare materials such as bristles, nylon, fibre, bass, whisker and wire to make wicker furniture, brushes and brooms, and weave various kinds of baskets.</t>
+          <t>handicraft workers in wood, basketry and related materials apply traditional techniques such as seasoning, impregnation to prepare wood, straw, rattan, reeds, clay, shells and other materials, and carve, mould, assemble, weave or paint and decorate various articles for personal or household use or for decorative purposes. basketry weavers, brush makers and related workers select and prepare materials such as bristles, nylon, fibre, bass, whisker and wire to make wicker furniture, brushes and brooms, and weave various kinds of baskets.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[('weave', 'paint'), ('make', 'wicker')]</t>
+          <t>[('weave', 'or', 'paint'), ('apply', 'traditional', 'technique'), ('decorate',), ('paint',), ('weave',), ('prepare', 'wood'), ('decorate', 'various', 'article'), ('prepare',), ('select', 'and', 'prepare', 'material')]</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[('weave', 'paint', 'decorate'), ('make', 'wicker', 'furniture')]</t>
+          <t>[['handicraft', 'workers', 'wood', 'basketry', 'related', 'materials', 'apply', 'traditional', 'techniques', 'seasoning', 'impregnation', 'prepare', 'wood', 'straw', 'rattan', 'reeds', 'clay', 'shells', 'materials', 'carve', 'mould', 'assemble', 'weave', 'paint', 'decorate', 'various', 'articles', 'personal', 'household', 'use', 'decorative', 'purposes'], ['basketry', 'weavers', 'brush', 'makers', 'related', 'workers', 'select', 'prepare', 'materials', 'bristles', 'nylon', 'fibre', 'bass', 'whisker', 'wire', 'make', 'wicker', 'furniture', 'brushes', 'brooms', 'weave', 'various', 'kinds', 'baskets']]</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[('apply', 'traditional', 'technique'), ('weave', 'paint'), ('select', 'prepare', 'material'), ('make', 'wicker'), ('weave', 'various', 'kind')]</t>
+          <t>[[('handicraft', 'NN'), ('workers', 'NNS'), ('wood', 'NN'), ('basketry', 'NN'), ('related', 'VBN'), ('materials', 'NNS'), ('apply', 'VBP'), ('traditional', 'JJ'), ('techniques', 'NNS'), ('seasoning', 'VBG'), ('impregnation', 'NN'), ('prepare', 'VBP'), ('wood', 'NN'), ('straw', 'NN'), ('rattan', 'NNP'), ('reeds', 'NNS'), ('clay', 'NN'), ('shells', 'NNS'), ('materials', 'NNS'), ('carve', 'VBP'), ('mould', 'MD'), ('assemble', 'VB'), ('weave', 'NN'), ('paint', 'NN'), ('decorate', 'VB'), ('various', 'JJ'), ('articles', 'NNS'), ('personal', 'JJ'), ('household', 'NN'), ('use', 'VB'), ('decorative', 'JJ'), ('purposes', 'NNS')], [('basketry', 'NN'), ('weavers', 'VBZ'), ('brush', 'NN'), ('makers', 'NNS'), ('related', 'VBN'), ('workers', 'NNS'), ('select', 'JJ'), ('prepare', 'NN'), ('materials', 'NNS'), ('bristles', 'NNS'), ('nylon', 'NNP'), ('fibre', 'NNP'), ('bass', 'NN'), ('whisker', 'NN'), ('wire', 'NN'), ('make', 'VBP'), ('wicker', 'NN'), ('furniture', 'NN'), ('brushes', 'NNS'), ('brooms', 'NNS'), ('weave', 'VBP'), ('various', 'JJ'), ('kinds', 'NNS'), ('baskets', 'NNS')]]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[('prepare',), ('weave',), ('paint',), ('decorate',), ('select', 'and', 'prepare', 'material'), ('prepare', 'wood'), ('weave',), ('paint',), ('decorate', 'various', 'article'), ('select', 'and', 'prepare', 'material'), ('apply', 'traditional', 'technique'), ('prepare', 'wood'), ('select', 'and', 'prepare', 'material'), ('apply', 'traditional', 'technique'), ('decorate', 'various', 'article'), ('select', 'and', 'prepare', 'material'), ('apply', 'traditional', 'technique'), ('weave', 'or', 'paint'), ('decorate', 'various', 'article'), ('select', 'and', 'prepare', 'material')]</t>
+          <t>[[('handicraft', 'NN'), ('worker', 'NNS'), ('wood', 'NN'), ('basketry', 'NN'), ('relate', 'VBN'), ('material', 'NNS'), ('apply', 'VBP'), ('traditional', 'JJ'), ('technique', 'NNS'), ('season', 'VBG'), ('impregnation', 'NN'), ('prepare', 'VBP'), ('wood', 'NN'), ('straw', 'NN'), ('rattan', 'NNP'), ('reed', 'NNS'), ('clay', 'NN'), ('shell', 'NNS'), ('material', 'NNS'), ('carve', 'VBP'), ('mould', 'MD'), ('assemble', 'VB'), ('weave', 'NN'), ('paint', 'NN'), ('decorate', 'VB'), ('various', 'JJ'), ('article', 'NNS'), ('personal', 'JJ'), ('household', 'NN'), ('use', 'VB'), ('decorative', 'JJ'), ('purpose', 'NNS')], [('basketry', 'NN'), ('weavers', 'VBZ'), ('brush', 'NN'), ('maker', 'NNS'), ('relate', 'VBN'), ('worker', 'NNS'), ('select', 'JJ'), ('prepare', 'NN'), ('material', 'NNS'), ('bristle', 'NNS'), ('nylon', 'NNP'), ('fibre', 'NNP'), ('bass', 'NN'), ('whisker', 'NN'), ('wire', 'NN'), ('make', 'VBP'), ('wicker', 'NN'), ('furniture', 'NN'), ('brush', 'NNS'), ('broom', 'NNS'), ('weave', 'VBP'), ('various', 'JJ'), ('kind', 'NNS'), ('basket', 'NNS')]]</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[('weave', 'paint')]</t>
+          <t>[('relate', 'material'), ('season', 'impregnation'), ('prepare', 'wood'), ('assemble', 'weave'), ('weavers', 'brush'), ('relate', 'worker'), ('make', 'wicker')]</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[('weave', 'paint', 'decorate')]</t>
+          <t>[('relate', 'material'), ('season', 'impregnation'), ('prepare', 'wood', 'straw', 'rattan', 'reed', 'clay', 'shell', 'material'), ('assemble', 'weave', 'paint'), ('weavers', 'brush', 'maker'), ('relate', 'worker'), ('make', 'wicker', 'furniture', 'brush', 'broom')]</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[('apply', 'traditional', 'technique'), ('weave', 'paint'), ('select', 'prepare', 'material'), ('weave', 'various', 'kind')]</t>
+          <t>[('relate', 'material'), ('apply', 'traditional', 'technique'), ('season', 'impregnation'), ('prepare', 'wood'), ('assemble', 'weave'), ('decorate', 'various', 'article'), ('use', 'decorative', 'purpose'), ('weavers', 'brush'), ('relate', 'worker'), ('make', 'wicker'), ('weave', 'various', 'kind')]</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>[('make', 'wicker')]</t>
+          <t>[('relate', 'material'), ('apply', 'traditional', 'technique'), ('season', 'impregnation'), ('prepare', 'wood', 'straw', 'rattan', 'reed', 'clay', 'shell', 'material'), ('assemble', 'weave', 'paint'), ('decorate', 'various', 'article'), ('use', 'decorative', 'purpose'), ('weavers', 'brush', 'maker'), ('relate', 'worker'), ('make', 'wicker', 'furniture', 'brush', 'broom'), ('weave', 'various', 'kind', 'basket')]</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>[('make', 'wicker', 'furniture')]</t>
+          <t>[('relate', 'material'), ('prepare', 'wood'), ('assemble', 'weave')]</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>[('make', 'wicker')]</t>
+          <t>[('relate', 'material'), ('prepare', 'wood', 'straw', 'rattan', 'reed', 'clay', 'shell', 'material'), ('assemble', 'weave', 'paint')]</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>[('apply', 'traditional', 'technique'), ('decorate', 'various', 'article'), ('select', 'and', 'prepare', 'material'), ('prepare',), ('decorate',), ('prepare', 'wood')]</t>
+          <t>[('relate', 'material'), ('apply', 'traditional', 'technique'), ('prepare', 'wood'), ('assemble', 'weave'), ('decorate', 'various', 'article'), ('weave', 'various', 'kind')]</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>[('apply', 'traditional', 'technique'), ('select', 'and', 'prepare', 'material'), ('prepare', 'wood'), ('prepare',)]</t>
+          <t>[('relate', 'material'), ('apply', 'traditional', 'technique'), ('prepare', 'wood', 'straw', 'rattan', 'reed', 'clay', 'shell', 'material'), ('assemble', 'weave', 'paint'), ('decorate', 'various', 'article'), ('weave', 'various', 'kind', 'basket')]</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>[('decorate',)]</t>
+          <t>[('season', 'impregnation'), ('weavers', 'brush'), ('relate', 'worker'), ('make', 'wicker')]</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>[('season', 'impregnation'), ('weavers', 'brush', 'maker'), ('relate', 'worker'), ('make', 'wicker', 'furniture', 'brush', 'broom')]</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>[('season', 'impregnation'), ('use', 'decorative', 'purpose'), ('weavers', 'brush'), ('relate', 'worker'), ('make', 'wicker')]</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>[('season', 'impregnation'), ('use', 'decorative', 'purpose'), ('weavers', 'brush', 'maker'), ('relate', 'worker'), ('make', 'wicker', 'furniture', 'brush', 'broom')]</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>[('apply', 'traditional', 'technique'), ('paint',), ('decorate',), ('decorate', 'various', 'article')]</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>[('apply', 'traditional', 'technique'), ('decorate', 'various', 'article'), ('decorate',)]</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>[('paint',)]</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Concrete placers, concrete finishers and related workers erect reinforced concrete frameworks and structures, make forms for moulding concrete, reinforce concrete surfaces, cement openings in walls or casings for wells, finish and repair cement surfaces and carry out terrazzo work.</t>
+          <t>concrete placers, concrete finishers and related workers erect reinforced concrete frameworks and structures, make forms for moulding concrete, reinforce concrete surfaces, cement openings in walls or casings for wells, finish and repair cement surfaces and carry out terrazzo work.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[('make', 'form'), ('mould', 'concrete')]</t>
+          <t>[('carry', 'out', 'terrazzo', 'work'), ('cement', 'opening', 'in', 'wall', 'or', 'casing', 'for', 'well'), ('cement', 'opening'), ('make', 'form', 'for', 'mould', 'concrete'), ('finish', 'and', 'repair', 'cement', 'surface'), ('reinforce', 'concrete', 'surface'), ('make', 'form')]</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[('make', 'form'), ('mould', 'concrete')]</t>
+          <t>[['concrete', 'placers', 'concrete', 'finishers', 'related', 'workers', 'erect', 'reinforced', 'concrete', 'frameworks', 'structures', 'make', 'forms', 'moulding', 'concrete', 'reinforce', 'concrete', 'surfaces', 'cement', 'openings', 'walls', 'casings', 'wells', 'finish', 'repair', 'cement', 'surfaces', 'carry', 'terrazzo', 'work']]</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[('erect', 'reinforced', 'concrete'), ('make', 'form'), ('mould', 'concrete'), ('carry', 'terrazzo', 'work')]</t>
+          <t>[[('concrete', 'JJ'), ('placers', 'NNS'), ('concrete', 'JJ'), ('finishers', 'NNS'), ('related', 'VBN'), ('workers', 'NNS'), ('erect', 'VBP'), ('reinforced', 'VBN'), ('concrete', 'JJ'), ('frameworks', 'NNS'), ('structures', 'NNS'), ('make', 'VBP'), ('forms', 'NNS'), ('moulding', 'VBG'), ('concrete', 'NN'), ('reinforce', 'NN'), ('concrete', 'JJ'), ('surfaces', 'NNS'), ('cement', 'NN'), ('openings', 'NNS'), ('walls', 'NNS'), ('casings', 'NNS'), ('wells', 'NNP'), ('finish', 'VBP'), ('repair', 'NNP'), ('cement', 'NN'), ('surfaces', 'NNS'), ('carry', 'VBP'), ('terrazzo', 'NNP'), ('work', 'NN')]]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[('make', 'form', 'for', 'mould', 'concrete'), ('reinforce', 'concrete', 'surface'), ('cement', 'opening', 'in', 'wall', 'or', 'casing', 'for', 'well'), ('finish', 'and', 'repair', 'cement', 'surface'), ('carry', 'out', 'terrazzo', 'work'), ('make', 'form', 'for', 'mould', 'concrete'), ('reinforce', 'concrete', 'surface'), ('cement', 'opening'), ('finish', 'and', 'repair', 'cement', 'surface'), ('carry', 'out', 'terrazzo', 'work'), ('make', 'form'), ('reinforce', 'concrete', 'surface'), ('finish', 'and', 'repair', 'cement', 'surface'), ('carry', 'out', 'terrazzo', 'work'), ('make', 'form', 'for', 'mould', 'concrete'), ('reinforce', 'concrete', 'surface'), ('finish', 'and', 'repair', 'cement', 'surface'), ('carry', 'out', 'terrazzo', 'work'), ('make', 'form', 'for', 'mould', 'concrete'), ('reinforce', 'concrete', 'surface'), ('cement', 'opening', 'in', 'wall', 'or', 'casing', 'for', 'well'), ('finish', 'and', 'repair', 'cement', 'surface'), ('carry', 'out', 'terrazzo', 'work')]</t>
+          <t>[[('concrete', 'JJ'), ('placer', 'NNS'), ('concrete', 'JJ'), ('finisher', 'NNS'), ('relate', 'VBN'), ('worker', 'NNS'), ('erect', 'VBP'), ('reinforce', 'VBN'), ('concrete', 'JJ'), ('framework', 'NNS'), ('structure', 'NNS'), ('make', 'VBP'), ('form', 'NNS'), ('mould', 'VBG'), ('concrete', 'NN'), ('reinforce', 'NN'), ('concrete', 'JJ'), ('surface', 'NNS'), ('cement', 'NN'), ('opening', 'NNS'), ('wall', 'NNS'), ('casing', 'NNS'), ('well', 'NNP'), ('finish', 'VBP'), ('repair', 'NNP'), ('cement', 'NN'), ('surface', 'NNS'), ('carry', 'VBP'), ('terrazzo', 'NNP'), ('work', 'NN')]]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[('make', 'form'), ('mould', 'concrete')]</t>
+          <t>[('relate', 'worker'), ('make', 'form'), ('mould', 'concrete'), ('finish', 'repair'), ('carry', 'terrazzo')]</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[('make', 'form'), ('mould', 'concrete')]</t>
+          <t>[('relate', 'worker'), ('make', 'form'), ('mould', 'concrete', 'reinforce'), ('finish', 'repair', 'cement', 'surface'), ('carry', 'terrazzo', 'work')]</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[('erect', 'reinforced', 'concrete'), ('make', 'form'), ('mould', 'concrete'), ('carry', 'terrazzo', 'work')]</t>
+          <t>[('relate', 'worker'), ('reinforce', 'concrete', 'framework'), ('make', 'form'), ('mould', 'concrete'), ('finish', 'repair'), ('carry', 'terrazzo')]</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('relate', 'worker'), ('erect', 'reinforce', 'concrete', 'framework', 'structure'), ('make', 'form'), ('mould', 'concrete', 'reinforce'), ('finish', 'repair', 'cement', 'surface'), ('carry', 'terrazzo', 'work')]</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('make', 'form'), ('mould', 'concrete'), ('finish', 'repair'), ('carry', 'terrazzo')]</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('make', 'form'), ('mould', 'concrete', 'reinforce'), ('finish', 'repair', 'cement', 'surface'), ('carry', 'terrazzo', 'work')]</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>[('cement', 'opening', 'in', 'wall', 'or', 'casing', 'for', 'well'), ('carry', 'out', 'terrazzo', 'work'), ('cement', 'opening'), ('finish', 'and', 'repair', 'cement', 'surface')]</t>
+          <t>[('reinforce', 'concrete', 'framework'), ('make', 'form'), ('mould', 'concrete'), ('finish', 'repair'), ('carry', 'terrazzo')]</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>[('cement', 'opening', 'in', 'wall', 'or', 'casing', 'for', 'well'), ('carry', 'out', 'terrazzo', 'work'), ('cement', 'opening'), ('finish', 'and', 'repair', 'cement', 'surface')]</t>
+          <t>[('erect', 'reinforce', 'concrete', 'framework', 'structure'), ('make', 'form'), ('mould', 'concrete', 'reinforce'), ('finish', 'repair', 'cement', 'surface'), ('carry', 'terrazzo', 'work')]</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>[('cement', 'opening', 'in', 'wall', 'or', 'casing', 'for', 'well'), ('cement', 'opening'), ('finish', 'and', 'repair', 'cement', 'surface')]</t>
+          <t>[('relate', 'worker')]</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[('relate', 'worker')]</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>[('relate', 'worker')]</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>[('relate', 'worker')]</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>[('cement', 'opening', 'in', 'wall', 'or', 'casing', 'for', 'well'), ('cement', 'opening')]</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>[('cement', 'opening', 'in', 'wall', 'or', 'casing', 'for', 'well'), ('cement', 'opening')]</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Subsistence fishers, hunters, trappers and gatherers gather wild fruits, medicinal and other plants; hunt and trap animals; catch fish and gather various forms of aquatic life in order to provide food, shelter and, in some cases, a minimum of cash income for themselves and their households.</t>
+          <t>subsistence fishers, hunters, trappers and gatherers gather wild fruits, medicinal and other plants; hunt and trap animals; catch fish and gather various forms of aquatic life in order to provide food, shelter and, in some cases, a minimum of cash income for themselves and their households.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>[('gather', 'wild', 'fruit', 'medicinal', 'and', 'other', 'plant'), ('catch', 'fish'), ('gather', 'various', 'form', 'of', 'aquatic', 'life'), ('hunt', 'and', 'trap', 'animal'), ('gather', 'various', 'form'), ('gather', 'wild', 'fruit'), ('provide', 'food')]</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>[['subsistence', 'fishers', 'hunters', 'trappers', 'gatherers', 'gather', 'wild', 'fruits', 'medicinal', 'plants'], ['hunt', 'trap', 'animals'], ['catch', 'fish', 'gather', 'various', 'forms', 'aquatic', 'life', 'order', 'provide', 'food', 'shelter', 'cases', 'minimum', 'cash', 'income', 'households']]</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>[[('subsistence', 'NN'), ('fishers', 'NNS'), ('hunters', 'NNS'), ('trappers', 'NNS'), ('gatherers', 'NNS'), ('gather', 'VBP'), ('wild', 'JJ'), ('fruits', 'NNS'), ('medicinal', 'JJ'), ('plants', 'NNS')], [('hunt', 'NN'), ('trap', 'NN'), ('animals', 'NNS')], [('catch', 'NN'), ('fish', 'NN'), ('gather', 'VBP'), ('various', 'JJ'), ('forms', 'NNS'), ('aquatic', 'JJ'), ('life', 'NN'), ('order', 'NN'), ('provide', 'VB'), ('food', 'NN'), ('shelter', 'NN'), ('cases', 'VBZ'), ('minimum', 'JJ'), ('cash', 'NN'), ('income', 'NN'), ('households', 'NNS')]]</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>[[('subsistence', 'NN'), ('fisher', 'NNS'), ('hunter', 'NNS'), ('trapper', 'NNS'), ('gatherer', 'NNS'), ('gather', 'VBP'), ('wild', 'JJ'), ('fruit', 'NNS'), ('medicinal', 'JJ'), ('plant', 'NNS')], [('hunt', 'NN'), ('trap', 'NN'), ('animal', 'NNS')], [('catch', 'NN'), ('fish', 'NN'), ('gather', 'VBP'), ('various', 'JJ'), ('form', 'NNS'), ('aquatic', 'JJ'), ('life', 'NN'), ('order', 'NN'), ('provide', 'VB'), ('food', 'NN'), ('shelter', 'NN'), ('case', 'VBZ'), ('minimum', 'JJ'), ('cash', 'NN'), ('income', 'NN'), ('household', 'NNS')]]</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>[('provide', 'food')]</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>[('provide', 'food', 'shelter')]</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[('gather', 'wild', 'fruit'), ('gather', 'various', 'form'), ('provide', 'food'), ('case', 'minimum', 'cash')]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>[('gather', 'wild', 'fruit'), ('gather', 'various', 'form'), ('provide', 'food', 'shelter'), ('case', 'minimum', 'cash', 'income', 'household')]</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>[('provide', 'food')]</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>[('gather', 'wild', 'fruit'), ('provide', 'food')]</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>[('gather', 'wild', 'fruit', 'medicinal', 'and', 'other', 'plant'), ('hunt', 'and', 'trap', 'animal'), ('catch', 'fish'), ('gather', 'various', 'form', 'of', 'aquatic', 'life'), ('provide', 'food'), ('gather', 'wild', 'fruit'), ('hunt', 'and', 'trap', 'animal'), ('catch', 'fish'), ('provide', 'food'), ('gather', 'wild', 'fruit', 'medicinal', 'and', 'other', 'plant'), ('hunt', 'and', 'trap', 'animal'), ('catch', 'fish'), ('gather', 'various', 'form', 'of', 'aquatic', 'life'), ('provide', 'food'), ('gather', 'wild', 'fruit'), ('catch', 'fish'), ('gather', 'various', 'form'), ('gather', 'wild', 'fruit', 'medicinal', 'and', 'other', 'plant'), ('hunt', 'and', 'trap', 'animal'), ('catch', 'fish'), ('gather', 'various', 'form', 'of', 'aquatic', 'life'), ('provide', 'food')]</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>[('provide', 'food')]</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>[('provide', 'food')]</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>[('gather', 'wild', 'fruit'), ('provide', 'food')]</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('provide', 'food', 'shelter')]</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>[('hunt', 'and', 'trap', 'animal'), ('gather', 'various', 'form', 'of', 'aquatic', 'life'), ('catch', 'fish'), ('gather', 'wild', 'fruit', 'medicinal', 'and', 'other', 'plant'), ('gather', 'various', 'form'), ('gather', 'wild', 'fruit')]</t>
+          <t>[('gather', 'wild', 'fruit'), ('gather', 'various', 'form'), ('provide', 'food')]</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>[('hunt', 'and', 'trap', 'animal'), ('gather', 'various', 'form', 'of', 'aquatic', 'life'), ('catch', 'fish'), ('gather', 'wild', 'fruit', 'medicinal', 'and', 'other', 'plant'), ('gather', 'various', 'form'), ('gather', 'wild', 'fruit')]</t>
+          <t>[('gather', 'wild', 'fruit'), ('gather', 'various', 'form'), ('provide', 'food', 'shelter')]</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>[('hunt', 'and', 'trap', 'animal'), ('catch', 'fish')]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>[('case', 'minimum', 'cash')]</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>[('case', 'minimum', 'cash', 'income', 'household')]</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>[('gather', 'wild', 'fruit', 'medicinal', 'and', 'other', 'plant'), ('catch', 'fish'), ('gather', 'various', 'form', 'of', 'aquatic', 'life'), ('hunt', 'and', 'trap', 'animal'), ('gather', 'various', 'form'), ('gather', 'wild', 'fruit')]</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>[('gather', 'wild', 'fruit', 'medicinal', 'and', 'other', 'plant'), ('catch', 'fish'), ('gather', 'various', 'form', 'of', 'aquatic', 'life'), ('hunt', 'and', 'trap', 'animal'), ('gather', 'various', 'form'), ('gather', 'wild', 'fruit')]</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>[('catch', 'fish'), ('hunt', 'and', 'trap', 'animal')]</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>[('catch', 'fish'), ('hunt', 'and', 'trap', 'animal')]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Subsistence mixed crop and livestock farmers grow and harvest field or tree and shrub crops, vegetables and fruit; gather wild fruits and medicinal and other plants; tend or hunt animals; and/or catch fish and gather various forms of aquatic life in order to provide food, shelter and, in some cases, a minimum of cash income for themselves and their households.</t>
+          <t>subsistence mixed crop and livestock farmers grow and harvest field or tree and shrub crops, vegetables and fruit; gather wild fruits and medicinal and other plants; tend or hunt animals; and/or catch fish and gather various forms of aquatic life in order to provide food, shelter and, in some cases, a minimum of cash income for themselves and their households.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[('provide', 'food')]</t>
+          <t>[('catch', 'fish'), ('gather', 'wild', 'fruit', 'and', 'medicinal', 'and', 'other', 'plant'), ('grow', 'and', 'harvest', 'field', 'or', 'tree', 'and', 'shrub', 'crop', 'vegetable', 'and', 'fruit'), ('hunt', 'animal'), ('gather', 'various', 'form', 'of', 'aquatic', 'life'), ('grow', 'and', 'harvest', 'field', 'or', 'tree'), ('tend', 'or', 'hunt', 'animal'), ('gather', 'wild', 'fruit'), ('provide', 'food')]</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[('provide', 'food')]</t>
+          <t>[['subsistence', 'mixed', 'crop', 'livestock', 'farmers', 'grow', 'harvest', 'field', 'tree', 'shrub', 'crops', 'vegetables', 'fruit'], ['gather', 'wild', 'fruits', 'medicinal', 'plants'], ['tend', 'hunt', 'animals'], ['and/or', 'catch', 'fish', 'gather', 'various', 'forms', 'aquatic', 'life', 'order', 'provide', 'food', 'shelter', 'cases', 'minimum', 'cash', 'income', 'households']]</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[('grow', 'harvest', 'field'), ('provide', 'food')]</t>
+          <t>[[('subsistence', 'NNP'), ('mixed', 'JJ'), ('crop', 'NN'), ('livestock', 'NN'), ('farmers', 'NNS'), ('grow', 'VBP'), ('harvest', 'NN'), ('field', 'NN'), ('tree', 'NN'), ('shrub', 'VBD'), ('crops', 'NNS'), ('vegetables', 'VBZ'), ('fruit', 'NN')], [('gather', 'VB'), ('wild', 'JJ'), ('fruits', 'NNS'), ('medicinal', 'JJ'), ('plants', 'NNS')], [('tend', 'VB'), ('hunt', 'NN'), ('animals', 'NNS')], [('and/or', 'CC'), ('catch', 'VB'), ('fish', 'NN'), ('gather', 'VBP'), ('various', 'JJ'), ('forms', 'NNS'), ('aquatic', 'JJ'), ('life', 'NN'), ('order', 'NN'), ('provide', 'VB'), ('food', 'NN'), ('shelter', 'NN'), ('cases', 'VBZ'), ('minimum', 'JJ'), ('cash', 'NN'), ('income', 'NN'), ('households', 'NNS')]]</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[('grow', 'and', 'harvest', 'field', 'or', 'tree', 'and', 'shrub', 'crop', 'vegetable', 'and', 'fruit'), ('gather', 'wild', 'fruit', 'and', 'medicinal', 'and', 'other', 'plant'), ('tend', 'or', 'hunt', 'animal'), ('catch', 'fish'), ('gather', 'various', 'form', 'of', 'aquatic', 'life'), ('provide', 'food'), ('grow', 'and', 'harvest', 'field', 'or', 'tree'), ('gather', 'wild', 'fruit'), ('hunt', 'animal'), ('catch', 'fish'), ('provide', 'food'), ('grow', 'and', 'harvest', 'field', 'or', 'tree', 'and', 'shrub', 'crop', 'vegetable', 'and', 'fruit'), ('gather', 'wild', 'fruit', 'and', 'medicinal', 'and', 'other', 'plant'), ('tend', 'or', 'hunt', 'animal'), ('catch', 'fish'), ('gather', 'various', 'form', 'of', 'aquatic', 'life'), ('provide', 'food'), ('gather', 'wild', 'fruit'), ('tend', 'or', 'hunt', 'animal'), ('catch', 'fish'), ('gather', 'various', 'form', 'of', 'aquatic', 'life'), ('grow', 'and', 'harvest', 'field', 'or', 'tree', 'and', 'shrub', 'crop', 'vegetable', 'and', 'fruit'), ('gather', 'wild', 'fruit', 'and', 'medicinal', 'and', 'other', 'plant'), ('tend', 'or', 'hunt', 'animal'), ('catch', 'fish'), ('gather', 'various', 'form', 'of', 'aquatic', 'life'), ('provide', 'food')]</t>
+          <t>[[('subsistence', 'NNP'), ('mixed', 'JJ'), ('crop', 'NN'), ('livestock', 'NN'), ('farmer', 'NNS'), ('grow', 'VBP'), ('harvest', 'NN'), ('field', 'NN'), ('tree', 'NN'), ('shrub', 'VBD'), ('crop', 'NNS'), ('vegetables', 'VBZ'), ('fruit', 'NN')], [('gather', 'VB'), ('wild', 'JJ'), ('fruit', 'NNS'), ('medicinal', 'JJ'), ('plant', 'NNS')], [('tend', 'VB'), ('hunt', 'NN'), ('animal', 'NNS')], [('and/or', 'CC'), ('catch', 'VB'), ('fish', 'NN'), ('gather', 'VBP'), ('various', 'JJ'), ('form', 'NNS'), ('aquatic', 'JJ'), ('life', 'NN'), ('order', 'NN'), ('provide', 'VB'), ('food', 'NN'), ('shelter', 'NN'), ('case', 'VBZ'), ('minimum', 'JJ'), ('cash', 'NN'), ('income', 'NN'), ('household', 'NNS')]]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[('provide', 'food')]</t>
+          <t>[('grow', 'harvest'), ('shrub', 'crop'), ('vegetables', 'fruit'), ('tend', 'hunt'), ('catch', 'fish'), ('provide', 'food')]</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[('provide', 'food')]</t>
+          <t>[('grow', 'harvest', 'field', 'tree'), ('shrub', 'crop'), ('vegetables', 'fruit'), ('tend', 'hunt', 'animal'), ('catch', 'fish'), ('provide', 'food', 'shelter')]</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[('grow', 'harvest', 'field'), ('provide', 'food')]</t>
+          <t>[('grow', 'harvest'), ('shrub', 'crop'), ('vegetables', 'fruit'), ('gather', 'wild', 'fruit'), ('tend', 'hunt'), ('catch', 'fish'), ('gather', 'various', 'form'), ('provide', 'food'), ('case', 'minimum', 'cash')]</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('grow', 'harvest', 'field', 'tree'), ('shrub', 'crop'), ('vegetables', 'fruit'), ('gather', 'wild', 'fruit'), ('tend', 'hunt', 'animal'), ('catch', 'fish'), ('gather', 'various', 'form'), ('provide', 'food', 'shelter'), ('case', 'minimum', 'cash', 'income', 'household')]</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('grow', 'harvest'), ('shrub', 'crop'), ('vegetables', 'fruit'), ('tend', 'hunt'), ('catch', 'fish'), ('provide', 'food')]</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('grow', 'harvest', 'field', 'tree'), ('shrub', 'crop'), ('vegetables', 'fruit'), ('tend', 'hunt', 'animal'), ('catch', 'fish'), ('provide', 'food', 'shelter')]</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>[('hunt', 'animal'), ('gather', 'various', 'form', 'of', 'aquatic', 'life'), ('catch', 'fish'), ('grow', 'and', 'harvest', 'field', 'or', 'tree', 'and', 'shrub', 'crop', 'vegetable', 'and', 'fruit'), ('gather', 'wild', 'fruit', 'and', 'medicinal', 'and', 'other', 'plant'), ('tend', 'or', 'hunt', 'animal'), ('gather', 'wild', 'fruit'), ('grow', 'and', 'harvest', 'field', 'or', 'tree')]</t>
+          <t>[('grow', 'harvest'), ('shrub', 'crop'), ('vegetables', 'fruit'), ('gather', 'wild', 'fruit'), ('tend', 'hunt'), ('catch', 'fish'), ('gather', 'various', 'form'), ('provide', 'food')]</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>[('hunt', 'animal'), ('gather', 'various', 'form', 'of', 'aquatic', 'life'), ('catch', 'fish'), ('grow', 'and', 'harvest', 'field', 'or', 'tree', 'and', 'shrub', 'crop', 'vegetable', 'and', 'fruit'), ('gather', 'wild', 'fruit', 'and', 'medicinal', 'and', 'other', 'plant'), ('tend', 'or', 'hunt', 'animal'), ('gather', 'wild', 'fruit'), ('grow', 'and', 'harvest', 'field', 'or', 'tree')]</t>
+          <t>[('grow', 'harvest', 'field', 'tree'), ('shrub', 'crop'), ('vegetables', 'fruit'), ('gather', 'wild', 'fruit'), ('tend', 'hunt', 'animal'), ('catch', 'fish'), ('gather', 'various', 'form'), ('provide', 'food', 'shelter')]</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>[('hunt', 'animal'), ('gather', 'various', 'form', 'of', 'aquatic', 'life'), ('catch', 'fish'), ('gather', 'wild', 'fruit', 'and', 'medicinal', 'and', 'other', 'plant'), ('tend', 'or', 'hunt', 'animal'), ('gather', 'wild', 'fruit')]</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>[('case', 'minimum', 'cash')]</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>[('case', 'minimum', 'cash', 'income', 'household')]</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>[('gather', 'various', 'form', 'of', 'aquatic', 'life')]</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>[('gather', 'various', 'form', 'of', 'aquatic', 'life')]</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
